--- a/cyfsgit测试用例.xlsx
+++ b/cyfsgit测试用例.xlsx
@@ -14,7 +14,7 @@
     <sheet name="计划" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">git全量用例!$A$4:$R$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">git全量用例!$A$4:$R$203</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">计划!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="385">
   <si>
     <t>测试用例</t>
   </si>
@@ -298,6 +298,9 @@
 </t>
   </si>
   <si>
+    <t>CYFS_GIT_004</t>
+  </si>
+  <si>
     <t>赖小华</t>
   </si>
   <si>
@@ -325,7 +328,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_008</t>
+    <t>CYFS_GIT_006</t>
   </si>
   <si>
     <t>创建仓库</t>
@@ -351,7 +354,7 @@
 5、创建成功，首页左侧栏展示创建成功的仓库</t>
   </si>
   <si>
-    <t>CYFS_GIT_009</t>
+    <t>CYFS_GIT_007</t>
   </si>
   <si>
     <t>New → 个人身份 →新建私有仓库</t>
@@ -371,7 +374,7 @@
 5、创建成功，首页左侧栏展示创建成功的仓库</t>
   </si>
   <si>
-    <t>CYFS_GIT_010</t>
+    <t>CYFS_GIT_008</t>
   </si>
   <si>
     <t>New → 组织 →新建公开仓库</t>
@@ -392,7 +395,7 @@
 5、创建成功，首页左侧栏展示创建成功的仓库</t>
   </si>
   <si>
-    <t>CYFS_GIT_011</t>
+    <t>CYFS_GIT_009</t>
   </si>
   <si>
     <t>New → 组织 →新建私有仓库</t>
@@ -413,174 +416,134 @@
 5、创建成功，首页左侧栏展示创建成功的仓库</t>
   </si>
   <si>
-    <t>CYFS_GIT_012</t>
+    <t>CYFS_GIT_010</t>
   </si>
   <si>
     <t>New → 创建仓库 → 取消</t>
   </si>
   <si>
-    <t>1、在cyfsgit首页点击左侧栏下的New
-2、检查是否跳转到创建新的仓库页面
-3、输入仓库名字
-4、选择可见性：公开
-5、点击取消</t>
+    <t>1、首页点击new
+2、填入信息
+3、点击取消</t>
   </si>
   <si>
-    <t>1、New可点击
-2、跳转到创建新的仓库页面
-3、输入仓库名字成功
-4、选择公开可见性成功
-5、取消成功，页面跳转到仓库首页</t>
+    <t>1、点击new。跳转到创建仓库表单填写页面
+2、点击取消。仓库未创建，返回首页</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_011</t>
+  </si>
+  <si>
+    <t>"左上角+" → 创建仓库 → 取消</t>
+  </si>
+  <si>
+    <t>1、首页左上角点击“+”
+2、填入信息
+3、点击取消</t>
+  </si>
+  <si>
+    <t>1、点击“+”。跳转到创建仓库表单填写页面
+2、点击取消。仓库未创建，返回首页</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_012</t>
+  </si>
+  <si>
+    <t>表单owner字段检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyfs-git环境正常
+</t>
+  </si>
+  <si>
+    <t>点击owner下拉框</t>
+  </si>
+  <si>
+    <t>列出当前的可选择owner及组织</t>
   </si>
   <si>
     <t>CYFS_GIT_013</t>
   </si>
   <si>
-    <t>"左上角+" → 创建仓库 → 取消</t>
+    <t>表单Name字段检查</t>
   </si>
   <si>
-    <t>1、在cyfsgit首页点击左侧栏下的New
-2、检查是否跳转到创建新的仓库页面
-3、输入仓库名字
-4、选择可见性：私有
-5、点击取消</t>
+    <t>1、不填内容
+2、填入字母数字特殊字符组合</t>
   </si>
   <si>
-    <t>1、New可点击
-2、跳转到创建新的仓库页面
-3、输入仓库名字成功
-4、选择私有可见性成功
-5、取消成功，页面跳转到仓库首页</t>
+    <t>1、不填内容，给出提示“Repository name cannot be empty”
+2、填入字母数字特殊字符组合，成功创建</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_014</t>
+  </si>
+  <si>
+    <t>表单Visibility字段检查</t>
+  </si>
+  <si>
+    <t>1、点击private
+2、点击public</t>
+  </si>
+  <si>
+    <t>单选且必填，一次只能选择一个</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_015</t>
+  </si>
+  <si>
+    <t>表单Description字段检查</t>
+  </si>
+  <si>
+    <t>1、不填内容创建仓库
+2、填入内容少于512个字符，英文数字特殊字符混合
+3、内容超过 512个字符</t>
+  </si>
+  <si>
+    <t>1、不填内容创建成功
+2、内容少于512个字符创建成功
+3、内容不能超512个字符</t>
   </si>
   <si>
     <t>CYFS_GIT_016</t>
   </si>
   <si>
-    <t>创建新的仓库拥有者检查</t>
+    <t>异常类测试</t>
   </si>
   <si>
-    <t>cyfs-git环境正常，在创建新的仓库页面</t>
+    <t>低</t>
   </si>
   <si>
-    <t xml:space="preserve">1、点击创建新的仓库
-2、检查是否有拥有者字段
-3、在新的仓库创建页面检查拥有者是否自动获取并显示在拥有者输入框
-4、检查拥有者是否显示为当前用户名
-</t>
+    <t>同名仓库检查</t>
   </si>
   <si>
-    <t xml:space="preserve">1、跳转到创建新的仓库页面
-2、有拥有者字段
-3、拥有者自动获取并显示在拥有者输入框
-4、拥有者显示为当前用户名
-</t>
+    <t>已存在名为test的仓库</t>
+  </si>
+  <si>
+    <t>创建仓库，name填入test</t>
+  </si>
+  <si>
+    <t>给出提示“The repository test already exists on this account.”</t>
   </si>
   <si>
     <t>CYFS_GIT_017</t>
   </si>
   <si>
-    <t>创建新的仓库仓库名字检查</t>
+    <t>删除仓库</t>
   </si>
   <si>
-    <t xml:space="preserve">1、检查是否存在仓库名字字段
-2、在仓库名字输入中文、英文、数字、空格、特殊符号，检查是否可创建仓库成功
-3、输入已存在仓库的仓库名字创建新的仓库，检查是否可创建成功
-</t>
+    <t>已存在一个仓库</t>
   </si>
   <si>
-    <t xml:space="preserve">1、存在仓库名字字段
-2、在仓库名字输入中文、英文、数字，可创建仓库成功；不可输入空格、特殊符号
-3、输入已存在仓库的仓库名字创建新的仓库，不可创建成功
-</t>
+    <t>1、选择仓库，点击setting-》Repository-》delete</t>
+  </si>
+  <si>
+    <t>1、给出风险提示
+2、确认，删除成功
+3、取消，删除失败</t>
   </si>
   <si>
     <t>CYFS_GIT_018</t>
-  </si>
-  <si>
-    <t>创建新的仓库可见性检查</t>
-  </si>
-  <si>
-    <t>1、检查是否有可见性字段，是否有私有、公开两个可见性选择项
-2、选择私有，提交，检查是否创建出私有仓库
-3、选择公有，提交，检查是否创建出公有仓库</t>
-  </si>
-  <si>
-    <t>1、有私有、公开两个可见性选择项
-2、选择私有，提交，创建出私有仓库，仓库列表该仓库显示为一个锁的标志
-3、选择公有，提交，创建出公有仓库仓库列表该仓库显示为一个公开的标志</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_019</t>
-  </si>
-  <si>
-    <t>创建新的仓库仓库描述检查</t>
-  </si>
-  <si>
-    <t>1、检查是否有仓库描述字段
-2、在仓库描述字段输入中文、英文、数字、空格、特殊符号，检查是否可输入成功
-3、在仓库描述输入511个字符，检查是否可输入成功
-4、在仓库描述输入512个字符，检查是否可输入成功
-5、在仓库描述输入513个字符，检查是否可输入成功
-6、在仓库首页找到该仓库，点击进入查看仓库详情，检查仓库描述显示是否与输入一致</t>
-  </si>
-  <si>
-    <t>1、有仓库描述字段
-2、在仓库描述字段输入中文、英文、数字、空格、特殊符号，可输入成功
-3、在仓库描述输入511个字符，可输入成功
-4、在仓库描述输入512个字符，可输入成功
-5、在仓库描述输入513个字符，不可输入成功
-6、仓库描述显示与输入一致</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_020</t>
-  </si>
-  <si>
-    <t>创建新的仓库.gitignore检查</t>
-  </si>
-  <si>
-    <t>1、检查是否有.gitignore字段
-2、点击.gitignore字段，检查是否下拉框是否有数据可选择
-3、选择每个数据，检查是否可选择成功并创建仓库</t>
-  </si>
-  <si>
-    <t>1、有.gitignore字段
-2、下拉框里有数据可选择
-3、选择每个数据，可选择成功并创建仓库</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_021</t>
-  </si>
-  <si>
-    <t>创建新的仓库授权许可检查</t>
-  </si>
-  <si>
-    <t>1、检查是否有授权许可字段
-2、点击授权许可，检查是否下拉框是否存在授权许可文件可选择
-3、选择授权许可，检查是否可选择成功并创建仓库</t>
-  </si>
-  <si>
-    <t>1、有授权许可字段
-2、点击授权许可，下拉框存在授权许可文件可选择
-3、选择授权许可，可选择成功并创建仓库</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_022</t>
-  </si>
-  <si>
-    <t>创建新的仓库自述文档检查</t>
-  </si>
-  <si>
-    <t>1、检查是否有自述文档字段
-2、点击自述文档，检查是否下拉框是否存在自述文档可选择
-3、选择自述文档，检查是否可选择成功并创建仓库</t>
-  </si>
-  <si>
-    <t>1、有自述文档字段
-2、点击自述文档，下拉框存在自述文档可选择
-3、选择自述文档，可选择成功并创建仓库</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_023</t>
   </si>
   <si>
     <t>创建组织</t>
@@ -603,7 +566,7 @@
 5、提交成功，跳转到发现页</t>
   </si>
   <si>
-    <t>CYFS_GIT_024</t>
+    <t>CYFS_GIT_019</t>
   </si>
   <si>
     <t>创建group-取消</t>
@@ -623,478 +586,172 @@
 5、取消成功，跳转到仓库首页</t>
   </si>
   <si>
-    <t>CYFS_GIT_025</t>
-  </si>
-  <si>
     <t>终端操作</t>
   </si>
   <si>
-    <t>终端-git push init（本地仓库push到实体ood远程公开仓库）</t>
+    <t>本地仓库与远程仓库建立连接</t>
   </si>
   <si>
-    <t xml:space="preserve">1、在远程仓库页面创建新的公开仓库
-2、在本地新建仓库文件夹
-3、右键点击git bash here
-4、在命令行输入
+    <t>1、已存在远程仓库test</t>
+  </si>
+  <si>
+    <t>1、本地新建文件夹test
+2、终端执行
 touch README.md
 git init
 git add README.md
 git commit -m "first commit"
-git remote add origin http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/qw%.git
-git push -u origin master
-5、检查命令行是否显示上传成功6、检查该远程仓库是否显示readme.md文件
+git remote add origin cyfs://voodtest/test
+git push -u origin master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本地仓库的内容成功推送到远程仓库上
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1、公开新仓库创建成功
-2、在本地新建仓库文件夹成功
-3、出现命令行弹窗
-4、命令操作成功
-git push -u origin master
-5、命令行显示上传成功
-6、该远程仓库显示readme.md文件
-</t>
+    <t>clone-》仓库owner clone远程公开仓库</t>
   </si>
   <si>
-    <t>CYFS_GIT_026</t>
+    <t>1、已存在远程仓库test-public</t>
   </si>
   <si>
-    <t>终端-git push init（其他实体ood环境仓库push到实体ood远程公开仓库）</t>
+    <t>clone-》仓库owner clone远程私有仓库</t>
   </si>
   <si>
-    <t xml:space="preserve">1、在远程仓库页面创建公开新的仓库
-2、在另一台实体ood环境下新建仓库文件夹
-3、右键点击git bash here
-4、在命令行输入
-touch README.md
-git init
-git add README.md
-git commit -m "first commit"
-git remote add origin http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/qw%.git
-git push -u origin master
-5、检查命令行是否显示上传成功6、检查该远程仓库是否显示readme.md文件
-</t>
+    <t>1、已存在远程仓库test-private</t>
   </si>
   <si>
-    <t xml:space="preserve">1、公开新仓库创建成功
-2、在另一台实体ood环境下新建仓库文件夹成功
-3、出现命令行弹窗
-4、命令操作成功
-git push -u origin master
-5、命令行显示上传成功
-6、该远程仓库显示readme.md文件
-</t>
+    <t>clone-》仓库成员 clone远程公开仓库</t>
   </si>
   <si>
-    <t>CYFS_GIT_027</t>
+    <t>1、已存在远程仓库test-public
+2、已是该仓库成员</t>
   </si>
   <si>
-    <t>终端-git push init（vood环境仓库push到实体ood远程公开仓库）</t>
+    <t>clone-》仓库成员 clone远程私有仓库</t>
   </si>
   <si>
-    <t xml:space="preserve">1、在远程仓库页面创建公开新的仓库
-2、在另一台vood环境下新建仓库文件夹
-3、右键点击git bash here
-4、在命令行输入
-touch README.md
-git init
-git add README.md
-git commit -m "first commit"
-git remote add origin http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/qw%.git
-git push -u origin master
-5、检查命令行是否显示上传成功6、检查该远程仓库是否显示readme.md文件
-</t>
+    <t>1、已存在远程仓库test-private
+2、已是该仓库成员</t>
   </si>
   <si>
-    <t xml:space="preserve">1、公开新仓库创建成功
-2、在另一台vood环境下新建仓库文件夹成功
-3、出现命令行弹窗
-4、命令操作成功
-git push -u origin master
-5、命令行显示上传成功
-6、该远程仓库显示readme.md文件
-</t>
+    <t>clone-》非仓库成员 clone远程公开仓库</t>
   </si>
   <si>
-    <t>CYFS_GIT_028</t>
+    <t>1、已存在远程仓库test-public
+2、非该仓库成员</t>
   </si>
   <si>
-    <t>终端-git push init（本地仓库push到实体ood远程私有仓库）</t>
+    <t>clone-》非仓库成员 clone远程私有仓库</t>
   </si>
   <si>
-    <t xml:space="preserve">1、在远程仓库页面创建新的私有仓库
-2、在本地新建仓库文件夹
-3、右键点击git bash here
-4、在命令行输入
-touch README.md
-git init
-git add README.md
-git commit -m "first commit"
-git remote add origin http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/qw.git
-git push -u origin master
-5、检查命令行是否显示上传成功6、检查该远程仓库是否显示readme.md文件
-</t>
+    <t>1、已存在远程仓库test-private
+2、非该仓库成员</t>
   </si>
   <si>
-    <t xml:space="preserve">1、私有新仓库创建成功
-2、在本地新建仓库文件夹成功
-3、出现命令行弹窗
-4、命令操作成功
-git push -u origin master
-5、命令行显示上传成功
-6、该远程仓库显示readme.md文件
-</t>
+    <t>CYFS_GIT_020</t>
   </si>
   <si>
-    <t>CYFS_GIT_029</t>
+    <t>push-》仓库owner往远程公开仓库master分支提交内容</t>
   </si>
   <si>
-    <t>终端-git push init（其他实体ood环境仓库push到实体ood远程私有仓库）</t>
+    <t>1、存在远程仓库，仓库为public
+2、本地仓库与远程仓库已建立连接</t>
   </si>
   <si>
-    <t xml:space="preserve">1、在远程仓库页面创建新的私有仓库
-2、在另一台实体ood环境下新建仓库文件夹
-3、右键点击git bash here
-4、在命令行输入
-touch README.md
-git init
-git add README.md
-git commit -m "first commit"
-git remote add origin http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/qw%.git
-git push -u origin master
-5、检查命令行是否显示上传成功6、检查该远程仓库是否显示readme.md文件
-</t>
+    <t>1、本地仓库master分支上修改新增文件
+2、终端上执行
+git add .
+git commit -m "提交描述xxxx"
+git push -u origin master</t>
   </si>
   <si>
-    <t>1、私有新仓库创建成功
-2、在另一台实体ood环境下新建仓库文件夹成功
-3、出现命令行弹窗
-4、关联远程仓库失败，私有仓库非拥有者无法找到</t>
+    <t>1、本地仓库新增内容成功推送到远程仓库上
+2、本地终端执行git log，查看本地多了一条commit提交
+3、远程仓库查看commit，多了一条提交，检查内容与本地一致</t>
   </si>
   <si>
-    <t>CYFS_GIT_030</t>
+    <t>push-》仓库owner往远程公开仓库特性分支提交内容</t>
   </si>
   <si>
-    <t>终端-git push init（vood环境仓库push到实体ood远程私有仓库）</t>
+    <t>1、存在远程仓库，仓库为public
+2、本地仓库与远程仓库已建立连接
+3、远程仓库不存在特性分支feature-A</t>
   </si>
   <si>
-    <t xml:space="preserve">1、在远程仓库页面创建新的私有仓库
-2、在另一台vood环境下新建仓库文件夹
-3、右键点击git bash here
-4、在命令行输入
-touch README.md
-git init
-git add README.md
-git commit -m "first commit"
-git remote add origin http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/qw%.git
-git push -u origin master
-5、检查命令行是否显示上传成功6、检查该远程仓库是否显示readme.md文件
-</t>
+    <t>终端上执行
+git checkout -b feature-A
+echo 3333 &gt; 3.txt
+git add . 
+git commit -m "add branch feature-A"
+git push -u feature-A</t>
   </si>
   <si>
-    <t xml:space="preserve">1、私有新仓库创建成功
-2、在另一台vood环境下新建仓库文件夹成功
-3、出现命令行弹窗
-4、关联远程仓库失败，私有仓库非拥有者无法找到
-</t>
+    <t>1、本地仓库新增内容成功推送到远程仓库上
+2、执行git branch -a，检查本地仓库多了一条分支feature-A
+3、检查远程仓库branch，多了一条分支feature-A
+4、检查远程仓库master分支内容不变</t>
   </si>
   <si>
-    <t>CYFS_GIT_031</t>
+    <t>push-》仓库owner往远程私有仓库master分支提交内容</t>
   </si>
   <si>
-    <t>终端-git push更新文件（本地仓库push到实体ood远程公开仓库）</t>
+    <t>1、存在远程仓库，仓库为private
+2、本地仓库与远程仓库已建立连接</t>
   </si>
   <si>
-    <t xml:space="preserve">1、选择一个公开远程仓库
-2、找到对应的本地仓库
-3、更新仓库里的readme.md文件内容
-4、右键点击git bash here
-5、在命令行输入
-git add README.md
-git commit -m "second commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库readme.md文件内容是否更新
-</t>
+    <t>push-》仓库owner往远程私有仓库特性分支提交内容</t>
   </si>
   <si>
-    <t xml:space="preserve">1、进入该远程公开仓库详情页面
-2、进入对应的本地仓库
-3、对readme.md文件内容修改成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库readme.md文件内容更新
-</t>
+    <t>1、存在远程仓库，仓库为private
+2、本地仓库与远程仓库已建立连接
+3、远程仓库不存在特性分支feature-A</t>
   </si>
   <si>
-    <t>CYFS_GIT_032</t>
+    <t>push-》仓库成员往远程公开仓库master分支提交内容</t>
   </si>
   <si>
-    <t>终端-git push更新文件（其他实体ood环境仓库push到实体ood远程公开仓库）</t>
+    <t>1、已将远程公开仓库clone到本地
+2、已是该仓库的成员</t>
   </si>
   <si>
-    <t xml:space="preserve">1、选择一个公开远程仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库
-3、更新仓库里的readme.md文件内容
-4、右键点击git bash here
-5、在命令行输入
-git add README.md
-git commit -m "second commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库readme.md文件内容是否更新
-</t>
+    <t>1、本地仓库新增内容成功推送到远程仓库上
+2、本地终端执行git log，查看本地多了一条commit提交
+3、远程仓库查看commit多了一条提交，检查内容与本地一致</t>
   </si>
   <si>
-    <t xml:space="preserve">1、进入该远程公开仓库详情页面
-2、另一台实体ood环境下clone该仓库成功，进入对应的本地仓库
-3、对readme.md文件内容修改成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库readme.md文件内容更新
-</t>
+    <t>push-》仓库成员往远程公开仓库特性分支提交内容</t>
   </si>
   <si>
-    <t>CYFS_GIT_033</t>
+    <t>终端上执行
+git fetch origin feature-A:feature-A
+git checkout feature-A
+echo 4444 &gt; 4.txt
+git add . 
+git commit -m "提交描述xxx"
+git push -u feature-A</t>
   </si>
   <si>
-    <t>终端-git push更新文件（vood环境仓库push到实体ood远程公开仓库）</t>
+    <t>1、本地新增的4.txt文件成功推送到远程仓库feature-A分支上
+2、检查远程仓库feature-A内容增加4.txt
+3、commit增加一条与本地内容一致
+4、检查远程仓库master分支内容不变</t>
   </si>
   <si>
-    <t xml:space="preserve">1、选择一个公开远程仓库
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库
-3、更新仓库里的readme.md文件内容
-4、右键点击git bash here
-5、在命令行输入
-git add README.md
-git commit -m "second commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库readme.md文件内容是否更新
-</t>
+    <t>push-》仓库成员往远程私有仓库master分支提交内容</t>
   </si>
   <si>
-    <t xml:space="preserve">1、进入该远程公开仓库详情页面
-2、另一台vood环境下clone该仓库成功，进入对应的本地仓库
-3、对readme.md文件内容修改成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库readme.md文件内容更新
-</t>
+    <t>1、已将远程私有仓库clone到本地
+2、已是该仓库的成员</t>
   </si>
   <si>
-    <t>CYFS_GIT_034</t>
+    <t>push-》仓库成员往远程私有仓库特性分支提交内容</t>
   </si>
   <si>
-    <t>终端-git push更新文件（本地仓库push到实体ood远程私有仓库）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、选择一个私有远程仓库
-2、找到对应的本地仓库
-3、更新仓库里的readme.md文件内容
-4、右键点击git bash here
-5、在命令行输入
-git add README.md
-git commit -m "second commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库readme.md文件内容是否更新
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、进入该远程私有仓库详情页面
-2、进入对应的本地仓库
-3、对readme.md文件内容修改成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库readme.md文件内容更新
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_035</t>
-  </si>
-  <si>
-    <t>终端-git push更新文件（其他实体ood环境仓库push到实体ood远程私有仓库）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、选择一个私有远程仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库
-3、更新仓库里的readme.md文件内容
-4、右键点击git bash here
-5、在命令行输入
-git add README.md
-git commit -m "second commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库readme.md文件内容是否更新
-</t>
-  </si>
-  <si>
-    <t>1、进入该远程私有仓库详情页面
-2、clone远程仓库失败，私有仓库非拥有者无法找到</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_036</t>
-  </si>
-  <si>
-    <t>终端-git push更新文件（vood环境仓库push到实体ood远程私有仓库）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、选择一个私有远程仓库
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库
-3、更新仓库里的readme.md文件内容
-4、右键点击git bash here
-5、在命令行输入
-git add README.md
-git commit -m "second commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库readme.md文件内容是否更新
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、进入该远程私有仓库详情页面
-2、clone远程仓库失败，私有仓库非拥有者无法找到
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_037</t>
-  </si>
-  <si>
-    <t>终端-git push上传新文件（本地仓库push到实体ood远程公开仓库）</t>
-  </si>
-  <si>
-    <t>1、选择一个远程公开仓库
-2、找到对应的本地仓库
-3、在该文件夹增加新文件test.txt
-4、右键点击git bash here
-5、在命令行输入
-git add test.txt
-git commit -m "3 commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库是否增加test.txt文件</t>
-  </si>
-  <si>
-    <t>1、进入该远程公开仓库详情页面
-2、进入对应的本地仓库
-3、在该文件夹增加新文件test.txt成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库增加test.txt文件</t>
+    <t>pull</t>
   </si>
   <si>
     <t>CYFS_GIT_038</t>
-  </si>
-  <si>
-    <t>终端-git push上传新文件（其他实体ood环境仓库push到实体ood远程公开仓库）</t>
-  </si>
-  <si>
-    <t>1、选择一个远程公开仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库
-3、在该文件夹增加新文件test.txt
-4、右键点击git bash here
-5、在命令行输入
-git add test.txt
-git commit -m "3 commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库是否增加test.txt文件</t>
-  </si>
-  <si>
-    <t>1、进入该远程公开仓库详情页面
-2、另一台实体ood环境下clone该仓库成功，进入对应的本地仓库
-3、在该文件夹增加新文件test.txt成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库增加test.txt文件</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_039</t>
-  </si>
-  <si>
-    <t>终端-git push上传新文件（vood环境仓库push到实体ood远程公开仓库）</t>
-  </si>
-  <si>
-    <t>1、选择一个远程公开仓库
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库
-3、在该文件夹增加新文件test.txt
-4、右键点击git bash here
-5、在命令行输入
-git add test.txt
-git commit -m "3 commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库是否增加test.txt文件</t>
-  </si>
-  <si>
-    <t>1、进入该远程公开仓库详情页面
-2、另一台vood环境下clone该仓库成功，进入对应的本地仓库
-3、在该文件夹增加新文件test.txt成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库增加test.txt文件</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_040</t>
-  </si>
-  <si>
-    <t>终端-git push上传新文件（本地仓库push到实体ood远程私有仓库）</t>
-  </si>
-  <si>
-    <t>1、选择一个远程私有仓库
-2、找到对应的本地仓库
-3、在该文件夹增加新文件test.txt
-4、右键点击git bash here
-5、在命令行输入
-git add test.txt
-git commit -m "3 commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库是否增加test.txt文件</t>
-  </si>
-  <si>
-    <t>1、进入该远程私有仓库详情页面
-2、进入对应的本地仓库
-3、在该文件夹增加新文件test.txt成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库增加test.txt文件</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_041</t>
-  </si>
-  <si>
-    <t>终端-git push上传新文件（其他实体ood环境仓库push到实体ood远程私有仓库）</t>
-  </si>
-  <si>
-    <t>1、选择一个远程私有仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库
-3、在该文件夹增加新文件test.txt
-4、右键点击git bash here
-5、在命令行输入
-git add test.txt
-git commit -m "3 commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库是否增加test.txt文件</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_042</t>
-  </si>
-  <si>
-    <t>终端-git push上传新文件（vood环境仓库push到实体ood远程私有仓库）</t>
-  </si>
-  <si>
-    <t>1、选择一个远程私有仓库
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库
-3、在该文件夹增加新文件test.txt
-4、右键点击git bash here
-5、在命令行输入
-git add test.txt
-git commit -m "3 commit"
-git push
-6、检查命令行是否显示上传成功7、检查该远程仓库是否增加test.txt文件</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_043</t>
   </si>
   <si>
     <t>终端-git push一次提交超200M文件（本地仓库push到实体ood远程公开仓库）</t>
@@ -1121,7 +778,7 @@
 7、该远程仓库增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
   </si>
   <si>
-    <t>CYFS_GIT_044</t>
+    <t>CYFS_GIT_039</t>
   </si>
   <si>
     <t>终端-git push一次提交超200M文件（其他实体ood环境仓库push到实体ood远程公开仓库）</t>
@@ -1148,7 +805,7 @@
 7、该远程仓库增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
   </si>
   <si>
-    <t>CYFS_GIT_045</t>
+    <t>CYFS_GIT_040</t>
   </si>
   <si>
     <t>终端-git push一次提交超200M文件（vood环境仓库push到实体ood远程公开仓库）</t>
@@ -1175,7 +832,7 @@
 7、该远程仓库增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
   </si>
   <si>
-    <t>CYFS_GIT_046</t>
+    <t>CYFS_GIT_041</t>
   </si>
   <si>
     <t>终端-git push一次提交超200M文件（本地仓库push到实体ood远程私有仓库）</t>
@@ -1202,7 +859,7 @@
 7、该远程仓库增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
   </si>
   <si>
-    <t>CYFS_GIT_047</t>
+    <t>CYFS_GIT_042</t>
   </si>
   <si>
     <t>终端-git push一次提交超200M文件（其他实体ood环境仓库push到实体ood远程私有仓库）</t>
@@ -1220,7 +877,11 @@
 7、检查该远程仓库是否增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
   </si>
   <si>
-    <t>CYFS_GIT_048</t>
+    <t>1、进入该远程私有仓库详情页面
+2、clone远程仓库失败，私有仓库非拥有者无法找到</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_043</t>
   </si>
   <si>
     <t>终端-git push一次提交超200M文件（vood环境仓库push到实体ood远程私有仓库）</t>
@@ -1238,7 +899,7 @@
 7、检查该远程仓库是否增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
   </si>
   <si>
-    <t>CYFS_GIT_049</t>
+    <t>CYFS_GIT_044</t>
   </si>
   <si>
     <t>终端-git push多次提交超200M文件（本地仓库push到实体ood远程公开仓库）</t>
@@ -1267,7 +928,7 @@
 8、循环步骤34567多次提交累计大小约200M的文件，仓库可正常上传、查看和clone</t>
   </si>
   <si>
-    <t>CYFS_GIT_050</t>
+    <t>CYFS_GIT_045</t>
   </si>
   <si>
     <t>终端-git push多次提交超200M文件（其他实体ood环境仓库push到实体ood远程公开仓库）</t>
@@ -1296,13 +957,13 @@
 8、循环步骤34567多次提交累计大小约200M的文件，仓库可正常上传、查看和clone</t>
   </si>
   <si>
-    <t>CYFS_GIT_051</t>
+    <t>CYFS_GIT_046</t>
   </si>
   <si>
     <t>终端-git push多次提交超200M文件（vood环境仓库push到实体ood远程公开仓库）</t>
   </si>
   <si>
-    <t>CYFS_GIT_052</t>
+    <t>CYFS_GIT_047</t>
   </si>
   <si>
     <t>终端-git push多次提交超200M文件（本地仓库push到实体ood远程私有仓库）</t>
@@ -1331,7 +992,7 @@
 8、循环步骤34567多次提交累计大小约200M的文件，仓库可正常上传、查看和clone</t>
   </si>
   <si>
-    <t>CYFS_GIT_053</t>
+    <t>CYFS_GIT_048</t>
   </si>
   <si>
     <t>终端-git push多次提交超200M文件（其他实体ood环境仓库push到实体ood远程私有仓库）</t>
@@ -1350,13 +1011,13 @@
 8、循环步骤34567多次提交累计大小约200M的文件，检查是否可正常上传、查看和clone</t>
   </si>
   <si>
-    <t>CYFS_GIT_054</t>
+    <t>CYFS_GIT_049</t>
   </si>
   <si>
     <t>终端-git push多次提交超200M文件（vood环境仓库push到实体ood远程私有仓库）</t>
   </si>
   <si>
-    <t>CYFS_GIT_055</t>
+    <t>CYFS_GIT_050</t>
   </si>
   <si>
     <t>终端-git clone-本地仓库clone实体ood远程公开仓库</t>
@@ -1375,7 +1036,7 @@
 4、该文件夹存在所有该地址下的文件，文件正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_056</t>
+    <t>CYFS_GIT_051</t>
   </si>
   <si>
     <t>终端-git clone-其他实体ood环境clone实体ood远程公开仓库</t>
@@ -1388,7 +1049,7 @@
 4、检查该文件夹是否存在所有该地址下的文件，检查文件是否正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_057</t>
+    <t>CYFS_GIT_052</t>
   </si>
   <si>
     <t>终端-git clone-vood环境clone实体ood远程公开仓库</t>
@@ -1401,7 +1062,7 @@
 4、检查该文件夹是否存在所有该地址下的文件，检查文件是否正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_058</t>
+    <t>CYFS_GIT_053</t>
   </si>
   <si>
     <t>终端-git clone-本地仓库clone实体ood远程私有仓库</t>
@@ -1414,7 +1075,7 @@
 4、检查该文件夹是否存在所有该地址下的文件，检查文件是否正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_059</t>
+    <t>CYFS_GIT_054</t>
   </si>
   <si>
     <t>终端-git clone-其他实体ood环境clone实体ood远程私有仓库</t>
@@ -1432,7 +1093,7 @@
 3、clone远程仓库失败，私有仓库非拥有者无法找到</t>
   </si>
   <si>
-    <t>CYFS_GIT_060</t>
+    <t>CYFS_GIT_055</t>
   </si>
   <si>
     <t>终端-git clone-vood环境clone实体ood远程私有仓库</t>
@@ -1445,7 +1106,7 @@
 4、检查该文件夹是否存在所有该地址下的文件，检查文件是否正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_061</t>
+    <t>CYFS_GIT_056</t>
   </si>
   <si>
     <t>终端-git branch创建分支-本地仓库在实体ood远程公开仓库创建分支</t>
@@ -1469,7 +1130,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_062</t>
+    <t>CYFS_GIT_057</t>
   </si>
   <si>
     <t>终端-git branch创建分支-其他实体ood环境在实体ood远程公开仓库创建分支</t>
@@ -1486,7 +1147,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_063</t>
+    <t>CYFS_GIT_058</t>
   </si>
   <si>
     <t>终端-git branch创建分支-vood环境在实体ood远程公开仓库创建分支</t>
@@ -1503,7 +1164,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_064</t>
+    <t>CYFS_GIT_059</t>
   </si>
   <si>
     <t>终端-git branch创建分支-本地仓库在实体ood远程私有仓库创建分支</t>
@@ -1527,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_065</t>
+    <t>CYFS_GIT_060</t>
   </si>
   <si>
     <t>终端-git branch创建分支-其他实体ood环境在实体ood远程私有仓库创建分支</t>
@@ -1544,7 +1205,12 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_066</t>
+    <t xml:space="preserve">1、进入该远程私有仓库详情页面
+2、clone远程仓库失败，私有仓库非拥有者无法找到
+</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_061</t>
   </si>
   <si>
     <t>终端-git branch创建分支-vood环境在实体ood远程私有仓库创建分支</t>
@@ -1561,7 +1227,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_067</t>
+    <t>CYFS_GIT_062</t>
   </si>
   <si>
     <t>终端-git push多分支-本地仓库push到实体ood远程公开仓库</t>
@@ -1592,7 +1258,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_068</t>
+    <t>CYFS_GIT_063</t>
   </si>
   <si>
     <t>终端-git push多分支-其他实体ood环境push到实体ood远程公开仓库</t>
@@ -1614,7 +1280,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_069</t>
+    <t>CYFS_GIT_064</t>
   </si>
   <si>
     <t>终端-git push多分支-vood环境push到实体ood远程公开仓库</t>
@@ -1636,7 +1302,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_070</t>
+    <t>CYFS_GIT_065</t>
   </si>
   <si>
     <t>终端-git push多分支-本地仓库push到实体ood远程私有仓库</t>
@@ -1658,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_071</t>
+    <t>CYFS_GIT_066</t>
   </si>
   <si>
     <t>终端-git push多分支-其他实体ood环境push到实体ood远程私有仓库</t>
@@ -1685,7 +1351,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_072</t>
+    <t>CYFS_GIT_067</t>
   </si>
   <si>
     <t>终端-git push多分支-vood环境push到实体ood远程私有仓库</t>
@@ -1712,7 +1378,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_073</t>
+    <t>CYFS_GIT_068</t>
   </si>
   <si>
     <t>远程仓库操作</t>
@@ -1739,7 +1405,7 @@
 7、进入创建成功的合并请求，接受合并成功</t>
   </si>
   <si>
-    <t>CYFS_GIT_074</t>
+    <t>CYFS_GIT_069</t>
   </si>
   <si>
     <t>git merge-仓库非拥有者merge实体ood远程公开仓库</t>
@@ -1765,7 +1431,7 @@
 8、进入创建成功的合并请求，接受合并成功</t>
   </si>
   <si>
-    <t>CYFS_GIT_075</t>
+    <t>CYFS_GIT_070</t>
   </si>
   <si>
     <t>git merge-仓库拥有者merge实体ood远程私有仓库</t>
@@ -1789,7 +1455,7 @@
 7、进入创建成功的合并请求，接受合并成功</t>
   </si>
   <si>
-    <t>CYFS_GIT_076</t>
+    <t>CYFS_GIT_071</t>
   </si>
   <si>
     <t>git merge-仓库非拥有者merge实体ood远程私有仓库</t>
@@ -1803,7 +1469,7 @@
 2、无私有仓库展示</t>
   </si>
   <si>
-    <t>CYFS_GIT_077</t>
+    <t>CYFS_GIT_072</t>
   </si>
   <si>
     <t>git merge-仓库被投递好友merge实体ood远程私有仓库</t>
@@ -1832,7 +1498,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_078</t>
+    <t>CYFS_GIT_073</t>
   </si>
   <si>
     <t>git repo home-文件</t>
@@ -1854,7 +1520,7 @@
 6、所有分支展示正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_079</t>
+    <t>CYFS_GIT_074</t>
   </si>
   <si>
     <t>git repo home-issue</t>
@@ -1872,7 +1538,7 @@
 4、issue的open、close状态正确，对应状态数量正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_080</t>
+    <t>CYFS_GIT_075</t>
   </si>
   <si>
     <t>git repo home-合并请求</t>
@@ -1890,7 +1556,7 @@
 4、合并请求的内容正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_081</t>
+    <t>CYFS_GIT_076</t>
   </si>
   <si>
     <t>git repo home-设置</t>
@@ -1908,7 +1574,7 @@
 4、仓库管理下展示删除仓库按钮</t>
   </si>
   <si>
-    <t>CYFS_GIT_082</t>
+    <t>CYFS_GIT_077</t>
   </si>
   <si>
     <t>设置-仓库投递</t>
@@ -1928,7 +1594,7 @@
 5、仓库id、文件、issue、合并请求信息正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_083</t>
+    <t>CYFS_GIT_078</t>
   </si>
   <si>
     <t>设置-仓库管理</t>
@@ -1940,7 +1606,7 @@
 4、检查该仓库是否被删除</t>
   </si>
   <si>
-    <t>CYFS_GIT_084</t>
+    <t>CYFS_GIT_079</t>
   </si>
   <si>
     <t>Git commit 列表</t>
@@ -1962,13 +1628,13 @@
 6、commit列表数量正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_085</t>
+    <t>CYFS_GIT_080</t>
   </si>
   <si>
     <t>查看commit</t>
   </si>
   <si>
-    <t>CYFS_GIT_086</t>
+    <t>CYFS_GIT_081</t>
   </si>
   <si>
     <t>打赏commit的objectId</t>
@@ -1990,7 +1656,7 @@
 6、复制二维码id到cyfs浏览器对象详情，打赏金额更新，金额正确</t>
   </si>
   <si>
-    <t>CYFS_GIT_087</t>
+    <t>CYFS_GIT_082</t>
   </si>
   <si>
     <t>Git issue 列表</t>
@@ -2010,7 +1676,7 @@
 5、在issue列表展示所有的issue</t>
   </si>
   <si>
-    <t>CYFS_GIT_088</t>
+    <t>CYFS_GIT_083</t>
   </si>
   <si>
     <t>拥有者创建issue</t>
@@ -2032,7 +1698,7 @@
 6、提示创建成功并自动跳转到issue页</t>
   </si>
   <si>
-    <t>CYFS_GIT_089</t>
+    <t>CYFS_GIT_084</t>
   </si>
   <si>
     <t>非拥有者创建issue</t>
@@ -2054,7 +1720,7 @@
 6、提示创建成功并自动跳转到issue页</t>
   </si>
   <si>
-    <t>CYFS_GIT_090</t>
+    <t>CYFS_GIT_085</t>
   </si>
   <si>
     <t>合并请求列表</t>
@@ -2074,7 +1740,7 @@
 5、在合并请求列表展示所有的合并请求</t>
   </si>
   <si>
-    <t>CYFS_GIT_091</t>
+    <t>CYFS_GIT_086</t>
   </si>
   <si>
     <t>拥有者创建合并请求</t>
@@ -2098,7 +1764,7 @@
 7、显示已合并</t>
   </si>
   <si>
-    <t>CYFS_GIT_092</t>
+    <t>CYFS_GIT_087</t>
   </si>
   <si>
     <t>非拥有者创建合并请求</t>
@@ -2122,7 +1788,7 @@
 7、显示已合并</t>
   </si>
   <si>
-    <t>CYFS_GIT_093</t>
+    <t>CYFS_GIT_088</t>
   </si>
   <si>
     <t>添加新文件后创建合并请求：实体ood远程仓库-本地仓库</t>
@@ -2152,7 +1818,7 @@
 10、合并成功</t>
   </si>
   <si>
-    <t>CYFS_GIT_094</t>
+    <t>CYFS_GIT_089</t>
   </si>
   <si>
     <t>添加新文件后创建合并请求：实体ood1远程仓库-在实体ood2远程仓库和本地仓库操作</t>
@@ -2182,7 +1848,7 @@
 10、合并成功</t>
   </si>
   <si>
-    <t>CYFS_GIT_095</t>
+    <t>CYFS_GIT_090</t>
   </si>
   <si>
     <t>添加新文件后创建合并请求：实体ood远程仓库-vood远程仓库和本地仓库操作</t>
@@ -2200,7 +1866,7 @@
 10、点击提交合并</t>
   </si>
   <si>
-    <t>CYFS_GIT_096</t>
+    <t>CYFS_GIT_091</t>
   </si>
   <si>
     <t>文件内容修改后创建合并请求：实体ood远程仓库-本地仓库</t>
@@ -2230,7 +1896,7 @@
 10、合并成功</t>
   </si>
   <si>
-    <t>CYFS_GIT_097</t>
+    <t>CYFS_GIT_092</t>
   </si>
   <si>
     <t>文件内容修改后创建合并请求：实体ood1远程仓库-在实体ood2远程仓库和本地仓库操作</t>
@@ -2248,7 +1914,7 @@
 10、点击提交合并</t>
   </si>
   <si>
-    <t>CYFS_GIT_098</t>
+    <t>CYFS_GIT_093</t>
   </si>
   <si>
     <t>文件内容修改后创建合并请求：实体ood远程仓库-vood远程仓库和本地仓库操作</t>
@@ -2266,7 +1932,7 @@
 10、点击提交合并</t>
   </si>
   <si>
-    <t>CYFS_GIT_099</t>
+    <t>CYFS_GIT_094</t>
   </si>
   <si>
     <t>终端-实体oodGit clone 其他用户（实体ood）的私有仓库</t>
@@ -2284,7 +1950,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_100</t>
+    <t>CYFS_GIT_095</t>
   </si>
   <si>
     <t>终端-实体oodGit clone 其他用户（vood）的私有仓库</t>
@@ -2296,7 +1962,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_101</t>
+    <t>CYFS_GIT_096</t>
   </si>
   <si>
     <t>终端-实体ood Git push其他用户（实体ood）的私有仓库</t>
@@ -2317,7 +1983,7 @@
 </t>
   </si>
   <si>
-    <t>CYFS_GIT_102</t>
+    <t>CYFS_GIT_097</t>
   </si>
   <si>
     <t>终端-实体ood Git push 其他用户（vood）的私有仓库</t>
@@ -2369,9 +2035,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode=";;;"/>
     <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
@@ -3033,7 +2699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3042,10 +2708,10 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3934,14 +3600,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q935"/>
+  <dimension ref="A1:Q930"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4211,7 +3877,9 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:17">
-      <c r="A8" s="36"/>
+      <c r="A8" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="B8" s="37" t="s">
         <v>26</v>
       </c>
@@ -4222,16 +3890,16 @@
         <v>28</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="39">
         <v>44826</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="40" t="s">
@@ -4249,7 +3917,7 @@
     </row>
     <row r="9" ht="41" customHeight="1" spans="1:17">
       <c r="A9" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>26</v>
@@ -4267,17 +3935,17 @@
         <v>44441</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -4288,10 +3956,10 @@
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:17">
       <c r="A10" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>27</v>
@@ -4300,23 +3968,23 @@
         <v>28</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="39">
         <v>44826</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" s="36"/>
       <c r="J10" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
@@ -4327,10 +3995,10 @@
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:17">
       <c r="A11" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>27</v>
@@ -4339,23 +4007,23 @@
         <v>28</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="39">
         <v>44826</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
@@ -4366,10 +4034,10 @@
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:17">
       <c r="A12" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>27</v>
@@ -4378,23 +4046,23 @@
         <v>28</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="39">
         <v>44826</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
@@ -4405,10 +4073,10 @@
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:17">
       <c r="A13" s="36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>27</v>
@@ -4417,23 +4085,23 @@
         <v>28</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="39">
         <v>44826</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I13" s="36"/>
       <c r="J13" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
@@ -4444,10 +4112,10 @@
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:17">
       <c r="A14" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>27</v>
@@ -4462,17 +4130,17 @@
         <v>44447</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
@@ -4483,10 +4151,10 @@
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:17">
       <c r="A15" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>27</v>
@@ -4501,17 +4169,17 @@
         <v>44454</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" s="36"/>
       <c r="J15" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
@@ -4521,9 +4189,11 @@
       <c r="Q15" s="40"/>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:17">
-      <c r="A16" s="36"/>
+      <c r="A16" s="36" t="s">
+        <v>79</v>
+      </c>
       <c r="B16" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>27</v>
@@ -4532,16 +4202,24 @@
         <v>35</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="39">
         <v>44826</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="40"/>
+      <c r="G16" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="I16" s="36"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="J16" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
       <c r="N16" s="43"/>
@@ -4549,10 +4227,12 @@
       <c r="P16" s="43"/>
       <c r="Q16" s="40"/>
     </row>
-    <row r="17" ht="39" customHeight="1" spans="1:17">
-      <c r="A17" s="36"/>
+    <row r="17" ht="65" customHeight="1" spans="1:17">
+      <c r="A17" s="36" t="s">
+        <v>84</v>
+      </c>
       <c r="B17" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>27</v>
@@ -4561,16 +4241,24 @@
         <v>35</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="39">
         <v>44826</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="40"/>
+      <c r="G17" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="I17" s="36"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="J17" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
       <c r="N17" s="43"/>
@@ -4580,35 +4268,35 @@
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:17">
       <c r="A18" s="36" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F18" s="39">
-        <v>44448</v>
+        <v>44830</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="40" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
@@ -4617,37 +4305,37 @@
       <c r="P18" s="43"/>
       <c r="Q18" s="40"/>
     </row>
-    <row r="19" ht="39" customHeight="1" spans="1:17">
+    <row r="19" ht="66" customHeight="1" spans="1:17">
       <c r="A19" s="36" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F19" s="39">
-        <v>44448</v>
+        <v>44830</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="40" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
@@ -4656,37 +4344,37 @@
       <c r="P19" s="43"/>
       <c r="Q19" s="40"/>
     </row>
-    <row r="20" ht="39" customHeight="1" spans="1:17">
+    <row r="20" ht="66" customHeight="1" spans="1:17">
       <c r="A20" s="36" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F20" s="39">
-        <v>44448</v>
+        <v>44830</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I20" s="36"/>
       <c r="J20" s="40" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K20" s="40" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
@@ -4695,12 +4383,12 @@
       <c r="P20" s="43"/>
       <c r="Q20" s="40"/>
     </row>
-    <row r="21" ht="39" customHeight="1" spans="1:17">
+    <row r="21" ht="66" customHeight="1" spans="1:17">
       <c r="A21" s="36" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>27</v>
@@ -4709,23 +4397,23 @@
         <v>28</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F21" s="39">
-        <v>44448</v>
+        <v>44830</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="I21" s="36"/>
       <c r="J21" s="40" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
@@ -4736,10 +4424,10 @@
     </row>
     <row r="22" ht="39" customHeight="1" spans="1:17">
       <c r="A22" s="36" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>27</v>
@@ -4754,17 +4442,17 @@
         <v>44448</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I22" s="36"/>
       <c r="J22" s="40" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
@@ -4773,12 +4461,12 @@
       <c r="P22" s="43"/>
       <c r="Q22" s="40"/>
     </row>
-    <row r="23" ht="39" customHeight="1" spans="1:17">
+    <row r="23" ht="48" customHeight="1" spans="1:17">
       <c r="A23" s="36" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>27</v>
@@ -4793,17 +4481,17 @@
         <v>44448</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="40" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K23" s="40" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
@@ -4812,12 +4500,10 @@
       <c r="P23" s="43"/>
       <c r="Q23" s="40"/>
     </row>
-    <row r="24" ht="39" customHeight="1" spans="1:17">
-      <c r="A24" s="36" t="s">
-        <v>103</v>
-      </c>
+    <row r="24" ht="73" customHeight="1" spans="1:17">
+      <c r="A24" s="36"/>
       <c r="B24" s="37" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>27</v>
@@ -4826,23 +4512,23 @@
         <v>28</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F24" s="39">
-        <v>44448</v>
+        <v>44830</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="40" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K24" s="40" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
@@ -4851,12 +4537,10 @@
       <c r="P24" s="43"/>
       <c r="Q24" s="40"/>
     </row>
-    <row r="25" ht="39" customHeight="1" spans="1:17">
-      <c r="A25" s="36" t="s">
-        <v>107</v>
-      </c>
+    <row r="25" ht="73" customHeight="1" spans="1:17">
+      <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>27</v>
@@ -4865,24 +4549,20 @@
         <v>28</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F25" s="39">
-        <v>44448</v>
+        <v>44830</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="I25" s="36"/>
-      <c r="J25" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="40" t="s">
-        <v>111</v>
-      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
       <c r="N25" s="43"/>
@@ -4890,12 +4570,10 @@
       <c r="P25" s="43"/>
       <c r="Q25" s="40"/>
     </row>
-    <row r="26" ht="39" customHeight="1" spans="1:17">
-      <c r="A26" s="36" t="s">
-        <v>112</v>
-      </c>
+    <row r="26" ht="73" customHeight="1" spans="1:17">
+      <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>27</v>
@@ -4904,24 +4582,20 @@
         <v>28</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F26" s="39">
-        <v>44448</v>
+        <v>44830</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="I26" s="36"/>
-      <c r="J26" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="40" t="s">
-        <v>115</v>
-      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
       <c r="N26" s="43"/>
@@ -4929,10 +4603,8 @@
       <c r="P26" s="43"/>
       <c r="Q26" s="40"/>
     </row>
-    <row r="27" ht="39" customHeight="1" spans="1:17">
-      <c r="A27" s="36" t="s">
-        <v>116</v>
-      </c>
+    <row r="27" ht="73" customHeight="1" spans="1:17">
+      <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>117</v>
       </c>
@@ -4943,24 +4615,20 @@
         <v>28</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F27" s="39">
-        <v>44448</v>
+        <v>44830</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="I27" s="36"/>
-      <c r="J27" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="43"/>
@@ -4968,10 +4636,8 @@
       <c r="P27" s="43"/>
       <c r="Q27" s="40"/>
     </row>
-    <row r="28" ht="39" customHeight="1" spans="1:17">
-      <c r="A28" s="36" t="s">
-        <v>121</v>
-      </c>
+    <row r="28" ht="73" customHeight="1" spans="1:17">
+      <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>117</v>
       </c>
@@ -4982,24 +4648,20 @@
         <v>28</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F28" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="I28" s="36"/>
-      <c r="J28" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="K28" s="40" t="s">
-        <v>124</v>
-      </c>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="40"/>
       <c r="M28" s="40"/>
       <c r="N28" s="43"/>
@@ -5007,10 +4669,8 @@
       <c r="P28" s="43"/>
       <c r="Q28" s="40"/>
     </row>
-    <row r="29" ht="39" customHeight="1" spans="1:17">
-      <c r="A29" s="36" t="s">
-        <v>125</v>
-      </c>
+    <row r="29" ht="73" customHeight="1" spans="1:17">
+      <c r="A29" s="36"/>
       <c r="B29" s="37" t="s">
         <v>117</v>
       </c>
@@ -5021,24 +4681,20 @@
         <v>28</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F29" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="I29" s="36"/>
-      <c r="J29" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" s="40" t="s">
-        <v>128</v>
-      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="40"/>
       <c r="M29" s="40"/>
       <c r="N29" s="43"/>
@@ -5046,38 +4702,32 @@
       <c r="P29" s="43"/>
       <c r="Q29" s="40"/>
     </row>
-    <row r="30" ht="39" customHeight="1" spans="1:17">
-      <c r="A30" s="36" t="s">
-        <v>129</v>
-      </c>
+    <row r="30" ht="73" customHeight="1" spans="1:17">
+      <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F30" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="J30" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" s="40" t="s">
-        <v>132</v>
-      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
       <c r="L30" s="40"/>
       <c r="M30" s="40"/>
       <c r="N30" s="43"/>
@@ -5085,9 +4735,9 @@
       <c r="P30" s="43"/>
       <c r="Q30" s="40"/>
     </row>
-    <row r="31" ht="39" customHeight="1" spans="1:17">
+    <row r="31" ht="80" customHeight="1" spans="1:17">
       <c r="A31" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>117</v>
@@ -5099,23 +4749,23 @@
         <v>28</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F31" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K31" s="40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
@@ -5124,10 +4774,8 @@
       <c r="P31" s="43"/>
       <c r="Q31" s="40"/>
     </row>
-    <row r="32" ht="39" customHeight="1" spans="1:17">
-      <c r="A32" s="36" t="s">
-        <v>137</v>
-      </c>
+    <row r="32" ht="98" customHeight="1" spans="1:17">
+      <c r="A32" s="36"/>
       <c r="B32" s="37" t="s">
         <v>117</v>
       </c>
@@ -5138,23 +4786,23 @@
         <v>28</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F32" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K32" s="40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L32" s="40"/>
       <c r="M32" s="40"/>
@@ -5163,37 +4811,31 @@
       <c r="P32" s="43"/>
       <c r="Q32" s="40"/>
     </row>
-    <row r="33" ht="39" customHeight="1" spans="1:17">
-      <c r="A33" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>27</v>
-      </c>
+    <row r="33" ht="98" customHeight="1" spans="1:17">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="38" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F33" s="39">
-        <v>44448</v>
+        <v>44830</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="40" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K33" s="40" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L33" s="40"/>
       <c r="M33" s="40"/>
@@ -5202,37 +4844,31 @@
       <c r="P33" s="43"/>
       <c r="Q33" s="40"/>
     </row>
-    <row r="34" ht="39" customHeight="1" spans="1:17">
-      <c r="A34" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>27</v>
-      </c>
+    <row r="34" ht="98" customHeight="1" spans="1:17">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="38" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F34" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G34" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="40" t="s">
         <v>146</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>55</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="40" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K34" s="40" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="40"/>
@@ -5241,37 +4877,31 @@
       <c r="P34" s="43"/>
       <c r="Q34" s="40"/>
     </row>
-    <row r="35" ht="39" customHeight="1" spans="1:17">
-      <c r="A35" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>27</v>
-      </c>
+    <row r="35" ht="98" customHeight="1" spans="1:17">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="38" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F35" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="40" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K35" s="40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L35" s="40"/>
       <c r="M35" s="40"/>
@@ -5280,37 +4910,31 @@
       <c r="P35" s="43"/>
       <c r="Q35" s="40"/>
     </row>
-    <row r="36" ht="39" customHeight="1" spans="1:17">
-      <c r="A36" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>27</v>
-      </c>
+    <row r="36" ht="98" customHeight="1" spans="1:17">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="38" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F36" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K36" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
@@ -5319,37 +4943,31 @@
       <c r="P36" s="43"/>
       <c r="Q36" s="40"/>
     </row>
-    <row r="37" ht="39" customHeight="1" spans="1:17">
-      <c r="A37" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>27</v>
-      </c>
+    <row r="37" ht="98" customHeight="1" spans="1:17">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="38" t="s">
         <v>28</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F37" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="40" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K37" s="40" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="40"/>
@@ -5358,37 +4976,31 @@
       <c r="P37" s="43"/>
       <c r="Q37" s="40"/>
     </row>
-    <row r="38" ht="39" customHeight="1" spans="1:17">
-      <c r="A38" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>27</v>
-      </c>
+    <row r="38" ht="98" customHeight="1" spans="1:17">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="38" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F38" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="40" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="K38" s="40" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
@@ -5397,38 +5009,20 @@
       <c r="P38" s="43"/>
       <c r="Q38" s="40"/>
     </row>
-    <row r="39" ht="39" customHeight="1" spans="1:17">
-      <c r="A39" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="39">
-        <v>44454</v>
-      </c>
+    <row r="39" ht="98" customHeight="1" spans="1:17">
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>55</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H39" s="40"/>
       <c r="I39" s="36"/>
-      <c r="J39" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="K39" s="40" t="s">
-        <v>168</v>
-      </c>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
       <c r="N39" s="43"/>
@@ -5438,7 +5032,7 @@
     </row>
     <row r="40" ht="39" customHeight="1" spans="1:17">
       <c r="A40" s="36" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>117</v>
@@ -5456,17 +5050,17 @@
         <v>44454</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="40" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="K40" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
@@ -5477,7 +5071,7 @@
     </row>
     <row r="41" ht="39" customHeight="1" spans="1:17">
       <c r="A41" s="36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>117</v>
@@ -5495,17 +5089,17 @@
         <v>44454</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I41" s="36"/>
       <c r="J41" s="40" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K41" s="40" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
@@ -5516,7 +5110,7 @@
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:17">
       <c r="A42" s="36" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>117</v>
@@ -5534,17 +5128,17 @@
         <v>44454</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I42" s="36"/>
       <c r="J42" s="40" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K42" s="40" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
@@ -5555,7 +5149,7 @@
     </row>
     <row r="43" ht="39" customHeight="1" spans="1:17">
       <c r="A43" s="36" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>117</v>
@@ -5573,17 +5167,17 @@
         <v>44454</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="40" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K43" s="40" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
@@ -5594,7 +5188,7 @@
     </row>
     <row r="44" ht="39" customHeight="1" spans="1:17">
       <c r="A44" s="36" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>117</v>
@@ -5612,17 +5206,17 @@
         <v>44454</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I44" s="36"/>
       <c r="J44" s="40" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="K44" s="40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
@@ -5633,7 +5227,7 @@
     </row>
     <row r="45" ht="39" customHeight="1" spans="1:17">
       <c r="A45" s="36" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B45" s="37" t="s">
         <v>117</v>
@@ -5651,17 +5245,17 @@
         <v>44454</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I45" s="36"/>
       <c r="J45" s="40" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K45" s="40" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
@@ -5672,7 +5266,7 @@
     </row>
     <row r="46" ht="39" customHeight="1" spans="1:17">
       <c r="A46" s="36" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B46" s="37" t="s">
         <v>117</v>
@@ -5690,17 +5284,17 @@
         <v>44454</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I46" s="36"/>
       <c r="J46" s="40" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K46" s="40" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
@@ -5711,7 +5305,7 @@
     </row>
     <row r="47" ht="39" customHeight="1" spans="1:17">
       <c r="A47" s="36" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B47" s="37" t="s">
         <v>117</v>
@@ -5729,17 +5323,17 @@
         <v>44454</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I47" s="36"/>
       <c r="J47" s="40" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="L47" s="40"/>
       <c r="M47" s="40"/>
@@ -5750,7 +5344,7 @@
     </row>
     <row r="48" ht="39" customHeight="1" spans="1:17">
       <c r="A48" s="36" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B48" s="37" t="s">
         <v>117</v>
@@ -5768,17 +5362,17 @@
         <v>44454</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I48" s="36"/>
       <c r="J48" s="40" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L48" s="40"/>
       <c r="M48" s="40"/>
@@ -5789,7 +5383,7 @@
     </row>
     <row r="49" ht="39" customHeight="1" spans="1:17">
       <c r="A49" s="36" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B49" s="37" t="s">
         <v>117</v>
@@ -5807,17 +5401,17 @@
         <v>44454</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I49" s="36"/>
       <c r="J49" s="40" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L49" s="40"/>
       <c r="M49" s="40"/>
@@ -5828,7 +5422,7 @@
     </row>
     <row r="50" ht="39" customHeight="1" spans="1:17">
       <c r="A50" s="36" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B50" s="37" t="s">
         <v>117</v>
@@ -5846,17 +5440,17 @@
         <v>44454</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I50" s="36"/>
       <c r="J50" s="40" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K50" s="40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L50" s="40"/>
       <c r="M50" s="40"/>
@@ -5867,7 +5461,7 @@
     </row>
     <row r="51" ht="39" customHeight="1" spans="1:17">
       <c r="A51" s="36" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B51" s="37" t="s">
         <v>117</v>
@@ -5885,17 +5479,17 @@
         <v>44454</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I51" s="36"/>
       <c r="J51" s="40" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="K51" s="40" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="L51" s="40"/>
       <c r="M51" s="40"/>
@@ -5906,7 +5500,7 @@
     </row>
     <row r="52" ht="39" customHeight="1" spans="1:17">
       <c r="A52" s="36" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B52" s="37" t="s">
         <v>117</v>
@@ -5921,20 +5515,20 @@
         <v>29</v>
       </c>
       <c r="F52" s="39">
-        <v>44454</v>
+        <v>44448</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I52" s="36"/>
       <c r="J52" s="40" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K52" s="40" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="L52" s="40"/>
       <c r="M52" s="40"/>
@@ -5945,7 +5539,7 @@
     </row>
     <row r="53" ht="39" customHeight="1" spans="1:17">
       <c r="A53" s="36" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B53" s="37" t="s">
         <v>117</v>
@@ -5963,17 +5557,17 @@
         <v>44454</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I53" s="36"/>
       <c r="J53" s="40" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K53" s="40" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="L53" s="40"/>
       <c r="M53" s="40"/>
@@ -5984,7 +5578,7 @@
     </row>
     <row r="54" ht="39" customHeight="1" spans="1:17">
       <c r="A54" s="36" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B54" s="37" t="s">
         <v>117</v>
@@ -6002,17 +5596,17 @@
         <v>44454</v>
       </c>
       <c r="G54" s="41" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I54" s="36"/>
       <c r="J54" s="40" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="K54" s="40" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="L54" s="40"/>
       <c r="M54" s="40"/>
@@ -6023,7 +5617,7 @@
     </row>
     <row r="55" ht="39" customHeight="1" spans="1:17">
       <c r="A55" s="36" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B55" s="37" t="s">
         <v>117</v>
@@ -6041,17 +5635,17 @@
         <v>44454</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I55" s="36"/>
       <c r="J55" s="40" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="K55" s="40" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="L55" s="40"/>
       <c r="M55" s="40"/>
@@ -6062,7 +5656,7 @@
     </row>
     <row r="56" ht="39" customHeight="1" spans="1:17">
       <c r="A56" s="36" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B56" s="37" t="s">
         <v>117</v>
@@ -6080,17 +5674,17 @@
         <v>44454</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I56" s="36"/>
       <c r="J56" s="40" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K56" s="40" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="L56" s="40"/>
       <c r="M56" s="40"/>
@@ -6101,7 +5695,7 @@
     </row>
     <row r="57" ht="39" customHeight="1" spans="1:17">
       <c r="A57" s="36" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B57" s="37" t="s">
         <v>117</v>
@@ -6116,20 +5710,20 @@
         <v>29</v>
       </c>
       <c r="F57" s="39">
-        <v>44448</v>
+        <v>44454</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I57" s="36"/>
       <c r="J57" s="40" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K57" s="40" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="L57" s="40"/>
       <c r="M57" s="40"/>
@@ -6140,7 +5734,7 @@
     </row>
     <row r="58" ht="39" customHeight="1" spans="1:17">
       <c r="A58" s="36" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B58" s="37" t="s">
         <v>117</v>
@@ -6157,18 +5751,18 @@
       <c r="F58" s="39">
         <v>44454</v>
       </c>
-      <c r="G58" s="41" t="s">
-        <v>233</v>
+      <c r="G58" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I58" s="36"/>
       <c r="J58" s="40" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K58" s="40" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="L58" s="40"/>
       <c r="M58" s="40"/>
@@ -6179,7 +5773,7 @@
     </row>
     <row r="59" ht="39" customHeight="1" spans="1:17">
       <c r="A59" s="36" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B59" s="37" t="s">
         <v>117</v>
@@ -6196,18 +5790,18 @@
       <c r="F59" s="39">
         <v>44454</v>
       </c>
-      <c r="G59" s="41" t="s">
-        <v>236</v>
+      <c r="G59" s="42" t="s">
+        <v>224</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I59" s="36"/>
       <c r="J59" s="40" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K59" s="40" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="L59" s="40"/>
       <c r="M59" s="40"/>
@@ -6218,7 +5812,7 @@
     </row>
     <row r="60" ht="39" customHeight="1" spans="1:17">
       <c r="A60" s="36" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B60" s="37" t="s">
         <v>117</v>
@@ -6235,18 +5829,18 @@
       <c r="F60" s="39">
         <v>44454</v>
       </c>
-      <c r="G60" s="41" t="s">
-        <v>239</v>
+      <c r="G60" s="42" t="s">
+        <v>227</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="40" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="K60" s="40" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="L60" s="40"/>
       <c r="M60" s="40"/>
@@ -6257,7 +5851,7 @@
     </row>
     <row r="61" ht="39" customHeight="1" spans="1:17">
       <c r="A61" s="36" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B61" s="37" t="s">
         <v>117</v>
@@ -6274,18 +5868,18 @@
       <c r="F61" s="39">
         <v>44454</v>
       </c>
-      <c r="G61" s="41" t="s">
-        <v>242</v>
+      <c r="G61" s="42" t="s">
+        <v>230</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I61" s="36"/>
       <c r="J61" s="40" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="K61" s="40" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="L61" s="40"/>
       <c r="M61" s="40"/>
@@ -6296,7 +5890,7 @@
     </row>
     <row r="62" ht="39" customHeight="1" spans="1:17">
       <c r="A62" s="36" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B62" s="37" t="s">
         <v>117</v>
@@ -6313,18 +5907,18 @@
       <c r="F62" s="39">
         <v>44454</v>
       </c>
-      <c r="G62" s="41" t="s">
-        <v>246</v>
+      <c r="G62" s="42" t="s">
+        <v>234</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I62" s="36"/>
       <c r="J62" s="40" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K62" s="40" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L62" s="40"/>
       <c r="M62" s="40"/>
@@ -6335,7 +5929,7 @@
     </row>
     <row r="63" ht="39" customHeight="1" spans="1:17">
       <c r="A63" s="36" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B63" s="37" t="s">
         <v>117</v>
@@ -6353,17 +5947,17 @@
         <v>44454</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I63" s="36"/>
       <c r="J63" s="40" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K63" s="40" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="L63" s="40"/>
       <c r="M63" s="40"/>
@@ -6374,7 +5968,7 @@
     </row>
     <row r="64" ht="39" customHeight="1" spans="1:17">
       <c r="A64" s="36" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B64" s="37" t="s">
         <v>117</v>
@@ -6392,17 +5986,17 @@
         <v>44454</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I64" s="36"/>
       <c r="J64" s="40" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K64" s="40" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L64" s="40"/>
       <c r="M64" s="40"/>
@@ -6413,7 +6007,7 @@
     </row>
     <row r="65" ht="39" customHeight="1" spans="1:17">
       <c r="A65" s="36" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B65" s="37" t="s">
         <v>117</v>
@@ -6430,18 +6024,18 @@
       <c r="F65" s="39">
         <v>44454</v>
       </c>
-      <c r="G65" s="42" t="s">
-        <v>256</v>
+      <c r="G65" s="41" t="s">
+        <v>245</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I65" s="36"/>
       <c r="J65" s="40" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="K65" s="40" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L65" s="40"/>
       <c r="M65" s="40"/>
@@ -6452,7 +6046,7 @@
     </row>
     <row r="66" ht="39" customHeight="1" spans="1:17">
       <c r="A66" s="36" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B66" s="37" t="s">
         <v>117</v>
@@ -6469,18 +6063,18 @@
       <c r="F66" s="39">
         <v>44454</v>
       </c>
-      <c r="G66" s="42" t="s">
-        <v>259</v>
+      <c r="G66" s="41" t="s">
+        <v>248</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I66" s="36"/>
       <c r="J66" s="40" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K66" s="40" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="L66" s="40"/>
       <c r="M66" s="40"/>
@@ -6491,7 +6085,7 @@
     </row>
     <row r="67" ht="39" customHeight="1" spans="1:17">
       <c r="A67" s="36" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B67" s="37" t="s">
         <v>117</v>
@@ -6508,18 +6102,18 @@
       <c r="F67" s="39">
         <v>44454</v>
       </c>
-      <c r="G67" s="42" t="s">
-        <v>263</v>
+      <c r="G67" s="41" t="s">
+        <v>251</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I67" s="36"/>
       <c r="J67" s="40" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="K67" s="40" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="L67" s="40"/>
       <c r="M67" s="40"/>
@@ -6530,7 +6124,7 @@
     </row>
     <row r="68" ht="39" customHeight="1" spans="1:17">
       <c r="A68" s="36" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B68" s="37" t="s">
         <v>117</v>
@@ -6547,18 +6141,18 @@
       <c r="F68" s="39">
         <v>44454</v>
       </c>
-      <c r="G68" s="42" t="s">
-        <v>266</v>
+      <c r="G68" s="41" t="s">
+        <v>254</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I68" s="36"/>
       <c r="J68" s="40" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="K68" s="40" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="L68" s="40"/>
       <c r="M68" s="40"/>
@@ -6569,7 +6163,7 @@
     </row>
     <row r="69" ht="39" customHeight="1" spans="1:17">
       <c r="A69" s="36" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B69" s="37" t="s">
         <v>117</v>
@@ -6587,17 +6181,17 @@
         <v>44454</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="H69" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I69" s="36"/>
       <c r="J69" s="40" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="K69" s="40" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
@@ -6608,10 +6202,10 @@
     </row>
     <row r="70" ht="39" customHeight="1" spans="1:17">
       <c r="A70" s="36" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>27</v>
@@ -6623,20 +6217,20 @@
         <v>29</v>
       </c>
       <c r="F70" s="39">
-        <v>44454</v>
+        <v>44448</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H70" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I70" s="36"/>
-      <c r="J70" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="K70" s="40" t="s">
-        <v>271</v>
+      <c r="J70" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="K70" s="41" t="s">
+        <v>265</v>
       </c>
       <c r="L70" s="40"/>
       <c r="M70" s="40"/>
@@ -6647,10 +6241,10 @@
     </row>
     <row r="71" ht="39" customHeight="1" spans="1:17">
       <c r="A71" s="36" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>27</v>
@@ -6665,17 +6259,17 @@
         <v>44454</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I71" s="36"/>
-      <c r="J71" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="K71" s="40" t="s">
-        <v>271</v>
+      <c r="J71" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="K71" s="41" t="s">
+        <v>269</v>
       </c>
       <c r="L71" s="40"/>
       <c r="M71" s="40"/>
@@ -6686,10 +6280,10 @@
     </row>
     <row r="72" ht="39" customHeight="1" spans="1:17">
       <c r="A72" s="36" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>27</v>
@@ -6704,17 +6298,17 @@
         <v>44454</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I72" s="36"/>
-      <c r="J72" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="K72" s="40" t="s">
-        <v>271</v>
+      <c r="J72" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="K72" s="41" t="s">
+        <v>273</v>
       </c>
       <c r="L72" s="40"/>
       <c r="M72" s="40"/>
@@ -6725,10 +6319,10 @@
     </row>
     <row r="73" ht="39" customHeight="1" spans="1:17">
       <c r="A73" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>27</v>
@@ -6743,17 +6337,17 @@
         <v>44454</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I73" s="36"/>
-      <c r="J73" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="K73" s="40" t="s">
-        <v>284</v>
+      <c r="J73" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="K73" s="41" t="s">
+        <v>277</v>
       </c>
       <c r="L73" s="40"/>
       <c r="M73" s="40"/>
@@ -6764,10 +6358,10 @@
     </row>
     <row r="74" ht="39" customHeight="1" spans="1:17">
       <c r="A74" s="36" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>27</v>
@@ -6781,18 +6375,18 @@
       <c r="F74" s="39">
         <v>44454</v>
       </c>
-      <c r="G74" s="42" t="s">
-        <v>286</v>
+      <c r="G74" s="41" t="s">
+        <v>279</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I74" s="36"/>
       <c r="J74" s="40" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K74" s="40" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
@@ -6803,10 +6397,10 @@
     </row>
     <row r="75" ht="39" customHeight="1" spans="1:17">
       <c r="A75" s="36" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C75" s="37" t="s">
         <v>27</v>
@@ -6821,17 +6415,17 @@
         <v>44448</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H75" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I75" s="36"/>
-      <c r="J75" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="K75" s="41" t="s">
-        <v>293</v>
+      <c r="J75" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K75" s="40" t="s">
+        <v>285</v>
       </c>
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
@@ -6842,10 +6436,10 @@
     </row>
     <row r="76" ht="39" customHeight="1" spans="1:17">
       <c r="A76" s="36" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>27</v>
@@ -6857,20 +6451,20 @@
         <v>29</v>
       </c>
       <c r="F76" s="39">
-        <v>44454</v>
+        <v>44448</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I76" s="36"/>
-      <c r="J76" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="K76" s="41" t="s">
-        <v>297</v>
+      <c r="J76" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K76" s="40" t="s">
+        <v>289</v>
       </c>
       <c r="L76" s="40"/>
       <c r="M76" s="40"/>
@@ -6881,10 +6475,10 @@
     </row>
     <row r="77" ht="39" customHeight="1" spans="1:17">
       <c r="A77" s="36" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>27</v>
@@ -6896,20 +6490,20 @@
         <v>29</v>
       </c>
       <c r="F77" s="39">
-        <v>44454</v>
+        <v>44448</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I77" s="36"/>
-      <c r="J77" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="K77" s="41" t="s">
-        <v>301</v>
+      <c r="J77" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>293</v>
       </c>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
@@ -6920,10 +6514,10 @@
     </row>
     <row r="78" ht="39" customHeight="1" spans="1:17">
       <c r="A78" s="36" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>27</v>
@@ -6935,20 +6529,20 @@
         <v>29</v>
       </c>
       <c r="F78" s="39">
-        <v>44454</v>
+        <v>44448</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I78" s="36"/>
-      <c r="J78" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="K78" s="41" t="s">
-        <v>305</v>
+      <c r="J78" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>297</v>
       </c>
       <c r="L78" s="40"/>
       <c r="M78" s="40"/>
@@ -6959,10 +6553,10 @@
     </row>
     <row r="79" ht="39" customHeight="1" spans="1:17">
       <c r="A79" s="36" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>27</v>
@@ -6974,20 +6568,20 @@
         <v>29</v>
       </c>
       <c r="F79" s="39">
-        <v>44454</v>
+        <v>44448</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="40" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
@@ -6998,10 +6592,10 @@
     </row>
     <row r="80" ht="39" customHeight="1" spans="1:17">
       <c r="A80" s="36" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>27</v>
@@ -7016,17 +6610,17 @@
         <v>44448</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="40" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L80" s="40"/>
       <c r="M80" s="40"/>
@@ -7037,10 +6631,10 @@
     </row>
     <row r="81" ht="39" customHeight="1" spans="1:17">
       <c r="A81" s="36" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>27</v>
@@ -7055,17 +6649,17 @@
         <v>44448</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I81" s="36"/>
       <c r="J81" s="40" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K81" s="40" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L81" s="40"/>
       <c r="M81" s="40"/>
@@ -7076,10 +6670,10 @@
     </row>
     <row r="82" ht="39" customHeight="1" spans="1:17">
       <c r="A82" s="36" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>27</v>
@@ -7093,18 +6687,18 @@
       <c r="F82" s="39">
         <v>44448</v>
       </c>
-      <c r="G82" s="41" t="s">
-        <v>319</v>
+      <c r="G82" s="44" t="s">
+        <v>310</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I82" s="36"/>
       <c r="J82" s="40" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="K82" s="40" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="L82" s="40"/>
       <c r="M82" s="40"/>
@@ -7115,10 +6709,10 @@
     </row>
     <row r="83" ht="39" customHeight="1" spans="1:17">
       <c r="A83" s="36" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>27</v>
@@ -7132,18 +6726,18 @@
       <c r="F83" s="39">
         <v>44448</v>
       </c>
-      <c r="G83" s="41" t="s">
-        <v>323</v>
+      <c r="G83" s="44" t="s">
+        <v>312</v>
       </c>
       <c r="H83" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I83" s="36"/>
       <c r="J83" s="40" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="K83" s="40" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="L83" s="40"/>
       <c r="M83" s="40"/>
@@ -7154,10 +6748,10 @@
     </row>
     <row r="84" ht="39" customHeight="1" spans="1:17">
       <c r="A84" s="36" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>27</v>
@@ -7169,20 +6763,20 @@
         <v>29</v>
       </c>
       <c r="F84" s="39">
-        <v>44448</v>
-      </c>
-      <c r="G84" s="41" t="s">
-        <v>327</v>
+        <v>44452</v>
+      </c>
+      <c r="G84" s="44" t="s">
+        <v>316</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I84" s="36"/>
-      <c r="J84" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="K84" s="40" t="s">
-        <v>329</v>
+      <c r="J84" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="K84" s="36" t="s">
+        <v>318</v>
       </c>
       <c r="L84" s="40"/>
       <c r="M84" s="40"/>
@@ -7193,10 +6787,10 @@
     </row>
     <row r="85" ht="39" customHeight="1" spans="1:17">
       <c r="A85" s="36" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C85" s="37" t="s">
         <v>27</v>
@@ -7208,20 +6802,20 @@
         <v>29</v>
       </c>
       <c r="F85" s="39">
-        <v>44448</v>
-      </c>
-      <c r="G85" s="41" t="s">
-        <v>331</v>
+        <v>44452</v>
+      </c>
+      <c r="G85" s="44" t="s">
+        <v>320</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I85" s="36"/>
-      <c r="J85" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="K85" s="40" t="s">
-        <v>332</v>
+        <v>56</v>
+      </c>
+      <c r="I85" s="40"/>
+      <c r="J85" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="K85" s="36" t="s">
+        <v>322</v>
       </c>
       <c r="L85" s="40"/>
       <c r="M85" s="40"/>
@@ -7232,10 +6826,10 @@
     </row>
     <row r="86" ht="39" customHeight="1" spans="1:17">
       <c r="A86" s="36" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C86" s="37" t="s">
         <v>27</v>
@@ -7247,20 +6841,20 @@
         <v>29</v>
       </c>
       <c r="F86" s="39">
-        <v>44448</v>
-      </c>
-      <c r="G86" s="41" t="s">
-        <v>334</v>
+        <v>44452</v>
+      </c>
+      <c r="G86" s="44" t="s">
+        <v>324</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I86" s="36"/>
-      <c r="J86" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="K86" s="40" t="s">
-        <v>336</v>
+        <v>56</v>
+      </c>
+      <c r="I86" s="40"/>
+      <c r="J86" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K86" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="L86" s="40"/>
       <c r="M86" s="40"/>
@@ -7271,10 +6865,10 @@
     </row>
     <row r="87" ht="39" customHeight="1" spans="1:17">
       <c r="A87" s="36" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>27</v>
@@ -7286,20 +6880,20 @@
         <v>29</v>
       </c>
       <c r="F87" s="39">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="G87" s="44" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I87" s="36"/>
-      <c r="J87" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="K87" s="40" t="s">
-        <v>336</v>
+      <c r="J87" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K87" s="36" t="s">
+        <v>330</v>
       </c>
       <c r="L87" s="40"/>
       <c r="M87" s="40"/>
@@ -7308,12 +6902,12 @@
       <c r="P87" s="43"/>
       <c r="Q87" s="40"/>
     </row>
-    <row r="88" ht="39" customHeight="1" spans="1:17">
+    <row r="88" ht="36.6" customHeight="1" spans="1:17">
       <c r="A88" s="36" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>27</v>
@@ -7325,20 +6919,20 @@
         <v>29</v>
       </c>
       <c r="F88" s="39">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="G88" s="44" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I88" s="36"/>
-      <c r="J88" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="K88" s="40" t="s">
-        <v>342</v>
+        <v>56</v>
+      </c>
+      <c r="I88" s="40"/>
+      <c r="J88" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K88" s="36" t="s">
+        <v>334</v>
       </c>
       <c r="L88" s="40"/>
       <c r="M88" s="40"/>
@@ -7347,12 +6941,12 @@
       <c r="P88" s="43"/>
       <c r="Q88" s="40"/>
     </row>
-    <row r="89" ht="39" customHeight="1" spans="1:17">
+    <row r="89" ht="36.6" customHeight="1" spans="1:17">
       <c r="A89" s="36" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>27</v>
@@ -7367,17 +6961,17 @@
         <v>44452</v>
       </c>
       <c r="G89" s="44" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I89" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="I89" s="40"/>
       <c r="J89" s="36" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K89" s="36" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L89" s="40"/>
       <c r="M89" s="40"/>
@@ -7386,12 +6980,12 @@
       <c r="P89" s="43"/>
       <c r="Q89" s="40"/>
     </row>
-    <row r="90" ht="39" customHeight="1" spans="1:17">
+    <row r="90" ht="36.6" customHeight="1" spans="1:17">
       <c r="A90" s="36" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>27</v>
@@ -7403,20 +6997,20 @@
         <v>29</v>
       </c>
       <c r="F90" s="39">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="G90" s="44" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I90" s="40"/>
-      <c r="J90" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="K90" s="36" t="s">
-        <v>350</v>
+      <c r="J90" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="K90" s="40" t="s">
+        <v>342</v>
       </c>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
@@ -7425,12 +7019,12 @@
       <c r="P90" s="43"/>
       <c r="Q90" s="40"/>
     </row>
-    <row r="91" ht="39" customHeight="1" spans="1:17">
+    <row r="91" ht="36.6" customHeight="1" spans="1:17">
       <c r="A91" s="36" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>27</v>
@@ -7442,20 +7036,20 @@
         <v>29</v>
       </c>
       <c r="F91" s="39">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="G91" s="44" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I91" s="40"/>
-      <c r="J91" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="K91" s="36" t="s">
-        <v>354</v>
+      <c r="J91" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K91" s="40" t="s">
+        <v>346</v>
       </c>
       <c r="L91" s="40"/>
       <c r="M91" s="40"/>
@@ -7464,12 +7058,12 @@
       <c r="P91" s="43"/>
       <c r="Q91" s="40"/>
     </row>
-    <row r="92" ht="39" customHeight="1" spans="1:17">
+    <row r="92" ht="36.6" customHeight="1" spans="1:17">
       <c r="A92" s="36" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C92" s="37" t="s">
         <v>27</v>
@@ -7481,20 +7075,20 @@
         <v>29</v>
       </c>
       <c r="F92" s="39">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="G92" s="44" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="K92" s="36" t="s">
-        <v>358</v>
+        <v>56</v>
+      </c>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="K92" s="40" t="s">
+        <v>342</v>
       </c>
       <c r="L92" s="40"/>
       <c r="M92" s="40"/>
@@ -7505,10 +7099,10 @@
     </row>
     <row r="93" ht="36.6" customHeight="1" spans="1:17">
       <c r="A93" s="36" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>27</v>
@@ -7520,20 +7114,20 @@
         <v>29</v>
       </c>
       <c r="F93" s="39">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="G93" s="44" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I93" s="40"/>
-      <c r="J93" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="K93" s="36" t="s">
-        <v>362</v>
+      <c r="J93" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="K93" s="40" t="s">
+        <v>353</v>
       </c>
       <c r="L93" s="40"/>
       <c r="M93" s="40"/>
@@ -7544,10 +7138,10 @@
     </row>
     <row r="94" ht="36.6" customHeight="1" spans="1:17">
       <c r="A94" s="36" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C94" s="37" t="s">
         <v>27</v>
@@ -7559,20 +7153,20 @@
         <v>29</v>
       </c>
       <c r="F94" s="39">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="G94" s="44" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I94" s="40"/>
-      <c r="J94" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="K94" s="36" t="s">
-        <v>366</v>
+      <c r="J94" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K94" s="40" t="s">
+        <v>353</v>
       </c>
       <c r="L94" s="40"/>
       <c r="M94" s="40"/>
@@ -7583,10 +7177,10 @@
     </row>
     <row r="95" ht="36.6" customHeight="1" spans="1:17">
       <c r="A95" s="36" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C95" s="37" t="s">
         <v>27</v>
@@ -7601,17 +7195,17 @@
         <v>44454</v>
       </c>
       <c r="G95" s="44" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I95" s="40"/>
       <c r="J95" s="40" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="K95" s="40" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="L95" s="40"/>
       <c r="M95" s="40"/>
@@ -7622,10 +7216,10 @@
     </row>
     <row r="96" ht="36.6" customHeight="1" spans="1:17">
       <c r="A96" s="36" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="C96" s="37" t="s">
         <v>27</v>
@@ -7637,20 +7231,20 @@
         <v>29</v>
       </c>
       <c r="F96" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G96" s="44" t="s">
-        <v>372</v>
+        <v>44452</v>
+      </c>
+      <c r="G96" s="41" t="s">
+        <v>361</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I96" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="I96" s="36"/>
       <c r="J96" s="40" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="K96" s="40" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
@@ -7661,10 +7255,10 @@
     </row>
     <row r="97" ht="36.6" customHeight="1" spans="1:17">
       <c r="A97" s="36" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="C97" s="37" t="s">
         <v>27</v>
@@ -7678,18 +7272,18 @@
       <c r="F97" s="39">
         <v>44454</v>
       </c>
-      <c r="G97" s="44" t="s">
-        <v>376</v>
+      <c r="G97" s="41" t="s">
+        <v>365</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I97" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="I97" s="36"/>
       <c r="J97" s="40" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="K97" s="40" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L97" s="40"/>
       <c r="M97" s="40"/>
@@ -7700,10 +7294,10 @@
     </row>
     <row r="98" ht="36.6" customHeight="1" spans="1:17">
       <c r="A98" s="36" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="C98" s="37" t="s">
         <v>27</v>
@@ -7715,20 +7309,20 @@
         <v>29</v>
       </c>
       <c r="F98" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G98" s="44" t="s">
-        <v>379</v>
+        <v>44452</v>
+      </c>
+      <c r="G98" s="41" t="s">
+        <v>368</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I98" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="I98" s="36"/>
       <c r="J98" s="40" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="K98" s="40" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L98" s="40"/>
       <c r="M98" s="40"/>
@@ -7739,10 +7333,10 @@
     </row>
     <row r="99" ht="36.6" customHeight="1" spans="1:17">
       <c r="A99" s="36" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="C99" s="37" t="s">
         <v>27</v>
@@ -7756,18 +7350,18 @@
       <c r="F99" s="39">
         <v>44454</v>
       </c>
-      <c r="G99" s="44" t="s">
-        <v>383</v>
+      <c r="G99" s="41" t="s">
+        <v>372</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I99" s="40"/>
       <c r="J99" s="40" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="K99" s="40" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L99" s="40"/>
       <c r="M99" s="40"/>
@@ -7776,38 +7370,18 @@
       <c r="P99" s="43"/>
       <c r="Q99" s="40"/>
     </row>
-    <row r="100" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A100" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="B100" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E100" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G100" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="H100" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="K100" s="40" t="s">
-        <v>381</v>
-      </c>
+    <row r="100" ht="60" customHeight="1" spans="1:17">
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
       <c r="L100" s="40"/>
       <c r="M100" s="40"/>
       <c r="N100" s="43"/>
@@ -7815,38 +7389,18 @@
       <c r="P100" s="43"/>
       <c r="Q100" s="40"/>
     </row>
-    <row r="101" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A101" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="B101" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G101" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="H101" s="40" t="s">
-        <v>55</v>
-      </c>
+    <row r="101" ht="59" customHeight="1" spans="1:17">
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="40"/>
       <c r="I101" s="36"/>
-      <c r="J101" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="K101" s="40" t="s">
-        <v>391</v>
-      </c>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
       <c r="L101" s="40"/>
       <c r="M101" s="40"/>
       <c r="N101" s="43"/>
@@ -7854,38 +7408,18 @@
       <c r="P101" s="43"/>
       <c r="Q101" s="40"/>
     </row>
-    <row r="102" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A102" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="B102" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G102" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="H102" s="40" t="s">
-        <v>55</v>
-      </c>
+    <row r="102" ht="68" customHeight="1" spans="1:17">
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="40"/>
       <c r="I102" s="36"/>
-      <c r="J102" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="K102" s="40" t="s">
-        <v>391</v>
-      </c>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
       <c r="L102" s="40"/>
       <c r="M102" s="40"/>
       <c r="N102" s="43"/>
@@ -7893,38 +7427,18 @@
       <c r="P102" s="43"/>
       <c r="Q102" s="40"/>
     </row>
-    <row r="103" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A103" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="B103" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D103" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E103" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G103" s="41" t="s">
-        <v>396</v>
-      </c>
-      <c r="H103" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I103" s="36"/>
-      <c r="J103" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="K103" s="40" t="s">
-        <v>398</v>
-      </c>
+    <row r="103" ht="59" customHeight="1" spans="1:17">
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
       <c r="L103" s="40"/>
       <c r="M103" s="40"/>
       <c r="N103" s="43"/>
@@ -7933,37 +7447,17 @@
       <c r="Q103" s="40"/>
     </row>
     <row r="104" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A104" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="B104" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E104" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G104" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="H104" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I104" s="40"/>
-      <c r="J104" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="K104" s="40" t="s">
-        <v>398</v>
-      </c>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
       <c r="L104" s="40"/>
       <c r="M104" s="40"/>
       <c r="N104" s="43"/>
@@ -7971,18 +7465,18 @@
       <c r="P104" s="43"/>
       <c r="Q104" s="40"/>
     </row>
-    <row r="105" ht="60" customHeight="1" spans="1:17">
+    <row r="105" ht="36.6" customHeight="1" spans="1:17">
       <c r="A105" s="36"/>
-      <c r="B105" s="36"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="37"/>
       <c r="D105" s="38"/>
       <c r="E105" s="38"/>
       <c r="F105" s="39"/>
-      <c r="G105" s="41"/>
+      <c r="G105" s="37"/>
       <c r="H105" s="40"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="40"/>
       <c r="L105" s="40"/>
       <c r="M105" s="40"/>
       <c r="N105" s="43"/>
@@ -7990,18 +7484,18 @@
       <c r="P105" s="43"/>
       <c r="Q105" s="40"/>
     </row>
-    <row r="106" ht="59" customHeight="1" spans="1:17">
+    <row r="106" ht="36.6" customHeight="1" spans="1:17">
       <c r="A106" s="36"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38"/>
       <c r="F106" s="39"/>
-      <c r="G106" s="41"/>
+      <c r="G106" s="37"/>
       <c r="H106" s="40"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="40"/>
       <c r="L106" s="40"/>
       <c r="M106" s="40"/>
       <c r="N106" s="43"/>
@@ -8009,18 +7503,18 @@
       <c r="P106" s="43"/>
       <c r="Q106" s="40"/>
     </row>
-    <row r="107" ht="68" customHeight="1" spans="1:17">
+    <row r="107" ht="36.6" customHeight="1" spans="1:17">
       <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38"/>
       <c r="F107" s="39"/>
-      <c r="G107" s="41"/>
+      <c r="G107" s="37"/>
       <c r="H107" s="40"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
       <c r="L107" s="40"/>
       <c r="M107" s="40"/>
       <c r="N107" s="43"/>
@@ -8028,18 +7522,18 @@
       <c r="P107" s="43"/>
       <c r="Q107" s="40"/>
     </row>
-    <row r="108" ht="59" customHeight="1" spans="1:17">
+    <row r="108" ht="36.6" customHeight="1" spans="1:17">
       <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38"/>
       <c r="F108" s="39"/>
-      <c r="G108" s="41"/>
+      <c r="G108" s="37"/>
       <c r="H108" s="40"/>
       <c r="I108" s="40"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="40"/>
       <c r="L108" s="40"/>
       <c r="M108" s="40"/>
       <c r="N108" s="43"/>
@@ -8049,16 +7543,16 @@
     </row>
     <row r="109" ht="36.6" customHeight="1" spans="1:17">
       <c r="A109" s="36"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
       <c r="F109" s="39"/>
-      <c r="G109" s="41"/>
+      <c r="G109" s="37"/>
       <c r="H109" s="40"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="40"/>
       <c r="L109" s="40"/>
       <c r="M109" s="40"/>
       <c r="N109" s="43"/>
@@ -8294,7 +7788,7 @@
       <c r="P121" s="43"/>
       <c r="Q121" s="40"/>
     </row>
-    <row r="122" ht="36.6" customHeight="1" spans="1:17">
+    <row r="122" ht="45" customHeight="1" spans="1:17">
       <c r="A122" s="36"/>
       <c r="B122" s="37"/>
       <c r="C122" s="37"/>
@@ -8389,7 +7883,7 @@
       <c r="P126" s="43"/>
       <c r="Q126" s="40"/>
     </row>
-    <row r="127" ht="45" customHeight="1" spans="1:17">
+    <row r="127" ht="36.6" customHeight="1" spans="1:17">
       <c r="A127" s="36"/>
       <c r="B127" s="37"/>
       <c r="C127" s="37"/>
@@ -8465,7 +7959,7 @@
       <c r="P130" s="43"/>
       <c r="Q130" s="40"/>
     </row>
-    <row r="131" ht="36.6" customHeight="1" spans="1:17">
+    <row r="131" ht="36" customHeight="1" spans="1:17">
       <c r="A131" s="36"/>
       <c r="B131" s="37"/>
       <c r="C131" s="37"/>
@@ -8541,7 +8035,7 @@
       <c r="P134" s="43"/>
       <c r="Q134" s="40"/>
     </row>
-    <row r="135" ht="36.6" customHeight="1" spans="1:17">
+    <row r="135" ht="36" customHeight="1" spans="1:17">
       <c r="A135" s="36"/>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
@@ -8560,7 +8054,7 @@
       <c r="P135" s="43"/>
       <c r="Q135" s="40"/>
     </row>
-    <row r="136" ht="36" customHeight="1" spans="1:17">
+    <row r="136" ht="36.6" customHeight="1" spans="1:17">
       <c r="A136" s="36"/>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
@@ -8636,7 +8130,7 @@
       <c r="P139" s="43"/>
       <c r="Q139" s="40"/>
     </row>
-    <row r="140" ht="36" customHeight="1" spans="1:17">
+    <row r="140" ht="38" customHeight="1" spans="1:17">
       <c r="A140" s="36"/>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
@@ -8731,7 +8225,7 @@
       <c r="P144" s="43"/>
       <c r="Q144" s="40"/>
     </row>
-    <row r="145" ht="38" customHeight="1" spans="1:17">
+    <row r="145" ht="36.6" customHeight="1" spans="1:17">
       <c r="A145" s="36"/>
       <c r="B145" s="37"/>
       <c r="C145" s="37"/>
@@ -8826,7 +8320,7 @@
       <c r="P149" s="43"/>
       <c r="Q149" s="40"/>
     </row>
-    <row r="150" ht="36.6" customHeight="1" spans="1:17">
+    <row r="150" ht="48" customHeight="1" spans="1:17">
       <c r="A150" s="36"/>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
@@ -8845,7 +8339,7 @@
       <c r="P150" s="43"/>
       <c r="Q150" s="40"/>
     </row>
-    <row r="151" ht="36.6" customHeight="1" spans="1:17">
+    <row r="151" ht="54" customHeight="1" spans="1:17">
       <c r="A151" s="36"/>
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
@@ -8864,7 +8358,7 @@
       <c r="P151" s="43"/>
       <c r="Q151" s="40"/>
     </row>
-    <row r="152" ht="36.6" customHeight="1" spans="1:17">
+    <row r="152" ht="42.6" customHeight="1" spans="1:17">
       <c r="A152" s="36"/>
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
@@ -8883,7 +8377,7 @@
       <c r="P152" s="43"/>
       <c r="Q152" s="40"/>
     </row>
-    <row r="153" ht="36.6" customHeight="1" spans="1:17">
+    <row r="153" ht="42.6" customHeight="1" spans="1:17">
       <c r="A153" s="36"/>
       <c r="B153" s="37"/>
       <c r="C153" s="37"/>
@@ -8902,7 +8396,7 @@
       <c r="P153" s="43"/>
       <c r="Q153" s="40"/>
     </row>
-    <row r="154" ht="36.6" customHeight="1" spans="1:17">
+    <row r="154" ht="42.6" customHeight="1" spans="1:17">
       <c r="A154" s="36"/>
       <c r="B154" s="37"/>
       <c r="C154" s="37"/>
@@ -8921,7 +8415,7 @@
       <c r="P154" s="43"/>
       <c r="Q154" s="40"/>
     </row>
-    <row r="155" ht="48" customHeight="1" spans="1:17">
+    <row r="155" ht="42.6" customHeight="1" spans="1:17">
       <c r="A155" s="36"/>
       <c r="B155" s="37"/>
       <c r="C155" s="37"/>
@@ -8940,7 +8434,7 @@
       <c r="P155" s="43"/>
       <c r="Q155" s="40"/>
     </row>
-    <row r="156" ht="54" customHeight="1" spans="1:17">
+    <row r="156" ht="42.6" customHeight="1" spans="1:17">
       <c r="A156" s="36"/>
       <c r="B156" s="37"/>
       <c r="C156" s="37"/>
@@ -9073,7 +8567,7 @@
       <c r="P162" s="43"/>
       <c r="Q162" s="40"/>
     </row>
-    <row r="163" ht="42.6" customHeight="1" spans="1:17">
+    <row r="163" ht="45" customHeight="1" spans="1:17">
       <c r="A163" s="36"/>
       <c r="B163" s="37"/>
       <c r="C163" s="37"/>
@@ -9092,7 +8586,7 @@
       <c r="P163" s="43"/>
       <c r="Q163" s="40"/>
     </row>
-    <row r="164" ht="42.6" customHeight="1" spans="1:17">
+    <row r="164" ht="46.8" customHeight="1" spans="1:17">
       <c r="A164" s="36"/>
       <c r="B164" s="37"/>
       <c r="C164" s="37"/>
@@ -9111,7 +8605,7 @@
       <c r="P164" s="43"/>
       <c r="Q164" s="40"/>
     </row>
-    <row r="165" ht="42.6" customHeight="1" spans="1:17">
+    <row r="165" ht="46.8" customHeight="1" spans="1:17">
       <c r="A165" s="36"/>
       <c r="B165" s="37"/>
       <c r="C165" s="37"/>
@@ -9130,7 +8624,7 @@
       <c r="P165" s="43"/>
       <c r="Q165" s="40"/>
     </row>
-    <row r="166" ht="42.6" customHeight="1" spans="1:17">
+    <row r="166" ht="36.6" customHeight="1" spans="1:17">
       <c r="A166" s="36"/>
       <c r="B166" s="37"/>
       <c r="C166" s="37"/>
@@ -9149,7 +8643,7 @@
       <c r="P166" s="43"/>
       <c r="Q166" s="40"/>
     </row>
-    <row r="167" ht="42.6" customHeight="1" spans="1:17">
+    <row r="167" ht="36.6" customHeight="1" spans="1:17">
       <c r="A167" s="36"/>
       <c r="B167" s="37"/>
       <c r="C167" s="37"/>
@@ -9168,7 +8662,7 @@
       <c r="P167" s="43"/>
       <c r="Q167" s="40"/>
     </row>
-    <row r="168" ht="45" customHeight="1" spans="1:17">
+    <row r="168" ht="36.6" customHeight="1" spans="1:17">
       <c r="A168" s="36"/>
       <c r="B168" s="37"/>
       <c r="C168" s="37"/>
@@ -9187,7 +8681,7 @@
       <c r="P168" s="43"/>
       <c r="Q168" s="40"/>
     </row>
-    <row r="169" ht="46.8" customHeight="1" spans="1:17">
+    <row r="169" ht="36.6" customHeight="1" spans="1:17">
       <c r="A169" s="36"/>
       <c r="B169" s="37"/>
       <c r="C169" s="37"/>
@@ -9206,7 +8700,7 @@
       <c r="P169" s="43"/>
       <c r="Q169" s="40"/>
     </row>
-    <row r="170" ht="46.8" customHeight="1" spans="1:17">
+    <row r="170" ht="36.6" customHeight="1" spans="1:17">
       <c r="A170" s="36"/>
       <c r="B170" s="37"/>
       <c r="C170" s="37"/>
@@ -9341,7 +8835,7 @@
     </row>
     <row r="177" ht="36.6" customHeight="1" spans="1:17">
       <c r="A177" s="36"/>
-      <c r="B177" s="37"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="37"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38"/>
@@ -9360,7 +8854,7 @@
     </row>
     <row r="178" ht="36.6" customHeight="1" spans="1:17">
       <c r="A178" s="36"/>
-      <c r="B178" s="37"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="37"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38"/>
@@ -9377,7 +8871,7 @@
       <c r="P178" s="43"/>
       <c r="Q178" s="40"/>
     </row>
-    <row r="179" ht="36.6" customHeight="1" spans="1:17">
+    <row r="179" ht="42" customHeight="1" spans="1:17">
       <c r="A179" s="36"/>
       <c r="B179" s="37"/>
       <c r="C179" s="37"/>
@@ -9396,7 +8890,7 @@
       <c r="P179" s="43"/>
       <c r="Q179" s="40"/>
     </row>
-    <row r="180" ht="36.6" customHeight="1" spans="1:17">
+    <row r="180" ht="47.4" customHeight="1" spans="1:17">
       <c r="A180" s="36"/>
       <c r="B180" s="37"/>
       <c r="C180" s="37"/>
@@ -9415,7 +8909,7 @@
       <c r="P180" s="43"/>
       <c r="Q180" s="40"/>
     </row>
-    <row r="181" ht="36.6" customHeight="1" spans="1:17">
+    <row r="181" ht="47.4" customHeight="1" spans="1:17">
       <c r="A181" s="36"/>
       <c r="B181" s="37"/>
       <c r="C181" s="37"/>
@@ -9434,9 +8928,9 @@
       <c r="P181" s="43"/>
       <c r="Q181" s="40"/>
     </row>
-    <row r="182" ht="36.6" customHeight="1" spans="1:17">
+    <row r="182" ht="47.4" customHeight="1" spans="1:17">
       <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
+      <c r="B182" s="37"/>
       <c r="C182" s="37"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38"/>
@@ -9453,9 +8947,9 @@
       <c r="P182" s="43"/>
       <c r="Q182" s="40"/>
     </row>
-    <row r="183" ht="36.6" customHeight="1" spans="1:17">
+    <row r="183" ht="47.4" customHeight="1" spans="1:17">
       <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
+      <c r="B183" s="37"/>
       <c r="C183" s="37"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38"/>
@@ -9472,7 +8966,7 @@
       <c r="P183" s="43"/>
       <c r="Q183" s="40"/>
     </row>
-    <row r="184" ht="42" customHeight="1" spans="1:17">
+    <row r="184" ht="47.4" customHeight="1" spans="1:17">
       <c r="A184" s="36"/>
       <c r="B184" s="37"/>
       <c r="C184" s="37"/>
@@ -9548,7 +9042,7 @@
       <c r="P187" s="43"/>
       <c r="Q187" s="40"/>
     </row>
-    <row r="188" ht="47.4" customHeight="1" spans="1:17">
+    <row r="188" ht="49" customHeight="1" spans="1:17">
       <c r="A188" s="36"/>
       <c r="B188" s="37"/>
       <c r="C188" s="37"/>
@@ -9643,7 +9137,7 @@
       <c r="P192" s="43"/>
       <c r="Q192" s="40"/>
     </row>
-    <row r="193" ht="49" customHeight="1" spans="1:17">
+    <row r="193" ht="47.4" customHeight="1" spans="1:17">
       <c r="A193" s="36"/>
       <c r="B193" s="37"/>
       <c r="C193" s="37"/>
@@ -9681,7 +9175,7 @@
       <c r="P194" s="43"/>
       <c r="Q194" s="40"/>
     </row>
-    <row r="195" ht="47.4" customHeight="1" spans="1:17">
+    <row r="195" ht="48" customHeight="1" spans="1:17">
       <c r="A195" s="36"/>
       <c r="B195" s="37"/>
       <c r="C195" s="37"/>
@@ -9700,7 +9194,7 @@
       <c r="P195" s="43"/>
       <c r="Q195" s="40"/>
     </row>
-    <row r="196" ht="47.4" customHeight="1" spans="1:17">
+    <row r="196" ht="46" customHeight="1" spans="1:17">
       <c r="A196" s="36"/>
       <c r="B196" s="37"/>
       <c r="C196" s="37"/>
@@ -9719,7 +9213,7 @@
       <c r="P196" s="43"/>
       <c r="Q196" s="40"/>
     </row>
-    <row r="197" ht="47.4" customHeight="1" spans="1:17">
+    <row r="197" ht="46" customHeight="1" spans="1:17">
       <c r="A197" s="36"/>
       <c r="B197" s="37"/>
       <c r="C197" s="37"/>
@@ -9738,7 +9232,7 @@
       <c r="P197" s="43"/>
       <c r="Q197" s="40"/>
     </row>
-    <row r="198" ht="47.4" customHeight="1" spans="1:17">
+    <row r="198" ht="46" customHeight="1" spans="1:17">
       <c r="A198" s="36"/>
       <c r="B198" s="37"/>
       <c r="C198" s="37"/>
@@ -9757,7 +9251,7 @@
       <c r="P198" s="43"/>
       <c r="Q198" s="40"/>
     </row>
-    <row r="199" ht="47.4" customHeight="1" spans="1:17">
+    <row r="199" ht="52" customHeight="1" spans="1:17">
       <c r="A199" s="36"/>
       <c r="B199" s="37"/>
       <c r="C199" s="37"/>
@@ -9776,18 +9270,18 @@
       <c r="P199" s="43"/>
       <c r="Q199" s="40"/>
     </row>
-    <row r="200" ht="48" customHeight="1" spans="1:17">
+    <row r="200" ht="44" customHeight="1" spans="1:17">
       <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="37"/>
       <c r="D200" s="38"/>
       <c r="E200" s="38"/>
       <c r="F200" s="39"/>
-      <c r="G200" s="37"/>
+      <c r="G200" s="41"/>
       <c r="H200" s="40"/>
       <c r="I200" s="40"/>
-      <c r="J200" s="40"/>
-      <c r="K200" s="40"/>
+      <c r="J200" s="36"/>
+      <c r="K200" s="36"/>
       <c r="L200" s="40"/>
       <c r="M200" s="40"/>
       <c r="N200" s="43"/>
@@ -9795,18 +9289,18 @@
       <c r="P200" s="43"/>
       <c r="Q200" s="40"/>
     </row>
-    <row r="201" ht="46" customHeight="1" spans="1:17">
+    <row r="201" ht="44" customHeight="1" spans="1:17">
       <c r="A201" s="36"/>
       <c r="B201" s="37"/>
       <c r="C201" s="37"/>
       <c r="D201" s="38"/>
       <c r="E201" s="38"/>
       <c r="F201" s="39"/>
-      <c r="G201" s="37"/>
+      <c r="G201" s="41"/>
       <c r="H201" s="40"/>
       <c r="I201" s="40"/>
-      <c r="J201" s="40"/>
-      <c r="K201" s="40"/>
+      <c r="J201" s="36"/>
+      <c r="K201" s="36"/>
       <c r="L201" s="40"/>
       <c r="M201" s="40"/>
       <c r="N201" s="43"/>
@@ -9814,18 +9308,18 @@
       <c r="P201" s="43"/>
       <c r="Q201" s="40"/>
     </row>
-    <row r="202" ht="46" customHeight="1" spans="1:17">
+    <row r="202" ht="44" customHeight="1" spans="1:17">
       <c r="A202" s="36"/>
       <c r="B202" s="37"/>
       <c r="C202" s="37"/>
       <c r="D202" s="38"/>
       <c r="E202" s="38"/>
       <c r="F202" s="39"/>
-      <c r="G202" s="37"/>
+      <c r="G202" s="41"/>
       <c r="H202" s="40"/>
       <c r="I202" s="40"/>
-      <c r="J202" s="40"/>
-      <c r="K202" s="40"/>
+      <c r="J202" s="36"/>
+      <c r="K202" s="36"/>
       <c r="L202" s="40"/>
       <c r="M202" s="40"/>
       <c r="N202" s="43"/>
@@ -9833,18 +9327,18 @@
       <c r="P202" s="43"/>
       <c r="Q202" s="40"/>
     </row>
-    <row r="203" ht="46" customHeight="1" spans="1:17">
+    <row r="203" ht="49" customHeight="1" spans="1:17">
       <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="37"/>
       <c r="D203" s="38"/>
       <c r="E203" s="38"/>
       <c r="F203" s="39"/>
-      <c r="G203" s="37"/>
+      <c r="G203" s="41"/>
       <c r="H203" s="40"/>
       <c r="I203" s="40"/>
-      <c r="J203" s="40"/>
-      <c r="K203" s="40"/>
+      <c r="J203" s="36"/>
+      <c r="K203" s="36"/>
       <c r="L203" s="40"/>
       <c r="M203" s="40"/>
       <c r="N203" s="43"/>
@@ -9852,8 +9346,8 @@
       <c r="P203" s="43"/>
       <c r="Q203" s="40"/>
     </row>
-    <row r="204" ht="52" customHeight="1" spans="1:17">
-      <c r="A204" s="36"/>
+    <row r="204" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A204" s="45"/>
       <c r="B204" s="37"/>
       <c r="C204" s="37"/>
       <c r="D204" s="38"/>
@@ -9871,18 +9365,18 @@
       <c r="P204" s="43"/>
       <c r="Q204" s="40"/>
     </row>
-    <row r="205" ht="44" customHeight="1" spans="1:17">
-      <c r="A205" s="36"/>
+    <row r="205" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A205" s="45"/>
       <c r="B205" s="37"/>
       <c r="C205" s="37"/>
       <c r="D205" s="38"/>
       <c r="E205" s="38"/>
       <c r="F205" s="39"/>
-      <c r="G205" s="41"/>
+      <c r="G205" s="37"/>
       <c r="H205" s="40"/>
       <c r="I205" s="40"/>
-      <c r="J205" s="36"/>
-      <c r="K205" s="36"/>
+      <c r="J205" s="40"/>
+      <c r="K205" s="40"/>
       <c r="L205" s="40"/>
       <c r="M205" s="40"/>
       <c r="N205" s="43"/>
@@ -9890,18 +9384,18 @@
       <c r="P205" s="43"/>
       <c r="Q205" s="40"/>
     </row>
-    <row r="206" ht="44" customHeight="1" spans="1:17">
-      <c r="A206" s="36"/>
+    <row r="206" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A206" s="45"/>
       <c r="B206" s="37"/>
       <c r="C206" s="37"/>
       <c r="D206" s="38"/>
       <c r="E206" s="38"/>
       <c r="F206" s="39"/>
-      <c r="G206" s="41"/>
+      <c r="G206" s="37"/>
       <c r="H206" s="40"/>
       <c r="I206" s="40"/>
-      <c r="J206" s="36"/>
-      <c r="K206" s="36"/>
+      <c r="J206" s="40"/>
+      <c r="K206" s="40"/>
       <c r="L206" s="40"/>
       <c r="M206" s="40"/>
       <c r="N206" s="43"/>
@@ -9909,18 +9403,18 @@
       <c r="P206" s="43"/>
       <c r="Q206" s="40"/>
     </row>
-    <row r="207" ht="44" customHeight="1" spans="1:17">
-      <c r="A207" s="36"/>
+    <row r="207" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A207" s="45"/>
       <c r="B207" s="37"/>
       <c r="C207" s="37"/>
       <c r="D207" s="38"/>
       <c r="E207" s="38"/>
       <c r="F207" s="39"/>
-      <c r="G207" s="41"/>
+      <c r="G207" s="37"/>
       <c r="H207" s="40"/>
       <c r="I207" s="40"/>
-      <c r="J207" s="36"/>
-      <c r="K207" s="36"/>
+      <c r="J207" s="40"/>
+      <c r="K207" s="40"/>
       <c r="L207" s="40"/>
       <c r="M207" s="40"/>
       <c r="N207" s="43"/>
@@ -9928,18 +9422,18 @@
       <c r="P207" s="43"/>
       <c r="Q207" s="40"/>
     </row>
-    <row r="208" ht="49" customHeight="1" spans="1:17">
-      <c r="A208" s="36"/>
+    <row r="208" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A208" s="45"/>
       <c r="B208" s="37"/>
       <c r="C208" s="37"/>
       <c r="D208" s="38"/>
       <c r="E208" s="38"/>
       <c r="F208" s="39"/>
-      <c r="G208" s="41"/>
+      <c r="G208" s="37"/>
       <c r="H208" s="40"/>
       <c r="I208" s="40"/>
-      <c r="J208" s="36"/>
-      <c r="K208" s="36"/>
+      <c r="J208" s="40"/>
+      <c r="K208" s="40"/>
       <c r="L208" s="40"/>
       <c r="M208" s="40"/>
       <c r="N208" s="43"/>
@@ -10004,7 +9498,7 @@
       <c r="P211" s="43"/>
       <c r="Q211" s="40"/>
     </row>
-    <row r="212" ht="36.6" customHeight="1" spans="1:17">
+    <row r="212" ht="37" customHeight="1" spans="1:17">
       <c r="A212" s="45"/>
       <c r="B212" s="37"/>
       <c r="C212" s="37"/>
@@ -10023,7 +9517,7 @@
       <c r="P212" s="43"/>
       <c r="Q212" s="40"/>
     </row>
-    <row r="213" ht="36.6" customHeight="1" spans="1:17">
+    <row r="213" ht="37" customHeight="1" spans="1:17">
       <c r="A213" s="45"/>
       <c r="B213" s="37"/>
       <c r="C213" s="37"/>
@@ -10042,7 +9536,7 @@
       <c r="P213" s="43"/>
       <c r="Q213" s="40"/>
     </row>
-    <row r="214" ht="36.6" customHeight="1" spans="1:17">
+    <row r="214" ht="37" customHeight="1" spans="1:17">
       <c r="A214" s="45"/>
       <c r="B214" s="37"/>
       <c r="C214" s="37"/>
@@ -10061,7 +9555,7 @@
       <c r="P214" s="43"/>
       <c r="Q214" s="40"/>
     </row>
-    <row r="215" ht="36.6" customHeight="1" spans="1:17">
+    <row r="215" ht="37" customHeight="1" spans="1:17">
       <c r="A215" s="45"/>
       <c r="B215" s="37"/>
       <c r="C215" s="37"/>
@@ -10080,7 +9574,7 @@
       <c r="P215" s="43"/>
       <c r="Q215" s="40"/>
     </row>
-    <row r="216" ht="36.6" customHeight="1" spans="1:17">
+    <row r="216" ht="37" customHeight="1" spans="1:17">
       <c r="A216" s="45"/>
       <c r="B216" s="37"/>
       <c r="C216" s="37"/>
@@ -10137,7 +9631,7 @@
       <c r="P218" s="43"/>
       <c r="Q218" s="40"/>
     </row>
-    <row r="219" ht="37" customHeight="1" spans="1:17">
+    <row r="219" ht="36.6" customHeight="1" spans="1:17">
       <c r="A219" s="45"/>
       <c r="B219" s="37"/>
       <c r="C219" s="37"/>
@@ -10156,7 +9650,7 @@
       <c r="P219" s="43"/>
       <c r="Q219" s="40"/>
     </row>
-    <row r="220" ht="37" customHeight="1" spans="1:17">
+    <row r="220" ht="36.6" customHeight="1" spans="1:17">
       <c r="A220" s="45"/>
       <c r="B220" s="37"/>
       <c r="C220" s="37"/>
@@ -10175,7 +9669,7 @@
       <c r="P220" s="43"/>
       <c r="Q220" s="40"/>
     </row>
-    <row r="221" ht="37" customHeight="1" spans="1:17">
+    <row r="221" ht="36.6" customHeight="1" spans="1:17">
       <c r="A221" s="45"/>
       <c r="B221" s="37"/>
       <c r="C221" s="37"/>
@@ -10194,7 +9688,7 @@
       <c r="P221" s="43"/>
       <c r="Q221" s="40"/>
     </row>
-    <row r="222" ht="37" customHeight="1" spans="1:17">
+    <row r="222" ht="36.6" customHeight="1" spans="1:17">
       <c r="A222" s="45"/>
       <c r="B222" s="37"/>
       <c r="C222" s="37"/>
@@ -10213,7 +9707,7 @@
       <c r="P222" s="43"/>
       <c r="Q222" s="40"/>
     </row>
-    <row r="223" ht="37" customHeight="1" spans="1:17">
+    <row r="223" ht="36.6" customHeight="1" spans="1:17">
       <c r="A223" s="45"/>
       <c r="B223" s="37"/>
       <c r="C223" s="37"/>
@@ -10422,7 +9916,7 @@
       <c r="P233" s="43"/>
       <c r="Q233" s="40"/>
     </row>
-    <row r="234" ht="36.6" customHeight="1" spans="1:17">
+    <row r="234" customHeight="1" spans="1:17">
       <c r="A234" s="45"/>
       <c r="B234" s="37"/>
       <c r="C234" s="37"/>
@@ -10441,7 +9935,7 @@
       <c r="P234" s="43"/>
       <c r="Q234" s="40"/>
     </row>
-    <row r="235" ht="36.6" customHeight="1" spans="1:17">
+    <row r="235" ht="36" customHeight="1" spans="1:17">
       <c r="A235" s="45"/>
       <c r="B235" s="37"/>
       <c r="C235" s="37"/>
@@ -10460,7 +9954,7 @@
       <c r="P235" s="43"/>
       <c r="Q235" s="40"/>
     </row>
-    <row r="236" ht="36.6" customHeight="1" spans="1:17">
+    <row r="236" ht="36" customHeight="1" spans="1:17">
       <c r="A236" s="45"/>
       <c r="B236" s="37"/>
       <c r="C236" s="37"/>
@@ -10479,7 +9973,7 @@
       <c r="P236" s="43"/>
       <c r="Q236" s="40"/>
     </row>
-    <row r="237" ht="36.6" customHeight="1" spans="1:17">
+    <row r="237" ht="36" customHeight="1" spans="1:17">
       <c r="A237" s="45"/>
       <c r="B237" s="37"/>
       <c r="C237" s="37"/>
@@ -10498,7 +9992,7 @@
       <c r="P237" s="43"/>
       <c r="Q237" s="40"/>
     </row>
-    <row r="238" ht="36.6" customHeight="1" spans="1:17">
+    <row r="238" ht="36" customHeight="1" spans="1:17">
       <c r="A238" s="45"/>
       <c r="B238" s="37"/>
       <c r="C238" s="37"/>
@@ -10517,7 +10011,7 @@
       <c r="P238" s="43"/>
       <c r="Q238" s="40"/>
     </row>
-    <row r="239" customHeight="1" spans="1:17">
+    <row r="239" ht="36" customHeight="1" spans="1:17">
       <c r="A239" s="45"/>
       <c r="B239" s="37"/>
       <c r="C239" s="37"/>
@@ -10669,7 +10163,7 @@
       <c r="P246" s="43"/>
       <c r="Q246" s="40"/>
     </row>
-    <row r="247" ht="36" customHeight="1" spans="1:17">
+    <row r="247" customHeight="1" spans="1:17">
       <c r="A247" s="45"/>
       <c r="B247" s="37"/>
       <c r="C247" s="37"/>
@@ -10688,7 +10182,7 @@
       <c r="P247" s="43"/>
       <c r="Q247" s="40"/>
     </row>
-    <row r="248" ht="36" customHeight="1" spans="1:17">
+    <row r="248" ht="36.6" customHeight="1" spans="1:17">
       <c r="A248" s="45"/>
       <c r="B248" s="37"/>
       <c r="C248" s="37"/>
@@ -10707,7 +10201,7 @@
       <c r="P248" s="43"/>
       <c r="Q248" s="40"/>
     </row>
-    <row r="249" ht="36" customHeight="1" spans="1:17">
+    <row r="249" ht="36.6" customHeight="1" spans="1:17">
       <c r="A249" s="45"/>
       <c r="B249" s="37"/>
       <c r="C249" s="37"/>
@@ -10726,7 +10220,7 @@
       <c r="P249" s="43"/>
       <c r="Q249" s="40"/>
     </row>
-    <row r="250" ht="36" customHeight="1" spans="1:17">
+    <row r="250" ht="36.6" customHeight="1" spans="1:17">
       <c r="A250" s="45"/>
       <c r="B250" s="37"/>
       <c r="C250" s="37"/>
@@ -10745,7 +10239,7 @@
       <c r="P250" s="43"/>
       <c r="Q250" s="40"/>
     </row>
-    <row r="251" ht="36" customHeight="1" spans="1:17">
+    <row r="251" ht="36.6" customHeight="1" spans="1:17">
       <c r="A251" s="45"/>
       <c r="B251" s="37"/>
       <c r="C251" s="37"/>
@@ -10764,7 +10258,7 @@
       <c r="P251" s="43"/>
       <c r="Q251" s="40"/>
     </row>
-    <row r="252" customHeight="1" spans="1:17">
+    <row r="252" ht="36.6" customHeight="1" spans="1:17">
       <c r="A252" s="45"/>
       <c r="B252" s="37"/>
       <c r="C252" s="37"/>
@@ -11429,7 +10923,7 @@
       <c r="P286" s="43"/>
       <c r="Q286" s="40"/>
     </row>
-    <row r="287" ht="36.6" customHeight="1" spans="1:17">
+    <row r="287" ht="37" customHeight="1" spans="1:17">
       <c r="A287" s="45"/>
       <c r="B287" s="37"/>
       <c r="C287" s="37"/>
@@ -11486,7 +10980,7 @@
       <c r="P289" s="43"/>
       <c r="Q289" s="40"/>
     </row>
-    <row r="290" ht="36.6" customHeight="1" spans="1:17">
+    <row r="290" ht="17" customHeight="1" spans="1:17">
       <c r="A290" s="45"/>
       <c r="B290" s="37"/>
       <c r="C290" s="37"/>
@@ -11524,7 +11018,7 @@
       <c r="P291" s="43"/>
       <c r="Q291" s="40"/>
     </row>
-    <row r="292" ht="37" customHeight="1" spans="1:17">
+    <row r="292" ht="36.6" customHeight="1" spans="1:17">
       <c r="A292" s="45"/>
       <c r="B292" s="37"/>
       <c r="C292" s="37"/>
@@ -11581,7 +11075,7 @@
       <c r="P294" s="43"/>
       <c r="Q294" s="40"/>
     </row>
-    <row r="295" ht="17" customHeight="1" spans="1:17">
+    <row r="295" ht="36.6" customHeight="1" spans="1:17">
       <c r="A295" s="45"/>
       <c r="B295" s="37"/>
       <c r="C295" s="37"/>
@@ -11790,7 +11284,7 @@
       <c r="P305" s="43"/>
       <c r="Q305" s="40"/>
     </row>
-    <row r="306" ht="36.6" customHeight="1" spans="1:17">
+    <row r="306" ht="13" customHeight="1" spans="1:17">
       <c r="A306" s="45"/>
       <c r="B306" s="37"/>
       <c r="C306" s="37"/>
@@ -11809,7 +11303,7 @@
       <c r="P306" s="43"/>
       <c r="Q306" s="40"/>
     </row>
-    <row r="307" ht="36.6" customHeight="1" spans="1:17">
+    <row r="307" ht="67" customHeight="1" spans="1:17">
       <c r="A307" s="45"/>
       <c r="B307" s="37"/>
       <c r="C307" s="37"/>
@@ -11828,7 +11322,7 @@
       <c r="P307" s="43"/>
       <c r="Q307" s="40"/>
     </row>
-    <row r="308" ht="36.6" customHeight="1" spans="1:17">
+    <row r="308" ht="56" customHeight="1" spans="1:17">
       <c r="A308" s="45"/>
       <c r="B308" s="37"/>
       <c r="C308" s="37"/>
@@ -11847,7 +11341,7 @@
       <c r="P308" s="43"/>
       <c r="Q308" s="40"/>
     </row>
-    <row r="309" ht="36.6" customHeight="1" spans="1:17">
+    <row r="309" ht="56" customHeight="1" spans="1:17">
       <c r="A309" s="45"/>
       <c r="B309" s="37"/>
       <c r="C309" s="37"/>
@@ -11866,7 +11360,7 @@
       <c r="P309" s="43"/>
       <c r="Q309" s="40"/>
     </row>
-    <row r="310" ht="36.6" customHeight="1" spans="1:17">
+    <row r="310" ht="56" customHeight="1" spans="1:17">
       <c r="A310" s="45"/>
       <c r="B310" s="37"/>
       <c r="C310" s="37"/>
@@ -11885,7 +11379,7 @@
       <c r="P310" s="43"/>
       <c r="Q310" s="40"/>
     </row>
-    <row r="311" ht="13" customHeight="1" spans="1:17">
+    <row r="311" ht="56" customHeight="1" spans="1:17">
       <c r="A311" s="45"/>
       <c r="B311" s="37"/>
       <c r="C311" s="37"/>
@@ -11904,7 +11398,7 @@
       <c r="P311" s="43"/>
       <c r="Q311" s="40"/>
     </row>
-    <row r="312" ht="67" customHeight="1" spans="1:17">
+    <row r="312" ht="56" customHeight="1" spans="1:17">
       <c r="A312" s="45"/>
       <c r="B312" s="37"/>
       <c r="C312" s="37"/>
@@ -12208,7 +11702,7 @@
       <c r="P327" s="43"/>
       <c r="Q327" s="40"/>
     </row>
-    <row r="328" ht="56" customHeight="1" spans="1:17">
+    <row r="328" ht="14" customHeight="1" spans="1:17">
       <c r="A328" s="45"/>
       <c r="B328" s="37"/>
       <c r="C328" s="37"/>
@@ -12227,7 +11721,7 @@
       <c r="P328" s="43"/>
       <c r="Q328" s="40"/>
     </row>
-    <row r="329" ht="56" customHeight="1" spans="1:17">
+    <row r="329" ht="40" customHeight="1" spans="1:17">
       <c r="A329" s="45"/>
       <c r="B329" s="37"/>
       <c r="C329" s="37"/>
@@ -12246,7 +11740,7 @@
       <c r="P329" s="43"/>
       <c r="Q329" s="40"/>
     </row>
-    <row r="330" ht="56" customHeight="1" spans="1:17">
+    <row r="330" ht="40" customHeight="1" spans="1:17">
       <c r="A330" s="45"/>
       <c r="B330" s="37"/>
       <c r="C330" s="37"/>
@@ -12265,7 +11759,7 @@
       <c r="P330" s="43"/>
       <c r="Q330" s="40"/>
     </row>
-    <row r="331" ht="56" customHeight="1" spans="1:17">
+    <row r="331" ht="40" customHeight="1" spans="1:17">
       <c r="A331" s="45"/>
       <c r="B331" s="37"/>
       <c r="C331" s="37"/>
@@ -12284,7 +11778,7 @@
       <c r="P331" s="43"/>
       <c r="Q331" s="40"/>
     </row>
-    <row r="332" ht="56" customHeight="1" spans="1:17">
+    <row r="332" ht="40" customHeight="1" spans="1:17">
       <c r="A332" s="45"/>
       <c r="B332" s="37"/>
       <c r="C332" s="37"/>
@@ -12303,7 +11797,7 @@
       <c r="P332" s="43"/>
       <c r="Q332" s="40"/>
     </row>
-    <row r="333" ht="14" customHeight="1" spans="1:17">
+    <row r="333" ht="40" customHeight="1" spans="1:17">
       <c r="A333" s="45"/>
       <c r="B333" s="37"/>
       <c r="C333" s="37"/>
@@ -12322,7 +11816,7 @@
       <c r="P333" s="43"/>
       <c r="Q333" s="40"/>
     </row>
-    <row r="334" ht="40" customHeight="1" spans="1:17">
+    <row r="334" ht="15" customHeight="1" spans="1:17">
       <c r="A334" s="45"/>
       <c r="B334" s="37"/>
       <c r="C334" s="37"/>
@@ -12341,7 +11835,7 @@
       <c r="P334" s="43"/>
       <c r="Q334" s="40"/>
     </row>
-    <row r="335" ht="40" customHeight="1" spans="1:17">
+    <row r="335" ht="45" customHeight="1" spans="1:17">
       <c r="A335" s="45"/>
       <c r="B335" s="37"/>
       <c r="C335" s="37"/>
@@ -12360,7 +11854,7 @@
       <c r="P335" s="43"/>
       <c r="Q335" s="40"/>
     </row>
-    <row r="336" ht="40" customHeight="1" spans="1:17">
+    <row r="336" ht="45" customHeight="1" spans="1:17">
       <c r="A336" s="45"/>
       <c r="B336" s="37"/>
       <c r="C336" s="37"/>
@@ -12379,7 +11873,7 @@
       <c r="P336" s="43"/>
       <c r="Q336" s="40"/>
     </row>
-    <row r="337" ht="40" customHeight="1" spans="1:17">
+    <row r="337" ht="45" customHeight="1" spans="1:17">
       <c r="A337" s="45"/>
       <c r="B337" s="37"/>
       <c r="C337" s="37"/>
@@ -12398,7 +11892,7 @@
       <c r="P337" s="43"/>
       <c r="Q337" s="40"/>
     </row>
-    <row r="338" ht="40" customHeight="1" spans="1:17">
+    <row r="338" ht="45" customHeight="1" spans="1:17">
       <c r="A338" s="45"/>
       <c r="B338" s="37"/>
       <c r="C338" s="37"/>
@@ -12417,7 +11911,7 @@
       <c r="P338" s="43"/>
       <c r="Q338" s="40"/>
     </row>
-    <row r="339" ht="15" customHeight="1" spans="1:17">
+    <row r="339" ht="45" customHeight="1" spans="1:17">
       <c r="A339" s="45"/>
       <c r="B339" s="37"/>
       <c r="C339" s="37"/>
@@ -12493,7 +11987,7 @@
       <c r="P342" s="43"/>
       <c r="Q342" s="40"/>
     </row>
-    <row r="343" ht="45" customHeight="1" spans="1:17">
+    <row r="343" ht="10" customHeight="1" spans="1:17">
       <c r="A343" s="45"/>
       <c r="B343" s="37"/>
       <c r="C343" s="37"/>
@@ -12512,7 +12006,7 @@
       <c r="P343" s="43"/>
       <c r="Q343" s="40"/>
     </row>
-    <row r="344" ht="45" customHeight="1" spans="1:17">
+    <row r="344" ht="44" customHeight="1" spans="1:17">
       <c r="A344" s="45"/>
       <c r="B344" s="37"/>
       <c r="C344" s="37"/>
@@ -12531,7 +12025,7 @@
       <c r="P344" s="43"/>
       <c r="Q344" s="40"/>
     </row>
-    <row r="345" ht="45" customHeight="1" spans="1:17">
+    <row r="345" ht="44" customHeight="1" spans="1:17">
       <c r="A345" s="45"/>
       <c r="B345" s="37"/>
       <c r="C345" s="37"/>
@@ -12550,7 +12044,7 @@
       <c r="P345" s="43"/>
       <c r="Q345" s="40"/>
     </row>
-    <row r="346" ht="45" customHeight="1" spans="1:17">
+    <row r="346" ht="44" customHeight="1" spans="1:17">
       <c r="A346" s="45"/>
       <c r="B346" s="37"/>
       <c r="C346" s="37"/>
@@ -12569,7 +12063,7 @@
       <c r="P346" s="43"/>
       <c r="Q346" s="40"/>
     </row>
-    <row r="347" ht="45" customHeight="1" spans="1:17">
+    <row r="347" ht="44" customHeight="1" spans="1:17">
       <c r="A347" s="45"/>
       <c r="B347" s="37"/>
       <c r="C347" s="37"/>
@@ -12588,7 +12082,7 @@
       <c r="P347" s="43"/>
       <c r="Q347" s="40"/>
     </row>
-    <row r="348" ht="10" customHeight="1" spans="1:17">
+    <row r="348" ht="44" customHeight="1" spans="1:17">
       <c r="A348" s="45"/>
       <c r="B348" s="37"/>
       <c r="C348" s="37"/>
@@ -12673,7 +12167,7 @@
       <c r="F352" s="39"/>
       <c r="G352" s="37"/>
       <c r="H352" s="40"/>
-      <c r="I352" s="40"/>
+      <c r="I352" s="26"/>
       <c r="J352" s="40"/>
       <c r="K352" s="40"/>
       <c r="L352" s="40"/>
@@ -12768,7 +12262,7 @@
       <c r="F357" s="39"/>
       <c r="G357" s="37"/>
       <c r="H357" s="40"/>
-      <c r="I357" s="26"/>
+      <c r="I357" s="40"/>
       <c r="J357" s="40"/>
       <c r="K357" s="40"/>
       <c r="L357" s="40"/>
@@ -12942,12 +12436,12 @@
       <c r="I366" s="40"/>
       <c r="J366" s="40"/>
       <c r="K366" s="40"/>
-      <c r="L366" s="40"/>
-      <c r="M366" s="40"/>
-      <c r="N366" s="43"/>
-      <c r="O366" s="40"/>
-      <c r="P366" s="43"/>
-      <c r="Q366" s="40"/>
+      <c r="L366" s="26"/>
+      <c r="M366" s="26"/>
+      <c r="N366" s="26"/>
+      <c r="O366" s="26"/>
+      <c r="P366" s="26"/>
+      <c r="Q366" s="26"/>
     </row>
     <row r="367" ht="44" customHeight="1" spans="1:17">
       <c r="A367" s="45"/>
@@ -12961,12 +12455,12 @@
       <c r="I367" s="40"/>
       <c r="J367" s="40"/>
       <c r="K367" s="40"/>
-      <c r="L367" s="40"/>
-      <c r="M367" s="40"/>
-      <c r="N367" s="43"/>
-      <c r="O367" s="40"/>
-      <c r="P367" s="43"/>
-      <c r="Q367" s="40"/>
+      <c r="L367" s="26"/>
+      <c r="M367" s="26"/>
+      <c r="N367" s="26"/>
+      <c r="O367" s="26"/>
+      <c r="P367" s="26"/>
+      <c r="Q367" s="26"/>
     </row>
     <row r="368" ht="44" customHeight="1" spans="1:17">
       <c r="A368" s="45"/>
@@ -12980,12 +12474,12 @@
       <c r="I368" s="40"/>
       <c r="J368" s="40"/>
       <c r="K368" s="40"/>
-      <c r="L368" s="40"/>
-      <c r="M368" s="40"/>
-      <c r="N368" s="43"/>
-      <c r="O368" s="40"/>
-      <c r="P368" s="43"/>
-      <c r="Q368" s="40"/>
+      <c r="L368" s="26"/>
+      <c r="M368" s="26"/>
+      <c r="N368" s="26"/>
+      <c r="O368" s="26"/>
+      <c r="P368" s="26"/>
+      <c r="Q368" s="26"/>
     </row>
     <row r="369" ht="44" customHeight="1" spans="1:17">
       <c r="A369" s="45"/>
@@ -12999,12 +12493,12 @@
       <c r="I369" s="40"/>
       <c r="J369" s="40"/>
       <c r="K369" s="40"/>
-      <c r="L369" s="40"/>
-      <c r="M369" s="40"/>
-      <c r="N369" s="43"/>
-      <c r="O369" s="40"/>
-      <c r="P369" s="43"/>
-      <c r="Q369" s="40"/>
+      <c r="L369" s="26"/>
+      <c r="M369" s="26"/>
+      <c r="N369" s="26"/>
+      <c r="O369" s="26"/>
+      <c r="P369" s="26"/>
+      <c r="Q369" s="26"/>
     </row>
     <row r="370" ht="44" customHeight="1" spans="1:17">
       <c r="A370" s="45"/>
@@ -13018,12 +12512,12 @@
       <c r="I370" s="40"/>
       <c r="J370" s="40"/>
       <c r="K370" s="40"/>
-      <c r="L370" s="40"/>
-      <c r="M370" s="40"/>
-      <c r="N370" s="43"/>
-      <c r="O370" s="40"/>
-      <c r="P370" s="43"/>
-      <c r="Q370" s="40"/>
+      <c r="L370" s="26"/>
+      <c r="M370" s="26"/>
+      <c r="N370" s="26"/>
+      <c r="O370" s="26"/>
+      <c r="P370" s="26"/>
+      <c r="Q370" s="26"/>
     </row>
     <row r="371" ht="44" customHeight="1" spans="1:17">
       <c r="A371" s="45"/>
@@ -13082,18 +12576,18 @@
       <c r="P373" s="26"/>
       <c r="Q373" s="26"/>
     </row>
-    <row r="374" ht="44" customHeight="1" spans="1:17">
-      <c r="A374" s="45"/>
-      <c r="B374" s="37"/>
-      <c r="C374" s="37"/>
-      <c r="D374" s="38"/>
-      <c r="E374" s="38"/>
-      <c r="F374" s="39"/>
-      <c r="G374" s="37"/>
-      <c r="H374" s="40"/>
-      <c r="I374" s="40"/>
-      <c r="J374" s="40"/>
-      <c r="K374" s="40"/>
+    <row r="374" spans="1:17">
+      <c r="A374" s="26"/>
+      <c r="B374" s="26"/>
+      <c r="C374" s="26"/>
+      <c r="D374" s="27"/>
+      <c r="E374" s="27"/>
+      <c r="F374" s="27"/>
+      <c r="G374" s="28"/>
+      <c r="H374" s="26"/>
+      <c r="I374" s="26"/>
+      <c r="J374" s="26"/>
+      <c r="K374" s="26"/>
       <c r="L374" s="26"/>
       <c r="M374" s="26"/>
       <c r="N374" s="26"/>
@@ -13101,18 +12595,18 @@
       <c r="P374" s="26"/>
       <c r="Q374" s="26"/>
     </row>
-    <row r="375" ht="44" customHeight="1" spans="1:17">
-      <c r="A375" s="45"/>
-      <c r="B375" s="37"/>
-      <c r="C375" s="37"/>
-      <c r="D375" s="38"/>
-      <c r="E375" s="38"/>
-      <c r="F375" s="39"/>
-      <c r="G375" s="37"/>
-      <c r="H375" s="40"/>
-      <c r="I375" s="40"/>
-      <c r="J375" s="40"/>
-      <c r="K375" s="40"/>
+    <row r="375" spans="1:17">
+      <c r="A375" s="26"/>
+      <c r="B375" s="26"/>
+      <c r="C375" s="26"/>
+      <c r="D375" s="27"/>
+      <c r="E375" s="27"/>
+      <c r="F375" s="27"/>
+      <c r="G375" s="28"/>
+      <c r="H375" s="26"/>
+      <c r="I375" s="26"/>
+      <c r="J375" s="26"/>
+      <c r="K375" s="26"/>
       <c r="L375" s="26"/>
       <c r="M375" s="26"/>
       <c r="N375" s="26"/>
@@ -13120,18 +12614,18 @@
       <c r="P375" s="26"/>
       <c r="Q375" s="26"/>
     </row>
-    <row r="376" ht="44" customHeight="1" spans="1:17">
-      <c r="A376" s="45"/>
-      <c r="B376" s="37"/>
-      <c r="C376" s="37"/>
-      <c r="D376" s="38"/>
-      <c r="E376" s="38"/>
-      <c r="F376" s="39"/>
-      <c r="G376" s="37"/>
-      <c r="H376" s="40"/>
-      <c r="I376" s="40"/>
-      <c r="J376" s="40"/>
-      <c r="K376" s="40"/>
+    <row r="376" spans="1:17">
+      <c r="A376" s="26"/>
+      <c r="B376" s="26"/>
+      <c r="C376" s="26"/>
+      <c r="D376" s="27"/>
+      <c r="E376" s="27"/>
+      <c r="F376" s="27"/>
+      <c r="G376" s="28"/>
+      <c r="H376" s="26"/>
+      <c r="I376" s="26"/>
+      <c r="J376" s="26"/>
+      <c r="K376" s="26"/>
       <c r="L376" s="26"/>
       <c r="M376" s="26"/>
       <c r="N376" s="26"/>
@@ -13139,18 +12633,18 @@
       <c r="P376" s="26"/>
       <c r="Q376" s="26"/>
     </row>
-    <row r="377" ht="44" customHeight="1" spans="1:17">
-      <c r="A377" s="45"/>
-      <c r="B377" s="37"/>
-      <c r="C377" s="37"/>
-      <c r="D377" s="38"/>
-      <c r="E377" s="38"/>
-      <c r="F377" s="39"/>
-      <c r="G377" s="37"/>
-      <c r="H377" s="40"/>
-      <c r="I377" s="40"/>
-      <c r="J377" s="40"/>
-      <c r="K377" s="40"/>
+    <row r="377" spans="1:17">
+      <c r="A377" s="26"/>
+      <c r="B377" s="26"/>
+      <c r="C377" s="26"/>
+      <c r="D377" s="27"/>
+      <c r="E377" s="27"/>
+      <c r="F377" s="27"/>
+      <c r="G377" s="28"/>
+      <c r="H377" s="26"/>
+      <c r="I377" s="26"/>
+      <c r="J377" s="26"/>
+      <c r="K377" s="26"/>
       <c r="L377" s="26"/>
       <c r="M377" s="26"/>
       <c r="N377" s="26"/>
@@ -13158,18 +12652,18 @@
       <c r="P377" s="26"/>
       <c r="Q377" s="26"/>
     </row>
-    <row r="378" ht="44" customHeight="1" spans="1:17">
-      <c r="A378" s="45"/>
-      <c r="B378" s="37"/>
-      <c r="C378" s="37"/>
-      <c r="D378" s="38"/>
-      <c r="E378" s="38"/>
-      <c r="F378" s="39"/>
-      <c r="G378" s="37"/>
-      <c r="H378" s="40"/>
-      <c r="I378" s="40"/>
-      <c r="J378" s="40"/>
-      <c r="K378" s="40"/>
+    <row r="378" spans="1:17">
+      <c r="A378" s="26"/>
+      <c r="B378" s="26"/>
+      <c r="C378" s="26"/>
+      <c r="D378" s="27"/>
+      <c r="E378" s="27"/>
+      <c r="F378" s="27"/>
+      <c r="G378" s="28"/>
+      <c r="H378" s="26"/>
+      <c r="I378" s="26"/>
+      <c r="J378" s="26"/>
+      <c r="K378" s="26"/>
       <c r="L378" s="26"/>
       <c r="M378" s="26"/>
       <c r="N378" s="26"/>
@@ -16122,100 +15616,25 @@
       <c r="P533" s="26"/>
       <c r="Q533" s="26"/>
     </row>
-    <row r="534" spans="1:17">
-      <c r="A534" s="26"/>
-      <c r="B534" s="26"/>
-      <c r="C534" s="26"/>
-      <c r="D534" s="27"/>
-      <c r="E534" s="27"/>
-      <c r="F534" s="27"/>
-      <c r="G534" s="28"/>
-      <c r="H534" s="26"/>
-      <c r="I534" s="26"/>
-      <c r="J534" s="26"/>
-      <c r="K534" s="26"/>
-      <c r="L534" s="26"/>
-      <c r="M534" s="26"/>
-      <c r="N534" s="26"/>
-      <c r="O534" s="26"/>
-      <c r="P534" s="26"/>
-      <c r="Q534" s="26"/>
-    </row>
-    <row r="535" spans="1:17">
-      <c r="A535" s="26"/>
-      <c r="B535" s="26"/>
-      <c r="C535" s="26"/>
-      <c r="D535" s="27"/>
-      <c r="E535" s="27"/>
-      <c r="F535" s="27"/>
-      <c r="G535" s="28"/>
-      <c r="H535" s="26"/>
-      <c r="I535" s="26"/>
-      <c r="J535" s="26"/>
-      <c r="K535" s="26"/>
-      <c r="L535" s="26"/>
-      <c r="M535" s="26"/>
-      <c r="N535" s="26"/>
-      <c r="O535" s="26"/>
-      <c r="P535" s="26"/>
-      <c r="Q535" s="26"/>
-    </row>
-    <row r="536" spans="1:17">
-      <c r="A536" s="26"/>
-      <c r="B536" s="26"/>
-      <c r="C536" s="26"/>
-      <c r="D536" s="27"/>
-      <c r="E536" s="27"/>
-      <c r="F536" s="27"/>
-      <c r="G536" s="28"/>
-      <c r="H536" s="26"/>
-      <c r="I536" s="26"/>
-      <c r="J536" s="26"/>
-      <c r="K536" s="26"/>
-      <c r="L536" s="26"/>
-      <c r="M536" s="26"/>
-      <c r="N536" s="26"/>
-      <c r="O536" s="26"/>
-      <c r="P536" s="26"/>
-      <c r="Q536" s="26"/>
-    </row>
-    <row r="537" spans="1:17">
-      <c r="A537" s="26"/>
-      <c r="B537" s="26"/>
-      <c r="C537" s="26"/>
-      <c r="D537" s="27"/>
-      <c r="E537" s="27"/>
-      <c r="F537" s="27"/>
-      <c r="G537" s="28"/>
-      <c r="H537" s="26"/>
-      <c r="I537" s="26"/>
-      <c r="J537" s="26"/>
-      <c r="K537" s="26"/>
-      <c r="L537" s="26"/>
-      <c r="M537" s="26"/>
-      <c r="N537" s="26"/>
-      <c r="O537" s="26"/>
-      <c r="P537" s="26"/>
-      <c r="Q537" s="26"/>
-    </row>
-    <row r="538" spans="1:17">
-      <c r="A538" s="26"/>
-      <c r="B538" s="26"/>
-      <c r="C538" s="26"/>
-      <c r="D538" s="27"/>
-      <c r="E538" s="27"/>
-      <c r="F538" s="27"/>
-      <c r="G538" s="28"/>
-      <c r="H538" s="26"/>
-      <c r="I538" s="26"/>
-      <c r="J538" s="26"/>
-      <c r="K538" s="26"/>
-      <c r="L538" s="26"/>
-      <c r="M538" s="26"/>
-      <c r="N538" s="26"/>
-      <c r="O538" s="26"/>
-      <c r="P538" s="26"/>
-      <c r="Q538" s="26"/>
+    <row r="534" spans="5:6">
+      <c r="E534" s="23"/>
+      <c r="F534" s="23"/>
+    </row>
+    <row r="535" spans="5:6">
+      <c r="E535" s="23"/>
+      <c r="F535" s="23"/>
+    </row>
+    <row r="536" spans="5:6">
+      <c r="E536" s="23"/>
+      <c r="F536" s="23"/>
+    </row>
+    <row r="537" spans="5:6">
+      <c r="E537" s="23"/>
+      <c r="F537" s="23"/>
+    </row>
+    <row r="538" spans="5:6">
+      <c r="E538" s="23"/>
+      <c r="F538" s="23"/>
     </row>
     <row r="539" spans="5:6">
       <c r="E539" s="23"/>
@@ -17785,28 +17204,8 @@
       <c r="E930" s="23"/>
       <c r="F930" s="23"/>
     </row>
-    <row r="931" spans="5:6">
-      <c r="E931" s="23"/>
-      <c r="F931" s="23"/>
-    </row>
-    <row r="932" spans="5:6">
-      <c r="E932" s="23"/>
-      <c r="F932" s="23"/>
-    </row>
-    <row r="933" spans="5:6">
-      <c r="E933" s="23"/>
-      <c r="F933" s="23"/>
-    </row>
-    <row r="934" spans="5:6">
-      <c r="E934" s="23"/>
-      <c r="F934" s="23"/>
-    </row>
-    <row r="935" spans="5:6">
-      <c r="E935" s="23"/>
-      <c r="F935" s="23"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:R208">
+  <autoFilter ref="A4:R203">
     <extLst/>
   </autoFilter>
   <mergeCells count="7">
@@ -17818,60 +17217,60 @@
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="L3:Q3"/>
   </mergeCells>
-  <conditionalFormatting sqref="N308">
+  <conditionalFormatting sqref="N303">
     <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N147">
+  <conditionalFormatting sqref="N5:N142">
     <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N148:N153">
+  <conditionalFormatting sqref="N143:N148">
     <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N173:N177">
+  <conditionalFormatting sqref="N168:N172">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N187:N193">
+  <conditionalFormatting sqref="N182:N188">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N292:N295">
+  <conditionalFormatting sqref="N287:N290">
     <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N4 N371:N1048576">
+  <conditionalFormatting sqref="N1:N4 N366:N1048576">
     <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N178:N184 N255:N291 N154:N172">
+  <conditionalFormatting sqref="N173:N179 N149:N167 N250:N286">
     <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N185:N186 N296:N307 N309:N370 N194:N254">
+  <conditionalFormatting sqref="N180:N181 N189:N249 N304:N365 N291:N302">
     <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="N5 N6 N7 N8 N9 N10 N11 N12 N13 N14 N15 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N84 N85 N86 N90 N91 N92 N93 N94 N95 N96 N97 N98 N99 N100 N101 N102 N103 N104 N111 N112 N113 N114 N115 N139 N203 N239 N252 N292 N295 N311 N312 N313 N320 N321 N327 N332 N333 N334 N335 N336 N337 N338 N339 N349 N353 N354 N355 N370 N87:N89 N105:N110 N116:N121 N122:N135 N136:N138 N140:N153 N154:N202 N204:N238 N240:N244 N245:N251 N253:N255 N256:N266 N267:N275 N276:N285 N286:N291 N293:N294 N296:N310 N314:N317 N318:N319 N322:N326 N328:N331 N340:N341 N342:N348 N350:N352 N356:N357 N358:N363 N364:N369">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="N5 N6 N7 N8 N9 N10 N11 N12 N13 N14 N15 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N85 N86 N87 N88 N89 N90 N91 N92 N93 N94 N95 N96 N97 N98 N99 N106 N107 N108 N109 N110 N134 N198 N234 N247 N287 N290 N306 N307 N308 N315 N316 N322 N327 N328 N329 N330 N331 N332 N333 N334 N344 N348 N349 N350 N365 N82:N84 N100:N105 N111:N116 N117:N130 N131:N133 N135:N148 N149:N197 N199:N233 N235:N239 N240:N246 N248:N250 N251:N261 N262:N270 N271:N280 N281:N286 N288:N289 N291:N305 N309:N312 N313:N314 N317:N321 N323:N326 N335:N336 N337:N343 N345:N347 N351:N352 N353:N358 N359:N364">
       <formula1>"未测试,通过,不通过,不适用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C9 C16 C17 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C105 C106 C110 C111 C112 C113 C114 C115 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C161 C162 C163 C164 C165 C166 C167 C168 C169 C170 C171 C172 C173 C174 C175 C176 C177 C178 C179 C180 C181 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C192 C193 C194 C195 C196 C197 C198 C199 C200 C201 C202 C203 C204 C205 C206 C207 C208 C239 C245 C246 C247 C248 C249 C250 C251 C252 C292 C295 C311 C312 C332 C333 C334 C335 C336 C337 C338 C339 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C372 C373 C374 C375 C376 C377 C378 C5:C6 C7:C8 C10:C15 C18:C26 C75:C79 C80:C85 C86:C88 C89:C93 C94:C100 C101:C104 C107:C109 C116:C120 C209:C238 C240:C244 C253:C255 C256:C284 C285:C291 C293:C294 C296:C310 C313:C316 C317:C327 C328:C331 C340:C341 C356:C357 C370:C371">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D9 D16 D20 D21 D29 D30 D33 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D160 D161 D162 D163 D164 D165 D166 D167 D168 D169 D170 D171 D172 D173 D174 D175 D176 D177 D178 D179 D180 D181 D182 D183 D184 D185 D186 D187 D188 D189 D190 D191 D192 D193 D194 D195 D196 D197 D198 D199 D200 D201 D202 D203 D234 D240 D241 D242 D243 D244 D245 D246 D247 D287 D290 D306 D307 D327 D328 D329 D330 D331 D332 D333 D334 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D353 D354 D355 D356 D357 D358 D359 D360 D361 D362 D363 D364 D368 D369 D370 D371 D372 D373 D5:D6 D7:D8 D10:D15 D17:D19 D22:D23 D24:D28 D31:D32 D34:D38 D70:D74 D75:D80 D81:D83 D84:D88 D89:D95 D96:D99 D111:D114 D204:D233 D235:D239 D248:D250 D251:D279 D280:D286 D288:D289 D291:D305 D308:D311 D312:D322 D323:D326 D335:D336 D351:D352 D365:D367">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C9 C16 C19 C20 C21 C29 C30 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C100 C101 C105 C106 C107 C108 C109 C110 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C161 C162 C163 C164 C165 C166 C167 C168 C169 C170 C171 C172 C173 C174 C175 C176 C177 C178 C179 C180 C181 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C192 C193 C194 C195 C196 C197 C198 C199 C200 C201 C202 C203 C234 C240 C241 C242 C243 C244 C245 C246 C247 C287 C290 C306 C307 C327 C328 C329 C330 C331 C332 C333 C334 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C367 C368 C369 C370 C371 C372 C373 C5:C6 C7:C8 C10:C15 C17:C18 C22:C23 C24:C28 C31:C32 C70:C74 C75:C80 C81:C83 C84:C88 C89:C95 C96:C99 C102:C104 C111:C115 C204:C233 C235:C239 C248:C250 C251:C279 C280:C286 C288:C289 C291:C305 C308:C311 C312:C322 C323:C326 C335:C336 C351:C352 C365:C366">
       <formula1>"正常类测试,异常类测试,边界值测试,上线、回切测试,兼容性测试,UI测试,用户体验测试,性能测试,其它测试"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D9 D16 D17 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D160 D161 D162 D163 D164 D165 D166 D167 D168 D169 D170 D171 D172 D173 D174 D175 D176 D177 D178 D179 D180 D181 D182 D183 D184 D185 D186 D187 D188 D189 D190 D191 D192 D193 D194 D195 D196 D197 D198 D199 D200 D201 D202 D203 D204 D205 D206 D207 D208 D239 D245 D246 D247 D248 D249 D250 D251 D252 D292 D295 D311 D312 D332 D333 D334 D335 D336 D337 D338 D339 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D358 D359 D360 D361 D362 D363 D364 D365 D366 D367 D368 D369 D373 D374 D375 D376 D377 D378 D5:D6 D7:D8 D10:D15 D18:D26 D75:D79 D80:D85 D86:D88 D89:D93 D94:D100 D101:D104 D116:D119 D209:D238 D240:D244 D253:D255 D256:D284 D285:D291 D293:D294 D296:D310 D313:D316 D317:D327 D328:D331 D340:D341 D356:D357 D370:D372">
-      <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17932,13 +17331,13 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:26">
       <c r="A2" s="16" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -17968,10 +17367,10 @@
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:26">
       <c r="A3" s="18" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -18000,10 +17399,10 @@
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:26">
       <c r="A4" s="19" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -18032,10 +17431,10 @@
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:26">
       <c r="A5" s="20" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -22192,7 +21591,7 @@
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22222,16 +21621,16 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:26">
       <c r="A2" s="5" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -23154,7 +22553,7 @@
     </row>
     <row r="35" ht="31.5" customHeight="1" spans="1:26">
       <c r="A35" s="1" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/cyfsgit测试用例.xlsx
+++ b/cyfsgit测试用例.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="git全量用例" sheetId="4" r:id="rId1"/>
-    <sheet name="git冒烟测试" sheetId="5" r:id="rId2"/>
+    <sheet name="git回归用例" sheetId="5" r:id="rId2"/>
     <sheet name="个人主页" sheetId="6" r:id="rId3"/>
     <sheet name="编号规则" sheetId="2" r:id="rId4"/>
     <sheet name="计划" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">git全量用例!$A$4:$R$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">git全量用例!$A$4:$R$204</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">计划!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -151,18 +151,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="361">
   <si>
     <t>测试用例</t>
   </si>
   <si>
-    <t>项目名称：cyfs</t>
+    <t>项目名称：CodeDAO</t>
   </si>
   <si>
     <t>系统名称：cyfsgit</t>
   </si>
   <si>
-    <t>测试：熊丹</t>
+    <t>测试：赖小华</t>
   </si>
   <si>
     <t>项目经理：孙欣乐</t>
@@ -586,7 +586,10 @@
 5、取消成功，跳转到仓库首页</t>
   </si>
   <si>
-    <t>终端操作</t>
+    <t>CYFS_GIT_020</t>
+  </si>
+  <si>
+    <t>push</t>
   </si>
   <si>
     <t>本地仓库与远程仓库建立连接</t>
@@ -609,50 +612,111 @@
 </t>
   </si>
   <si>
-    <t>clone-》仓库owner clone远程公开仓库</t>
+    <t>CYFS_GIT_021</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>git clone 自己的远程公开仓库</t>
   </si>
   <si>
     <t>1、已存在远程仓库test-public</t>
   </si>
   <si>
-    <t>clone-》仓库owner clone远程私有仓库</t>
+    <t>本地终端执行
+git clone 自己公开仓库地址cyfs:xxx</t>
+  </si>
+  <si>
+    <t>clone成功，内容一致</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_022</t>
+  </si>
+  <si>
+    <t>git clone 自己的远程私有仓库</t>
   </si>
   <si>
     <t>1、已存在远程仓库test-private</t>
   </si>
   <si>
-    <t>clone-》仓库成员 clone远程公开仓库</t>
+    <t>本地终端执行
+git clone 自己私有仓库地址cyfs:xxx</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_023</t>
+  </si>
+  <si>
+    <t>git clone 他人的远程公开仓库</t>
   </si>
   <si>
     <t>1、已存在远程仓库test-public
 2、已是该仓库成员</t>
   </si>
   <si>
-    <t>clone-》仓库成员 clone远程私有仓库</t>
+    <t>本地终端执行
+git clone 他人公开仓库地址cyfs:xxx</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_024</t>
+  </si>
+  <si>
+    <t>仓库成员git clone 他人的远程私有仓库</t>
   </si>
   <si>
     <t>1、已存在远程仓库test-private
 2、已是该仓库成员</t>
   </si>
   <si>
-    <t>clone-》非仓库成员 clone远程公开仓库</t>
+    <t>本地终端执行
+git clone 他人私有仓库地址cyfs:xxx</t>
   </si>
   <si>
-    <t>1、已存在远程仓库test-public
-2、非该仓库成员</t>
+    <t>CYFS_GIT_025</t>
   </si>
   <si>
-    <t>clone-》非仓库成员 clone远程私有仓库</t>
+    <t>非仓库成员 clone他人远程私有仓库</t>
   </si>
   <si>
     <t>1、已存在远程仓库test-private
 2、非该仓库成员</t>
   </si>
   <si>
-    <t>CYFS_GIT_020</t>
+    <t>clone失败，无权限</t>
   </si>
   <si>
-    <t>push-》仓库owner往远程公开仓库master分支提交内容</t>
+    <t>CYFS_GIT_026</t>
+  </si>
+  <si>
+    <t>远程仓库存在多分支时，git clone 检查</t>
+  </si>
+  <si>
+    <t>远程仓库有多条分支</t>
+  </si>
+  <si>
+    <t>本地终端执行
+git clone 仓库地址cyfs:xxx</t>
+  </si>
+  <si>
+    <t>1、clone 成功。获取仓库所有分支内容。
+2、git branch -a检查是否能查看到所有分支</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_027</t>
+  </si>
+  <si>
+    <t>git clone -b --single-branch 获取指定分支代码</t>
+  </si>
+  <si>
+    <t>本地终端执行
+git clone -b 分支名 --single-branch 仓库地址cyfs:xxx</t>
+  </si>
+  <si>
+    <t>1、clone 成功。仅获取了指定分支代码。
+2、git branch -a。检查仅能看当前分支，不是所有分支</t>
+  </si>
+  <si>
+    <t>仓库owner往远程公开仓库master分支提交内容</t>
   </si>
   <si>
     <t>1、存在远程仓库，仓库为public
@@ -671,7 +735,7 @@
 3、远程仓库查看commit，多了一条提交，检查内容与本地一致</t>
   </si>
   <si>
-    <t>push-》仓库owner往远程公开仓库特性分支提交内容</t>
+    <t>仓库owner往远程公开仓库特性分支提交内容</t>
   </si>
   <si>
     <t>1、存在远程仓库，仓库为public
@@ -693,14 +757,14 @@
 4、检查远程仓库master分支内容不变</t>
   </si>
   <si>
-    <t>push-》仓库owner往远程私有仓库master分支提交内容</t>
+    <t>仓库owner往远程私有仓库master分支提交内容</t>
   </si>
   <si>
     <t>1、存在远程仓库，仓库为private
 2、本地仓库与远程仓库已建立连接</t>
   </si>
   <si>
-    <t>push-》仓库owner往远程私有仓库特性分支提交内容</t>
+    <t>仓库owner往远程私有仓库特性分支提交内容</t>
   </si>
   <si>
     <t>1、存在远程仓库，仓库为private
@@ -708,7 +772,7 @@
 3、远程仓库不存在特性分支feature-A</t>
   </si>
   <si>
-    <t>push-》仓库成员往远程公开仓库master分支提交内容</t>
+    <t>仓库成员往远程公开仓库master分支提交内容</t>
   </si>
   <si>
     <t>1、已将远程公开仓库clone到本地
@@ -720,7 +784,7 @@
 3、远程仓库查看commit多了一条提交，检查内容与本地一致</t>
   </si>
   <si>
-    <t>push-》仓库成员往远程公开仓库特性分支提交内容</t>
+    <t>仓库成员往远程公开仓库特性分支提交内容</t>
   </si>
   <si>
     <t>终端上执行
@@ -738,662 +802,246 @@
 4、检查远程仓库master分支内容不变</t>
   </si>
   <si>
-    <t>push-》仓库成员往远程私有仓库master分支提交内容</t>
+    <t>仓库成员往远程私有仓库master分支提交内容</t>
   </si>
   <si>
     <t>1、已将远程私有仓库clone到本地
 2、已是该仓库的成员</t>
   </si>
   <si>
-    <t>push-》仓库成员往远程私有仓库特性分支提交内容</t>
+    <t>仓库成员往远程私有仓库特性分支提交内容</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_028</t>
+  </si>
+  <si>
+    <t>非仓库成员往远程公开仓库提交内容</t>
+  </si>
+  <si>
+    <t>1、存在远程仓库
+2、已clone仓库内容到本地
+3、非该仓库的成员</t>
+  </si>
+  <si>
+    <t>1、本地修改内容并提交
+2、终端执行git push origin -u origin master</t>
+  </si>
+  <si>
+    <t>push 失败，日志提示授权失败403</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_029</t>
+  </si>
+  <si>
+    <t>“git push -u”检查本地仓库分支会与远程仓库分支建立track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存在远程仓库，远程仓库存在dev分支
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">终端执行
+git clone cyfs：xxx
+git fetch origin dev:dev
+git checkout dev
+echo 111111111 &gt;&gt; dev.txt
+git add .
+git commit -m "提交描述"
+git push -u origin dev
+</t>
+  </si>
+  <si>
+    <t>执行git branch -vv 。检查本地仓库分支会与远程仓库分支建立track</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_030</t>
+  </si>
+  <si>
+    <t>“git push --force”检查强制推送修改到远程仓库分支上</t>
+  </si>
+  <si>
+    <t>1、存在远程仓库
+2、已经仓库clone到本地
+3、本地仓库的内容与远端仓库内容有差异</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push --force </t>
+  </si>
+  <si>
+    <t>强制推送成功，远程仓库内容被覆盖</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_031</t>
+  </si>
+  <si>
+    <t>本地仓库与远端仓库有差异时git push</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>1、push 失败，拒绝推送
+2、日志打印出错误并给出指引</t>
+  </si>
+  <si>
+    <t>“git push -d”检查删除远程仓库分支</t>
+  </si>
+  <si>
+    <t>1、存在远程仓库
+2、已经仓库clone到本地
+3、已是仓库成员</t>
+  </si>
+  <si>
+    <t>git push -d origin 远程分支</t>
+  </si>
+  <si>
+    <t>远程仓库分支被删除</t>
   </si>
   <si>
     <t>pull</t>
   </si>
   <si>
+    <t>git pull
+拉取远程分支与本地分支合并</t>
+  </si>
+  <si>
+    <t>1、存在远程仓库
+2、已经仓库clone到本地
+3、已是仓库成员
+4、本地分支与远程分支已建立track</t>
+  </si>
+  <si>
+    <t>git checkout master
+git pull</t>
+  </si>
+  <si>
+    <t>获取到远程master分支内容并与本地master分支合并</t>
+  </si>
+  <si>
+    <t>git pull origin master
+拉取远程master分支与本地当前分支合并</t>
+  </si>
+  <si>
+    <t>git checkout dev
+git pull origin master</t>
+  </si>
+  <si>
+    <t>获取到远程master分支内容并与本地dev分支合并</t>
+  </si>
+  <si>
+    <t>git pull origin master:feature-A
+拉取远程master分支与本地feature-A分支合并</t>
+  </si>
+  <si>
+    <t>git pull origin master:feature-A</t>
+  </si>
+  <si>
+    <t>获取到远程master分支内容并与本地feature-A分支合并</t>
+  </si>
+  <si>
+    <t>fetch</t>
+  </si>
+  <si>
+    <t>git fetch
+获取远程分支更新</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、获取所有分支上的更新成功，本地代码未被覆盖
+2、执行git merge origin/分支名xx。远程更新成功被合并到本地
+</t>
+  </si>
+  <si>
+    <t>git fetch origin 分支名
+获取远程指定分支更新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、存在远程仓库
+2、已经仓库clone到本地
+3、已是仓库成员
+</t>
+  </si>
+  <si>
+    <t>git fetch origin 分支名xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、获取“分支名xxx”更新成功，本地代码未被覆盖
+2、执行git merge origin/分支名xx。远程更新成功被合并到本地
+</t>
+  </si>
+  <si>
     <t>CYFS_GIT_038</t>
   </si>
   <si>
-    <t>终端-git push一次提交超200M文件（本地仓库push到实体ood远程公开仓库）</t>
+    <t>性能测试</t>
   </si>
   <si>
-    <t>1、选择一个远程公开仓库
-2、找到对应的本地仓库
-3、在该文件夹增加200M文件CYFS_Browser_1.0.0.51-nightly.exe
-4、右键点击git bash here
-5、在命令行输入
-git add CYFS_Browser_1.0.0.51-nightly.exe
-git commit -m "4 commit"
-git push
-6、检查命令行是否显示上传成功
-7、检查该远程仓库是否增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
+    <t>git push 提交内容大小总共100M左右</t>
   </si>
   <si>
-    <t>1、进入该远程公开仓库详情页面
-2、进入对应的本地仓库
-3、在该文件夹增加200M文件CYFS_Browser_1.0.0.51-nightly.exe成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
+    <t>git push 提交内容大小总共500M左右</t>
   </si>
   <si>
-    <t>CYFS_GIT_039</t>
+    <t>git push 提交内容大小总共1G左右</t>
   </si>
   <si>
-    <t>终端-git push一次提交超200M文件（其他实体ood环境仓库push到实体ood远程公开仓库）</t>
+    <t>git push 提交单个文件的大小100M左右</t>
   </si>
   <si>
-    <t>1、选择一个远程公开仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库
-3、在该文件夹增加200M文件CYFS_Browser_1.0.0.51-nightly.exe
-4、右键点击git bash here
-5、在命令行输入
-git add CYFS_Browser_1.0.0.51-nightly.exe
-git commit -m "4 commit"
-git push
-6、检查命令行是否显示上传成功
-7、检查该远程仓库是否增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
+    <t>git push 提交单个文件的大小500M左右</t>
   </si>
   <si>
-    <t>1、进入该远程公开仓库详情页面
-2、另一台实体ood环境下clone该仓库成功，进入对应的本地仓库
-3、在该文件夹增加200M文件CYFS_Browser_1.0.0.51-nightly.exe成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
+    <t>git push 提交文件数量超100个</t>
   </si>
   <si>
-    <t>CYFS_GIT_040</t>
+    <t>git push 提交文件数量超500个</t>
   </si>
   <si>
-    <t>终端-git push一次提交超200M文件（vood环境仓库push到实体ood远程公开仓库）</t>
+    <t>git push 提交文件数量超1000个</t>
   </si>
   <si>
-    <t>1、选择一个远程公开仓库
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库
-3、在该文件夹增加200M文件CYFS_Browser_1.0.0.51-nightly.exe
-4、右键点击git bash here
-5、在命令行输入
-git add CYFS_Browser_1.0.0.51-nightly.exe
-git commit -m "4 commit"
-git push
-6、检查命令行是否显示上传成功
-7、检查该远程仓库是否增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
+    <t>git push 提交文件数量超10000个</t>
   </si>
   <si>
-    <t>1、进入该远程公开仓库详情页面
-2、另一台vood环境下clone该仓库成功，进入对应的本地仓库
-3、在该文件夹增加200M文件CYFS_Browser_1.0.0.51-nightly.exe成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
+    <t>git push 提交文件夹深度两层以上</t>
   </si>
   <si>
-    <t>CYFS_GIT_041</t>
+    <t>git push 提交文件夹深度十层以上</t>
   </si>
   <si>
-    <t>终端-git push一次提交超200M文件（本地仓库push到实体ood远程私有仓库）</t>
+    <t>git push 提交有100个commit</t>
   </si>
   <si>
-    <t>1、选择一个远程私有仓库
-2、找到对应的本地仓库
-3、在该文件夹增加200M文件CYFS_Browser_1.0.0.51-nightly.exe
-4、右键点击git bash here
-5、在命令行输入
-git add CYFS_Browser_1.0.0.51-nightly.exe
-git commit -m "4 commit"
-git push
-6、检查命令行是否显示上传成功
-7、检查该远程仓库是否增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
+    <t>git push 提交有1000个commit</t>
   </si>
   <si>
-    <t>1、进入该远程私有仓库详情页面
-2、进入对应的本地仓库
-3、在该文件夹增加200M文件CYFS_Browser_1.0.0.51-nightly.exe成功
-4、出现命令行弹窗
-5、命令操作成功
-6、命令行显示上传成功
-7、该远程仓库增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
+    <t>git push 提交的文件差异行数有100行</t>
   </si>
   <si>
-    <t>CYFS_GIT_042</t>
+    <t>git push 提交的文件差异行数有1000行</t>
   </si>
   <si>
-    <t>终端-git push一次提交超200M文件（其他实体ood环境仓库push到实体ood远程私有仓库）</t>
+    <t>git push 提交的文件差异行数有5000行</t>
   </si>
   <si>
-    <t>1、选择一个远程私有仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库
-3、在该文件夹增加200M文件CYFS_Browser_1.0.0.51-nightly.exe
-4、右键点击git bash here
-5、在命令行输入
-git add CYFS_Browser_1.0.0.51-nightly.exe
-git commit -m "4 commit"
-git push
-6、检查命令行是否显示上传成功
-7、检查该远程仓库是否增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
+    <t>多个用户同时进行push</t>
   </si>
   <si>
-    <t>1、进入该远程私有仓库详情页面
-2、clone远程仓库失败，私有仓库非拥有者无法找到</t>
+    <t>Pull requests</t>
   </si>
   <si>
-    <t>CYFS_GIT_043</t>
+    <t>仓库owner创建Pull requests</t>
   </si>
   <si>
-    <t>终端-git push一次提交超200M文件（vood环境仓库push到实体ood远程私有仓库）</t>
+    <t>1、远程仓库存在master分支和feature-a分支
+2、分支间存在差异</t>
   </si>
   <si>
-    <t>1、选择一个远程私有仓库
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库
-3、在该文件夹增加200M文件CYFS_Browser_1.0.0.51-nightly.exe
-4、右键点击git bash here
-5、在命令行输入
-git add CYFS_Browser_1.0.0.51-nightly.exe
-git commit -m "4 commit"
-git push
-6、检查命令行是否显示上传成功
-7、检查该远程仓库是否增加CYFS_Browser_1.0.0.51-nightly.exe文件</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_044</t>
-  </si>
-  <si>
-    <t>终端-git push多次提交超200M文件（本地仓库push到实体ood远程公开仓库）</t>
-  </si>
-  <si>
-    <t>1、选择一个远程公开仓库
-2、找到对应的本地仓库
-3、在该文件夹增加一个文件test.txt
-4、右键点击git bash here
-5、在命令行输入
-git add test.txt
-git commit -m "4 commit"
-git push
-6、检查命令行是否显示上传成功
-7、检查该远程仓库是否增加test.txt
-8、循环步骤34567多次提交累计大小约200M的文件，检查是否可正常上传、查看和clone</t>
-  </si>
-  <si>
-    <t>1、进入该远程公开仓库详情页面
-2、进入对应的本地仓库
-3、在该文件夹增加一个文件test.txt成功
-4、弹窗出命令行
-5、命令行执行成功
-6、命令行显示上传成功
-7、该远程仓库增加test.txt
-8、循环步骤34567多次提交累计大小约200M的文件，仓库可正常上传、查看和clone</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_045</t>
-  </si>
-  <si>
-    <t>终端-git push多次提交超200M文件（其他实体ood环境仓库push到实体ood远程公开仓库）</t>
-  </si>
-  <si>
-    <t>1、选择一个远程公开仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库
-3、在该文件夹增加一个文件test.txt
-4、右键点击git bash here
-5、在命令行输入
-git add test.txt
-git commit -m "4 commit"
-git push
-6、检查命令行是否显示上传成功
-7、检查该远程仓库是否增加test.txt
-8、循环步骤34567多次提交累计大小约200M的文件，检查是否可正常上传、查看和clone</t>
-  </si>
-  <si>
-    <t>1、进入该远程公开仓库详情页面
-2、另一台实体ood环境下clone该仓库成功，进入对应的本地仓库
-3、在该文件夹增加一个文件test.txt成功
-4、弹窗出命令行
-5、命令行执行成功
-6、命令行显示上传成功
-7、该远程仓库增加test.txt
-8、循环步骤34567多次提交累计大小约200M的文件，仓库可正常上传、查看和clone</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_046</t>
-  </si>
-  <si>
-    <t>终端-git push多次提交超200M文件（vood环境仓库push到实体ood远程公开仓库）</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_047</t>
-  </si>
-  <si>
-    <t>终端-git push多次提交超200M文件（本地仓库push到实体ood远程私有仓库）</t>
-  </si>
-  <si>
-    <t>1、选择一个远程私有仓库
-2、找到对应的本地仓库
-3、在该文件夹增加一个文件test.txt
-4、右键点击git bash here
-5、在命令行输入
-git add test.txt
-git commit -m "4 commit"
-git push
-6、检查命令行是否显示上传成功
-7、检查该远程仓库是否增加test.txt
-8、循环步骤34567多次提交累计大小约200M的文件，检查是否可正常上传、查看和clone</t>
-  </si>
-  <si>
-    <t>1、进入该远程私有仓库详情页面
-2、进入对应的本地仓库
-3、在该文件夹增加一个文件test.txt成功
-4、弹窗出命令行
-5、命令行执行成功
-6、命令行显示上传成功
-7、该远程仓库增加test.txt
-8、循环步骤34567多次提交累计大小约200M的文件，仓库可正常上传、查看和clone</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_048</t>
-  </si>
-  <si>
-    <t>终端-git push多次提交超200M文件（其他实体ood环境仓库push到实体ood远程私有仓库）</t>
-  </si>
-  <si>
-    <t>1、选择一个远程私有仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库
-3、在该文件夹增加一个文件test.txt
-4、右键点击git bash here
-5、在命令行输入
-git add test.txt
-git commit -m "4 commit"
-git push
-6、检查命令行是否显示上传成功
-7、检查该远程仓库是否增加test.txt
-8、循环步骤34567多次提交累计大小约200M的文件，检查是否可正常上传、查看和clone</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_049</t>
-  </si>
-  <si>
-    <t>终端-git push多次提交超200M文件（vood环境仓库push到实体ood远程私有仓库）</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_050</t>
-  </si>
-  <si>
-    <t>终端-git clone-本地仓库clone实体ood远程公开仓库</t>
-  </si>
-  <si>
-    <t>1、在远程仓库选择一个远程公开仓库复制仓库地址
-2、在本地文件夹选择一个文件，右键选择git bash here
-3、在命令行输入
-git clone http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/pub0909.git
-4、检查该文件夹是否存在所有该地址下的文件，检查文件是否正确</t>
-  </si>
-  <si>
-    <t>1、复制仓库地址成功
-2、出现命令行弹窗
-3、clone成功
-4、该文件夹存在所有该地址下的文件，文件正确</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_051</t>
-  </si>
-  <si>
-    <t>终端-git clone-其他实体ood环境clone实体ood远程公开仓库</t>
-  </si>
-  <si>
-    <t>1、在远程仓库选择一个远程公开仓库复制仓库地址
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库，右键选择git bash here
-3、在命令行输入
-git clone http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/pub0909.git
-4、检查该文件夹是否存在所有该地址下的文件，检查文件是否正确</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_052</t>
-  </si>
-  <si>
-    <t>终端-git clone-vood环境clone实体ood远程公开仓库</t>
-  </si>
-  <si>
-    <t>1、在远程仓库选择一个远程公开仓库复制仓库地址
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库，右键选择git bash here
-3、在命令行输入
-git clone http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/pub0909.git
-4、检查该文件夹是否存在所有该地址下的文件，检查文件是否正确</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_053</t>
-  </si>
-  <si>
-    <t>终端-git clone-本地仓库clone实体ood远程私有仓库</t>
-  </si>
-  <si>
-    <t>1、在远程仓库选择一个远程私有仓库复制仓库地址
-2、在本地文件夹选择一个文件，右键选择git bash here
-3、在命令行输入
-git clone http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/pub0909.git
-4、检查该文件夹是否存在所有该地址下的文件，检查文件是否正确</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_054</t>
-  </si>
-  <si>
-    <t>终端-git clone-其他实体ood环境clone实体ood远程私有仓库</t>
-  </si>
-  <si>
-    <t>1、在远程仓库选择一个远程私有仓库复制仓库地址
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库，右键选择git bash here
-3、在命令行输入
-git clone http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/pub0909.git
-4、检查该文件夹是否存在所有该地址下的文件，检查文件是否正确</t>
-  </si>
-  <si>
-    <t>1、复制仓库地址成功
-2、出现命令行弹窗
-3、clone远程仓库失败，私有仓库非拥有者无法找到</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_055</t>
-  </si>
-  <si>
-    <t>终端-git clone-vood环境clone实体ood远程私有仓库</t>
-  </si>
-  <si>
-    <t>1、在远程仓库选择一个远程私有仓库复制仓库地址
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库，右键选择git bash here
-3、在命令行输入
-git clone http://localhost:5000/5r4MYfFC9RnQHwe4YjhevAf8KhzVwzicQBgUdAz43Z6A/pub0909.git
-4、检查该文件夹是否存在所有该地址下的文件，检查文件是否正确</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_056</t>
-  </si>
-  <si>
-    <t>终端-git branch创建分支-本地仓库在实体ood远程公开仓库创建分支</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程公开仓库
-2、在本地找到对应的本地仓库右键点击git bash here
-3、在命令行窗口输入
-查看所有的分支 git branch
-创建新分支test git branch test
-把新分支提交到远程仓库 git push origin test
-查看所有的分支 git branch，检查命令行是否提示test分支创建成功
-4、在页面仓库刷新查看该仓库test分支是否创建成功
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、进入该远程公开仓库详情页面
-2、出现命令行弹窗
-3、命令行提示test分支创建成功
-4、在页面仓库刷新查看该仓库test分支创建成功
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_057</t>
-  </si>
-  <si>
-    <t>终端-git branch创建分支-其他实体ood环境在实体ood远程公开仓库创建分支</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程公开仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库，右键点击git bash here
-3、在命令行窗口输入
-查看所有的分支 git branch
-创建新分支test git branch test
-把新分支提交到远程仓库 git push origin test
-查看所有的分支 git branch，检查命令行是否提示test分支创建成功
-4、在页面仓库刷新查看该仓库test分支是否创建成功
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_058</t>
-  </si>
-  <si>
-    <t>终端-git branch创建分支-vood环境在实体ood远程公开仓库创建分支</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程公开仓库
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库，右键点击git bash here
-3、在命令行窗口输入
-查看所有的分支 git branch
-创建新分支test git branch test
-把新分支提交到远程仓库 git push origin test
-查看所有的分支 git branch，检查命令行是否提示test分支创建成功
-4、在页面仓库刷新查看该仓库test分支是否创建成功
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_059</t>
-  </si>
-  <si>
-    <t>终端-git branch创建分支-本地仓库在实体ood远程私有仓库创建分支</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程私有仓库
-2、在本地找到对应的本地仓库右键点击git bash here
-3、在命令行窗口输入
-查看所有的分支 git branch
-创建新分支test git branch test
-把新分支提交到远程仓库 git push origin test
-查看所有的分支 git branch，检查命令行是否提示test分支创建成功
-4、在页面仓库刷新查看该仓库test分支是否创建成功
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、进入该远程私有仓库详情页面
-2、出现命令行弹窗
-3、命令行提示test分支创建成功
-4、在页面仓库刷新查看该仓库test分支创建成功
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_060</t>
-  </si>
-  <si>
-    <t>终端-git branch创建分支-其他实体ood环境在实体ood远程私有仓库创建分支</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程私有仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库，右键点击git bash here
-3、在命令行窗口输入
-查看所有的分支 git branch
-创建新分支test git branch test
-把新分支提交到远程仓库 git push origin test
-查看所有的分支 git branch，检查命令行是否提示test分支创建成功
-4、在页面仓库刷新查看该仓库test分支是否创建成功
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、进入该远程私有仓库详情页面
-2、clone远程仓库失败，私有仓库非拥有者无法找到
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_061</t>
-  </si>
-  <si>
-    <t>终端-git branch创建分支-vood环境在实体ood远程私有仓库创建分支</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程私有仓库
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库，右键点击git bash here
-3、在命令行窗口输入
-查看所有的分支 git branch
-创建新分支test git branch test
-把新分支提交到远程仓库 git push origin test
-查看所有的分支 git branch，检查命令行是否提示test分支创建成功
-4、在页面仓库刷新查看该仓库test分支是否创建成功
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_062</t>
-  </si>
-  <si>
-    <t>终端-git push多分支-本地仓库push到实体ood远程公开仓库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程公开仓库
-2、在本地找到对应的本地仓库右键点击git bash here
-3、在命令行窗口输入
-查看现在所处分支 git branch
-切换到非master分支test
-git checkout test
-4、在本地仓库增加新文件test.txt
-5、在命令行窗口输入
-git add test.txt
-git commit -m "4commit"
-git push origin test
-检查命令行是否提示提交成功
-6、在页面仓库刷新查看test分支下是否存在test.txt文件，检查文件内容是否正确
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、进入该远程仓库详情页面
-2、出现命令行弹窗
-3、命令行提示test分支切换成功
-4、文件添加成功
-5、命令行提示提交成功
-6、在页面仓库刷新查看test分支下存在test.txt文件，文件内容正确
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_063</t>
-  </si>
-  <si>
-    <t>终端-git push多分支-其他实体ood环境push到实体ood远程公开仓库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程公开仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库,右键点击git bash here
-3、在命令行窗口输入
-查看现在所处分支 git branch
-切换到非master分支test
-git checkout test
-4、在本地仓库增加新文件test.txt
-5、在命令行窗口输入
-git add test.txt
-git commit -m "4commit"
-git push origin test
-检查命令行是否提示提交成功
-6、在页面仓库刷新查看test分支下是否存在test.txt文件，检查文件内容是否正确
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_064</t>
-  </si>
-  <si>
-    <t>终端-git push多分支-vood环境push到实体ood远程公开仓库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程公开仓库
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库,右键点击git bash here
-3、在命令行窗口输入
-查看现在所处分支 git branch
-切换到非master分支test
-git checkout test
-4、在本地仓库增加新文件test.txt
-5、在命令行窗口输入
-git add test.txt
-git commit -m "4commit"
-git push origin test
-检查命令行是否提示提交成功
-6、在页面仓库刷新查看test分支下是否存在test.txt文件，检查文件内容是否正确
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_065</t>
-  </si>
-  <si>
-    <t>终端-git push多分支-本地仓库push到实体ood远程私有仓库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程私有仓库
-2、在本地找到对应的本地仓库右键点击git bash here
-3、在命令行窗口输入
-查看现在所处分支 git branch
-切换到非master分支test
-git checkout test
-4、在本地仓库增加新文件test.txt
-5、在命令行窗口输入
-git add test.txt
-git commit -m "4commit"
-git push origin test
-检查命令行是否提示提交成功
-6、在页面仓库刷新查看test分支下是否存在test.txt文件，检查文件内容是否正确
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_066</t>
-  </si>
-  <si>
-    <t>终端-git push多分支-其他实体ood环境push到实体ood远程私有仓库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程私有仓库
-2、在另一台实体ood环境下clone该仓库，并找到对应的本地仓库,右键点击git bash here
-3、在命令行窗口输入
-查看现在所处分支 git branch
-切换到非master分支test
-git checkout test
-4、在本地仓库增加新文件test.txt
-5、在命令行窗口输入
-git add test.txt
-git commit -m "4commit"
-git push origin test
-检查命令行是否提示提交成功
-6、在页面仓库刷新查看test分支下是否存在test.txt文件，检查文件内容是否正确
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、进入该远程仓库详情页面
-2、clone远程仓库失败，私有仓库非拥有者无法找到
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_067</t>
-  </si>
-  <si>
-    <t>终端-git push多分支-vood环境push到实体ood远程私有仓库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在仓库页面选择一个远程私有仓库
-2、在另一台vood环境下clone该仓库，并找到对应的本地仓库,右键点击git bash here
-3、在命令行窗口输入
-查看现在所处分支 git branch
-切换到非master分支test
-git checkout test
-4、在本地仓库增加新文件test.txt
-5、在命令行窗口输入
-git add test.txt
-git commit -m "4commit"
-git push origin test
-检查命令行是否提示提交成功
-6、在页面仓库刷新查看test分支下是否存在test.txt文件，检查文件内容是否正确
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、进入该远程仓库详情页面
-2、clone远程仓库失败，私有仓库非拥有者无法找到
-</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_068</t>
-  </si>
-  <si>
-    <t>远程仓库操作</t>
-  </si>
-  <si>
-    <t>git merge-仓库拥有者merge实体ood远程公开仓库</t>
-  </si>
-  <si>
-    <t>1、在自己远程仓库页面选择一个公开仓库，点击进入
-2、点击合并请求，点击创建合并请求
-3、选择源分支、目标分支
-4、输入合并title
-5、检查commits和文件对比是否正确
-6、点击创建合并请求
-7、点击创建成功的合并请求，点击接受合并</t>
+    <t>1、点击Pull requests
+2、选择从feature-a分支合并入master分支
+3、点击</t>
   </si>
   <si>
     <t>1、进入公开仓库
@@ -1405,10 +1053,11 @@
 7、进入创建成功的合并请求，接受合并成功</t>
   </si>
   <si>
-    <t>CYFS_GIT_069</t>
+    <t>仓库成员创建Pull requests</t>
   </si>
   <si>
-    <t>git merge-仓库非拥有者merge实体ood远程公开仓库</t>
+    <t>1、远程仓库存在两个以上分支
+2、分支间存在差异</t>
   </si>
   <si>
     <t>1、在cyfs-git主页点击发现
@@ -1431,10 +1080,7 @@
 8、进入创建成功的合并请求，接受合并成功</t>
   </si>
   <si>
-    <t>CYFS_GIT_070</t>
-  </si>
-  <si>
-    <t>git merge-仓库拥有者merge实体ood远程私有仓库</t>
+    <t>仓库owner同意merge</t>
   </si>
   <si>
     <t>1、在自己远程仓库页面选择一个私有仓库，点击进入
@@ -1455,50 +1101,34 @@
 7、进入创建成功的合并请求，接受合并成功</t>
   </si>
   <si>
-    <t>CYFS_GIT_071</t>
+    <t>仓库成员同意merge</t>
   </si>
   <si>
-    <t>git merge-仓库非拥有者merge实体ood远程私有仓库</t>
+    <t>创建Pull requests的表单检查</t>
   </si>
   <si>
-    <t>1、在cyfs-git主页点击发现
-2、点击仓库，检查是否有私有仓库展示</t>
+    <t>远程仓库存在两个以上分支</t>
   </si>
   <si>
-    <t>1、进入其他账户的公开仓库
-2、无私有仓库展示</t>
+    <t>Pull requests open和close数量检查</t>
   </si>
   <si>
-    <t>CYFS_GIT_072</t>
+    <t>存在多条Pull requests申请</t>
   </si>
   <si>
-    <t>git merge-仓库被投递好友merge实体ood远程私有仓库</t>
+    <t>检查分支间无差异时merge</t>
   </si>
   <si>
-    <t>1、在远程仓库页面选择一个私人仓库，点击设置
-2、在仓库投递选择一个好友投递repo
-3、用好友账号ood环境下的cyfs-git仓库页面下找到该私有仓库点击进入
-4、点击合并请求，点击创建合并请求
-5、选择源分支、目标分支
-6、输入合并title
-7、检查commits和文件对比是否正确
-8、点击创建合并请求
-9、点击创建成功的合并请求，点击接受合并</t>
+    <t>检查Source branch和target branch相同</t>
   </si>
   <si>
-    <t xml:space="preserve">1、进入仓库设置页面
-2、投递成功，在好友仓库页面可查看该仓库
-3、用好友账号ood环境下的cyfs-git仓库页面下找到该私有仓库点击进入
-4、点击合并请求，点击创建合并请求
-5、选择源分支、目标分支
-6、输入合并title
-7、检查commits和文件对比是否正确
-8、点击创建合并请求
-9、点击创建成功的合并请求，点击接受合并
-</t>
+    <t>检查Source branch和target branch都是非master分支</t>
   </si>
   <si>
     <t>CYFS_GIT_073</t>
+  </si>
+  <si>
+    <t>远程仓库操作</t>
   </si>
   <si>
     <t>git repo home-文件</t>
@@ -1935,6 +1565,9 @@
     <t>CYFS_GIT_094</t>
   </si>
   <si>
+    <t>终端操作</t>
+  </si>
+  <si>
     <t>终端-实体oodGit clone 其他用户（实体ood）的私有仓库</t>
   </si>
   <si>
@@ -2035,9 +1668,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode=";;;"/>
     <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
@@ -2699,7 +2332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2708,10 +2341,10 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2848,7 +2481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2941,9 +2574,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3600,14 +3230,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q930"/>
+  <dimension ref="A1:Q931"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3793,9 +3423,9 @@
       </c>
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
-      <c r="N5" s="43"/>
+      <c r="N5" s="42"/>
       <c r="O5" s="40"/>
-      <c r="P5" s="43"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="40"/>
     </row>
     <row r="6" ht="49" customHeight="1" spans="1:17">
@@ -3832,9 +3462,9 @@
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
-      <c r="N6" s="43"/>
+      <c r="N6" s="42"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="43"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="40"/>
     </row>
     <row r="7" ht="51" customHeight="1" spans="1:17">
@@ -3871,9 +3501,9 @@
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
-      <c r="N7" s="43"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="43"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="40"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:17">
@@ -3910,9 +3540,9 @@
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="42"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="43"/>
+      <c r="P8" s="42"/>
       <c r="Q8" s="40"/>
     </row>
     <row r="9" ht="41" customHeight="1" spans="1:17">
@@ -3949,9 +3579,9 @@
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
-      <c r="N9" s="43"/>
+      <c r="N9" s="42"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="43"/>
+      <c r="P9" s="42"/>
       <c r="Q9" s="40"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:17">
@@ -3988,9 +3618,9 @@
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
-      <c r="N10" s="43"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="43"/>
+      <c r="P10" s="42"/>
       <c r="Q10" s="40"/>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:17">
@@ -4027,9 +3657,9 @@
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
-      <c r="N11" s="43"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="43"/>
+      <c r="P11" s="42"/>
       <c r="Q11" s="40"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:17">
@@ -4066,9 +3696,9 @@
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
-      <c r="N12" s="43"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="40"/>
-      <c r="P12" s="43"/>
+      <c r="P12" s="42"/>
       <c r="Q12" s="40"/>
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:17">
@@ -4105,9 +3735,9 @@
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="43"/>
+      <c r="N13" s="42"/>
       <c r="O13" s="40"/>
-      <c r="P13" s="43"/>
+      <c r="P13" s="42"/>
       <c r="Q13" s="40"/>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:17">
@@ -4144,9 +3774,9 @@
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
-      <c r="N14" s="43"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="40"/>
-      <c r="P14" s="43"/>
+      <c r="P14" s="42"/>
       <c r="Q14" s="40"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:17">
@@ -4183,9 +3813,9 @@
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
-      <c r="N15" s="43"/>
+      <c r="N15" s="42"/>
       <c r="O15" s="40"/>
-      <c r="P15" s="43"/>
+      <c r="P15" s="42"/>
       <c r="Q15" s="40"/>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:17">
@@ -4222,9 +3852,9 @@
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="43"/>
+      <c r="N16" s="42"/>
       <c r="O16" s="40"/>
-      <c r="P16" s="43"/>
+      <c r="P16" s="42"/>
       <c r="Q16" s="40"/>
     </row>
     <row r="17" ht="65" customHeight="1" spans="1:17">
@@ -4261,9 +3891,9 @@
       </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
-      <c r="N17" s="43"/>
+      <c r="N17" s="42"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="43"/>
+      <c r="P17" s="42"/>
       <c r="Q17" s="40"/>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:17">
@@ -4300,9 +3930,9 @@
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="43"/>
+      <c r="N18" s="42"/>
       <c r="O18" s="40"/>
-      <c r="P18" s="43"/>
+      <c r="P18" s="42"/>
       <c r="Q18" s="40"/>
     </row>
     <row r="19" ht="66" customHeight="1" spans="1:17">
@@ -4339,9 +3969,9 @@
       </c>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="43"/>
+      <c r="N19" s="42"/>
       <c r="O19" s="40"/>
-      <c r="P19" s="43"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="40"/>
     </row>
     <row r="20" ht="66" customHeight="1" spans="1:17">
@@ -4378,9 +4008,9 @@
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="43"/>
+      <c r="N20" s="42"/>
       <c r="O20" s="40"/>
-      <c r="P20" s="43"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="40"/>
     </row>
     <row r="21" ht="66" customHeight="1" spans="1:17">
@@ -4417,9 +4047,9 @@
       </c>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="43"/>
+      <c r="N21" s="42"/>
       <c r="O21" s="40"/>
-      <c r="P21" s="43"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="40"/>
     </row>
     <row r="22" ht="39" customHeight="1" spans="1:17">
@@ -4456,9 +4086,9 @@
       </c>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="43"/>
+      <c r="N22" s="42"/>
       <c r="O22" s="40"/>
-      <c r="P22" s="43"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="40"/>
     </row>
     <row r="23" ht="48" customHeight="1" spans="1:17">
@@ -4495,15 +4125,17 @@
       </c>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="43"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="40"/>
-      <c r="P23" s="43"/>
+      <c r="P23" s="42"/>
       <c r="Q23" s="40"/>
     </row>
     <row r="24" ht="73" customHeight="1" spans="1:17">
-      <c r="A24" s="36"/>
+      <c r="A24" s="36" t="s">
+        <v>117</v>
+      </c>
       <c r="B24" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>27</v>
@@ -4518,29 +4150,31 @@
         <v>44830</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="43"/>
+      <c r="N24" s="42"/>
       <c r="O24" s="40"/>
-      <c r="P24" s="43"/>
+      <c r="P24" s="42"/>
       <c r="Q24" s="40"/>
     </row>
     <row r="25" ht="73" customHeight="1" spans="1:17">
-      <c r="A25" s="36"/>
+      <c r="A25" s="36" t="s">
+        <v>123</v>
+      </c>
       <c r="B25" s="37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>27</v>
@@ -4555,25 +4189,31 @@
         <v>44830</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I25" s="36"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="J25" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="43"/>
+      <c r="N25" s="42"/>
       <c r="O25" s="40"/>
-      <c r="P25" s="43"/>
+      <c r="P25" s="42"/>
       <c r="Q25" s="40"/>
     </row>
     <row r="26" ht="73" customHeight="1" spans="1:17">
-      <c r="A26" s="36"/>
+      <c r="A26" s="36" t="s">
+        <v>129</v>
+      </c>
       <c r="B26" s="37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>27</v>
@@ -4588,25 +4228,31 @@
         <v>44830</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I26" s="36"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="J26" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
-      <c r="N26" s="43"/>
+      <c r="N26" s="42"/>
       <c r="O26" s="40"/>
-      <c r="P26" s="43"/>
+      <c r="P26" s="42"/>
       <c r="Q26" s="40"/>
     </row>
     <row r="27" ht="73" customHeight="1" spans="1:17">
-      <c r="A27" s="36"/>
+      <c r="A27" s="36" t="s">
+        <v>133</v>
+      </c>
       <c r="B27" s="37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>27</v>
@@ -4621,25 +4267,31 @@
         <v>44830</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I27" s="36"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="J27" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
-      <c r="N27" s="43"/>
+      <c r="N27" s="42"/>
       <c r="O27" s="40"/>
-      <c r="P27" s="43"/>
+      <c r="P27" s="42"/>
       <c r="Q27" s="40"/>
     </row>
     <row r="28" ht="73" customHeight="1" spans="1:17">
-      <c r="A28" s="36"/>
+      <c r="A28" s="36" t="s">
+        <v>137</v>
+      </c>
       <c r="B28" s="37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>27</v>
@@ -4654,31 +4306,37 @@
         <v>44830</v>
       </c>
       <c r="G28" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
       <c r="L28" s="40"/>
       <c r="M28" s="40"/>
-      <c r="N28" s="43"/>
+      <c r="N28" s="42"/>
       <c r="O28" s="40"/>
-      <c r="P28" s="43"/>
+      <c r="P28" s="42"/>
       <c r="Q28" s="40"/>
     </row>
     <row r="29" ht="73" customHeight="1" spans="1:17">
-      <c r="A29" s="36"/>
+      <c r="A29" s="36" t="s">
+        <v>141</v>
+      </c>
       <c r="B29" s="37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>45</v>
@@ -4687,31 +4345,37 @@
         <v>44830</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I29" s="36"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="J29" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>144</v>
+      </c>
       <c r="L29" s="40"/>
       <c r="M29" s="40"/>
-      <c r="N29" s="43"/>
+      <c r="N29" s="42"/>
       <c r="O29" s="40"/>
-      <c r="P29" s="43"/>
+      <c r="P29" s="42"/>
       <c r="Q29" s="40"/>
     </row>
     <row r="30" ht="73" customHeight="1" spans="1:17">
-      <c r="A30" s="36"/>
+      <c r="A30" s="36" t="s">
+        <v>145</v>
+      </c>
       <c r="B30" s="37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>45</v>
@@ -4720,64 +4384,70 @@
         <v>44830</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="J30" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>149</v>
+      </c>
       <c r="L30" s="40"/>
       <c r="M30" s="40"/>
-      <c r="N30" s="43"/>
+      <c r="N30" s="42"/>
       <c r="O30" s="40"/>
-      <c r="P30" s="43"/>
+      <c r="P30" s="42"/>
       <c r="Q30" s="40"/>
     </row>
-    <row r="31" ht="80" customHeight="1" spans="1:17">
+    <row r="31" ht="73" customHeight="1" spans="1:17">
       <c r="A31" s="36" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="39">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="40" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K31" s="40" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
-      <c r="N31" s="43"/>
+      <c r="N31" s="42"/>
       <c r="O31" s="40"/>
-      <c r="P31" s="43"/>
+      <c r="P31" s="42"/>
       <c r="Q31" s="40"/>
     </row>
-    <row r="32" ht="98" customHeight="1" spans="1:17">
-      <c r="A32" s="36"/>
+    <row r="32" ht="80" customHeight="1" spans="1:17">
+      <c r="A32" s="36" t="s">
+        <v>117</v>
+      </c>
       <c r="B32" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" s="37" t="s">
         <v>27</v>
@@ -4792,29 +4462,35 @@
         <v>44830</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="40" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K32" s="40" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L32" s="40"/>
       <c r="M32" s="40"/>
-      <c r="N32" s="43"/>
+      <c r="N32" s="42"/>
       <c r="O32" s="40"/>
-      <c r="P32" s="43"/>
+      <c r="P32" s="42"/>
       <c r="Q32" s="40"/>
     </row>
     <row r="33" ht="98" customHeight="1" spans="1:17">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D33" s="38" t="s">
         <v>28</v>
       </c>
@@ -4825,29 +4501,35 @@
         <v>44830</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="40" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="K33" s="40" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="L33" s="40"/>
       <c r="M33" s="40"/>
-      <c r="N33" s="43"/>
+      <c r="N33" s="42"/>
       <c r="O33" s="40"/>
-      <c r="P33" s="43"/>
+      <c r="P33" s="42"/>
       <c r="Q33" s="40"/>
     </row>
     <row r="34" ht="98" customHeight="1" spans="1:17">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D34" s="38" t="s">
         <v>28</v>
       </c>
@@ -4858,29 +4540,35 @@
         <v>44830</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="40" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K34" s="40" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="40"/>
-      <c r="N34" s="43"/>
+      <c r="N34" s="42"/>
       <c r="O34" s="40"/>
-      <c r="P34" s="43"/>
+      <c r="P34" s="42"/>
       <c r="Q34" s="40"/>
     </row>
     <row r="35" ht="98" customHeight="1" spans="1:17">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D35" s="38" t="s">
         <v>28</v>
       </c>
@@ -4891,29 +4579,35 @@
         <v>44830</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="40" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="K35" s="40" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L35" s="40"/>
       <c r="M35" s="40"/>
-      <c r="N35" s="43"/>
+      <c r="N35" s="42"/>
       <c r="O35" s="40"/>
-      <c r="P35" s="43"/>
+      <c r="P35" s="42"/>
       <c r="Q35" s="40"/>
     </row>
     <row r="36" ht="98" customHeight="1" spans="1:17">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D36" s="38" t="s">
         <v>28</v>
       </c>
@@ -4924,29 +4618,35 @@
         <v>44830</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="40" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K36" s="40" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
-      <c r="N36" s="43"/>
+      <c r="N36" s="42"/>
       <c r="O36" s="40"/>
-      <c r="P36" s="43"/>
+      <c r="P36" s="42"/>
       <c r="Q36" s="40"/>
     </row>
     <row r="37" ht="98" customHeight="1" spans="1:17">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="A37" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D37" s="38" t="s">
         <v>28</v>
       </c>
@@ -4957,29 +4657,35 @@
         <v>44830</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="40" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="K37" s="40" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="40"/>
-      <c r="N37" s="43"/>
+      <c r="N37" s="42"/>
       <c r="O37" s="40"/>
-      <c r="P37" s="43"/>
+      <c r="P37" s="42"/>
       <c r="Q37" s="40"/>
     </row>
     <row r="38" ht="98" customHeight="1" spans="1:17">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D38" s="38" t="s">
         <v>28</v>
       </c>
@@ -4990,247 +4696,261 @@
         <v>44830</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="40" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K38" s="40" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
-      <c r="N38" s="43"/>
+      <c r="N38" s="42"/>
       <c r="O38" s="40"/>
-      <c r="P38" s="43"/>
+      <c r="P38" s="42"/>
       <c r="Q38" s="40"/>
     </row>
     <row r="39" ht="98" customHeight="1" spans="1:17">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
+      <c r="A39" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="39">
+        <v>44830</v>
+      </c>
       <c r="G39" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="H39" s="40"/>
+        <v>174</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>173</v>
+      </c>
       <c r="I39" s="36"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
+      <c r="J39" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>171</v>
+      </c>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
-      <c r="N39" s="43"/>
+      <c r="N39" s="42"/>
       <c r="O39" s="40"/>
-      <c r="P39" s="43"/>
+      <c r="P39" s="42"/>
       <c r="Q39" s="40"/>
     </row>
-    <row r="40" ht="39" customHeight="1" spans="1:17">
+    <row r="40" ht="98" customHeight="1" spans="1:17">
       <c r="A40" s="36" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F40" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="40" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="K40" s="40" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
-      <c r="N40" s="43"/>
+      <c r="N40" s="42"/>
       <c r="O40" s="40"/>
-      <c r="P40" s="43"/>
+      <c r="P40" s="42"/>
       <c r="Q40" s="40"/>
     </row>
-    <row r="41" ht="39" customHeight="1" spans="1:17">
+    <row r="41" ht="125" customHeight="1" spans="1:17">
       <c r="A41" s="36" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F41" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="I41" s="36"/>
       <c r="J41" s="40" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="K41" s="40" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
-      <c r="N41" s="43"/>
+      <c r="N41" s="42"/>
       <c r="O41" s="40"/>
-      <c r="P41" s="43"/>
+      <c r="P41" s="42"/>
       <c r="Q41" s="40"/>
     </row>
-    <row r="42" ht="39" customHeight="1" spans="1:17">
+    <row r="42" ht="98" customHeight="1" spans="1:17">
       <c r="A42" s="36" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F42" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="I42" s="36"/>
       <c r="J42" s="40" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="K42" s="40" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
-      <c r="N42" s="43"/>
+      <c r="N42" s="42"/>
       <c r="O42" s="40"/>
-      <c r="P42" s="43"/>
+      <c r="P42" s="42"/>
       <c r="Q42" s="40"/>
     </row>
-    <row r="43" ht="39" customHeight="1" spans="1:17">
+    <row r="43" ht="98" customHeight="1" spans="1:17">
       <c r="A43" s="36" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F43" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="40" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="K43" s="40" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
-      <c r="N43" s="43"/>
+      <c r="N43" s="42"/>
       <c r="O43" s="40"/>
-      <c r="P43" s="43"/>
+      <c r="P43" s="42"/>
       <c r="Q43" s="40"/>
     </row>
-    <row r="44" ht="39" customHeight="1" spans="1:17">
-      <c r="A44" s="36" t="s">
-        <v>173</v>
-      </c>
+    <row r="44" ht="90" customHeight="1" spans="1:17">
+      <c r="A44" s="36"/>
       <c r="B44" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F44" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="I44" s="36"/>
       <c r="J44" s="40" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K44" s="40" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
-      <c r="N44" s="43"/>
+      <c r="N44" s="42"/>
       <c r="O44" s="40"/>
-      <c r="P44" s="43"/>
+      <c r="P44" s="42"/>
       <c r="Q44" s="40"/>
     </row>
-    <row r="45" ht="39" customHeight="1" spans="1:17">
-      <c r="A45" s="36" t="s">
-        <v>177</v>
-      </c>
+    <row r="45" ht="90" customHeight="1" spans="1:17">
+      <c r="A45" s="36"/>
       <c r="B45" s="37" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>27</v>
@@ -5239,115 +4959,109 @@
         <v>28</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F45" s="39">
-        <v>44454</v>
+        <v>44831</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="I45" s="36"/>
       <c r="J45" s="40" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="K45" s="40" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
-      <c r="N45" s="43"/>
+      <c r="N45" s="42"/>
       <c r="O45" s="40"/>
-      <c r="P45" s="43"/>
+      <c r="P45" s="42"/>
       <c r="Q45" s="40"/>
     </row>
-    <row r="46" ht="39" customHeight="1" spans="1:17">
-      <c r="A46" s="36" t="s">
-        <v>180</v>
-      </c>
+    <row r="46" ht="90" customHeight="1" spans="1:17">
+      <c r="A46" s="36"/>
       <c r="B46" s="37" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F46" s="39">
-        <v>44454</v>
+        <v>44831</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="I46" s="36"/>
       <c r="J46" s="40" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K46" s="40" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
-      <c r="N46" s="43"/>
+      <c r="N46" s="42"/>
       <c r="O46" s="40"/>
-      <c r="P46" s="43"/>
+      <c r="P46" s="42"/>
       <c r="Q46" s="40"/>
     </row>
-    <row r="47" ht="39" customHeight="1" spans="1:17">
-      <c r="A47" s="36" t="s">
-        <v>184</v>
-      </c>
+    <row r="47" ht="90" customHeight="1" spans="1:17">
+      <c r="A47" s="36"/>
       <c r="B47" s="37" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F47" s="39">
-        <v>44454</v>
+        <v>44831</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="I47" s="36"/>
       <c r="J47" s="40" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L47" s="40"/>
       <c r="M47" s="40"/>
-      <c r="N47" s="43"/>
+      <c r="N47" s="42"/>
       <c r="O47" s="40"/>
-      <c r="P47" s="43"/>
+      <c r="P47" s="42"/>
       <c r="Q47" s="40"/>
     </row>
-    <row r="48" ht="39" customHeight="1" spans="1:17">
-      <c r="A48" s="36" t="s">
-        <v>188</v>
-      </c>
+    <row r="48" ht="90" customHeight="1" spans="1:17">
+      <c r="A48" s="36"/>
       <c r="B48" s="37" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>27</v>
@@ -5356,739 +5070,635 @@
         <v>28</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F48" s="39">
-        <v>44454</v>
+        <v>44831</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="I48" s="36"/>
       <c r="J48" s="40" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="L48" s="40"/>
       <c r="M48" s="40"/>
-      <c r="N48" s="43"/>
+      <c r="N48" s="42"/>
       <c r="O48" s="40"/>
-      <c r="P48" s="43"/>
+      <c r="P48" s="42"/>
       <c r="Q48" s="40"/>
     </row>
-    <row r="49" ht="39" customHeight="1" spans="1:17">
-      <c r="A49" s="36" t="s">
-        <v>190</v>
-      </c>
+    <row r="49" ht="90" customHeight="1" spans="1:17">
+      <c r="A49" s="36"/>
       <c r="B49" s="37" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F49" s="39">
-        <v>44454</v>
+        <v>44831</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="I49" s="36"/>
       <c r="J49" s="40" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L49" s="40"/>
       <c r="M49" s="40"/>
-      <c r="N49" s="43"/>
+      <c r="N49" s="42"/>
       <c r="O49" s="40"/>
-      <c r="P49" s="43"/>
+      <c r="P49" s="42"/>
       <c r="Q49" s="40"/>
     </row>
     <row r="50" ht="39" customHeight="1" spans="1:17">
       <c r="A50" s="36" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F50" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="H50" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I50" s="36"/>
-      <c r="J50" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="K50" s="40" t="s">
-        <v>176</v>
-      </c>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
       <c r="L50" s="40"/>
       <c r="M50" s="40"/>
-      <c r="N50" s="43"/>
+      <c r="N50" s="42"/>
       <c r="O50" s="40"/>
-      <c r="P50" s="43"/>
+      <c r="P50" s="42"/>
       <c r="Q50" s="40"/>
     </row>
     <row r="51" ht="39" customHeight="1" spans="1:17">
-      <c r="A51" s="36" t="s">
-        <v>197</v>
-      </c>
+      <c r="A51" s="36"/>
       <c r="B51" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F51" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="H51" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I51" s="36"/>
-      <c r="J51" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="K51" s="40" t="s">
-        <v>176</v>
-      </c>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
       <c r="L51" s="40"/>
       <c r="M51" s="40"/>
-      <c r="N51" s="43"/>
+      <c r="N51" s="42"/>
       <c r="O51" s="40"/>
-      <c r="P51" s="43"/>
+      <c r="P51" s="42"/>
       <c r="Q51" s="40"/>
     </row>
     <row r="52" ht="39" customHeight="1" spans="1:17">
-      <c r="A52" s="36" t="s">
-        <v>199</v>
-      </c>
+      <c r="A52" s="36"/>
       <c r="B52" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F52" s="39">
-        <v>44448</v>
+        <v>44830</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H52" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I52" s="36"/>
-      <c r="J52" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="K52" s="40" t="s">
-        <v>202</v>
-      </c>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
       <c r="L52" s="40"/>
       <c r="M52" s="40"/>
-      <c r="N52" s="43"/>
+      <c r="N52" s="42"/>
       <c r="O52" s="40"/>
-      <c r="P52" s="43"/>
+      <c r="P52" s="42"/>
       <c r="Q52" s="40"/>
     </row>
     <row r="53" ht="39" customHeight="1" spans="1:17">
-      <c r="A53" s="36" t="s">
-        <v>203</v>
-      </c>
+      <c r="A53" s="36"/>
       <c r="B53" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F53" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="H53" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I53" s="36"/>
-      <c r="J53" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="K53" s="40" t="s">
-        <v>202</v>
-      </c>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
       <c r="L53" s="40"/>
       <c r="M53" s="40"/>
-      <c r="N53" s="43"/>
+      <c r="N53" s="42"/>
       <c r="O53" s="40"/>
-      <c r="P53" s="43"/>
+      <c r="P53" s="42"/>
       <c r="Q53" s="40"/>
     </row>
     <row r="54" ht="39" customHeight="1" spans="1:17">
-      <c r="A54" s="36" t="s">
-        <v>206</v>
-      </c>
+      <c r="A54" s="36"/>
       <c r="B54" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F54" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G54" s="41" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="H54" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I54" s="36"/>
-      <c r="J54" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="K54" s="40" t="s">
-        <v>202</v>
-      </c>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
       <c r="L54" s="40"/>
       <c r="M54" s="40"/>
-      <c r="N54" s="43"/>
+      <c r="N54" s="42"/>
       <c r="O54" s="40"/>
-      <c r="P54" s="43"/>
+      <c r="P54" s="42"/>
       <c r="Q54" s="40"/>
     </row>
     <row r="55" ht="39" customHeight="1" spans="1:17">
-      <c r="A55" s="36" t="s">
-        <v>209</v>
-      </c>
+      <c r="A55" s="36"/>
       <c r="B55" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F55" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="H55" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I55" s="36"/>
-      <c r="J55" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="K55" s="40" t="s">
-        <v>202</v>
-      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
       <c r="L55" s="40"/>
       <c r="M55" s="40"/>
-      <c r="N55" s="43"/>
+      <c r="N55" s="42"/>
       <c r="O55" s="40"/>
-      <c r="P55" s="43"/>
+      <c r="P55" s="42"/>
       <c r="Q55" s="40"/>
     </row>
     <row r="56" ht="39" customHeight="1" spans="1:17">
-      <c r="A56" s="36" t="s">
-        <v>212</v>
-      </c>
+      <c r="A56" s="36"/>
       <c r="B56" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F56" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H56" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I56" s="36"/>
-      <c r="J56" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="K56" s="40" t="s">
-        <v>215</v>
-      </c>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
       <c r="L56" s="40"/>
       <c r="M56" s="40"/>
-      <c r="N56" s="43"/>
+      <c r="N56" s="42"/>
       <c r="O56" s="40"/>
-      <c r="P56" s="43"/>
+      <c r="P56" s="42"/>
       <c r="Q56" s="40"/>
     </row>
     <row r="57" ht="39" customHeight="1" spans="1:17">
-      <c r="A57" s="36" t="s">
-        <v>216</v>
-      </c>
+      <c r="A57" s="36"/>
       <c r="B57" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F57" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H57" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I57" s="36"/>
-      <c r="J57" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="K57" s="40" t="s">
-        <v>215</v>
-      </c>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
       <c r="L57" s="40"/>
       <c r="M57" s="40"/>
-      <c r="N57" s="43"/>
+      <c r="N57" s="42"/>
       <c r="O57" s="40"/>
-      <c r="P57" s="43"/>
+      <c r="P57" s="42"/>
       <c r="Q57" s="40"/>
     </row>
     <row r="58" ht="39" customHeight="1" spans="1:17">
-      <c r="A58" s="36" t="s">
-        <v>219</v>
-      </c>
+      <c r="A58" s="36"/>
       <c r="B58" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F58" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G58" s="42" t="s">
-        <v>220</v>
+        <v>44830</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="H58" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I58" s="36"/>
-      <c r="J58" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="K58" s="40" t="s">
-        <v>222</v>
-      </c>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
       <c r="L58" s="40"/>
       <c r="M58" s="40"/>
-      <c r="N58" s="43"/>
+      <c r="N58" s="42"/>
       <c r="O58" s="40"/>
-      <c r="P58" s="43"/>
+      <c r="P58" s="42"/>
       <c r="Q58" s="40"/>
     </row>
     <row r="59" ht="39" customHeight="1" spans="1:17">
-      <c r="A59" s="36" t="s">
-        <v>223</v>
-      </c>
+      <c r="A59" s="36"/>
       <c r="B59" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F59" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G59" s="42" t="s">
-        <v>224</v>
+        <v>44830</v>
+      </c>
+      <c r="G59" s="41" t="s">
+        <v>228</v>
       </c>
       <c r="H59" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I59" s="36"/>
-      <c r="J59" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="K59" s="40" t="s">
-        <v>222</v>
-      </c>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
       <c r="L59" s="40"/>
       <c r="M59" s="40"/>
-      <c r="N59" s="43"/>
+      <c r="N59" s="42"/>
       <c r="O59" s="40"/>
-      <c r="P59" s="43"/>
+      <c r="P59" s="42"/>
       <c r="Q59" s="40"/>
     </row>
     <row r="60" ht="39" customHeight="1" spans="1:17">
-      <c r="A60" s="36" t="s">
-        <v>226</v>
-      </c>
+      <c r="A60" s="36"/>
       <c r="B60" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F60" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G60" s="42" t="s">
-        <v>227</v>
+        <v>44830</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>229</v>
       </c>
       <c r="H60" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I60" s="36"/>
-      <c r="J60" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="K60" s="40" t="s">
-        <v>222</v>
-      </c>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
       <c r="L60" s="40"/>
       <c r="M60" s="40"/>
-      <c r="N60" s="43"/>
+      <c r="N60" s="42"/>
       <c r="O60" s="40"/>
-      <c r="P60" s="43"/>
+      <c r="P60" s="42"/>
       <c r="Q60" s="40"/>
     </row>
     <row r="61" ht="39" customHeight="1" spans="1:17">
-      <c r="A61" s="36" t="s">
-        <v>229</v>
-      </c>
+      <c r="A61" s="36"/>
       <c r="B61" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F61" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G61" s="42" t="s">
+        <v>44830</v>
+      </c>
+      <c r="G61" s="41" t="s">
         <v>230</v>
       </c>
       <c r="H61" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I61" s="36"/>
-      <c r="J61" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="K61" s="40" t="s">
-        <v>232</v>
-      </c>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
       <c r="L61" s="40"/>
       <c r="M61" s="40"/>
-      <c r="N61" s="43"/>
+      <c r="N61" s="42"/>
       <c r="O61" s="40"/>
-      <c r="P61" s="43"/>
+      <c r="P61" s="42"/>
       <c r="Q61" s="40"/>
     </row>
     <row r="62" ht="39" customHeight="1" spans="1:17">
-      <c r="A62" s="36" t="s">
-        <v>233</v>
-      </c>
+      <c r="A62" s="36"/>
       <c r="B62" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F62" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G62" s="42" t="s">
-        <v>234</v>
+        <v>44830</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>231</v>
       </c>
       <c r="H62" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I62" s="36"/>
-      <c r="J62" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="K62" s="40" t="s">
-        <v>236</v>
-      </c>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
       <c r="L62" s="40"/>
       <c r="M62" s="40"/>
-      <c r="N62" s="43"/>
+      <c r="N62" s="42"/>
       <c r="O62" s="40"/>
-      <c r="P62" s="43"/>
+      <c r="P62" s="42"/>
       <c r="Q62" s="40"/>
     </row>
     <row r="63" ht="39" customHeight="1" spans="1:17">
-      <c r="A63" s="36" t="s">
-        <v>237</v>
-      </c>
+      <c r="A63" s="36"/>
       <c r="B63" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F63" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G63" s="42" t="s">
-        <v>238</v>
+        <v>44830</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>232</v>
       </c>
       <c r="H63" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I63" s="36"/>
-      <c r="J63" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="K63" s="40" t="s">
-        <v>236</v>
-      </c>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
       <c r="L63" s="40"/>
       <c r="M63" s="40"/>
-      <c r="N63" s="43"/>
+      <c r="N63" s="42"/>
       <c r="O63" s="40"/>
-      <c r="P63" s="43"/>
+      <c r="P63" s="42"/>
       <c r="Q63" s="40"/>
     </row>
     <row r="64" ht="39" customHeight="1" spans="1:17">
-      <c r="A64" s="36" t="s">
-        <v>240</v>
-      </c>
+      <c r="A64" s="36"/>
       <c r="B64" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F64" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G64" s="42" t="s">
-        <v>241</v>
+        <v>44830</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>233</v>
       </c>
       <c r="H64" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I64" s="36"/>
-      <c r="J64" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="K64" s="40" t="s">
-        <v>243</v>
-      </c>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
       <c r="L64" s="40"/>
       <c r="M64" s="40"/>
-      <c r="N64" s="43"/>
+      <c r="N64" s="42"/>
       <c r="O64" s="40"/>
-      <c r="P64" s="43"/>
+      <c r="P64" s="42"/>
       <c r="Q64" s="40"/>
     </row>
     <row r="65" ht="39" customHeight="1" spans="1:17">
-      <c r="A65" s="36" t="s">
-        <v>244</v>
-      </c>
+      <c r="A65" s="36"/>
       <c r="B65" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F65" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H65" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I65" s="36"/>
-      <c r="J65" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="K65" s="40" t="s">
-        <v>243</v>
-      </c>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
       <c r="L65" s="40"/>
       <c r="M65" s="40"/>
-      <c r="N65" s="43"/>
+      <c r="N65" s="42"/>
       <c r="O65" s="40"/>
-      <c r="P65" s="43"/>
+      <c r="P65" s="42"/>
       <c r="Q65" s="40"/>
     </row>
     <row r="66" ht="39" customHeight="1" spans="1:17">
-      <c r="A66" s="36" t="s">
-        <v>247</v>
-      </c>
+      <c r="A66" s="36"/>
       <c r="B66" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F66" s="39">
-        <v>44454</v>
+        <v>44830</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="H66" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I66" s="36"/>
-      <c r="J66" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="K66" s="40" t="s">
-        <v>243</v>
-      </c>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
       <c r="L66" s="40"/>
       <c r="M66" s="40"/>
-      <c r="N66" s="43"/>
+      <c r="N66" s="42"/>
       <c r="O66" s="40"/>
-      <c r="P66" s="43"/>
+      <c r="P66" s="42"/>
       <c r="Q66" s="40"/>
     </row>
-    <row r="67" ht="39" customHeight="1" spans="1:17">
-      <c r="A67" s="36" t="s">
-        <v>250</v>
-      </c>
+    <row r="67" ht="63" customHeight="1" spans="1:17">
+      <c r="A67" s="36"/>
       <c r="B67" s="37" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>27</v>
@@ -6097,37 +5707,35 @@
         <v>28</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F67" s="39">
-        <v>44454</v>
+        <v>44832</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="I67" s="36"/>
-      <c r="J67" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="K67" s="40" t="s">
-        <v>243</v>
+      <c r="J67" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="K67" s="41" t="s">
+        <v>240</v>
       </c>
       <c r="L67" s="40"/>
       <c r="M67" s="40"/>
-      <c r="N67" s="43"/>
+      <c r="N67" s="42"/>
       <c r="O67" s="40"/>
-      <c r="P67" s="43"/>
+      <c r="P67" s="42"/>
       <c r="Q67" s="40"/>
     </row>
     <row r="68" ht="39" customHeight="1" spans="1:17">
-      <c r="A68" s="36" t="s">
-        <v>253</v>
-      </c>
+      <c r="A68" s="36"/>
       <c r="B68" s="37" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>27</v>
@@ -6136,37 +5744,35 @@
         <v>28</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F68" s="39">
-        <v>44454</v>
+        <v>44832</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="I68" s="36"/>
-      <c r="J68" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="K68" s="40" t="s">
-        <v>256</v>
+      <c r="J68" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="K68" s="41" t="s">
+        <v>244</v>
       </c>
       <c r="L68" s="40"/>
       <c r="M68" s="40"/>
-      <c r="N68" s="43"/>
+      <c r="N68" s="42"/>
       <c r="O68" s="40"/>
-      <c r="P68" s="43"/>
+      <c r="P68" s="42"/>
       <c r="Q68" s="40"/>
     </row>
     <row r="69" ht="39" customHeight="1" spans="1:17">
-      <c r="A69" s="36" t="s">
-        <v>257</v>
-      </c>
+      <c r="A69" s="36"/>
       <c r="B69" s="37" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="C69" s="37" t="s">
         <v>27</v>
@@ -6175,37 +5781,33 @@
         <v>28</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F69" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G69" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>44832</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H69" s="40"/>
       <c r="I69" s="36"/>
-      <c r="J69" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="K69" s="40" t="s">
-        <v>260</v>
+      <c r="J69" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="K69" s="41" t="s">
+        <v>247</v>
       </c>
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
-      <c r="N69" s="43"/>
+      <c r="N69" s="42"/>
       <c r="O69" s="40"/>
-      <c r="P69" s="43"/>
+      <c r="P69" s="42"/>
       <c r="Q69" s="40"/>
     </row>
     <row r="70" ht="39" customHeight="1" spans="1:17">
-      <c r="A70" s="36" t="s">
-        <v>261</v>
-      </c>
+      <c r="A70" s="36"/>
       <c r="B70" s="37" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>27</v>
@@ -6214,232 +5816,192 @@
         <v>28</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F70" s="39">
-        <v>44448</v>
+        <v>44832</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="H70" s="40"/>
       <c r="I70" s="36"/>
-      <c r="J70" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="K70" s="41" t="s">
-        <v>265</v>
-      </c>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
       <c r="L70" s="40"/>
       <c r="M70" s="40"/>
-      <c r="N70" s="43"/>
+      <c r="N70" s="42"/>
       <c r="O70" s="40"/>
-      <c r="P70" s="43"/>
+      <c r="P70" s="42"/>
       <c r="Q70" s="40"/>
     </row>
     <row r="71" ht="39" customHeight="1" spans="1:17">
-      <c r="A71" s="36" t="s">
-        <v>266</v>
-      </c>
+      <c r="A71" s="36"/>
       <c r="B71" s="37" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F71" s="39">
-        <v>44454</v>
+        <v>44832</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="I71" s="36"/>
-      <c r="J71" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="K71" s="41" t="s">
-        <v>269</v>
-      </c>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
       <c r="L71" s="40"/>
       <c r="M71" s="40"/>
-      <c r="N71" s="43"/>
+      <c r="N71" s="42"/>
       <c r="O71" s="40"/>
-      <c r="P71" s="43"/>
+      <c r="P71" s="42"/>
       <c r="Q71" s="40"/>
     </row>
     <row r="72" ht="39" customHeight="1" spans="1:17">
-      <c r="A72" s="36" t="s">
-        <v>270</v>
-      </c>
+      <c r="A72" s="36"/>
       <c r="B72" s="37" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F72" s="39">
-        <v>44454</v>
+        <v>44832</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="I72" s="36"/>
-      <c r="J72" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="K72" s="41" t="s">
-        <v>273</v>
-      </c>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
       <c r="L72" s="40"/>
       <c r="M72" s="40"/>
-      <c r="N72" s="43"/>
+      <c r="N72" s="42"/>
       <c r="O72" s="40"/>
-      <c r="P72" s="43"/>
+      <c r="P72" s="42"/>
       <c r="Q72" s="40"/>
     </row>
     <row r="73" ht="39" customHeight="1" spans="1:17">
-      <c r="A73" s="36" t="s">
-        <v>274</v>
-      </c>
+      <c r="A73" s="36"/>
       <c r="B73" s="37" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F73" s="39">
-        <v>44454</v>
+        <v>44832</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="I73" s="36"/>
-      <c r="J73" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="K73" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
       <c r="L73" s="40"/>
       <c r="M73" s="40"/>
-      <c r="N73" s="43"/>
+      <c r="N73" s="42"/>
       <c r="O73" s="40"/>
-      <c r="P73" s="43"/>
+      <c r="P73" s="42"/>
       <c r="Q73" s="40"/>
     </row>
     <row r="74" ht="39" customHeight="1" spans="1:17">
-      <c r="A74" s="36" t="s">
-        <v>278</v>
-      </c>
+      <c r="A74" s="36"/>
       <c r="B74" s="37" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F74" s="39">
-        <v>44454</v>
+        <v>44832</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="H74" s="40"/>
       <c r="I74" s="36"/>
-      <c r="J74" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="K74" s="40" t="s">
-        <v>281</v>
-      </c>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
-      <c r="N74" s="43"/>
+      <c r="N74" s="42"/>
       <c r="O74" s="40"/>
-      <c r="P74" s="43"/>
+      <c r="P74" s="42"/>
       <c r="Q74" s="40"/>
     </row>
     <row r="75" ht="39" customHeight="1" spans="1:17">
-      <c r="A75" s="36" t="s">
-        <v>282</v>
-      </c>
+      <c r="A75" s="36"/>
       <c r="B75" s="37" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C75" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F75" s="39">
-        <v>44448</v>
+        <v>44832</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="H75" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="H75" s="40"/>
       <c r="I75" s="36"/>
-      <c r="J75" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="K75" s="40" t="s">
-        <v>285</v>
-      </c>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
-      <c r="N75" s="43"/>
+      <c r="N75" s="42"/>
       <c r="O75" s="40"/>
-      <c r="P75" s="43"/>
+      <c r="P75" s="42"/>
       <c r="Q75" s="40"/>
     </row>
     <row r="76" ht="39" customHeight="1" spans="1:17">
       <c r="A76" s="36" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>27</v>
@@ -6454,31 +6016,31 @@
         <v>44448</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="H76" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="40" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="L76" s="40"/>
       <c r="M76" s="40"/>
-      <c r="N76" s="43"/>
+      <c r="N76" s="42"/>
       <c r="O76" s="40"/>
-      <c r="P76" s="43"/>
+      <c r="P76" s="42"/>
       <c r="Q76" s="40"/>
     </row>
     <row r="77" ht="39" customHeight="1" spans="1:17">
       <c r="A77" s="36" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>27</v>
@@ -6493,31 +6055,31 @@
         <v>44448</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="H77" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I77" s="36"/>
       <c r="J77" s="40" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
-      <c r="N77" s="43"/>
+      <c r="N77" s="42"/>
       <c r="O77" s="40"/>
-      <c r="P77" s="43"/>
+      <c r="P77" s="42"/>
       <c r="Q77" s="40"/>
     </row>
     <row r="78" ht="39" customHeight="1" spans="1:17">
       <c r="A78" s="36" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>27</v>
@@ -6532,31 +6094,31 @@
         <v>44448</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="H78" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="40" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="K78" s="40" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="L78" s="40"/>
       <c r="M78" s="40"/>
-      <c r="N78" s="43"/>
+      <c r="N78" s="42"/>
       <c r="O78" s="40"/>
-      <c r="P78" s="43"/>
+      <c r="P78" s="42"/>
       <c r="Q78" s="40"/>
     </row>
     <row r="79" ht="39" customHeight="1" spans="1:17">
       <c r="A79" s="36" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>27</v>
@@ -6571,31 +6133,31 @@
         <v>44448</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="H79" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="40" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
-      <c r="N79" s="43"/>
+      <c r="N79" s="42"/>
       <c r="O79" s="40"/>
-      <c r="P79" s="43"/>
+      <c r="P79" s="42"/>
       <c r="Q79" s="40"/>
     </row>
     <row r="80" ht="39" customHeight="1" spans="1:17">
       <c r="A80" s="36" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>27</v>
@@ -6610,31 +6172,31 @@
         <v>44448</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="H80" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="40" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="L80" s="40"/>
       <c r="M80" s="40"/>
-      <c r="N80" s="43"/>
+      <c r="N80" s="42"/>
       <c r="O80" s="40"/>
-      <c r="P80" s="43"/>
+      <c r="P80" s="42"/>
       <c r="Q80" s="40"/>
     </row>
     <row r="81" ht="39" customHeight="1" spans="1:17">
       <c r="A81" s="36" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>27</v>
@@ -6649,31 +6211,31 @@
         <v>44448</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H81" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I81" s="36"/>
       <c r="J81" s="40" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="K81" s="40" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="L81" s="40"/>
       <c r="M81" s="40"/>
-      <c r="N81" s="43"/>
+      <c r="N81" s="42"/>
       <c r="O81" s="40"/>
-      <c r="P81" s="43"/>
+      <c r="P81" s="42"/>
       <c r="Q81" s="40"/>
     </row>
     <row r="82" ht="39" customHeight="1" spans="1:17">
       <c r="A82" s="36" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>27</v>
@@ -6687,32 +6249,32 @@
       <c r="F82" s="39">
         <v>44448</v>
       </c>
-      <c r="G82" s="44" t="s">
-        <v>310</v>
+      <c r="G82" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="H82" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I82" s="36"/>
       <c r="J82" s="40" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="K82" s="40" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="L82" s="40"/>
       <c r="M82" s="40"/>
-      <c r="N82" s="43"/>
+      <c r="N82" s="42"/>
       <c r="O82" s="40"/>
-      <c r="P82" s="43"/>
+      <c r="P82" s="42"/>
       <c r="Q82" s="40"/>
     </row>
     <row r="83" ht="39" customHeight="1" spans="1:17">
       <c r="A83" s="36" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>27</v>
@@ -6726,32 +6288,32 @@
       <c r="F83" s="39">
         <v>44448</v>
       </c>
-      <c r="G83" s="44" t="s">
-        <v>312</v>
+      <c r="G83" s="43" t="s">
+        <v>285</v>
       </c>
       <c r="H83" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I83" s="36"/>
       <c r="J83" s="40" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="K83" s="40" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="L83" s="40"/>
       <c r="M83" s="40"/>
-      <c r="N83" s="43"/>
+      <c r="N83" s="42"/>
       <c r="O83" s="40"/>
-      <c r="P83" s="43"/>
+      <c r="P83" s="42"/>
       <c r="Q83" s="40"/>
     </row>
     <row r="84" ht="39" customHeight="1" spans="1:17">
       <c r="A84" s="36" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>27</v>
@@ -6763,34 +6325,34 @@
         <v>29</v>
       </c>
       <c r="F84" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G84" s="44" t="s">
-        <v>316</v>
+        <v>44448</v>
+      </c>
+      <c r="G84" s="43" t="s">
+        <v>287</v>
       </c>
       <c r="H84" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I84" s="36"/>
-      <c r="J84" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="K84" s="36" t="s">
-        <v>318</v>
+      <c r="J84" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K84" s="40" t="s">
+        <v>289</v>
       </c>
       <c r="L84" s="40"/>
       <c r="M84" s="40"/>
-      <c r="N84" s="43"/>
+      <c r="N84" s="42"/>
       <c r="O84" s="40"/>
-      <c r="P84" s="43"/>
+      <c r="P84" s="42"/>
       <c r="Q84" s="40"/>
     </row>
     <row r="85" ht="39" customHeight="1" spans="1:17">
       <c r="A85" s="36" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C85" s="37" t="s">
         <v>27</v>
@@ -6804,32 +6366,32 @@
       <c r="F85" s="39">
         <v>44452</v>
       </c>
-      <c r="G85" s="44" t="s">
-        <v>320</v>
+      <c r="G85" s="43" t="s">
+        <v>291</v>
       </c>
       <c r="H85" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I85" s="40"/>
+      <c r="I85" s="36"/>
       <c r="J85" s="36" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="L85" s="40"/>
       <c r="M85" s="40"/>
-      <c r="N85" s="43"/>
+      <c r="N85" s="42"/>
       <c r="O85" s="40"/>
-      <c r="P85" s="43"/>
+      <c r="P85" s="42"/>
       <c r="Q85" s="40"/>
     </row>
     <row r="86" ht="39" customHeight="1" spans="1:17">
       <c r="A86" s="36" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C86" s="37" t="s">
         <v>27</v>
@@ -6843,32 +6405,32 @@
       <c r="F86" s="39">
         <v>44452</v>
       </c>
-      <c r="G86" s="44" t="s">
-        <v>324</v>
+      <c r="G86" s="43" t="s">
+        <v>295</v>
       </c>
       <c r="H86" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I86" s="40"/>
       <c r="J86" s="36" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="L86" s="40"/>
       <c r="M86" s="40"/>
-      <c r="N86" s="43"/>
+      <c r="N86" s="42"/>
       <c r="O86" s="40"/>
-      <c r="P86" s="43"/>
+      <c r="P86" s="42"/>
       <c r="Q86" s="40"/>
     </row>
     <row r="87" ht="39" customHeight="1" spans="1:17">
       <c r="A87" s="36" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>27</v>
@@ -6882,32 +6444,32 @@
       <c r="F87" s="39">
         <v>44452</v>
       </c>
-      <c r="G87" s="44" t="s">
-        <v>328</v>
+      <c r="G87" s="43" t="s">
+        <v>299</v>
       </c>
       <c r="H87" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I87" s="36"/>
+      <c r="I87" s="40"/>
       <c r="J87" s="36" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="K87" s="36" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="L87" s="40"/>
       <c r="M87" s="40"/>
-      <c r="N87" s="43"/>
+      <c r="N87" s="42"/>
       <c r="O87" s="40"/>
-      <c r="P87" s="43"/>
+      <c r="P87" s="42"/>
       <c r="Q87" s="40"/>
     </row>
-    <row r="88" ht="36.6" customHeight="1" spans="1:17">
+    <row r="88" ht="39" customHeight="1" spans="1:17">
       <c r="A88" s="36" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>27</v>
@@ -6921,32 +6483,32 @@
       <c r="F88" s="39">
         <v>44452</v>
       </c>
-      <c r="G88" s="44" t="s">
-        <v>332</v>
+      <c r="G88" s="43" t="s">
+        <v>303</v>
       </c>
       <c r="H88" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I88" s="40"/>
+      <c r="I88" s="36"/>
       <c r="J88" s="36" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="K88" s="36" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="L88" s="40"/>
       <c r="M88" s="40"/>
-      <c r="N88" s="43"/>
+      <c r="N88" s="42"/>
       <c r="O88" s="40"/>
-      <c r="P88" s="43"/>
+      <c r="P88" s="42"/>
       <c r="Q88" s="40"/>
     </row>
     <row r="89" ht="36.6" customHeight="1" spans="1:17">
       <c r="A89" s="36" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>27</v>
@@ -6960,32 +6522,32 @@
       <c r="F89" s="39">
         <v>44452</v>
       </c>
-      <c r="G89" s="44" t="s">
-        <v>336</v>
+      <c r="G89" s="43" t="s">
+        <v>307</v>
       </c>
       <c r="H89" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I89" s="40"/>
       <c r="J89" s="36" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="K89" s="36" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="L89" s="40"/>
       <c r="M89" s="40"/>
-      <c r="N89" s="43"/>
+      <c r="N89" s="42"/>
       <c r="O89" s="40"/>
-      <c r="P89" s="43"/>
+      <c r="P89" s="42"/>
       <c r="Q89" s="40"/>
     </row>
     <row r="90" ht="36.6" customHeight="1" spans="1:17">
       <c r="A90" s="36" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>27</v>
@@ -6997,34 +6559,34 @@
         <v>29</v>
       </c>
       <c r="F90" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G90" s="44" t="s">
-        <v>340</v>
+        <v>44452</v>
+      </c>
+      <c r="G90" s="43" t="s">
+        <v>311</v>
       </c>
       <c r="H90" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I90" s="40"/>
-      <c r="J90" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="K90" s="40" t="s">
-        <v>342</v>
+      <c r="J90" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="K90" s="36" t="s">
+        <v>313</v>
       </c>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
-      <c r="N90" s="43"/>
+      <c r="N90" s="42"/>
       <c r="O90" s="40"/>
-      <c r="P90" s="43"/>
+      <c r="P90" s="42"/>
       <c r="Q90" s="40"/>
     </row>
     <row r="91" ht="36.6" customHeight="1" spans="1:17">
       <c r="A91" s="36" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>27</v>
@@ -7038,32 +6600,32 @@
       <c r="F91" s="39">
         <v>44454</v>
       </c>
-      <c r="G91" s="44" t="s">
-        <v>344</v>
+      <c r="G91" s="43" t="s">
+        <v>315</v>
       </c>
       <c r="H91" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I91" s="40"/>
       <c r="J91" s="40" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="K91" s="40" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="L91" s="40"/>
       <c r="M91" s="40"/>
-      <c r="N91" s="43"/>
+      <c r="N91" s="42"/>
       <c r="O91" s="40"/>
-      <c r="P91" s="43"/>
+      <c r="P91" s="42"/>
       <c r="Q91" s="40"/>
     </row>
     <row r="92" ht="36.6" customHeight="1" spans="1:17">
       <c r="A92" s="36" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C92" s="37" t="s">
         <v>27</v>
@@ -7077,32 +6639,32 @@
       <c r="F92" s="39">
         <v>44454</v>
       </c>
-      <c r="G92" s="44" t="s">
-        <v>348</v>
+      <c r="G92" s="43" t="s">
+        <v>319</v>
       </c>
       <c r="H92" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I92" s="40"/>
       <c r="J92" s="40" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="L92" s="40"/>
       <c r="M92" s="40"/>
-      <c r="N92" s="43"/>
+      <c r="N92" s="42"/>
       <c r="O92" s="40"/>
-      <c r="P92" s="43"/>
+      <c r="P92" s="42"/>
       <c r="Q92" s="40"/>
     </row>
     <row r="93" ht="36.6" customHeight="1" spans="1:17">
       <c r="A93" s="36" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>27</v>
@@ -7116,32 +6678,32 @@
       <c r="F93" s="39">
         <v>44454</v>
       </c>
-      <c r="G93" s="44" t="s">
-        <v>351</v>
+      <c r="G93" s="43" t="s">
+        <v>323</v>
       </c>
       <c r="H93" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I93" s="40"/>
       <c r="J93" s="40" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K93" s="40" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="L93" s="40"/>
       <c r="M93" s="40"/>
-      <c r="N93" s="43"/>
+      <c r="N93" s="42"/>
       <c r="O93" s="40"/>
-      <c r="P93" s="43"/>
+      <c r="P93" s="42"/>
       <c r="Q93" s="40"/>
     </row>
     <row r="94" ht="36.6" customHeight="1" spans="1:17">
       <c r="A94" s="36" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C94" s="37" t="s">
         <v>27</v>
@@ -7155,32 +6717,32 @@
       <c r="F94" s="39">
         <v>44454</v>
       </c>
-      <c r="G94" s="44" t="s">
-        <v>355</v>
+      <c r="G94" s="43" t="s">
+        <v>326</v>
       </c>
       <c r="H94" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I94" s="40"/>
       <c r="J94" s="40" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="K94" s="40" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="L94" s="40"/>
       <c r="M94" s="40"/>
-      <c r="N94" s="43"/>
+      <c r="N94" s="42"/>
       <c r="O94" s="40"/>
-      <c r="P94" s="43"/>
+      <c r="P94" s="42"/>
       <c r="Q94" s="40"/>
     </row>
     <row r="95" ht="36.6" customHeight="1" spans="1:17">
       <c r="A95" s="36" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C95" s="37" t="s">
         <v>27</v>
@@ -7194,32 +6756,32 @@
       <c r="F95" s="39">
         <v>44454</v>
       </c>
-      <c r="G95" s="44" t="s">
-        <v>358</v>
+      <c r="G95" s="43" t="s">
+        <v>330</v>
       </c>
       <c r="H95" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I95" s="40"/>
       <c r="J95" s="40" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="K95" s="40" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="L95" s="40"/>
       <c r="M95" s="40"/>
-      <c r="N95" s="43"/>
+      <c r="N95" s="42"/>
       <c r="O95" s="40"/>
-      <c r="P95" s="43"/>
+      <c r="P95" s="42"/>
       <c r="Q95" s="40"/>
     </row>
     <row r="96" ht="36.6" customHeight="1" spans="1:17">
       <c r="A96" s="36" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="C96" s="37" t="s">
         <v>27</v>
@@ -7231,34 +6793,34 @@
         <v>29</v>
       </c>
       <c r="F96" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G96" s="41" t="s">
-        <v>361</v>
+        <v>44454</v>
+      </c>
+      <c r="G96" s="43" t="s">
+        <v>333</v>
       </c>
       <c r="H96" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I96" s="36"/>
+      <c r="I96" s="40"/>
       <c r="J96" s="40" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="K96" s="40" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
-      <c r="N96" s="43"/>
+      <c r="N96" s="42"/>
       <c r="O96" s="40"/>
-      <c r="P96" s="43"/>
+      <c r="P96" s="42"/>
       <c r="Q96" s="40"/>
     </row>
     <row r="97" ht="36.6" customHeight="1" spans="1:17">
       <c r="A97" s="36" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="C97" s="37" t="s">
         <v>27</v>
@@ -7270,34 +6832,34 @@
         <v>29</v>
       </c>
       <c r="F97" s="39">
-        <v>44454</v>
+        <v>44452</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="H97" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I97" s="36"/>
       <c r="J97" s="40" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="K97" s="40" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="L97" s="40"/>
       <c r="M97" s="40"/>
-      <c r="N97" s="43"/>
+      <c r="N97" s="42"/>
       <c r="O97" s="40"/>
-      <c r="P97" s="43"/>
+      <c r="P97" s="42"/>
       <c r="Q97" s="40"/>
     </row>
     <row r="98" ht="36.6" customHeight="1" spans="1:17">
       <c r="A98" s="36" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="C98" s="37" t="s">
         <v>27</v>
@@ -7309,34 +6871,34 @@
         <v>29</v>
       </c>
       <c r="F98" s="39">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="H98" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I98" s="36"/>
       <c r="J98" s="40" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="K98" s="40" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="L98" s="40"/>
       <c r="M98" s="40"/>
-      <c r="N98" s="43"/>
+      <c r="N98" s="42"/>
       <c r="O98" s="40"/>
-      <c r="P98" s="43"/>
+      <c r="P98" s="42"/>
       <c r="Q98" s="40"/>
     </row>
     <row r="99" ht="36.6" customHeight="1" spans="1:17">
       <c r="A99" s="36" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="C99" s="37" t="s">
         <v>27</v>
@@ -7348,51 +6910,71 @@
         <v>29</v>
       </c>
       <c r="F99" s="39">
-        <v>44454</v>
+        <v>44452</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="H99" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I99" s="40"/>
+      <c r="I99" s="36"/>
       <c r="J99" s="40" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="K99" s="40" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="L99" s="40"/>
       <c r="M99" s="40"/>
-      <c r="N99" s="43"/>
+      <c r="N99" s="42"/>
       <c r="O99" s="40"/>
-      <c r="P99" s="43"/>
+      <c r="P99" s="42"/>
       <c r="Q99" s="40"/>
     </row>
-    <row r="100" ht="60" customHeight="1" spans="1:17">
-      <c r="A100" s="36"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
+    <row r="100" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A100" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="39">
+        <v>44454</v>
+      </c>
+      <c r="G100" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="H100" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="K100" s="40" t="s">
+        <v>346</v>
+      </c>
       <c r="L100" s="40"/>
       <c r="M100" s="40"/>
-      <c r="N100" s="43"/>
+      <c r="N100" s="42"/>
       <c r="O100" s="40"/>
-      <c r="P100" s="43"/>
+      <c r="P100" s="42"/>
       <c r="Q100" s="40"/>
     </row>
-    <row r="101" ht="59" customHeight="1" spans="1:17">
+    <row r="101" ht="60" customHeight="1" spans="1:17">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
+      <c r="C101" s="37"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38"/>
       <c r="F101" s="39"/>
@@ -7403,12 +6985,12 @@
       <c r="K101" s="36"/>
       <c r="L101" s="40"/>
       <c r="M101" s="40"/>
-      <c r="N101" s="43"/>
+      <c r="N101" s="42"/>
       <c r="O101" s="40"/>
-      <c r="P101" s="43"/>
+      <c r="P101" s="42"/>
       <c r="Q101" s="40"/>
     </row>
-    <row r="102" ht="68" customHeight="1" spans="1:17">
+    <row r="102" ht="59" customHeight="1" spans="1:17">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -7422,12 +7004,12 @@
       <c r="K102" s="36"/>
       <c r="L102" s="40"/>
       <c r="M102" s="40"/>
-      <c r="N102" s="43"/>
+      <c r="N102" s="42"/>
       <c r="O102" s="40"/>
-      <c r="P102" s="43"/>
+      <c r="P102" s="42"/>
       <c r="Q102" s="40"/>
     </row>
-    <row r="103" ht="59" customHeight="1" spans="1:17">
+    <row r="103" ht="68" customHeight="1" spans="1:17">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -7436,17 +7018,17 @@
       <c r="F103" s="39"/>
       <c r="G103" s="41"/>
       <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
+      <c r="I103" s="36"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="40"/>
       <c r="M103" s="40"/>
-      <c r="N103" s="43"/>
+      <c r="N103" s="42"/>
       <c r="O103" s="40"/>
-      <c r="P103" s="43"/>
+      <c r="P103" s="42"/>
       <c r="Q103" s="40"/>
     </row>
-    <row r="104" ht="36.6" customHeight="1" spans="1:17">
+    <row r="104" ht="59" customHeight="1" spans="1:17">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -7455,33 +7037,33 @@
       <c r="F104" s="39"/>
       <c r="G104" s="41"/>
       <c r="H104" s="40"/>
-      <c r="I104" s="36"/>
+      <c r="I104" s="40"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="40"/>
       <c r="M104" s="40"/>
-      <c r="N104" s="43"/>
+      <c r="N104" s="42"/>
       <c r="O104" s="40"/>
-      <c r="P104" s="43"/>
+      <c r="P104" s="42"/>
       <c r="Q104" s="40"/>
     </row>
     <row r="105" ht="36.6" customHeight="1" spans="1:17">
       <c r="A105" s="36"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
       <c r="D105" s="38"/>
       <c r="E105" s="38"/>
       <c r="F105" s="39"/>
-      <c r="G105" s="37"/>
+      <c r="G105" s="41"/>
       <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
       <c r="L105" s="40"/>
       <c r="M105" s="40"/>
-      <c r="N105" s="43"/>
+      <c r="N105" s="42"/>
       <c r="O105" s="40"/>
-      <c r="P105" s="43"/>
+      <c r="P105" s="42"/>
       <c r="Q105" s="40"/>
     </row>
     <row r="106" ht="36.6" customHeight="1" spans="1:17">
@@ -7498,9 +7080,9 @@
       <c r="K106" s="40"/>
       <c r="L106" s="40"/>
       <c r="M106" s="40"/>
-      <c r="N106" s="43"/>
+      <c r="N106" s="42"/>
       <c r="O106" s="40"/>
-      <c r="P106" s="43"/>
+      <c r="P106" s="42"/>
       <c r="Q106" s="40"/>
     </row>
     <row r="107" ht="36.6" customHeight="1" spans="1:17">
@@ -7517,9 +7099,9 @@
       <c r="K107" s="40"/>
       <c r="L107" s="40"/>
       <c r="M107" s="40"/>
-      <c r="N107" s="43"/>
+      <c r="N107" s="42"/>
       <c r="O107" s="40"/>
-      <c r="P107" s="43"/>
+      <c r="P107" s="42"/>
       <c r="Q107" s="40"/>
     </row>
     <row r="108" ht="36.6" customHeight="1" spans="1:17">
@@ -7536,9 +7118,9 @@
       <c r="K108" s="40"/>
       <c r="L108" s="40"/>
       <c r="M108" s="40"/>
-      <c r="N108" s="43"/>
+      <c r="N108" s="42"/>
       <c r="O108" s="40"/>
-      <c r="P108" s="43"/>
+      <c r="P108" s="42"/>
       <c r="Q108" s="40"/>
     </row>
     <row r="109" ht="36.6" customHeight="1" spans="1:17">
@@ -7555,9 +7137,9 @@
       <c r="K109" s="40"/>
       <c r="L109" s="40"/>
       <c r="M109" s="40"/>
-      <c r="N109" s="43"/>
+      <c r="N109" s="42"/>
       <c r="O109" s="40"/>
-      <c r="P109" s="43"/>
+      <c r="P109" s="42"/>
       <c r="Q109" s="40"/>
     </row>
     <row r="110" ht="36.6" customHeight="1" spans="1:17">
@@ -7574,9 +7156,9 @@
       <c r="K110" s="40"/>
       <c r="L110" s="40"/>
       <c r="M110" s="40"/>
-      <c r="N110" s="43"/>
+      <c r="N110" s="42"/>
       <c r="O110" s="40"/>
-      <c r="P110" s="43"/>
+      <c r="P110" s="42"/>
       <c r="Q110" s="40"/>
     </row>
     <row r="111" ht="36.6" customHeight="1" spans="1:17">
@@ -7593,9 +7175,9 @@
       <c r="K111" s="40"/>
       <c r="L111" s="40"/>
       <c r="M111" s="40"/>
-      <c r="N111" s="43"/>
+      <c r="N111" s="42"/>
       <c r="O111" s="40"/>
-      <c r="P111" s="43"/>
+      <c r="P111" s="42"/>
       <c r="Q111" s="40"/>
     </row>
     <row r="112" ht="36.6" customHeight="1" spans="1:17">
@@ -7612,9 +7194,9 @@
       <c r="K112" s="40"/>
       <c r="L112" s="40"/>
       <c r="M112" s="40"/>
-      <c r="N112" s="43"/>
+      <c r="N112" s="42"/>
       <c r="O112" s="40"/>
-      <c r="P112" s="43"/>
+      <c r="P112" s="42"/>
       <c r="Q112" s="40"/>
     </row>
     <row r="113" ht="36.6" customHeight="1" spans="1:17">
@@ -7631,9 +7213,9 @@
       <c r="K113" s="40"/>
       <c r="L113" s="40"/>
       <c r="M113" s="40"/>
-      <c r="N113" s="43"/>
+      <c r="N113" s="42"/>
       <c r="O113" s="40"/>
-      <c r="P113" s="43"/>
+      <c r="P113" s="42"/>
       <c r="Q113" s="40"/>
     </row>
     <row r="114" ht="36.6" customHeight="1" spans="1:17">
@@ -7650,9 +7232,9 @@
       <c r="K114" s="40"/>
       <c r="L114" s="40"/>
       <c r="M114" s="40"/>
-      <c r="N114" s="43"/>
+      <c r="N114" s="42"/>
       <c r="O114" s="40"/>
-      <c r="P114" s="43"/>
+      <c r="P114" s="42"/>
       <c r="Q114" s="40"/>
     </row>
     <row r="115" ht="36.6" customHeight="1" spans="1:17">
@@ -7669,9 +7251,9 @@
       <c r="K115" s="40"/>
       <c r="L115" s="40"/>
       <c r="M115" s="40"/>
-      <c r="N115" s="43"/>
+      <c r="N115" s="42"/>
       <c r="O115" s="40"/>
-      <c r="P115" s="43"/>
+      <c r="P115" s="42"/>
       <c r="Q115" s="40"/>
     </row>
     <row r="116" ht="36.6" customHeight="1" spans="1:17">
@@ -7688,9 +7270,9 @@
       <c r="K116" s="40"/>
       <c r="L116" s="40"/>
       <c r="M116" s="40"/>
-      <c r="N116" s="43"/>
+      <c r="N116" s="42"/>
       <c r="O116" s="40"/>
-      <c r="P116" s="43"/>
+      <c r="P116" s="42"/>
       <c r="Q116" s="40"/>
     </row>
     <row r="117" ht="36.6" customHeight="1" spans="1:17">
@@ -7707,9 +7289,9 @@
       <c r="K117" s="40"/>
       <c r="L117" s="40"/>
       <c r="M117" s="40"/>
-      <c r="N117" s="43"/>
+      <c r="N117" s="42"/>
       <c r="O117" s="40"/>
-      <c r="P117" s="43"/>
+      <c r="P117" s="42"/>
       <c r="Q117" s="40"/>
     </row>
     <row r="118" ht="36.6" customHeight="1" spans="1:17">
@@ -7726,9 +7308,9 @@
       <c r="K118" s="40"/>
       <c r="L118" s="40"/>
       <c r="M118" s="40"/>
-      <c r="N118" s="43"/>
+      <c r="N118" s="42"/>
       <c r="O118" s="40"/>
-      <c r="P118" s="43"/>
+      <c r="P118" s="42"/>
       <c r="Q118" s="40"/>
     </row>
     <row r="119" ht="36.6" customHeight="1" spans="1:17">
@@ -7745,9 +7327,9 @@
       <c r="K119" s="40"/>
       <c r="L119" s="40"/>
       <c r="M119" s="40"/>
-      <c r="N119" s="43"/>
+      <c r="N119" s="42"/>
       <c r="O119" s="40"/>
-      <c r="P119" s="43"/>
+      <c r="P119" s="42"/>
       <c r="Q119" s="40"/>
     </row>
     <row r="120" ht="36.6" customHeight="1" spans="1:17">
@@ -7764,9 +7346,9 @@
       <c r="K120" s="40"/>
       <c r="L120" s="40"/>
       <c r="M120" s="40"/>
-      <c r="N120" s="43"/>
+      <c r="N120" s="42"/>
       <c r="O120" s="40"/>
-      <c r="P120" s="43"/>
+      <c r="P120" s="42"/>
       <c r="Q120" s="40"/>
     </row>
     <row r="121" ht="36.6" customHeight="1" spans="1:17">
@@ -7783,12 +7365,12 @@
       <c r="K121" s="40"/>
       <c r="L121" s="40"/>
       <c r="M121" s="40"/>
-      <c r="N121" s="43"/>
+      <c r="N121" s="42"/>
       <c r="O121" s="40"/>
-      <c r="P121" s="43"/>
+      <c r="P121" s="42"/>
       <c r="Q121" s="40"/>
     </row>
-    <row r="122" ht="45" customHeight="1" spans="1:17">
+    <row r="122" ht="36.6" customHeight="1" spans="1:17">
       <c r="A122" s="36"/>
       <c r="B122" s="37"/>
       <c r="C122" s="37"/>
@@ -7802,12 +7384,12 @@
       <c r="K122" s="40"/>
       <c r="L122" s="40"/>
       <c r="M122" s="40"/>
-      <c r="N122" s="43"/>
+      <c r="N122" s="42"/>
       <c r="O122" s="40"/>
-      <c r="P122" s="43"/>
+      <c r="P122" s="42"/>
       <c r="Q122" s="40"/>
     </row>
-    <row r="123" ht="36.6" customHeight="1" spans="1:17">
+    <row r="123" ht="45" customHeight="1" spans="1:17">
       <c r="A123" s="36"/>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
@@ -7821,9 +7403,9 @@
       <c r="K123" s="40"/>
       <c r="L123" s="40"/>
       <c r="M123" s="40"/>
-      <c r="N123" s="43"/>
+      <c r="N123" s="42"/>
       <c r="O123" s="40"/>
-      <c r="P123" s="43"/>
+      <c r="P123" s="42"/>
       <c r="Q123" s="40"/>
     </row>
     <row r="124" ht="36.6" customHeight="1" spans="1:17">
@@ -7840,9 +7422,9 @@
       <c r="K124" s="40"/>
       <c r="L124" s="40"/>
       <c r="M124" s="40"/>
-      <c r="N124" s="43"/>
+      <c r="N124" s="42"/>
       <c r="O124" s="40"/>
-      <c r="P124" s="43"/>
+      <c r="P124" s="42"/>
       <c r="Q124" s="40"/>
     </row>
     <row r="125" ht="36.6" customHeight="1" spans="1:17">
@@ -7859,9 +7441,9 @@
       <c r="K125" s="40"/>
       <c r="L125" s="40"/>
       <c r="M125" s="40"/>
-      <c r="N125" s="43"/>
+      <c r="N125" s="42"/>
       <c r="O125" s="40"/>
-      <c r="P125" s="43"/>
+      <c r="P125" s="42"/>
       <c r="Q125" s="40"/>
     </row>
     <row r="126" ht="36.6" customHeight="1" spans="1:17">
@@ -7878,9 +7460,9 @@
       <c r="K126" s="40"/>
       <c r="L126" s="40"/>
       <c r="M126" s="40"/>
-      <c r="N126" s="43"/>
+      <c r="N126" s="42"/>
       <c r="O126" s="40"/>
-      <c r="P126" s="43"/>
+      <c r="P126" s="42"/>
       <c r="Q126" s="40"/>
     </row>
     <row r="127" ht="36.6" customHeight="1" spans="1:17">
@@ -7897,9 +7479,9 @@
       <c r="K127" s="40"/>
       <c r="L127" s="40"/>
       <c r="M127" s="40"/>
-      <c r="N127" s="43"/>
+      <c r="N127" s="42"/>
       <c r="O127" s="40"/>
-      <c r="P127" s="43"/>
+      <c r="P127" s="42"/>
       <c r="Q127" s="40"/>
     </row>
     <row r="128" ht="36.6" customHeight="1" spans="1:17">
@@ -7916,9 +7498,9 @@
       <c r="K128" s="40"/>
       <c r="L128" s="40"/>
       <c r="M128" s="40"/>
-      <c r="N128" s="43"/>
+      <c r="N128" s="42"/>
       <c r="O128" s="40"/>
-      <c r="P128" s="43"/>
+      <c r="P128" s="42"/>
       <c r="Q128" s="40"/>
     </row>
     <row r="129" ht="36.6" customHeight="1" spans="1:17">
@@ -7935,9 +7517,9 @@
       <c r="K129" s="40"/>
       <c r="L129" s="40"/>
       <c r="M129" s="40"/>
-      <c r="N129" s="43"/>
+      <c r="N129" s="42"/>
       <c r="O129" s="40"/>
-      <c r="P129" s="43"/>
+      <c r="P129" s="42"/>
       <c r="Q129" s="40"/>
     </row>
     <row r="130" ht="36.6" customHeight="1" spans="1:17">
@@ -7954,12 +7536,12 @@
       <c r="K130" s="40"/>
       <c r="L130" s="40"/>
       <c r="M130" s="40"/>
-      <c r="N130" s="43"/>
+      <c r="N130" s="42"/>
       <c r="O130" s="40"/>
-      <c r="P130" s="43"/>
+      <c r="P130" s="42"/>
       <c r="Q130" s="40"/>
     </row>
-    <row r="131" ht="36" customHeight="1" spans="1:17">
+    <row r="131" ht="36.6" customHeight="1" spans="1:17">
       <c r="A131" s="36"/>
       <c r="B131" s="37"/>
       <c r="C131" s="37"/>
@@ -7973,12 +7555,12 @@
       <c r="K131" s="40"/>
       <c r="L131" s="40"/>
       <c r="M131" s="40"/>
-      <c r="N131" s="43"/>
+      <c r="N131" s="42"/>
       <c r="O131" s="40"/>
-      <c r="P131" s="43"/>
+      <c r="P131" s="42"/>
       <c r="Q131" s="40"/>
     </row>
-    <row r="132" ht="36.6" customHeight="1" spans="1:17">
+    <row r="132" ht="36" customHeight="1" spans="1:17">
       <c r="A132" s="36"/>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
@@ -7992,9 +7574,9 @@
       <c r="K132" s="40"/>
       <c r="L132" s="40"/>
       <c r="M132" s="40"/>
-      <c r="N132" s="43"/>
+      <c r="N132" s="42"/>
       <c r="O132" s="40"/>
-      <c r="P132" s="43"/>
+      <c r="P132" s="42"/>
       <c r="Q132" s="40"/>
     </row>
     <row r="133" ht="36.6" customHeight="1" spans="1:17">
@@ -8011,9 +7593,9 @@
       <c r="K133" s="40"/>
       <c r="L133" s="40"/>
       <c r="M133" s="40"/>
-      <c r="N133" s="43"/>
+      <c r="N133" s="42"/>
       <c r="O133" s="40"/>
-      <c r="P133" s="43"/>
+      <c r="P133" s="42"/>
       <c r="Q133" s="40"/>
     </row>
     <row r="134" ht="36.6" customHeight="1" spans="1:17">
@@ -8030,12 +7612,12 @@
       <c r="K134" s="40"/>
       <c r="L134" s="40"/>
       <c r="M134" s="40"/>
-      <c r="N134" s="43"/>
+      <c r="N134" s="42"/>
       <c r="O134" s="40"/>
-      <c r="P134" s="43"/>
+      <c r="P134" s="42"/>
       <c r="Q134" s="40"/>
     </row>
-    <row r="135" ht="36" customHeight="1" spans="1:17">
+    <row r="135" ht="36.6" customHeight="1" spans="1:17">
       <c r="A135" s="36"/>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
@@ -8049,12 +7631,12 @@
       <c r="K135" s="40"/>
       <c r="L135" s="40"/>
       <c r="M135" s="40"/>
-      <c r="N135" s="43"/>
+      <c r="N135" s="42"/>
       <c r="O135" s="40"/>
-      <c r="P135" s="43"/>
+      <c r="P135" s="42"/>
       <c r="Q135" s="40"/>
     </row>
-    <row r="136" ht="36.6" customHeight="1" spans="1:17">
+    <row r="136" ht="36" customHeight="1" spans="1:17">
       <c r="A136" s="36"/>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
@@ -8068,9 +7650,9 @@
       <c r="K136" s="40"/>
       <c r="L136" s="40"/>
       <c r="M136" s="40"/>
-      <c r="N136" s="43"/>
+      <c r="N136" s="42"/>
       <c r="O136" s="40"/>
-      <c r="P136" s="43"/>
+      <c r="P136" s="42"/>
       <c r="Q136" s="40"/>
     </row>
     <row r="137" ht="36.6" customHeight="1" spans="1:17">
@@ -8087,9 +7669,9 @@
       <c r="K137" s="40"/>
       <c r="L137" s="40"/>
       <c r="M137" s="40"/>
-      <c r="N137" s="43"/>
+      <c r="N137" s="42"/>
       <c r="O137" s="40"/>
-      <c r="P137" s="43"/>
+      <c r="P137" s="42"/>
       <c r="Q137" s="40"/>
     </row>
     <row r="138" ht="36.6" customHeight="1" spans="1:17">
@@ -8106,9 +7688,9 @@
       <c r="K138" s="40"/>
       <c r="L138" s="40"/>
       <c r="M138" s="40"/>
-      <c r="N138" s="43"/>
+      <c r="N138" s="42"/>
       <c r="O138" s="40"/>
-      <c r="P138" s="43"/>
+      <c r="P138" s="42"/>
       <c r="Q138" s="40"/>
     </row>
     <row r="139" ht="36.6" customHeight="1" spans="1:17">
@@ -8125,12 +7707,12 @@
       <c r="K139" s="40"/>
       <c r="L139" s="40"/>
       <c r="M139" s="40"/>
-      <c r="N139" s="43"/>
+      <c r="N139" s="42"/>
       <c r="O139" s="40"/>
-      <c r="P139" s="43"/>
+      <c r="P139" s="42"/>
       <c r="Q139" s="40"/>
     </row>
-    <row r="140" ht="38" customHeight="1" spans="1:17">
+    <row r="140" ht="36.6" customHeight="1" spans="1:17">
       <c r="A140" s="36"/>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
@@ -8144,12 +7726,12 @@
       <c r="K140" s="40"/>
       <c r="L140" s="40"/>
       <c r="M140" s="40"/>
-      <c r="N140" s="43"/>
+      <c r="N140" s="42"/>
       <c r="O140" s="40"/>
-      <c r="P140" s="43"/>
+      <c r="P140" s="42"/>
       <c r="Q140" s="40"/>
     </row>
-    <row r="141" ht="36.6" customHeight="1" spans="1:17">
+    <row r="141" ht="38" customHeight="1" spans="1:17">
       <c r="A141" s="36"/>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
@@ -8163,9 +7745,9 @@
       <c r="K141" s="40"/>
       <c r="L141" s="40"/>
       <c r="M141" s="40"/>
-      <c r="N141" s="43"/>
+      <c r="N141" s="42"/>
       <c r="O141" s="40"/>
-      <c r="P141" s="43"/>
+      <c r="P141" s="42"/>
       <c r="Q141" s="40"/>
     </row>
     <row r="142" ht="36.6" customHeight="1" spans="1:17">
@@ -8182,9 +7764,9 @@
       <c r="K142" s="40"/>
       <c r="L142" s="40"/>
       <c r="M142" s="40"/>
-      <c r="N142" s="43"/>
+      <c r="N142" s="42"/>
       <c r="O142" s="40"/>
-      <c r="P142" s="43"/>
+      <c r="P142" s="42"/>
       <c r="Q142" s="40"/>
     </row>
     <row r="143" ht="36.6" customHeight="1" spans="1:17">
@@ -8201,9 +7783,9 @@
       <c r="K143" s="40"/>
       <c r="L143" s="40"/>
       <c r="M143" s="40"/>
-      <c r="N143" s="43"/>
+      <c r="N143" s="42"/>
       <c r="O143" s="40"/>
-      <c r="P143" s="43"/>
+      <c r="P143" s="42"/>
       <c r="Q143" s="40"/>
     </row>
     <row r="144" ht="36.6" customHeight="1" spans="1:17">
@@ -8220,9 +7802,9 @@
       <c r="K144" s="40"/>
       <c r="L144" s="40"/>
       <c r="M144" s="40"/>
-      <c r="N144" s="43"/>
+      <c r="N144" s="42"/>
       <c r="O144" s="40"/>
-      <c r="P144" s="43"/>
+      <c r="P144" s="42"/>
       <c r="Q144" s="40"/>
     </row>
     <row r="145" ht="36.6" customHeight="1" spans="1:17">
@@ -8239,9 +7821,9 @@
       <c r="K145" s="40"/>
       <c r="L145" s="40"/>
       <c r="M145" s="40"/>
-      <c r="N145" s="43"/>
+      <c r="N145" s="42"/>
       <c r="O145" s="40"/>
-      <c r="P145" s="43"/>
+      <c r="P145" s="42"/>
       <c r="Q145" s="40"/>
     </row>
     <row r="146" ht="36.6" customHeight="1" spans="1:17">
@@ -8258,9 +7840,9 @@
       <c r="K146" s="40"/>
       <c r="L146" s="40"/>
       <c r="M146" s="40"/>
-      <c r="N146" s="43"/>
+      <c r="N146" s="42"/>
       <c r="O146" s="40"/>
-      <c r="P146" s="43"/>
+      <c r="P146" s="42"/>
       <c r="Q146" s="40"/>
     </row>
     <row r="147" ht="36.6" customHeight="1" spans="1:17">
@@ -8277,9 +7859,9 @@
       <c r="K147" s="40"/>
       <c r="L147" s="40"/>
       <c r="M147" s="40"/>
-      <c r="N147" s="43"/>
+      <c r="N147" s="42"/>
       <c r="O147" s="40"/>
-      <c r="P147" s="43"/>
+      <c r="P147" s="42"/>
       <c r="Q147" s="40"/>
     </row>
     <row r="148" ht="36.6" customHeight="1" spans="1:17">
@@ -8296,9 +7878,9 @@
       <c r="K148" s="40"/>
       <c r="L148" s="40"/>
       <c r="M148" s="40"/>
-      <c r="N148" s="43"/>
+      <c r="N148" s="42"/>
       <c r="O148" s="40"/>
-      <c r="P148" s="43"/>
+      <c r="P148" s="42"/>
       <c r="Q148" s="40"/>
     </row>
     <row r="149" ht="36.6" customHeight="1" spans="1:17">
@@ -8315,12 +7897,12 @@
       <c r="K149" s="40"/>
       <c r="L149" s="40"/>
       <c r="M149" s="40"/>
-      <c r="N149" s="43"/>
+      <c r="N149" s="42"/>
       <c r="O149" s="40"/>
-      <c r="P149" s="43"/>
+      <c r="P149" s="42"/>
       <c r="Q149" s="40"/>
     </row>
-    <row r="150" ht="48" customHeight="1" spans="1:17">
+    <row r="150" ht="36.6" customHeight="1" spans="1:17">
       <c r="A150" s="36"/>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
@@ -8334,12 +7916,12 @@
       <c r="K150" s="40"/>
       <c r="L150" s="40"/>
       <c r="M150" s="40"/>
-      <c r="N150" s="43"/>
+      <c r="N150" s="42"/>
       <c r="O150" s="40"/>
-      <c r="P150" s="43"/>
+      <c r="P150" s="42"/>
       <c r="Q150" s="40"/>
     </row>
-    <row r="151" ht="54" customHeight="1" spans="1:17">
+    <row r="151" ht="48" customHeight="1" spans="1:17">
       <c r="A151" s="36"/>
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
@@ -8353,12 +7935,12 @@
       <c r="K151" s="40"/>
       <c r="L151" s="40"/>
       <c r="M151" s="40"/>
-      <c r="N151" s="43"/>
+      <c r="N151" s="42"/>
       <c r="O151" s="40"/>
-      <c r="P151" s="43"/>
+      <c r="P151" s="42"/>
       <c r="Q151" s="40"/>
     </row>
-    <row r="152" ht="42.6" customHeight="1" spans="1:17">
+    <row r="152" ht="54" customHeight="1" spans="1:17">
       <c r="A152" s="36"/>
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
@@ -8372,9 +7954,9 @@
       <c r="K152" s="40"/>
       <c r="L152" s="40"/>
       <c r="M152" s="40"/>
-      <c r="N152" s="43"/>
+      <c r="N152" s="42"/>
       <c r="O152" s="40"/>
-      <c r="P152" s="43"/>
+      <c r="P152" s="42"/>
       <c r="Q152" s="40"/>
     </row>
     <row r="153" ht="42.6" customHeight="1" spans="1:17">
@@ -8391,9 +7973,9 @@
       <c r="K153" s="40"/>
       <c r="L153" s="40"/>
       <c r="M153" s="40"/>
-      <c r="N153" s="43"/>
+      <c r="N153" s="42"/>
       <c r="O153" s="40"/>
-      <c r="P153" s="43"/>
+      <c r="P153" s="42"/>
       <c r="Q153" s="40"/>
     </row>
     <row r="154" ht="42.6" customHeight="1" spans="1:17">
@@ -8410,9 +7992,9 @@
       <c r="K154" s="40"/>
       <c r="L154" s="40"/>
       <c r="M154" s="40"/>
-      <c r="N154" s="43"/>
+      <c r="N154" s="42"/>
       <c r="O154" s="40"/>
-      <c r="P154" s="43"/>
+      <c r="P154" s="42"/>
       <c r="Q154" s="40"/>
     </row>
     <row r="155" ht="42.6" customHeight="1" spans="1:17">
@@ -8429,9 +8011,9 @@
       <c r="K155" s="40"/>
       <c r="L155" s="40"/>
       <c r="M155" s="40"/>
-      <c r="N155" s="43"/>
+      <c r="N155" s="42"/>
       <c r="O155" s="40"/>
-      <c r="P155" s="43"/>
+      <c r="P155" s="42"/>
       <c r="Q155" s="40"/>
     </row>
     <row r="156" ht="42.6" customHeight="1" spans="1:17">
@@ -8448,9 +8030,9 @@
       <c r="K156" s="40"/>
       <c r="L156" s="40"/>
       <c r="M156" s="40"/>
-      <c r="N156" s="43"/>
+      <c r="N156" s="42"/>
       <c r="O156" s="40"/>
-      <c r="P156" s="43"/>
+      <c r="P156" s="42"/>
       <c r="Q156" s="40"/>
     </row>
     <row r="157" ht="42.6" customHeight="1" spans="1:17">
@@ -8467,9 +8049,9 @@
       <c r="K157" s="40"/>
       <c r="L157" s="40"/>
       <c r="M157" s="40"/>
-      <c r="N157" s="43"/>
+      <c r="N157" s="42"/>
       <c r="O157" s="40"/>
-      <c r="P157" s="43"/>
+      <c r="P157" s="42"/>
       <c r="Q157" s="40"/>
     </row>
     <row r="158" ht="42.6" customHeight="1" spans="1:17">
@@ -8486,9 +8068,9 @@
       <c r="K158" s="40"/>
       <c r="L158" s="40"/>
       <c r="M158" s="40"/>
-      <c r="N158" s="43"/>
+      <c r="N158" s="42"/>
       <c r="O158" s="40"/>
-      <c r="P158" s="43"/>
+      <c r="P158" s="42"/>
       <c r="Q158" s="40"/>
     </row>
     <row r="159" ht="42.6" customHeight="1" spans="1:17">
@@ -8505,9 +8087,9 @@
       <c r="K159" s="40"/>
       <c r="L159" s="40"/>
       <c r="M159" s="40"/>
-      <c r="N159" s="43"/>
+      <c r="N159" s="42"/>
       <c r="O159" s="40"/>
-      <c r="P159" s="43"/>
+      <c r="P159" s="42"/>
       <c r="Q159" s="40"/>
     </row>
     <row r="160" ht="42.6" customHeight="1" spans="1:17">
@@ -8524,9 +8106,9 @@
       <c r="K160" s="40"/>
       <c r="L160" s="40"/>
       <c r="M160" s="40"/>
-      <c r="N160" s="43"/>
+      <c r="N160" s="42"/>
       <c r="O160" s="40"/>
-      <c r="P160" s="43"/>
+      <c r="P160" s="42"/>
       <c r="Q160" s="40"/>
     </row>
     <row r="161" ht="42.6" customHeight="1" spans="1:17">
@@ -8543,9 +8125,9 @@
       <c r="K161" s="40"/>
       <c r="L161" s="40"/>
       <c r="M161" s="40"/>
-      <c r="N161" s="43"/>
+      <c r="N161" s="42"/>
       <c r="O161" s="40"/>
-      <c r="P161" s="43"/>
+      <c r="P161" s="42"/>
       <c r="Q161" s="40"/>
     </row>
     <row r="162" ht="42.6" customHeight="1" spans="1:17">
@@ -8562,12 +8144,12 @@
       <c r="K162" s="40"/>
       <c r="L162" s="40"/>
       <c r="M162" s="40"/>
-      <c r="N162" s="43"/>
+      <c r="N162" s="42"/>
       <c r="O162" s="40"/>
-      <c r="P162" s="43"/>
+      <c r="P162" s="42"/>
       <c r="Q162" s="40"/>
     </row>
-    <row r="163" ht="45" customHeight="1" spans="1:17">
+    <row r="163" ht="42.6" customHeight="1" spans="1:17">
       <c r="A163" s="36"/>
       <c r="B163" s="37"/>
       <c r="C163" s="37"/>
@@ -8581,12 +8163,12 @@
       <c r="K163" s="40"/>
       <c r="L163" s="40"/>
       <c r="M163" s="40"/>
-      <c r="N163" s="43"/>
+      <c r="N163" s="42"/>
       <c r="O163" s="40"/>
-      <c r="P163" s="43"/>
+      <c r="P163" s="42"/>
       <c r="Q163" s="40"/>
     </row>
-    <row r="164" ht="46.8" customHeight="1" spans="1:17">
+    <row r="164" ht="45" customHeight="1" spans="1:17">
       <c r="A164" s="36"/>
       <c r="B164" s="37"/>
       <c r="C164" s="37"/>
@@ -8600,9 +8182,9 @@
       <c r="K164" s="40"/>
       <c r="L164" s="40"/>
       <c r="M164" s="40"/>
-      <c r="N164" s="43"/>
+      <c r="N164" s="42"/>
       <c r="O164" s="40"/>
-      <c r="P164" s="43"/>
+      <c r="P164" s="42"/>
       <c r="Q164" s="40"/>
     </row>
     <row r="165" ht="46.8" customHeight="1" spans="1:17">
@@ -8619,12 +8201,12 @@
       <c r="K165" s="40"/>
       <c r="L165" s="40"/>
       <c r="M165" s="40"/>
-      <c r="N165" s="43"/>
+      <c r="N165" s="42"/>
       <c r="O165" s="40"/>
-      <c r="P165" s="43"/>
+      <c r="P165" s="42"/>
       <c r="Q165" s="40"/>
     </row>
-    <row r="166" ht="36.6" customHeight="1" spans="1:17">
+    <row r="166" ht="46.8" customHeight="1" spans="1:17">
       <c r="A166" s="36"/>
       <c r="B166" s="37"/>
       <c r="C166" s="37"/>
@@ -8638,9 +8220,9 @@
       <c r="K166" s="40"/>
       <c r="L166" s="40"/>
       <c r="M166" s="40"/>
-      <c r="N166" s="43"/>
+      <c r="N166" s="42"/>
       <c r="O166" s="40"/>
-      <c r="P166" s="43"/>
+      <c r="P166" s="42"/>
       <c r="Q166" s="40"/>
     </row>
     <row r="167" ht="36.6" customHeight="1" spans="1:17">
@@ -8657,9 +8239,9 @@
       <c r="K167" s="40"/>
       <c r="L167" s="40"/>
       <c r="M167" s="40"/>
-      <c r="N167" s="43"/>
+      <c r="N167" s="42"/>
       <c r="O167" s="40"/>
-      <c r="P167" s="43"/>
+      <c r="P167" s="42"/>
       <c r="Q167" s="40"/>
     </row>
     <row r="168" ht="36.6" customHeight="1" spans="1:17">
@@ -8676,9 +8258,9 @@
       <c r="K168" s="40"/>
       <c r="L168" s="40"/>
       <c r="M168" s="40"/>
-      <c r="N168" s="43"/>
+      <c r="N168" s="42"/>
       <c r="O168" s="40"/>
-      <c r="P168" s="43"/>
+      <c r="P168" s="42"/>
       <c r="Q168" s="40"/>
     </row>
     <row r="169" ht="36.6" customHeight="1" spans="1:17">
@@ -8695,9 +8277,9 @@
       <c r="K169" s="40"/>
       <c r="L169" s="40"/>
       <c r="M169" s="40"/>
-      <c r="N169" s="43"/>
+      <c r="N169" s="42"/>
       <c r="O169" s="40"/>
-      <c r="P169" s="43"/>
+      <c r="P169" s="42"/>
       <c r="Q169" s="40"/>
     </row>
     <row r="170" ht="36.6" customHeight="1" spans="1:17">
@@ -8714,9 +8296,9 @@
       <c r="K170" s="40"/>
       <c r="L170" s="40"/>
       <c r="M170" s="40"/>
-      <c r="N170" s="43"/>
+      <c r="N170" s="42"/>
       <c r="O170" s="40"/>
-      <c r="P170" s="43"/>
+      <c r="P170" s="42"/>
       <c r="Q170" s="40"/>
     </row>
     <row r="171" ht="36.6" customHeight="1" spans="1:17">
@@ -8733,9 +8315,9 @@
       <c r="K171" s="40"/>
       <c r="L171" s="40"/>
       <c r="M171" s="40"/>
-      <c r="N171" s="43"/>
+      <c r="N171" s="42"/>
       <c r="O171" s="40"/>
-      <c r="P171" s="43"/>
+      <c r="P171" s="42"/>
       <c r="Q171" s="40"/>
     </row>
     <row r="172" ht="36.6" customHeight="1" spans="1:17">
@@ -8752,9 +8334,9 @@
       <c r="K172" s="40"/>
       <c r="L172" s="40"/>
       <c r="M172" s="40"/>
-      <c r="N172" s="43"/>
+      <c r="N172" s="42"/>
       <c r="O172" s="40"/>
-      <c r="P172" s="43"/>
+      <c r="P172" s="42"/>
       <c r="Q172" s="40"/>
     </row>
     <row r="173" ht="36.6" customHeight="1" spans="1:17">
@@ -8771,9 +8353,9 @@
       <c r="K173" s="40"/>
       <c r="L173" s="40"/>
       <c r="M173" s="40"/>
-      <c r="N173" s="43"/>
+      <c r="N173" s="42"/>
       <c r="O173" s="40"/>
-      <c r="P173" s="43"/>
+      <c r="P173" s="42"/>
       <c r="Q173" s="40"/>
     </row>
     <row r="174" ht="36.6" customHeight="1" spans="1:17">
@@ -8790,9 +8372,9 @@
       <c r="K174" s="40"/>
       <c r="L174" s="40"/>
       <c r="M174" s="40"/>
-      <c r="N174" s="43"/>
+      <c r="N174" s="42"/>
       <c r="O174" s="40"/>
-      <c r="P174" s="43"/>
+      <c r="P174" s="42"/>
       <c r="Q174" s="40"/>
     </row>
     <row r="175" ht="36.6" customHeight="1" spans="1:17">
@@ -8809,9 +8391,9 @@
       <c r="K175" s="40"/>
       <c r="L175" s="40"/>
       <c r="M175" s="40"/>
-      <c r="N175" s="43"/>
+      <c r="N175" s="42"/>
       <c r="O175" s="40"/>
-      <c r="P175" s="43"/>
+      <c r="P175" s="42"/>
       <c r="Q175" s="40"/>
     </row>
     <row r="176" ht="36.6" customHeight="1" spans="1:17">
@@ -8828,14 +8410,14 @@
       <c r="K176" s="40"/>
       <c r="L176" s="40"/>
       <c r="M176" s="40"/>
-      <c r="N176" s="43"/>
+      <c r="N176" s="42"/>
       <c r="O176" s="40"/>
-      <c r="P176" s="43"/>
+      <c r="P176" s="42"/>
       <c r="Q176" s="40"/>
     </row>
     <row r="177" ht="36.6" customHeight="1" spans="1:17">
       <c r="A177" s="36"/>
-      <c r="B177" s="36"/>
+      <c r="B177" s="37"/>
       <c r="C177" s="37"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38"/>
@@ -8847,9 +8429,9 @@
       <c r="K177" s="40"/>
       <c r="L177" s="40"/>
       <c r="M177" s="40"/>
-      <c r="N177" s="43"/>
+      <c r="N177" s="42"/>
       <c r="O177" s="40"/>
-      <c r="P177" s="43"/>
+      <c r="P177" s="42"/>
       <c r="Q177" s="40"/>
     </row>
     <row r="178" ht="36.6" customHeight="1" spans="1:17">
@@ -8866,14 +8448,14 @@
       <c r="K178" s="40"/>
       <c r="L178" s="40"/>
       <c r="M178" s="40"/>
-      <c r="N178" s="43"/>
+      <c r="N178" s="42"/>
       <c r="O178" s="40"/>
-      <c r="P178" s="43"/>
+      <c r="P178" s="42"/>
       <c r="Q178" s="40"/>
     </row>
-    <row r="179" ht="42" customHeight="1" spans="1:17">
+    <row r="179" ht="36.6" customHeight="1" spans="1:17">
       <c r="A179" s="36"/>
-      <c r="B179" s="37"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="37"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38"/>
@@ -8885,12 +8467,12 @@
       <c r="K179" s="40"/>
       <c r="L179" s="40"/>
       <c r="M179" s="40"/>
-      <c r="N179" s="43"/>
+      <c r="N179" s="42"/>
       <c r="O179" s="40"/>
-      <c r="P179" s="43"/>
+      <c r="P179" s="42"/>
       <c r="Q179" s="40"/>
     </row>
-    <row r="180" ht="47.4" customHeight="1" spans="1:17">
+    <row r="180" ht="42" customHeight="1" spans="1:17">
       <c r="A180" s="36"/>
       <c r="B180" s="37"/>
       <c r="C180" s="37"/>
@@ -8904,9 +8486,9 @@
       <c r="K180" s="40"/>
       <c r="L180" s="40"/>
       <c r="M180" s="40"/>
-      <c r="N180" s="43"/>
+      <c r="N180" s="42"/>
       <c r="O180" s="40"/>
-      <c r="P180" s="43"/>
+      <c r="P180" s="42"/>
       <c r="Q180" s="40"/>
     </row>
     <row r="181" ht="47.4" customHeight="1" spans="1:17">
@@ -8923,9 +8505,9 @@
       <c r="K181" s="40"/>
       <c r="L181" s="40"/>
       <c r="M181" s="40"/>
-      <c r="N181" s="43"/>
+      <c r="N181" s="42"/>
       <c r="O181" s="40"/>
-      <c r="P181" s="43"/>
+      <c r="P181" s="42"/>
       <c r="Q181" s="40"/>
     </row>
     <row r="182" ht="47.4" customHeight="1" spans="1:17">
@@ -8942,9 +8524,9 @@
       <c r="K182" s="40"/>
       <c r="L182" s="40"/>
       <c r="M182" s="40"/>
-      <c r="N182" s="43"/>
+      <c r="N182" s="42"/>
       <c r="O182" s="40"/>
-      <c r="P182" s="43"/>
+      <c r="P182" s="42"/>
       <c r="Q182" s="40"/>
     </row>
     <row r="183" ht="47.4" customHeight="1" spans="1:17">
@@ -8961,9 +8543,9 @@
       <c r="K183" s="40"/>
       <c r="L183" s="40"/>
       <c r="M183" s="40"/>
-      <c r="N183" s="43"/>
+      <c r="N183" s="42"/>
       <c r="O183" s="40"/>
-      <c r="P183" s="43"/>
+      <c r="P183" s="42"/>
       <c r="Q183" s="40"/>
     </row>
     <row r="184" ht="47.4" customHeight="1" spans="1:17">
@@ -8980,9 +8562,9 @@
       <c r="K184" s="40"/>
       <c r="L184" s="40"/>
       <c r="M184" s="40"/>
-      <c r="N184" s="43"/>
+      <c r="N184" s="42"/>
       <c r="O184" s="40"/>
-      <c r="P184" s="43"/>
+      <c r="P184" s="42"/>
       <c r="Q184" s="40"/>
     </row>
     <row r="185" ht="47.4" customHeight="1" spans="1:17">
@@ -8999,9 +8581,9 @@
       <c r="K185" s="40"/>
       <c r="L185" s="40"/>
       <c r="M185" s="40"/>
-      <c r="N185" s="43"/>
+      <c r="N185" s="42"/>
       <c r="O185" s="40"/>
-      <c r="P185" s="43"/>
+      <c r="P185" s="42"/>
       <c r="Q185" s="40"/>
     </row>
     <row r="186" ht="47.4" customHeight="1" spans="1:17">
@@ -9018,9 +8600,9 @@
       <c r="K186" s="40"/>
       <c r="L186" s="40"/>
       <c r="M186" s="40"/>
-      <c r="N186" s="43"/>
+      <c r="N186" s="42"/>
       <c r="O186" s="40"/>
-      <c r="P186" s="43"/>
+      <c r="P186" s="42"/>
       <c r="Q186" s="40"/>
     </row>
     <row r="187" ht="47.4" customHeight="1" spans="1:17">
@@ -9037,12 +8619,12 @@
       <c r="K187" s="40"/>
       <c r="L187" s="40"/>
       <c r="M187" s="40"/>
-      <c r="N187" s="43"/>
+      <c r="N187" s="42"/>
       <c r="O187" s="40"/>
-      <c r="P187" s="43"/>
+      <c r="P187" s="42"/>
       <c r="Q187" s="40"/>
     </row>
-    <row r="188" ht="49" customHeight="1" spans="1:17">
+    <row r="188" ht="47.4" customHeight="1" spans="1:17">
       <c r="A188" s="36"/>
       <c r="B188" s="37"/>
       <c r="C188" s="37"/>
@@ -9056,12 +8638,12 @@
       <c r="K188" s="40"/>
       <c r="L188" s="40"/>
       <c r="M188" s="40"/>
-      <c r="N188" s="43"/>
+      <c r="N188" s="42"/>
       <c r="O188" s="40"/>
-      <c r="P188" s="43"/>
+      <c r="P188" s="42"/>
       <c r="Q188" s="40"/>
     </row>
-    <row r="189" ht="47.4" customHeight="1" spans="1:17">
+    <row r="189" ht="49" customHeight="1" spans="1:17">
       <c r="A189" s="36"/>
       <c r="B189" s="37"/>
       <c r="C189" s="37"/>
@@ -9075,9 +8657,9 @@
       <c r="K189" s="40"/>
       <c r="L189" s="40"/>
       <c r="M189" s="40"/>
-      <c r="N189" s="43"/>
+      <c r="N189" s="42"/>
       <c r="O189" s="40"/>
-      <c r="P189" s="43"/>
+      <c r="P189" s="42"/>
       <c r="Q189" s="40"/>
     </row>
     <row r="190" ht="47.4" customHeight="1" spans="1:17">
@@ -9094,9 +8676,9 @@
       <c r="K190" s="40"/>
       <c r="L190" s="40"/>
       <c r="M190" s="40"/>
-      <c r="N190" s="43"/>
+      <c r="N190" s="42"/>
       <c r="O190" s="40"/>
-      <c r="P190" s="43"/>
+      <c r="P190" s="42"/>
       <c r="Q190" s="40"/>
     </row>
     <row r="191" ht="47.4" customHeight="1" spans="1:17">
@@ -9113,9 +8695,9 @@
       <c r="K191" s="40"/>
       <c r="L191" s="40"/>
       <c r="M191" s="40"/>
-      <c r="N191" s="43"/>
+      <c r="N191" s="42"/>
       <c r="O191" s="40"/>
-      <c r="P191" s="43"/>
+      <c r="P191" s="42"/>
       <c r="Q191" s="40"/>
     </row>
     <row r="192" ht="47.4" customHeight="1" spans="1:17">
@@ -9132,9 +8714,9 @@
       <c r="K192" s="40"/>
       <c r="L192" s="40"/>
       <c r="M192" s="40"/>
-      <c r="N192" s="43"/>
+      <c r="N192" s="42"/>
       <c r="O192" s="40"/>
-      <c r="P192" s="43"/>
+      <c r="P192" s="42"/>
       <c r="Q192" s="40"/>
     </row>
     <row r="193" ht="47.4" customHeight="1" spans="1:17">
@@ -9151,9 +8733,9 @@
       <c r="K193" s="40"/>
       <c r="L193" s="40"/>
       <c r="M193" s="40"/>
-      <c r="N193" s="43"/>
+      <c r="N193" s="42"/>
       <c r="O193" s="40"/>
-      <c r="P193" s="43"/>
+      <c r="P193" s="42"/>
       <c r="Q193" s="40"/>
     </row>
     <row r="194" ht="47.4" customHeight="1" spans="1:17">
@@ -9170,12 +8752,12 @@
       <c r="K194" s="40"/>
       <c r="L194" s="40"/>
       <c r="M194" s="40"/>
-      <c r="N194" s="43"/>
+      <c r="N194" s="42"/>
       <c r="O194" s="40"/>
-      <c r="P194" s="43"/>
+      <c r="P194" s="42"/>
       <c r="Q194" s="40"/>
     </row>
-    <row r="195" ht="48" customHeight="1" spans="1:17">
+    <row r="195" ht="47.4" customHeight="1" spans="1:17">
       <c r="A195" s="36"/>
       <c r="B195" s="37"/>
       <c r="C195" s="37"/>
@@ -9189,12 +8771,12 @@
       <c r="K195" s="40"/>
       <c r="L195" s="40"/>
       <c r="M195" s="40"/>
-      <c r="N195" s="43"/>
+      <c r="N195" s="42"/>
       <c r="O195" s="40"/>
-      <c r="P195" s="43"/>
+      <c r="P195" s="42"/>
       <c r="Q195" s="40"/>
     </row>
-    <row r="196" ht="46" customHeight="1" spans="1:17">
+    <row r="196" ht="48" customHeight="1" spans="1:17">
       <c r="A196" s="36"/>
       <c r="B196" s="37"/>
       <c r="C196" s="37"/>
@@ -9208,9 +8790,9 @@
       <c r="K196" s="40"/>
       <c r="L196" s="40"/>
       <c r="M196" s="40"/>
-      <c r="N196" s="43"/>
+      <c r="N196" s="42"/>
       <c r="O196" s="40"/>
-      <c r="P196" s="43"/>
+      <c r="P196" s="42"/>
       <c r="Q196" s="40"/>
     </row>
     <row r="197" ht="46" customHeight="1" spans="1:17">
@@ -9227,9 +8809,9 @@
       <c r="K197" s="40"/>
       <c r="L197" s="40"/>
       <c r="M197" s="40"/>
-      <c r="N197" s="43"/>
+      <c r="N197" s="42"/>
       <c r="O197" s="40"/>
-      <c r="P197" s="43"/>
+      <c r="P197" s="42"/>
       <c r="Q197" s="40"/>
     </row>
     <row r="198" ht="46" customHeight="1" spans="1:17">
@@ -9246,12 +8828,12 @@
       <c r="K198" s="40"/>
       <c r="L198" s="40"/>
       <c r="M198" s="40"/>
-      <c r="N198" s="43"/>
+      <c r="N198" s="42"/>
       <c r="O198" s="40"/>
-      <c r="P198" s="43"/>
+      <c r="P198" s="42"/>
       <c r="Q198" s="40"/>
     </row>
-    <row r="199" ht="52" customHeight="1" spans="1:17">
+    <row r="199" ht="46" customHeight="1" spans="1:17">
       <c r="A199" s="36"/>
       <c r="B199" s="37"/>
       <c r="C199" s="37"/>
@@ -9265,28 +8847,28 @@
       <c r="K199" s="40"/>
       <c r="L199" s="40"/>
       <c r="M199" s="40"/>
-      <c r="N199" s="43"/>
+      <c r="N199" s="42"/>
       <c r="O199" s="40"/>
-      <c r="P199" s="43"/>
+      <c r="P199" s="42"/>
       <c r="Q199" s="40"/>
     </row>
-    <row r="200" ht="44" customHeight="1" spans="1:17">
+    <row r="200" ht="52" customHeight="1" spans="1:17">
       <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="37"/>
       <c r="D200" s="38"/>
       <c r="E200" s="38"/>
       <c r="F200" s="39"/>
-      <c r="G200" s="41"/>
+      <c r="G200" s="37"/>
       <c r="H200" s="40"/>
       <c r="I200" s="40"/>
-      <c r="J200" s="36"/>
-      <c r="K200" s="36"/>
+      <c r="J200" s="40"/>
+      <c r="K200" s="40"/>
       <c r="L200" s="40"/>
       <c r="M200" s="40"/>
-      <c r="N200" s="43"/>
+      <c r="N200" s="42"/>
       <c r="O200" s="40"/>
-      <c r="P200" s="43"/>
+      <c r="P200" s="42"/>
       <c r="Q200" s="40"/>
     </row>
     <row r="201" ht="44" customHeight="1" spans="1:17">
@@ -9303,9 +8885,9 @@
       <c r="K201" s="36"/>
       <c r="L201" s="40"/>
       <c r="M201" s="40"/>
-      <c r="N201" s="43"/>
+      <c r="N201" s="42"/>
       <c r="O201" s="40"/>
-      <c r="P201" s="43"/>
+      <c r="P201" s="42"/>
       <c r="Q201" s="40"/>
     </row>
     <row r="202" ht="44" customHeight="1" spans="1:17">
@@ -9322,12 +8904,12 @@
       <c r="K202" s="36"/>
       <c r="L202" s="40"/>
       <c r="M202" s="40"/>
-      <c r="N202" s="43"/>
+      <c r="N202" s="42"/>
       <c r="O202" s="40"/>
-      <c r="P202" s="43"/>
+      <c r="P202" s="42"/>
       <c r="Q202" s="40"/>
     </row>
-    <row r="203" ht="49" customHeight="1" spans="1:17">
+    <row r="203" ht="44" customHeight="1" spans="1:17">
       <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="37"/>
@@ -9341,32 +8923,32 @@
       <c r="K203" s="36"/>
       <c r="L203" s="40"/>
       <c r="M203" s="40"/>
-      <c r="N203" s="43"/>
+      <c r="N203" s="42"/>
       <c r="O203" s="40"/>
-      <c r="P203" s="43"/>
+      <c r="P203" s="42"/>
       <c r="Q203" s="40"/>
     </row>
-    <row r="204" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A204" s="45"/>
+    <row r="204" ht="49" customHeight="1" spans="1:17">
+      <c r="A204" s="36"/>
       <c r="B204" s="37"/>
       <c r="C204" s="37"/>
       <c r="D204" s="38"/>
       <c r="E204" s="38"/>
       <c r="F204" s="39"/>
-      <c r="G204" s="37"/>
+      <c r="G204" s="41"/>
       <c r="H204" s="40"/>
       <c r="I204" s="40"/>
-      <c r="J204" s="40"/>
-      <c r="K204" s="40"/>
+      <c r="J204" s="36"/>
+      <c r="K204" s="36"/>
       <c r="L204" s="40"/>
       <c r="M204" s="40"/>
-      <c r="N204" s="43"/>
+      <c r="N204" s="42"/>
       <c r="O204" s="40"/>
-      <c r="P204" s="43"/>
+      <c r="P204" s="42"/>
       <c r="Q204" s="40"/>
     </row>
     <row r="205" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A205" s="45"/>
+      <c r="A205" s="44"/>
       <c r="B205" s="37"/>
       <c r="C205" s="37"/>
       <c r="D205" s="38"/>
@@ -9379,13 +8961,13 @@
       <c r="K205" s="40"/>
       <c r="L205" s="40"/>
       <c r="M205" s="40"/>
-      <c r="N205" s="43"/>
+      <c r="N205" s="42"/>
       <c r="O205" s="40"/>
-      <c r="P205" s="43"/>
+      <c r="P205" s="42"/>
       <c r="Q205" s="40"/>
     </row>
     <row r="206" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A206" s="45"/>
+      <c r="A206" s="44"/>
       <c r="B206" s="37"/>
       <c r="C206" s="37"/>
       <c r="D206" s="38"/>
@@ -9398,13 +8980,13 @@
       <c r="K206" s="40"/>
       <c r="L206" s="40"/>
       <c r="M206" s="40"/>
-      <c r="N206" s="43"/>
+      <c r="N206" s="42"/>
       <c r="O206" s="40"/>
-      <c r="P206" s="43"/>
+      <c r="P206" s="42"/>
       <c r="Q206" s="40"/>
     </row>
     <row r="207" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A207" s="45"/>
+      <c r="A207" s="44"/>
       <c r="B207" s="37"/>
       <c r="C207" s="37"/>
       <c r="D207" s="38"/>
@@ -9417,13 +8999,13 @@
       <c r="K207" s="40"/>
       <c r="L207" s="40"/>
       <c r="M207" s="40"/>
-      <c r="N207" s="43"/>
+      <c r="N207" s="42"/>
       <c r="O207" s="40"/>
-      <c r="P207" s="43"/>
+      <c r="P207" s="42"/>
       <c r="Q207" s="40"/>
     </row>
     <row r="208" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A208" s="45"/>
+      <c r="A208" s="44"/>
       <c r="B208" s="37"/>
       <c r="C208" s="37"/>
       <c r="D208" s="38"/>
@@ -9436,13 +9018,13 @@
       <c r="K208" s="40"/>
       <c r="L208" s="40"/>
       <c r="M208" s="40"/>
-      <c r="N208" s="43"/>
+      <c r="N208" s="42"/>
       <c r="O208" s="40"/>
-      <c r="P208" s="43"/>
+      <c r="P208" s="42"/>
       <c r="Q208" s="40"/>
     </row>
     <row r="209" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A209" s="45"/>
+      <c r="A209" s="44"/>
       <c r="B209" s="37"/>
       <c r="C209" s="37"/>
       <c r="D209" s="38"/>
@@ -9455,13 +9037,13 @@
       <c r="K209" s="40"/>
       <c r="L209" s="40"/>
       <c r="M209" s="40"/>
-      <c r="N209" s="43"/>
+      <c r="N209" s="42"/>
       <c r="O209" s="40"/>
-      <c r="P209" s="43"/>
+      <c r="P209" s="42"/>
       <c r="Q209" s="40"/>
     </row>
     <row r="210" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A210" s="45"/>
+      <c r="A210" s="44"/>
       <c r="B210" s="37"/>
       <c r="C210" s="37"/>
       <c r="D210" s="38"/>
@@ -9474,13 +9056,13 @@
       <c r="K210" s="40"/>
       <c r="L210" s="40"/>
       <c r="M210" s="40"/>
-      <c r="N210" s="43"/>
+      <c r="N210" s="42"/>
       <c r="O210" s="40"/>
-      <c r="P210" s="43"/>
+      <c r="P210" s="42"/>
       <c r="Q210" s="40"/>
     </row>
     <row r="211" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A211" s="45"/>
+      <c r="A211" s="44"/>
       <c r="B211" s="37"/>
       <c r="C211" s="37"/>
       <c r="D211" s="38"/>
@@ -9493,13 +9075,13 @@
       <c r="K211" s="40"/>
       <c r="L211" s="40"/>
       <c r="M211" s="40"/>
-      <c r="N211" s="43"/>
+      <c r="N211" s="42"/>
       <c r="O211" s="40"/>
-      <c r="P211" s="43"/>
+      <c r="P211" s="42"/>
       <c r="Q211" s="40"/>
     </row>
-    <row r="212" ht="37" customHeight="1" spans="1:17">
-      <c r="A212" s="45"/>
+    <row r="212" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A212" s="44"/>
       <c r="B212" s="37"/>
       <c r="C212" s="37"/>
       <c r="D212" s="38"/>
@@ -9512,13 +9094,13 @@
       <c r="K212" s="40"/>
       <c r="L212" s="40"/>
       <c r="M212" s="40"/>
-      <c r="N212" s="43"/>
+      <c r="N212" s="42"/>
       <c r="O212" s="40"/>
-      <c r="P212" s="43"/>
+      <c r="P212" s="42"/>
       <c r="Q212" s="40"/>
     </row>
     <row r="213" ht="37" customHeight="1" spans="1:17">
-      <c r="A213" s="45"/>
+      <c r="A213" s="44"/>
       <c r="B213" s="37"/>
       <c r="C213" s="37"/>
       <c r="D213" s="38"/>
@@ -9531,13 +9113,13 @@
       <c r="K213" s="40"/>
       <c r="L213" s="40"/>
       <c r="M213" s="40"/>
-      <c r="N213" s="43"/>
+      <c r="N213" s="42"/>
       <c r="O213" s="40"/>
-      <c r="P213" s="43"/>
+      <c r="P213" s="42"/>
       <c r="Q213" s="40"/>
     </row>
     <row r="214" ht="37" customHeight="1" spans="1:17">
-      <c r="A214" s="45"/>
+      <c r="A214" s="44"/>
       <c r="B214" s="37"/>
       <c r="C214" s="37"/>
       <c r="D214" s="38"/>
@@ -9550,13 +9132,13 @@
       <c r="K214" s="40"/>
       <c r="L214" s="40"/>
       <c r="M214" s="40"/>
-      <c r="N214" s="43"/>
+      <c r="N214" s="42"/>
       <c r="O214" s="40"/>
-      <c r="P214" s="43"/>
+      <c r="P214" s="42"/>
       <c r="Q214" s="40"/>
     </row>
     <row r="215" ht="37" customHeight="1" spans="1:17">
-      <c r="A215" s="45"/>
+      <c r="A215" s="44"/>
       <c r="B215" s="37"/>
       <c r="C215" s="37"/>
       <c r="D215" s="38"/>
@@ -9569,13 +9151,13 @@
       <c r="K215" s="40"/>
       <c r="L215" s="40"/>
       <c r="M215" s="40"/>
-      <c r="N215" s="43"/>
+      <c r="N215" s="42"/>
       <c r="O215" s="40"/>
-      <c r="P215" s="43"/>
+      <c r="P215" s="42"/>
       <c r="Q215" s="40"/>
     </row>
     <row r="216" ht="37" customHeight="1" spans="1:17">
-      <c r="A216" s="45"/>
+      <c r="A216" s="44"/>
       <c r="B216" s="37"/>
       <c r="C216" s="37"/>
       <c r="D216" s="38"/>
@@ -9588,13 +9170,13 @@
       <c r="K216" s="40"/>
       <c r="L216" s="40"/>
       <c r="M216" s="40"/>
-      <c r="N216" s="43"/>
+      <c r="N216" s="42"/>
       <c r="O216" s="40"/>
-      <c r="P216" s="43"/>
+      <c r="P216" s="42"/>
       <c r="Q216" s="40"/>
     </row>
     <row r="217" ht="37" customHeight="1" spans="1:17">
-      <c r="A217" s="45"/>
+      <c r="A217" s="44"/>
       <c r="B217" s="37"/>
       <c r="C217" s="37"/>
       <c r="D217" s="38"/>
@@ -9607,13 +9189,13 @@
       <c r="K217" s="40"/>
       <c r="L217" s="40"/>
       <c r="M217" s="40"/>
-      <c r="N217" s="43"/>
+      <c r="N217" s="42"/>
       <c r="O217" s="40"/>
-      <c r="P217" s="43"/>
+      <c r="P217" s="42"/>
       <c r="Q217" s="40"/>
     </row>
     <row r="218" ht="37" customHeight="1" spans="1:17">
-      <c r="A218" s="45"/>
+      <c r="A218" s="44"/>
       <c r="B218" s="37"/>
       <c r="C218" s="37"/>
       <c r="D218" s="38"/>
@@ -9626,13 +9208,13 @@
       <c r="K218" s="40"/>
       <c r="L218" s="40"/>
       <c r="M218" s="40"/>
-      <c r="N218" s="43"/>
+      <c r="N218" s="42"/>
       <c r="O218" s="40"/>
-      <c r="P218" s="43"/>
+      <c r="P218" s="42"/>
       <c r="Q218" s="40"/>
     </row>
-    <row r="219" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A219" s="45"/>
+    <row r="219" ht="37" customHeight="1" spans="1:17">
+      <c r="A219" s="44"/>
       <c r="B219" s="37"/>
       <c r="C219" s="37"/>
       <c r="D219" s="38"/>
@@ -9645,13 +9227,13 @@
       <c r="K219" s="40"/>
       <c r="L219" s="40"/>
       <c r="M219" s="40"/>
-      <c r="N219" s="43"/>
+      <c r="N219" s="42"/>
       <c r="O219" s="40"/>
-      <c r="P219" s="43"/>
+      <c r="P219" s="42"/>
       <c r="Q219" s="40"/>
     </row>
     <row r="220" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A220" s="45"/>
+      <c r="A220" s="44"/>
       <c r="B220" s="37"/>
       <c r="C220" s="37"/>
       <c r="D220" s="38"/>
@@ -9664,13 +9246,13 @@
       <c r="K220" s="40"/>
       <c r="L220" s="40"/>
       <c r="M220" s="40"/>
-      <c r="N220" s="43"/>
+      <c r="N220" s="42"/>
       <c r="O220" s="40"/>
-      <c r="P220" s="43"/>
+      <c r="P220" s="42"/>
       <c r="Q220" s="40"/>
     </row>
     <row r="221" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A221" s="45"/>
+      <c r="A221" s="44"/>
       <c r="B221" s="37"/>
       <c r="C221" s="37"/>
       <c r="D221" s="38"/>
@@ -9683,13 +9265,13 @@
       <c r="K221" s="40"/>
       <c r="L221" s="40"/>
       <c r="M221" s="40"/>
-      <c r="N221" s="43"/>
+      <c r="N221" s="42"/>
       <c r="O221" s="40"/>
-      <c r="P221" s="43"/>
+      <c r="P221" s="42"/>
       <c r="Q221" s="40"/>
     </row>
     <row r="222" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A222" s="45"/>
+      <c r="A222" s="44"/>
       <c r="B222" s="37"/>
       <c r="C222" s="37"/>
       <c r="D222" s="38"/>
@@ -9702,13 +9284,13 @@
       <c r="K222" s="40"/>
       <c r="L222" s="40"/>
       <c r="M222" s="40"/>
-      <c r="N222" s="43"/>
+      <c r="N222" s="42"/>
       <c r="O222" s="40"/>
-      <c r="P222" s="43"/>
+      <c r="P222" s="42"/>
       <c r="Q222" s="40"/>
     </row>
     <row r="223" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A223" s="45"/>
+      <c r="A223" s="44"/>
       <c r="B223" s="37"/>
       <c r="C223" s="37"/>
       <c r="D223" s="38"/>
@@ -9721,13 +9303,13 @@
       <c r="K223" s="40"/>
       <c r="L223" s="40"/>
       <c r="M223" s="40"/>
-      <c r="N223" s="43"/>
+      <c r="N223" s="42"/>
       <c r="O223" s="40"/>
-      <c r="P223" s="43"/>
+      <c r="P223" s="42"/>
       <c r="Q223" s="40"/>
     </row>
     <row r="224" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A224" s="45"/>
+      <c r="A224" s="44"/>
       <c r="B224" s="37"/>
       <c r="C224" s="37"/>
       <c r="D224" s="38"/>
@@ -9740,13 +9322,13 @@
       <c r="K224" s="40"/>
       <c r="L224" s="40"/>
       <c r="M224" s="40"/>
-      <c r="N224" s="43"/>
+      <c r="N224" s="42"/>
       <c r="O224" s="40"/>
-      <c r="P224" s="43"/>
+      <c r="P224" s="42"/>
       <c r="Q224" s="40"/>
     </row>
     <row r="225" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A225" s="45"/>
+      <c r="A225" s="44"/>
       <c r="B225" s="37"/>
       <c r="C225" s="37"/>
       <c r="D225" s="38"/>
@@ -9759,13 +9341,13 @@
       <c r="K225" s="40"/>
       <c r="L225" s="40"/>
       <c r="M225" s="40"/>
-      <c r="N225" s="43"/>
+      <c r="N225" s="42"/>
       <c r="O225" s="40"/>
-      <c r="P225" s="43"/>
+      <c r="P225" s="42"/>
       <c r="Q225" s="40"/>
     </row>
     <row r="226" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A226" s="45"/>
+      <c r="A226" s="44"/>
       <c r="B226" s="37"/>
       <c r="C226" s="37"/>
       <c r="D226" s="38"/>
@@ -9778,13 +9360,13 @@
       <c r="K226" s="40"/>
       <c r="L226" s="40"/>
       <c r="M226" s="40"/>
-      <c r="N226" s="43"/>
+      <c r="N226" s="42"/>
       <c r="O226" s="40"/>
-      <c r="P226" s="43"/>
+      <c r="P226" s="42"/>
       <c r="Q226" s="40"/>
     </row>
     <row r="227" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A227" s="45"/>
+      <c r="A227" s="44"/>
       <c r="B227" s="37"/>
       <c r="C227" s="37"/>
       <c r="D227" s="38"/>
@@ -9797,13 +9379,13 @@
       <c r="K227" s="40"/>
       <c r="L227" s="40"/>
       <c r="M227" s="40"/>
-      <c r="N227" s="43"/>
+      <c r="N227" s="42"/>
       <c r="O227" s="40"/>
-      <c r="P227" s="43"/>
+      <c r="P227" s="42"/>
       <c r="Q227" s="40"/>
     </row>
     <row r="228" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A228" s="45"/>
+      <c r="A228" s="44"/>
       <c r="B228" s="37"/>
       <c r="C228" s="37"/>
       <c r="D228" s="38"/>
@@ -9816,13 +9398,13 @@
       <c r="K228" s="40"/>
       <c r="L228" s="40"/>
       <c r="M228" s="40"/>
-      <c r="N228" s="43"/>
+      <c r="N228" s="42"/>
       <c r="O228" s="40"/>
-      <c r="P228" s="43"/>
+      <c r="P228" s="42"/>
       <c r="Q228" s="40"/>
     </row>
     <row r="229" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A229" s="45"/>
+      <c r="A229" s="44"/>
       <c r="B229" s="37"/>
       <c r="C229" s="37"/>
       <c r="D229" s="38"/>
@@ -9835,13 +9417,13 @@
       <c r="K229" s="40"/>
       <c r="L229" s="40"/>
       <c r="M229" s="40"/>
-      <c r="N229" s="43"/>
+      <c r="N229" s="42"/>
       <c r="O229" s="40"/>
-      <c r="P229" s="43"/>
+      <c r="P229" s="42"/>
       <c r="Q229" s="40"/>
     </row>
     <row r="230" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A230" s="45"/>
+      <c r="A230" s="44"/>
       <c r="B230" s="37"/>
       <c r="C230" s="37"/>
       <c r="D230" s="38"/>
@@ -9854,13 +9436,13 @@
       <c r="K230" s="40"/>
       <c r="L230" s="40"/>
       <c r="M230" s="40"/>
-      <c r="N230" s="43"/>
+      <c r="N230" s="42"/>
       <c r="O230" s="40"/>
-      <c r="P230" s="43"/>
+      <c r="P230" s="42"/>
       <c r="Q230" s="40"/>
     </row>
     <row r="231" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A231" s="45"/>
+      <c r="A231" s="44"/>
       <c r="B231" s="37"/>
       <c r="C231" s="37"/>
       <c r="D231" s="38"/>
@@ -9873,13 +9455,13 @@
       <c r="K231" s="40"/>
       <c r="L231" s="40"/>
       <c r="M231" s="40"/>
-      <c r="N231" s="43"/>
+      <c r="N231" s="42"/>
       <c r="O231" s="40"/>
-      <c r="P231" s="43"/>
+      <c r="P231" s="42"/>
       <c r="Q231" s="40"/>
     </row>
     <row r="232" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A232" s="45"/>
+      <c r="A232" s="44"/>
       <c r="B232" s="37"/>
       <c r="C232" s="37"/>
       <c r="D232" s="38"/>
@@ -9892,13 +9474,13 @@
       <c r="K232" s="40"/>
       <c r="L232" s="40"/>
       <c r="M232" s="40"/>
-      <c r="N232" s="43"/>
+      <c r="N232" s="42"/>
       <c r="O232" s="40"/>
-      <c r="P232" s="43"/>
+      <c r="P232" s="42"/>
       <c r="Q232" s="40"/>
     </row>
     <row r="233" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A233" s="45"/>
+      <c r="A233" s="44"/>
       <c r="B233" s="37"/>
       <c r="C233" s="37"/>
       <c r="D233" s="38"/>
@@ -9911,13 +9493,13 @@
       <c r="K233" s="40"/>
       <c r="L233" s="40"/>
       <c r="M233" s="40"/>
-      <c r="N233" s="43"/>
+      <c r="N233" s="42"/>
       <c r="O233" s="40"/>
-      <c r="P233" s="43"/>
+      <c r="P233" s="42"/>
       <c r="Q233" s="40"/>
     </row>
-    <row r="234" customHeight="1" spans="1:17">
-      <c r="A234" s="45"/>
+    <row r="234" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A234" s="44"/>
       <c r="B234" s="37"/>
       <c r="C234" s="37"/>
       <c r="D234" s="38"/>
@@ -9930,13 +9512,13 @@
       <c r="K234" s="40"/>
       <c r="L234" s="40"/>
       <c r="M234" s="40"/>
-      <c r="N234" s="43"/>
+      <c r="N234" s="42"/>
       <c r="O234" s="40"/>
-      <c r="P234" s="43"/>
+      <c r="P234" s="42"/>
       <c r="Q234" s="40"/>
     </row>
-    <row r="235" ht="36" customHeight="1" spans="1:17">
-      <c r="A235" s="45"/>
+    <row r="235" customHeight="1" spans="1:17">
+      <c r="A235" s="44"/>
       <c r="B235" s="37"/>
       <c r="C235" s="37"/>
       <c r="D235" s="38"/>
@@ -9949,13 +9531,13 @@
       <c r="K235" s="40"/>
       <c r="L235" s="40"/>
       <c r="M235" s="40"/>
-      <c r="N235" s="43"/>
+      <c r="N235" s="42"/>
       <c r="O235" s="40"/>
-      <c r="P235" s="43"/>
+      <c r="P235" s="42"/>
       <c r="Q235" s="40"/>
     </row>
     <row r="236" ht="36" customHeight="1" spans="1:17">
-      <c r="A236" s="45"/>
+      <c r="A236" s="44"/>
       <c r="B236" s="37"/>
       <c r="C236" s="37"/>
       <c r="D236" s="38"/>
@@ -9968,13 +9550,13 @@
       <c r="K236" s="40"/>
       <c r="L236" s="40"/>
       <c r="M236" s="40"/>
-      <c r="N236" s="43"/>
+      <c r="N236" s="42"/>
       <c r="O236" s="40"/>
-      <c r="P236" s="43"/>
+      <c r="P236" s="42"/>
       <c r="Q236" s="40"/>
     </row>
     <row r="237" ht="36" customHeight="1" spans="1:17">
-      <c r="A237" s="45"/>
+      <c r="A237" s="44"/>
       <c r="B237" s="37"/>
       <c r="C237" s="37"/>
       <c r="D237" s="38"/>
@@ -9987,13 +9569,13 @@
       <c r="K237" s="40"/>
       <c r="L237" s="40"/>
       <c r="M237" s="40"/>
-      <c r="N237" s="43"/>
+      <c r="N237" s="42"/>
       <c r="O237" s="40"/>
-      <c r="P237" s="43"/>
+      <c r="P237" s="42"/>
       <c r="Q237" s="40"/>
     </row>
     <row r="238" ht="36" customHeight="1" spans="1:17">
-      <c r="A238" s="45"/>
+      <c r="A238" s="44"/>
       <c r="B238" s="37"/>
       <c r="C238" s="37"/>
       <c r="D238" s="38"/>
@@ -10006,13 +9588,13 @@
       <c r="K238" s="40"/>
       <c r="L238" s="40"/>
       <c r="M238" s="40"/>
-      <c r="N238" s="43"/>
+      <c r="N238" s="42"/>
       <c r="O238" s="40"/>
-      <c r="P238" s="43"/>
+      <c r="P238" s="42"/>
       <c r="Q238" s="40"/>
     </row>
     <row r="239" ht="36" customHeight="1" spans="1:17">
-      <c r="A239" s="45"/>
+      <c r="A239" s="44"/>
       <c r="B239" s="37"/>
       <c r="C239" s="37"/>
       <c r="D239" s="38"/>
@@ -10025,13 +9607,13 @@
       <c r="K239" s="40"/>
       <c r="L239" s="40"/>
       <c r="M239" s="40"/>
-      <c r="N239" s="43"/>
+      <c r="N239" s="42"/>
       <c r="O239" s="40"/>
-      <c r="P239" s="43"/>
+      <c r="P239" s="42"/>
       <c r="Q239" s="40"/>
     </row>
     <row r="240" ht="36" customHeight="1" spans="1:17">
-      <c r="A240" s="45"/>
+      <c r="A240" s="44"/>
       <c r="B240" s="37"/>
       <c r="C240" s="37"/>
       <c r="D240" s="38"/>
@@ -10044,13 +9626,13 @@
       <c r="K240" s="40"/>
       <c r="L240" s="40"/>
       <c r="M240" s="40"/>
-      <c r="N240" s="43"/>
+      <c r="N240" s="42"/>
       <c r="O240" s="40"/>
-      <c r="P240" s="43"/>
+      <c r="P240" s="42"/>
       <c r="Q240" s="40"/>
     </row>
     <row r="241" ht="36" customHeight="1" spans="1:17">
-      <c r="A241" s="45"/>
+      <c r="A241" s="44"/>
       <c r="B241" s="37"/>
       <c r="C241" s="37"/>
       <c r="D241" s="38"/>
@@ -10063,13 +9645,13 @@
       <c r="K241" s="40"/>
       <c r="L241" s="40"/>
       <c r="M241" s="40"/>
-      <c r="N241" s="43"/>
+      <c r="N241" s="42"/>
       <c r="O241" s="40"/>
-      <c r="P241" s="43"/>
+      <c r="P241" s="42"/>
       <c r="Q241" s="40"/>
     </row>
     <row r="242" ht="36" customHeight="1" spans="1:17">
-      <c r="A242" s="45"/>
+      <c r="A242" s="44"/>
       <c r="B242" s="37"/>
       <c r="C242" s="37"/>
       <c r="D242" s="38"/>
@@ -10082,13 +9664,13 @@
       <c r="K242" s="40"/>
       <c r="L242" s="40"/>
       <c r="M242" s="40"/>
-      <c r="N242" s="43"/>
+      <c r="N242" s="42"/>
       <c r="O242" s="40"/>
-      <c r="P242" s="43"/>
+      <c r="P242" s="42"/>
       <c r="Q242" s="40"/>
     </row>
     <row r="243" ht="36" customHeight="1" spans="1:17">
-      <c r="A243" s="45"/>
+      <c r="A243" s="44"/>
       <c r="B243" s="37"/>
       <c r="C243" s="37"/>
       <c r="D243" s="38"/>
@@ -10101,13 +9683,13 @@
       <c r="K243" s="40"/>
       <c r="L243" s="40"/>
       <c r="M243" s="40"/>
-      <c r="N243" s="43"/>
+      <c r="N243" s="42"/>
       <c r="O243" s="40"/>
-      <c r="P243" s="43"/>
+      <c r="P243" s="42"/>
       <c r="Q243" s="40"/>
     </row>
     <row r="244" ht="36" customHeight="1" spans="1:17">
-      <c r="A244" s="45"/>
+      <c r="A244" s="44"/>
       <c r="B244" s="37"/>
       <c r="C244" s="37"/>
       <c r="D244" s="38"/>
@@ -10120,13 +9702,13 @@
       <c r="K244" s="40"/>
       <c r="L244" s="40"/>
       <c r="M244" s="40"/>
-      <c r="N244" s="43"/>
+      <c r="N244" s="42"/>
       <c r="O244" s="40"/>
-      <c r="P244" s="43"/>
+      <c r="P244" s="42"/>
       <c r="Q244" s="40"/>
     </row>
     <row r="245" ht="36" customHeight="1" spans="1:17">
-      <c r="A245" s="45"/>
+      <c r="A245" s="44"/>
       <c r="B245" s="37"/>
       <c r="C245" s="37"/>
       <c r="D245" s="38"/>
@@ -10139,13 +9721,13 @@
       <c r="K245" s="40"/>
       <c r="L245" s="40"/>
       <c r="M245" s="40"/>
-      <c r="N245" s="43"/>
+      <c r="N245" s="42"/>
       <c r="O245" s="40"/>
-      <c r="P245" s="43"/>
+      <c r="P245" s="42"/>
       <c r="Q245" s="40"/>
     </row>
     <row r="246" ht="36" customHeight="1" spans="1:17">
-      <c r="A246" s="45"/>
+      <c r="A246" s="44"/>
       <c r="B246" s="37"/>
       <c r="C246" s="37"/>
       <c r="D246" s="38"/>
@@ -10158,13 +9740,13 @@
       <c r="K246" s="40"/>
       <c r="L246" s="40"/>
       <c r="M246" s="40"/>
-      <c r="N246" s="43"/>
+      <c r="N246" s="42"/>
       <c r="O246" s="40"/>
-      <c r="P246" s="43"/>
+      <c r="P246" s="42"/>
       <c r="Q246" s="40"/>
     </row>
-    <row r="247" customHeight="1" spans="1:17">
-      <c r="A247" s="45"/>
+    <row r="247" ht="36" customHeight="1" spans="1:17">
+      <c r="A247" s="44"/>
       <c r="B247" s="37"/>
       <c r="C247" s="37"/>
       <c r="D247" s="38"/>
@@ -10177,13 +9759,13 @@
       <c r="K247" s="40"/>
       <c r="L247" s="40"/>
       <c r="M247" s="40"/>
-      <c r="N247" s="43"/>
+      <c r="N247" s="42"/>
       <c r="O247" s="40"/>
-      <c r="P247" s="43"/>
+      <c r="P247" s="42"/>
       <c r="Q247" s="40"/>
     </row>
-    <row r="248" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A248" s="45"/>
+    <row r="248" customHeight="1" spans="1:17">
+      <c r="A248" s="44"/>
       <c r="B248" s="37"/>
       <c r="C248" s="37"/>
       <c r="D248" s="38"/>
@@ -10196,13 +9778,13 @@
       <c r="K248" s="40"/>
       <c r="L248" s="40"/>
       <c r="M248" s="40"/>
-      <c r="N248" s="43"/>
+      <c r="N248" s="42"/>
       <c r="O248" s="40"/>
-      <c r="P248" s="43"/>
+      <c r="P248" s="42"/>
       <c r="Q248" s="40"/>
     </row>
     <row r="249" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A249" s="45"/>
+      <c r="A249" s="44"/>
       <c r="B249" s="37"/>
       <c r="C249" s="37"/>
       <c r="D249" s="38"/>
@@ -10215,13 +9797,13 @@
       <c r="K249" s="40"/>
       <c r="L249" s="40"/>
       <c r="M249" s="40"/>
-      <c r="N249" s="43"/>
+      <c r="N249" s="42"/>
       <c r="O249" s="40"/>
-      <c r="P249" s="43"/>
+      <c r="P249" s="42"/>
       <c r="Q249" s="40"/>
     </row>
     <row r="250" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A250" s="45"/>
+      <c r="A250" s="44"/>
       <c r="B250" s="37"/>
       <c r="C250" s="37"/>
       <c r="D250" s="38"/>
@@ -10234,13 +9816,13 @@
       <c r="K250" s="40"/>
       <c r="L250" s="40"/>
       <c r="M250" s="40"/>
-      <c r="N250" s="43"/>
+      <c r="N250" s="42"/>
       <c r="O250" s="40"/>
-      <c r="P250" s="43"/>
+      <c r="P250" s="42"/>
       <c r="Q250" s="40"/>
     </row>
     <row r="251" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A251" s="45"/>
+      <c r="A251" s="44"/>
       <c r="B251" s="37"/>
       <c r="C251" s="37"/>
       <c r="D251" s="38"/>
@@ -10253,13 +9835,13 @@
       <c r="K251" s="40"/>
       <c r="L251" s="40"/>
       <c r="M251" s="40"/>
-      <c r="N251" s="43"/>
+      <c r="N251" s="42"/>
       <c r="O251" s="40"/>
-      <c r="P251" s="43"/>
+      <c r="P251" s="42"/>
       <c r="Q251" s="40"/>
     </row>
     <row r="252" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A252" s="45"/>
+      <c r="A252" s="44"/>
       <c r="B252" s="37"/>
       <c r="C252" s="37"/>
       <c r="D252" s="38"/>
@@ -10272,13 +9854,13 @@
       <c r="K252" s="40"/>
       <c r="L252" s="40"/>
       <c r="M252" s="40"/>
-      <c r="N252" s="43"/>
+      <c r="N252" s="42"/>
       <c r="O252" s="40"/>
-      <c r="P252" s="43"/>
+      <c r="P252" s="42"/>
       <c r="Q252" s="40"/>
     </row>
     <row r="253" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A253" s="45"/>
+      <c r="A253" s="44"/>
       <c r="B253" s="37"/>
       <c r="C253" s="37"/>
       <c r="D253" s="38"/>
@@ -10291,13 +9873,13 @@
       <c r="K253" s="40"/>
       <c r="L253" s="40"/>
       <c r="M253" s="40"/>
-      <c r="N253" s="43"/>
+      <c r="N253" s="42"/>
       <c r="O253" s="40"/>
-      <c r="P253" s="43"/>
+      <c r="P253" s="42"/>
       <c r="Q253" s="40"/>
     </row>
     <row r="254" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A254" s="45"/>
+      <c r="A254" s="44"/>
       <c r="B254" s="37"/>
       <c r="C254" s="37"/>
       <c r="D254" s="38"/>
@@ -10310,13 +9892,13 @@
       <c r="K254" s="40"/>
       <c r="L254" s="40"/>
       <c r="M254" s="40"/>
-      <c r="N254" s="43"/>
+      <c r="N254" s="42"/>
       <c r="O254" s="40"/>
-      <c r="P254" s="43"/>
+      <c r="P254" s="42"/>
       <c r="Q254" s="40"/>
     </row>
     <row r="255" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A255" s="45"/>
+      <c r="A255" s="44"/>
       <c r="B255" s="37"/>
       <c r="C255" s="37"/>
       <c r="D255" s="38"/>
@@ -10329,13 +9911,13 @@
       <c r="K255" s="40"/>
       <c r="L255" s="40"/>
       <c r="M255" s="40"/>
-      <c r="N255" s="43"/>
+      <c r="N255" s="42"/>
       <c r="O255" s="40"/>
-      <c r="P255" s="43"/>
+      <c r="P255" s="42"/>
       <c r="Q255" s="40"/>
     </row>
     <row r="256" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A256" s="45"/>
+      <c r="A256" s="44"/>
       <c r="B256" s="37"/>
       <c r="C256" s="37"/>
       <c r="D256" s="38"/>
@@ -10348,13 +9930,13 @@
       <c r="K256" s="40"/>
       <c r="L256" s="40"/>
       <c r="M256" s="40"/>
-      <c r="N256" s="43"/>
+      <c r="N256" s="42"/>
       <c r="O256" s="40"/>
-      <c r="P256" s="43"/>
+      <c r="P256" s="42"/>
       <c r="Q256" s="40"/>
     </row>
     <row r="257" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A257" s="45"/>
+      <c r="A257" s="44"/>
       <c r="B257" s="37"/>
       <c r="C257" s="37"/>
       <c r="D257" s="38"/>
@@ -10367,13 +9949,13 @@
       <c r="K257" s="40"/>
       <c r="L257" s="40"/>
       <c r="M257" s="40"/>
-      <c r="N257" s="43"/>
+      <c r="N257" s="42"/>
       <c r="O257" s="40"/>
-      <c r="P257" s="43"/>
+      <c r="P257" s="42"/>
       <c r="Q257" s="40"/>
     </row>
     <row r="258" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A258" s="45"/>
+      <c r="A258" s="44"/>
       <c r="B258" s="37"/>
       <c r="C258" s="37"/>
       <c r="D258" s="38"/>
@@ -10386,13 +9968,13 @@
       <c r="K258" s="40"/>
       <c r="L258" s="40"/>
       <c r="M258" s="40"/>
-      <c r="N258" s="43"/>
+      <c r="N258" s="42"/>
       <c r="O258" s="40"/>
-      <c r="P258" s="43"/>
+      <c r="P258" s="42"/>
       <c r="Q258" s="40"/>
     </row>
     <row r="259" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A259" s="45"/>
+      <c r="A259" s="44"/>
       <c r="B259" s="37"/>
       <c r="C259" s="37"/>
       <c r="D259" s="38"/>
@@ -10405,13 +9987,13 @@
       <c r="K259" s="40"/>
       <c r="L259" s="40"/>
       <c r="M259" s="40"/>
-      <c r="N259" s="43"/>
+      <c r="N259" s="42"/>
       <c r="O259" s="40"/>
-      <c r="P259" s="43"/>
+      <c r="P259" s="42"/>
       <c r="Q259" s="40"/>
     </row>
     <row r="260" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A260" s="45"/>
+      <c r="A260" s="44"/>
       <c r="B260" s="37"/>
       <c r="C260" s="37"/>
       <c r="D260" s="38"/>
@@ -10424,13 +10006,13 @@
       <c r="K260" s="40"/>
       <c r="L260" s="40"/>
       <c r="M260" s="40"/>
-      <c r="N260" s="43"/>
+      <c r="N260" s="42"/>
       <c r="O260" s="40"/>
-      <c r="P260" s="43"/>
+      <c r="P260" s="42"/>
       <c r="Q260" s="40"/>
     </row>
     <row r="261" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A261" s="45"/>
+      <c r="A261" s="44"/>
       <c r="B261" s="37"/>
       <c r="C261" s="37"/>
       <c r="D261" s="38"/>
@@ -10443,13 +10025,13 @@
       <c r="K261" s="40"/>
       <c r="L261" s="40"/>
       <c r="M261" s="40"/>
-      <c r="N261" s="43"/>
+      <c r="N261" s="42"/>
       <c r="O261" s="40"/>
-      <c r="P261" s="43"/>
+      <c r="P261" s="42"/>
       <c r="Q261" s="40"/>
     </row>
     <row r="262" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A262" s="45"/>
+      <c r="A262" s="44"/>
       <c r="B262" s="37"/>
       <c r="C262" s="37"/>
       <c r="D262" s="38"/>
@@ -10462,13 +10044,13 @@
       <c r="K262" s="40"/>
       <c r="L262" s="40"/>
       <c r="M262" s="40"/>
-      <c r="N262" s="43"/>
+      <c r="N262" s="42"/>
       <c r="O262" s="40"/>
-      <c r="P262" s="43"/>
+      <c r="P262" s="42"/>
       <c r="Q262" s="40"/>
     </row>
     <row r="263" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A263" s="45"/>
+      <c r="A263" s="44"/>
       <c r="B263" s="37"/>
       <c r="C263" s="37"/>
       <c r="D263" s="38"/>
@@ -10481,13 +10063,13 @@
       <c r="K263" s="40"/>
       <c r="L263" s="40"/>
       <c r="M263" s="40"/>
-      <c r="N263" s="43"/>
+      <c r="N263" s="42"/>
       <c r="O263" s="40"/>
-      <c r="P263" s="43"/>
+      <c r="P263" s="42"/>
       <c r="Q263" s="40"/>
     </row>
     <row r="264" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A264" s="45"/>
+      <c r="A264" s="44"/>
       <c r="B264" s="37"/>
       <c r="C264" s="37"/>
       <c r="D264" s="38"/>
@@ -10500,13 +10082,13 @@
       <c r="K264" s="40"/>
       <c r="L264" s="40"/>
       <c r="M264" s="40"/>
-      <c r="N264" s="43"/>
+      <c r="N264" s="42"/>
       <c r="O264" s="40"/>
-      <c r="P264" s="43"/>
+      <c r="P264" s="42"/>
       <c r="Q264" s="40"/>
     </row>
     <row r="265" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A265" s="45"/>
+      <c r="A265" s="44"/>
       <c r="B265" s="37"/>
       <c r="C265" s="37"/>
       <c r="D265" s="38"/>
@@ -10519,13 +10101,13 @@
       <c r="K265" s="40"/>
       <c r="L265" s="40"/>
       <c r="M265" s="40"/>
-      <c r="N265" s="43"/>
+      <c r="N265" s="42"/>
       <c r="O265" s="40"/>
-      <c r="P265" s="43"/>
+      <c r="P265" s="42"/>
       <c r="Q265" s="40"/>
     </row>
     <row r="266" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A266" s="45"/>
+      <c r="A266" s="44"/>
       <c r="B266" s="37"/>
       <c r="C266" s="37"/>
       <c r="D266" s="38"/>
@@ -10538,13 +10120,13 @@
       <c r="K266" s="40"/>
       <c r="L266" s="40"/>
       <c r="M266" s="40"/>
-      <c r="N266" s="43"/>
+      <c r="N266" s="42"/>
       <c r="O266" s="40"/>
-      <c r="P266" s="43"/>
+      <c r="P266" s="42"/>
       <c r="Q266" s="40"/>
     </row>
     <row r="267" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A267" s="45"/>
+      <c r="A267" s="44"/>
       <c r="B267" s="37"/>
       <c r="C267" s="37"/>
       <c r="D267" s="38"/>
@@ -10557,13 +10139,13 @@
       <c r="K267" s="40"/>
       <c r="L267" s="40"/>
       <c r="M267" s="40"/>
-      <c r="N267" s="43"/>
+      <c r="N267" s="42"/>
       <c r="O267" s="40"/>
-      <c r="P267" s="43"/>
+      <c r="P267" s="42"/>
       <c r="Q267" s="40"/>
     </row>
     <row r="268" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A268" s="45"/>
+      <c r="A268" s="44"/>
       <c r="B268" s="37"/>
       <c r="C268" s="37"/>
       <c r="D268" s="38"/>
@@ -10576,13 +10158,13 @@
       <c r="K268" s="40"/>
       <c r="L268" s="40"/>
       <c r="M268" s="40"/>
-      <c r="N268" s="43"/>
+      <c r="N268" s="42"/>
       <c r="O268" s="40"/>
-      <c r="P268" s="43"/>
+      <c r="P268" s="42"/>
       <c r="Q268" s="40"/>
     </row>
     <row r="269" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A269" s="45"/>
+      <c r="A269" s="44"/>
       <c r="B269" s="37"/>
       <c r="C269" s="37"/>
       <c r="D269" s="38"/>
@@ -10595,13 +10177,13 @@
       <c r="K269" s="40"/>
       <c r="L269" s="40"/>
       <c r="M269" s="40"/>
-      <c r="N269" s="43"/>
+      <c r="N269" s="42"/>
       <c r="O269" s="40"/>
-      <c r="P269" s="43"/>
+      <c r="P269" s="42"/>
       <c r="Q269" s="40"/>
     </row>
     <row r="270" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A270" s="45"/>
+      <c r="A270" s="44"/>
       <c r="B270" s="37"/>
       <c r="C270" s="37"/>
       <c r="D270" s="38"/>
@@ -10614,13 +10196,13 @@
       <c r="K270" s="40"/>
       <c r="L270" s="40"/>
       <c r="M270" s="40"/>
-      <c r="N270" s="43"/>
+      <c r="N270" s="42"/>
       <c r="O270" s="40"/>
-      <c r="P270" s="43"/>
+      <c r="P270" s="42"/>
       <c r="Q270" s="40"/>
     </row>
     <row r="271" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A271" s="45"/>
+      <c r="A271" s="44"/>
       <c r="B271" s="37"/>
       <c r="C271" s="37"/>
       <c r="D271" s="38"/>
@@ -10633,13 +10215,13 @@
       <c r="K271" s="40"/>
       <c r="L271" s="40"/>
       <c r="M271" s="40"/>
-      <c r="N271" s="43"/>
+      <c r="N271" s="42"/>
       <c r="O271" s="40"/>
-      <c r="P271" s="43"/>
+      <c r="P271" s="42"/>
       <c r="Q271" s="40"/>
     </row>
     <row r="272" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A272" s="45"/>
+      <c r="A272" s="44"/>
       <c r="B272" s="37"/>
       <c r="C272" s="37"/>
       <c r="D272" s="38"/>
@@ -10652,13 +10234,13 @@
       <c r="K272" s="40"/>
       <c r="L272" s="40"/>
       <c r="M272" s="40"/>
-      <c r="N272" s="43"/>
+      <c r="N272" s="42"/>
       <c r="O272" s="40"/>
-      <c r="P272" s="43"/>
+      <c r="P272" s="42"/>
       <c r="Q272" s="40"/>
     </row>
     <row r="273" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A273" s="45"/>
+      <c r="A273" s="44"/>
       <c r="B273" s="37"/>
       <c r="C273" s="37"/>
       <c r="D273" s="38"/>
@@ -10671,13 +10253,13 @@
       <c r="K273" s="40"/>
       <c r="L273" s="40"/>
       <c r="M273" s="40"/>
-      <c r="N273" s="43"/>
+      <c r="N273" s="42"/>
       <c r="O273" s="40"/>
-      <c r="P273" s="43"/>
+      <c r="P273" s="42"/>
       <c r="Q273" s="40"/>
     </row>
     <row r="274" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A274" s="45"/>
+      <c r="A274" s="44"/>
       <c r="B274" s="37"/>
       <c r="C274" s="37"/>
       <c r="D274" s="38"/>
@@ -10690,13 +10272,13 @@
       <c r="K274" s="40"/>
       <c r="L274" s="40"/>
       <c r="M274" s="40"/>
-      <c r="N274" s="43"/>
+      <c r="N274" s="42"/>
       <c r="O274" s="40"/>
-      <c r="P274" s="43"/>
+      <c r="P274" s="42"/>
       <c r="Q274" s="40"/>
     </row>
     <row r="275" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A275" s="45"/>
+      <c r="A275" s="44"/>
       <c r="B275" s="37"/>
       <c r="C275" s="37"/>
       <c r="D275" s="38"/>
@@ -10709,13 +10291,13 @@
       <c r="K275" s="40"/>
       <c r="L275" s="40"/>
       <c r="M275" s="40"/>
-      <c r="N275" s="43"/>
+      <c r="N275" s="42"/>
       <c r="O275" s="40"/>
-      <c r="P275" s="43"/>
+      <c r="P275" s="42"/>
       <c r="Q275" s="40"/>
     </row>
     <row r="276" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A276" s="45"/>
+      <c r="A276" s="44"/>
       <c r="B276" s="37"/>
       <c r="C276" s="37"/>
       <c r="D276" s="38"/>
@@ -10728,13 +10310,13 @@
       <c r="K276" s="40"/>
       <c r="L276" s="40"/>
       <c r="M276" s="40"/>
-      <c r="N276" s="43"/>
+      <c r="N276" s="42"/>
       <c r="O276" s="40"/>
-      <c r="P276" s="43"/>
+      <c r="P276" s="42"/>
       <c r="Q276" s="40"/>
     </row>
     <row r="277" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A277" s="45"/>
+      <c r="A277" s="44"/>
       <c r="B277" s="37"/>
       <c r="C277" s="37"/>
       <c r="D277" s="38"/>
@@ -10747,13 +10329,13 @@
       <c r="K277" s="40"/>
       <c r="L277" s="40"/>
       <c r="M277" s="40"/>
-      <c r="N277" s="43"/>
+      <c r="N277" s="42"/>
       <c r="O277" s="40"/>
-      <c r="P277" s="43"/>
+      <c r="P277" s="42"/>
       <c r="Q277" s="40"/>
     </row>
     <row r="278" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A278" s="45"/>
+      <c r="A278" s="44"/>
       <c r="B278" s="37"/>
       <c r="C278" s="37"/>
       <c r="D278" s="38"/>
@@ -10766,13 +10348,13 @@
       <c r="K278" s="40"/>
       <c r="L278" s="40"/>
       <c r="M278" s="40"/>
-      <c r="N278" s="43"/>
+      <c r="N278" s="42"/>
       <c r="O278" s="40"/>
-      <c r="P278" s="43"/>
+      <c r="P278" s="42"/>
       <c r="Q278" s="40"/>
     </row>
     <row r="279" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A279" s="45"/>
+      <c r="A279" s="44"/>
       <c r="B279" s="37"/>
       <c r="C279" s="37"/>
       <c r="D279" s="38"/>
@@ -10785,13 +10367,13 @@
       <c r="K279" s="40"/>
       <c r="L279" s="40"/>
       <c r="M279" s="40"/>
-      <c r="N279" s="43"/>
+      <c r="N279" s="42"/>
       <c r="O279" s="40"/>
-      <c r="P279" s="43"/>
+      <c r="P279" s="42"/>
       <c r="Q279" s="40"/>
     </row>
     <row r="280" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A280" s="45"/>
+      <c r="A280" s="44"/>
       <c r="B280" s="37"/>
       <c r="C280" s="37"/>
       <c r="D280" s="38"/>
@@ -10804,13 +10386,13 @@
       <c r="K280" s="40"/>
       <c r="L280" s="40"/>
       <c r="M280" s="40"/>
-      <c r="N280" s="43"/>
+      <c r="N280" s="42"/>
       <c r="O280" s="40"/>
-      <c r="P280" s="43"/>
+      <c r="P280" s="42"/>
       <c r="Q280" s="40"/>
     </row>
     <row r="281" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A281" s="45"/>
+      <c r="A281" s="44"/>
       <c r="B281" s="37"/>
       <c r="C281" s="37"/>
       <c r="D281" s="38"/>
@@ -10823,13 +10405,13 @@
       <c r="K281" s="40"/>
       <c r="L281" s="40"/>
       <c r="M281" s="40"/>
-      <c r="N281" s="43"/>
+      <c r="N281" s="42"/>
       <c r="O281" s="40"/>
-      <c r="P281" s="43"/>
+      <c r="P281" s="42"/>
       <c r="Q281" s="40"/>
     </row>
     <row r="282" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A282" s="45"/>
+      <c r="A282" s="44"/>
       <c r="B282" s="37"/>
       <c r="C282" s="37"/>
       <c r="D282" s="38"/>
@@ -10842,13 +10424,13 @@
       <c r="K282" s="40"/>
       <c r="L282" s="40"/>
       <c r="M282" s="40"/>
-      <c r="N282" s="43"/>
+      <c r="N282" s="42"/>
       <c r="O282" s="40"/>
-      <c r="P282" s="43"/>
+      <c r="P282" s="42"/>
       <c r="Q282" s="40"/>
     </row>
     <row r="283" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A283" s="45"/>
+      <c r="A283" s="44"/>
       <c r="B283" s="37"/>
       <c r="C283" s="37"/>
       <c r="D283" s="38"/>
@@ -10861,13 +10443,13 @@
       <c r="K283" s="40"/>
       <c r="L283" s="40"/>
       <c r="M283" s="40"/>
-      <c r="N283" s="43"/>
+      <c r="N283" s="42"/>
       <c r="O283" s="40"/>
-      <c r="P283" s="43"/>
+      <c r="P283" s="42"/>
       <c r="Q283" s="40"/>
     </row>
     <row r="284" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A284" s="45"/>
+      <c r="A284" s="44"/>
       <c r="B284" s="37"/>
       <c r="C284" s="37"/>
       <c r="D284" s="38"/>
@@ -10880,13 +10462,13 @@
       <c r="K284" s="40"/>
       <c r="L284" s="40"/>
       <c r="M284" s="40"/>
-      <c r="N284" s="43"/>
+      <c r="N284" s="42"/>
       <c r="O284" s="40"/>
-      <c r="P284" s="43"/>
+      <c r="P284" s="42"/>
       <c r="Q284" s="40"/>
     </row>
     <row r="285" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A285" s="45"/>
+      <c r="A285" s="44"/>
       <c r="B285" s="37"/>
       <c r="C285" s="37"/>
       <c r="D285" s="38"/>
@@ -10899,13 +10481,13 @@
       <c r="K285" s="40"/>
       <c r="L285" s="40"/>
       <c r="M285" s="40"/>
-      <c r="N285" s="43"/>
+      <c r="N285" s="42"/>
       <c r="O285" s="40"/>
-      <c r="P285" s="43"/>
+      <c r="P285" s="42"/>
       <c r="Q285" s="40"/>
     </row>
     <row r="286" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A286" s="45"/>
+      <c r="A286" s="44"/>
       <c r="B286" s="37"/>
       <c r="C286" s="37"/>
       <c r="D286" s="38"/>
@@ -10918,13 +10500,13 @@
       <c r="K286" s="40"/>
       <c r="L286" s="40"/>
       <c r="M286" s="40"/>
-      <c r="N286" s="43"/>
+      <c r="N286" s="42"/>
       <c r="O286" s="40"/>
-      <c r="P286" s="43"/>
+      <c r="P286" s="42"/>
       <c r="Q286" s="40"/>
     </row>
-    <row r="287" ht="37" customHeight="1" spans="1:17">
-      <c r="A287" s="45"/>
+    <row r="287" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A287" s="44"/>
       <c r="B287" s="37"/>
       <c r="C287" s="37"/>
       <c r="D287" s="38"/>
@@ -10937,13 +10519,13 @@
       <c r="K287" s="40"/>
       <c r="L287" s="40"/>
       <c r="M287" s="40"/>
-      <c r="N287" s="43"/>
+      <c r="N287" s="42"/>
       <c r="O287" s="40"/>
-      <c r="P287" s="43"/>
+      <c r="P287" s="42"/>
       <c r="Q287" s="40"/>
     </row>
-    <row r="288" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A288" s="45"/>
+    <row r="288" ht="37" customHeight="1" spans="1:17">
+      <c r="A288" s="44"/>
       <c r="B288" s="37"/>
       <c r="C288" s="37"/>
       <c r="D288" s="38"/>
@@ -10956,13 +10538,13 @@
       <c r="K288" s="40"/>
       <c r="L288" s="40"/>
       <c r="M288" s="40"/>
-      <c r="N288" s="43"/>
+      <c r="N288" s="42"/>
       <c r="O288" s="40"/>
-      <c r="P288" s="43"/>
+      <c r="P288" s="42"/>
       <c r="Q288" s="40"/>
     </row>
     <row r="289" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A289" s="45"/>
+      <c r="A289" s="44"/>
       <c r="B289" s="37"/>
       <c r="C289" s="37"/>
       <c r="D289" s="38"/>
@@ -10975,13 +10557,13 @@
       <c r="K289" s="40"/>
       <c r="L289" s="40"/>
       <c r="M289" s="40"/>
-      <c r="N289" s="43"/>
+      <c r="N289" s="42"/>
       <c r="O289" s="40"/>
-      <c r="P289" s="43"/>
+      <c r="P289" s="42"/>
       <c r="Q289" s="40"/>
     </row>
-    <row r="290" ht="17" customHeight="1" spans="1:17">
-      <c r="A290" s="45"/>
+    <row r="290" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A290" s="44"/>
       <c r="B290" s="37"/>
       <c r="C290" s="37"/>
       <c r="D290" s="38"/>
@@ -10994,13 +10576,13 @@
       <c r="K290" s="40"/>
       <c r="L290" s="40"/>
       <c r="M290" s="40"/>
-      <c r="N290" s="43"/>
+      <c r="N290" s="42"/>
       <c r="O290" s="40"/>
-      <c r="P290" s="43"/>
+      <c r="P290" s="42"/>
       <c r="Q290" s="40"/>
     </row>
-    <row r="291" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A291" s="45"/>
+    <row r="291" ht="17" customHeight="1" spans="1:17">
+      <c r="A291" s="44"/>
       <c r="B291" s="37"/>
       <c r="C291" s="37"/>
       <c r="D291" s="38"/>
@@ -11013,13 +10595,13 @@
       <c r="K291" s="40"/>
       <c r="L291" s="40"/>
       <c r="M291" s="40"/>
-      <c r="N291" s="43"/>
+      <c r="N291" s="42"/>
       <c r="O291" s="40"/>
-      <c r="P291" s="43"/>
+      <c r="P291" s="42"/>
       <c r="Q291" s="40"/>
     </row>
     <row r="292" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A292" s="45"/>
+      <c r="A292" s="44"/>
       <c r="B292" s="37"/>
       <c r="C292" s="37"/>
       <c r="D292" s="38"/>
@@ -11032,13 +10614,13 @@
       <c r="K292" s="40"/>
       <c r="L292" s="40"/>
       <c r="M292" s="40"/>
-      <c r="N292" s="43"/>
+      <c r="N292" s="42"/>
       <c r="O292" s="40"/>
-      <c r="P292" s="43"/>
+      <c r="P292" s="42"/>
       <c r="Q292" s="40"/>
     </row>
     <row r="293" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A293" s="45"/>
+      <c r="A293" s="44"/>
       <c r="B293" s="37"/>
       <c r="C293" s="37"/>
       <c r="D293" s="38"/>
@@ -11051,13 +10633,13 @@
       <c r="K293" s="40"/>
       <c r="L293" s="40"/>
       <c r="M293" s="40"/>
-      <c r="N293" s="43"/>
+      <c r="N293" s="42"/>
       <c r="O293" s="40"/>
-      <c r="P293" s="43"/>
+      <c r="P293" s="42"/>
       <c r="Q293" s="40"/>
     </row>
     <row r="294" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A294" s="45"/>
+      <c r="A294" s="44"/>
       <c r="B294" s="37"/>
       <c r="C294" s="37"/>
       <c r="D294" s="38"/>
@@ -11070,13 +10652,13 @@
       <c r="K294" s="40"/>
       <c r="L294" s="40"/>
       <c r="M294" s="40"/>
-      <c r="N294" s="43"/>
+      <c r="N294" s="42"/>
       <c r="O294" s="40"/>
-      <c r="P294" s="43"/>
+      <c r="P294" s="42"/>
       <c r="Q294" s="40"/>
     </row>
     <row r="295" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A295" s="45"/>
+      <c r="A295" s="44"/>
       <c r="B295" s="37"/>
       <c r="C295" s="37"/>
       <c r="D295" s="38"/>
@@ -11089,13 +10671,13 @@
       <c r="K295" s="40"/>
       <c r="L295" s="40"/>
       <c r="M295" s="40"/>
-      <c r="N295" s="43"/>
+      <c r="N295" s="42"/>
       <c r="O295" s="40"/>
-      <c r="P295" s="43"/>
+      <c r="P295" s="42"/>
       <c r="Q295" s="40"/>
     </row>
     <row r="296" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A296" s="45"/>
+      <c r="A296" s="44"/>
       <c r="B296" s="37"/>
       <c r="C296" s="37"/>
       <c r="D296" s="38"/>
@@ -11108,13 +10690,13 @@
       <c r="K296" s="40"/>
       <c r="L296" s="40"/>
       <c r="M296" s="40"/>
-      <c r="N296" s="43"/>
+      <c r="N296" s="42"/>
       <c r="O296" s="40"/>
-      <c r="P296" s="43"/>
+      <c r="P296" s="42"/>
       <c r="Q296" s="40"/>
     </row>
     <row r="297" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A297" s="45"/>
+      <c r="A297" s="44"/>
       <c r="B297" s="37"/>
       <c r="C297" s="37"/>
       <c r="D297" s="38"/>
@@ -11127,13 +10709,13 @@
       <c r="K297" s="40"/>
       <c r="L297" s="40"/>
       <c r="M297" s="40"/>
-      <c r="N297" s="43"/>
+      <c r="N297" s="42"/>
       <c r="O297" s="40"/>
-      <c r="P297" s="43"/>
+      <c r="P297" s="42"/>
       <c r="Q297" s="40"/>
     </row>
     <row r="298" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A298" s="45"/>
+      <c r="A298" s="44"/>
       <c r="B298" s="37"/>
       <c r="C298" s="37"/>
       <c r="D298" s="38"/>
@@ -11146,13 +10728,13 @@
       <c r="K298" s="40"/>
       <c r="L298" s="40"/>
       <c r="M298" s="40"/>
-      <c r="N298" s="43"/>
+      <c r="N298" s="42"/>
       <c r="O298" s="40"/>
-      <c r="P298" s="43"/>
+      <c r="P298" s="42"/>
       <c r="Q298" s="40"/>
     </row>
     <row r="299" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A299" s="45"/>
+      <c r="A299" s="44"/>
       <c r="B299" s="37"/>
       <c r="C299" s="37"/>
       <c r="D299" s="38"/>
@@ -11165,13 +10747,13 @@
       <c r="K299" s="40"/>
       <c r="L299" s="40"/>
       <c r="M299" s="40"/>
-      <c r="N299" s="43"/>
+      <c r="N299" s="42"/>
       <c r="O299" s="40"/>
-      <c r="P299" s="43"/>
+      <c r="P299" s="42"/>
       <c r="Q299" s="40"/>
     </row>
     <row r="300" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A300" s="45"/>
+      <c r="A300" s="44"/>
       <c r="B300" s="37"/>
       <c r="C300" s="37"/>
       <c r="D300" s="38"/>
@@ -11184,13 +10766,13 @@
       <c r="K300" s="40"/>
       <c r="L300" s="40"/>
       <c r="M300" s="40"/>
-      <c r="N300" s="43"/>
+      <c r="N300" s="42"/>
       <c r="O300" s="40"/>
-      <c r="P300" s="43"/>
+      <c r="P300" s="42"/>
       <c r="Q300" s="40"/>
     </row>
     <row r="301" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A301" s="45"/>
+      <c r="A301" s="44"/>
       <c r="B301" s="37"/>
       <c r="C301" s="37"/>
       <c r="D301" s="38"/>
@@ -11203,13 +10785,13 @@
       <c r="K301" s="40"/>
       <c r="L301" s="40"/>
       <c r="M301" s="40"/>
-      <c r="N301" s="43"/>
+      <c r="N301" s="42"/>
       <c r="O301" s="40"/>
-      <c r="P301" s="43"/>
+      <c r="P301" s="42"/>
       <c r="Q301" s="40"/>
     </row>
     <row r="302" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A302" s="45"/>
+      <c r="A302" s="44"/>
       <c r="B302" s="37"/>
       <c r="C302" s="37"/>
       <c r="D302" s="38"/>
@@ -11222,13 +10804,13 @@
       <c r="K302" s="40"/>
       <c r="L302" s="40"/>
       <c r="M302" s="40"/>
-      <c r="N302" s="43"/>
+      <c r="N302" s="42"/>
       <c r="O302" s="40"/>
-      <c r="P302" s="43"/>
+      <c r="P302" s="42"/>
       <c r="Q302" s="40"/>
     </row>
     <row r="303" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A303" s="45"/>
+      <c r="A303" s="44"/>
       <c r="B303" s="37"/>
       <c r="C303" s="37"/>
       <c r="D303" s="38"/>
@@ -11241,13 +10823,13 @@
       <c r="K303" s="40"/>
       <c r="L303" s="40"/>
       <c r="M303" s="40"/>
-      <c r="N303" s="43"/>
+      <c r="N303" s="42"/>
       <c r="O303" s="40"/>
-      <c r="P303" s="43"/>
+      <c r="P303" s="42"/>
       <c r="Q303" s="40"/>
     </row>
     <row r="304" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A304" s="45"/>
+      <c r="A304" s="44"/>
       <c r="B304" s="37"/>
       <c r="C304" s="37"/>
       <c r="D304" s="38"/>
@@ -11260,13 +10842,13 @@
       <c r="K304" s="40"/>
       <c r="L304" s="40"/>
       <c r="M304" s="40"/>
-      <c r="N304" s="43"/>
+      <c r="N304" s="42"/>
       <c r="O304" s="40"/>
-      <c r="P304" s="43"/>
+      <c r="P304" s="42"/>
       <c r="Q304" s="40"/>
     </row>
     <row r="305" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A305" s="45"/>
+      <c r="A305" s="44"/>
       <c r="B305" s="37"/>
       <c r="C305" s="37"/>
       <c r="D305" s="38"/>
@@ -11279,13 +10861,13 @@
       <c r="K305" s="40"/>
       <c r="L305" s="40"/>
       <c r="M305" s="40"/>
-      <c r="N305" s="43"/>
+      <c r="N305" s="42"/>
       <c r="O305" s="40"/>
-      <c r="P305" s="43"/>
+      <c r="P305" s="42"/>
       <c r="Q305" s="40"/>
     </row>
-    <row r="306" ht="13" customHeight="1" spans="1:17">
-      <c r="A306" s="45"/>
+    <row r="306" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A306" s="44"/>
       <c r="B306" s="37"/>
       <c r="C306" s="37"/>
       <c r="D306" s="38"/>
@@ -11298,13 +10880,13 @@
       <c r="K306" s="40"/>
       <c r="L306" s="40"/>
       <c r="M306" s="40"/>
-      <c r="N306" s="43"/>
+      <c r="N306" s="42"/>
       <c r="O306" s="40"/>
-      <c r="P306" s="43"/>
+      <c r="P306" s="42"/>
       <c r="Q306" s="40"/>
     </row>
-    <row r="307" ht="67" customHeight="1" spans="1:17">
-      <c r="A307" s="45"/>
+    <row r="307" ht="13" customHeight="1" spans="1:17">
+      <c r="A307" s="44"/>
       <c r="B307" s="37"/>
       <c r="C307" s="37"/>
       <c r="D307" s="38"/>
@@ -11317,13 +10899,13 @@
       <c r="K307" s="40"/>
       <c r="L307" s="40"/>
       <c r="M307" s="40"/>
-      <c r="N307" s="43"/>
+      <c r="N307" s="42"/>
       <c r="O307" s="40"/>
-      <c r="P307" s="43"/>
+      <c r="P307" s="42"/>
       <c r="Q307" s="40"/>
     </row>
-    <row r="308" ht="56" customHeight="1" spans="1:17">
-      <c r="A308" s="45"/>
+    <row r="308" ht="67" customHeight="1" spans="1:17">
+      <c r="A308" s="44"/>
       <c r="B308" s="37"/>
       <c r="C308" s="37"/>
       <c r="D308" s="38"/>
@@ -11336,13 +10918,13 @@
       <c r="K308" s="40"/>
       <c r="L308" s="40"/>
       <c r="M308" s="40"/>
-      <c r="N308" s="43"/>
+      <c r="N308" s="42"/>
       <c r="O308" s="40"/>
-      <c r="P308" s="43"/>
+      <c r="P308" s="42"/>
       <c r="Q308" s="40"/>
     </row>
     <row r="309" ht="56" customHeight="1" spans="1:17">
-      <c r="A309" s="45"/>
+      <c r="A309" s="44"/>
       <c r="B309" s="37"/>
       <c r="C309" s="37"/>
       <c r="D309" s="38"/>
@@ -11355,13 +10937,13 @@
       <c r="K309" s="40"/>
       <c r="L309" s="40"/>
       <c r="M309" s="40"/>
-      <c r="N309" s="43"/>
+      <c r="N309" s="42"/>
       <c r="O309" s="40"/>
-      <c r="P309" s="43"/>
+      <c r="P309" s="42"/>
       <c r="Q309" s="40"/>
     </row>
     <row r="310" ht="56" customHeight="1" spans="1:17">
-      <c r="A310" s="45"/>
+      <c r="A310" s="44"/>
       <c r="B310" s="37"/>
       <c r="C310" s="37"/>
       <c r="D310" s="38"/>
@@ -11374,13 +10956,13 @@
       <c r="K310" s="40"/>
       <c r="L310" s="40"/>
       <c r="M310" s="40"/>
-      <c r="N310" s="43"/>
+      <c r="N310" s="42"/>
       <c r="O310" s="40"/>
-      <c r="P310" s="43"/>
+      <c r="P310" s="42"/>
       <c r="Q310" s="40"/>
     </row>
     <row r="311" ht="56" customHeight="1" spans="1:17">
-      <c r="A311" s="45"/>
+      <c r="A311" s="44"/>
       <c r="B311" s="37"/>
       <c r="C311" s="37"/>
       <c r="D311" s="38"/>
@@ -11393,13 +10975,13 @@
       <c r="K311" s="40"/>
       <c r="L311" s="40"/>
       <c r="M311" s="40"/>
-      <c r="N311" s="43"/>
+      <c r="N311" s="42"/>
       <c r="O311" s="40"/>
-      <c r="P311" s="43"/>
+      <c r="P311" s="42"/>
       <c r="Q311" s="40"/>
     </row>
     <row r="312" ht="56" customHeight="1" spans="1:17">
-      <c r="A312" s="45"/>
+      <c r="A312" s="44"/>
       <c r="B312" s="37"/>
       <c r="C312" s="37"/>
       <c r="D312" s="38"/>
@@ -11412,13 +10994,13 @@
       <c r="K312" s="40"/>
       <c r="L312" s="40"/>
       <c r="M312" s="40"/>
-      <c r="N312" s="43"/>
+      <c r="N312" s="42"/>
       <c r="O312" s="40"/>
-      <c r="P312" s="43"/>
+      <c r="P312" s="42"/>
       <c r="Q312" s="40"/>
     </row>
     <row r="313" ht="56" customHeight="1" spans="1:17">
-      <c r="A313" s="45"/>
+      <c r="A313" s="44"/>
       <c r="B313" s="37"/>
       <c r="C313" s="37"/>
       <c r="D313" s="38"/>
@@ -11431,13 +11013,13 @@
       <c r="K313" s="40"/>
       <c r="L313" s="40"/>
       <c r="M313" s="40"/>
-      <c r="N313" s="43"/>
+      <c r="N313" s="42"/>
       <c r="O313" s="40"/>
-      <c r="P313" s="43"/>
+      <c r="P313" s="42"/>
       <c r="Q313" s="40"/>
     </row>
     <row r="314" ht="56" customHeight="1" spans="1:17">
-      <c r="A314" s="45"/>
+      <c r="A314" s="44"/>
       <c r="B314" s="37"/>
       <c r="C314" s="37"/>
       <c r="D314" s="38"/>
@@ -11450,13 +11032,13 @@
       <c r="K314" s="40"/>
       <c r="L314" s="40"/>
       <c r="M314" s="40"/>
-      <c r="N314" s="43"/>
+      <c r="N314" s="42"/>
       <c r="O314" s="40"/>
-      <c r="P314" s="43"/>
+      <c r="P314" s="42"/>
       <c r="Q314" s="40"/>
     </row>
     <row r="315" ht="56" customHeight="1" spans="1:17">
-      <c r="A315" s="45"/>
+      <c r="A315" s="44"/>
       <c r="B315" s="37"/>
       <c r="C315" s="37"/>
       <c r="D315" s="38"/>
@@ -11469,13 +11051,13 @@
       <c r="K315" s="40"/>
       <c r="L315" s="40"/>
       <c r="M315" s="40"/>
-      <c r="N315" s="43"/>
+      <c r="N315" s="42"/>
       <c r="O315" s="40"/>
-      <c r="P315" s="43"/>
+      <c r="P315" s="42"/>
       <c r="Q315" s="40"/>
     </row>
     <row r="316" ht="56" customHeight="1" spans="1:17">
-      <c r="A316" s="45"/>
+      <c r="A316" s="44"/>
       <c r="B316" s="37"/>
       <c r="C316" s="37"/>
       <c r="D316" s="38"/>
@@ -11488,13 +11070,13 @@
       <c r="K316" s="40"/>
       <c r="L316" s="40"/>
       <c r="M316" s="40"/>
-      <c r="N316" s="43"/>
+      <c r="N316" s="42"/>
       <c r="O316" s="40"/>
-      <c r="P316" s="43"/>
+      <c r="P316" s="42"/>
       <c r="Q316" s="40"/>
     </row>
     <row r="317" ht="56" customHeight="1" spans="1:17">
-      <c r="A317" s="45"/>
+      <c r="A317" s="44"/>
       <c r="B317" s="37"/>
       <c r="C317" s="37"/>
       <c r="D317" s="38"/>
@@ -11507,13 +11089,13 @@
       <c r="K317" s="40"/>
       <c r="L317" s="40"/>
       <c r="M317" s="40"/>
-      <c r="N317" s="43"/>
+      <c r="N317" s="42"/>
       <c r="O317" s="40"/>
-      <c r="P317" s="43"/>
+      <c r="P317" s="42"/>
       <c r="Q317" s="40"/>
     </row>
     <row r="318" ht="56" customHeight="1" spans="1:17">
-      <c r="A318" s="45"/>
+      <c r="A318" s="44"/>
       <c r="B318" s="37"/>
       <c r="C318" s="37"/>
       <c r="D318" s="38"/>
@@ -11526,13 +11108,13 @@
       <c r="K318" s="40"/>
       <c r="L318" s="40"/>
       <c r="M318" s="40"/>
-      <c r="N318" s="43"/>
+      <c r="N318" s="42"/>
       <c r="O318" s="40"/>
-      <c r="P318" s="43"/>
+      <c r="P318" s="42"/>
       <c r="Q318" s="40"/>
     </row>
     <row r="319" ht="56" customHeight="1" spans="1:17">
-      <c r="A319" s="45"/>
+      <c r="A319" s="44"/>
       <c r="B319" s="37"/>
       <c r="C319" s="37"/>
       <c r="D319" s="38"/>
@@ -11545,13 +11127,13 @@
       <c r="K319" s="40"/>
       <c r="L319" s="40"/>
       <c r="M319" s="40"/>
-      <c r="N319" s="43"/>
+      <c r="N319" s="42"/>
       <c r="O319" s="40"/>
-      <c r="P319" s="43"/>
+      <c r="P319" s="42"/>
       <c r="Q319" s="40"/>
     </row>
     <row r="320" ht="56" customHeight="1" spans="1:17">
-      <c r="A320" s="45"/>
+      <c r="A320" s="44"/>
       <c r="B320" s="37"/>
       <c r="C320" s="37"/>
       <c r="D320" s="38"/>
@@ -11564,13 +11146,13 @@
       <c r="K320" s="40"/>
       <c r="L320" s="40"/>
       <c r="M320" s="40"/>
-      <c r="N320" s="43"/>
+      <c r="N320" s="42"/>
       <c r="O320" s="40"/>
-      <c r="P320" s="43"/>
+      <c r="P320" s="42"/>
       <c r="Q320" s="40"/>
     </row>
     <row r="321" ht="56" customHeight="1" spans="1:17">
-      <c r="A321" s="45"/>
+      <c r="A321" s="44"/>
       <c r="B321" s="37"/>
       <c r="C321" s="37"/>
       <c r="D321" s="38"/>
@@ -11583,13 +11165,13 @@
       <c r="K321" s="40"/>
       <c r="L321" s="40"/>
       <c r="M321" s="40"/>
-      <c r="N321" s="43"/>
+      <c r="N321" s="42"/>
       <c r="O321" s="40"/>
-      <c r="P321" s="43"/>
+      <c r="P321" s="42"/>
       <c r="Q321" s="40"/>
     </row>
     <row r="322" ht="56" customHeight="1" spans="1:17">
-      <c r="A322" s="45"/>
+      <c r="A322" s="44"/>
       <c r="B322" s="37"/>
       <c r="C322" s="37"/>
       <c r="D322" s="38"/>
@@ -11602,13 +11184,13 @@
       <c r="K322" s="40"/>
       <c r="L322" s="40"/>
       <c r="M322" s="40"/>
-      <c r="N322" s="43"/>
+      <c r="N322" s="42"/>
       <c r="O322" s="40"/>
-      <c r="P322" s="43"/>
+      <c r="P322" s="42"/>
       <c r="Q322" s="40"/>
     </row>
     <row r="323" ht="56" customHeight="1" spans="1:17">
-      <c r="A323" s="45"/>
+      <c r="A323" s="44"/>
       <c r="B323" s="37"/>
       <c r="C323" s="37"/>
       <c r="D323" s="38"/>
@@ -11621,13 +11203,13 @@
       <c r="K323" s="40"/>
       <c r="L323" s="40"/>
       <c r="M323" s="40"/>
-      <c r="N323" s="43"/>
+      <c r="N323" s="42"/>
       <c r="O323" s="40"/>
-      <c r="P323" s="43"/>
+      <c r="P323" s="42"/>
       <c r="Q323" s="40"/>
     </row>
     <row r="324" ht="56" customHeight="1" spans="1:17">
-      <c r="A324" s="45"/>
+      <c r="A324" s="44"/>
       <c r="B324" s="37"/>
       <c r="C324" s="37"/>
       <c r="D324" s="38"/>
@@ -11640,13 +11222,13 @@
       <c r="K324" s="40"/>
       <c r="L324" s="40"/>
       <c r="M324" s="40"/>
-      <c r="N324" s="43"/>
+      <c r="N324" s="42"/>
       <c r="O324" s="40"/>
-      <c r="P324" s="43"/>
+      <c r="P324" s="42"/>
       <c r="Q324" s="40"/>
     </row>
     <row r="325" ht="56" customHeight="1" spans="1:17">
-      <c r="A325" s="45"/>
+      <c r="A325" s="44"/>
       <c r="B325" s="37"/>
       <c r="C325" s="37"/>
       <c r="D325" s="38"/>
@@ -11659,13 +11241,13 @@
       <c r="K325" s="40"/>
       <c r="L325" s="40"/>
       <c r="M325" s="40"/>
-      <c r="N325" s="43"/>
+      <c r="N325" s="42"/>
       <c r="O325" s="40"/>
-      <c r="P325" s="43"/>
+      <c r="P325" s="42"/>
       <c r="Q325" s="40"/>
     </row>
     <row r="326" ht="56" customHeight="1" spans="1:17">
-      <c r="A326" s="45"/>
+      <c r="A326" s="44"/>
       <c r="B326" s="37"/>
       <c r="C326" s="37"/>
       <c r="D326" s="38"/>
@@ -11678,13 +11260,13 @@
       <c r="K326" s="40"/>
       <c r="L326" s="40"/>
       <c r="M326" s="40"/>
-      <c r="N326" s="43"/>
+      <c r="N326" s="42"/>
       <c r="O326" s="40"/>
-      <c r="P326" s="43"/>
+      <c r="P326" s="42"/>
       <c r="Q326" s="40"/>
     </row>
     <row r="327" ht="56" customHeight="1" spans="1:17">
-      <c r="A327" s="45"/>
+      <c r="A327" s="44"/>
       <c r="B327" s="37"/>
       <c r="C327" s="37"/>
       <c r="D327" s="38"/>
@@ -11697,13 +11279,13 @@
       <c r="K327" s="40"/>
       <c r="L327" s="40"/>
       <c r="M327" s="40"/>
-      <c r="N327" s="43"/>
+      <c r="N327" s="42"/>
       <c r="O327" s="40"/>
-      <c r="P327" s="43"/>
+      <c r="P327" s="42"/>
       <c r="Q327" s="40"/>
     </row>
-    <row r="328" ht="14" customHeight="1" spans="1:17">
-      <c r="A328" s="45"/>
+    <row r="328" ht="56" customHeight="1" spans="1:17">
+      <c r="A328" s="44"/>
       <c r="B328" s="37"/>
       <c r="C328" s="37"/>
       <c r="D328" s="38"/>
@@ -11716,13 +11298,13 @@
       <c r="K328" s="40"/>
       <c r="L328" s="40"/>
       <c r="M328" s="40"/>
-      <c r="N328" s="43"/>
+      <c r="N328" s="42"/>
       <c r="O328" s="40"/>
-      <c r="P328" s="43"/>
+      <c r="P328" s="42"/>
       <c r="Q328" s="40"/>
     </row>
-    <row r="329" ht="40" customHeight="1" spans="1:17">
-      <c r="A329" s="45"/>
+    <row r="329" ht="14" customHeight="1" spans="1:17">
+      <c r="A329" s="44"/>
       <c r="B329" s="37"/>
       <c r="C329" s="37"/>
       <c r="D329" s="38"/>
@@ -11735,13 +11317,13 @@
       <c r="K329" s="40"/>
       <c r="L329" s="40"/>
       <c r="M329" s="40"/>
-      <c r="N329" s="43"/>
+      <c r="N329" s="42"/>
       <c r="O329" s="40"/>
-      <c r="P329" s="43"/>
+      <c r="P329" s="42"/>
       <c r="Q329" s="40"/>
     </row>
     <row r="330" ht="40" customHeight="1" spans="1:17">
-      <c r="A330" s="45"/>
+      <c r="A330" s="44"/>
       <c r="B330" s="37"/>
       <c r="C330" s="37"/>
       <c r="D330" s="38"/>
@@ -11754,13 +11336,13 @@
       <c r="K330" s="40"/>
       <c r="L330" s="40"/>
       <c r="M330" s="40"/>
-      <c r="N330" s="43"/>
+      <c r="N330" s="42"/>
       <c r="O330" s="40"/>
-      <c r="P330" s="43"/>
+      <c r="P330" s="42"/>
       <c r="Q330" s="40"/>
     </row>
     <row r="331" ht="40" customHeight="1" spans="1:17">
-      <c r="A331" s="45"/>
+      <c r="A331" s="44"/>
       <c r="B331" s="37"/>
       <c r="C331" s="37"/>
       <c r="D331" s="38"/>
@@ -11773,13 +11355,13 @@
       <c r="K331" s="40"/>
       <c r="L331" s="40"/>
       <c r="M331" s="40"/>
-      <c r="N331" s="43"/>
+      <c r="N331" s="42"/>
       <c r="O331" s="40"/>
-      <c r="P331" s="43"/>
+      <c r="P331" s="42"/>
       <c r="Q331" s="40"/>
     </row>
     <row r="332" ht="40" customHeight="1" spans="1:17">
-      <c r="A332" s="45"/>
+      <c r="A332" s="44"/>
       <c r="B332" s="37"/>
       <c r="C332" s="37"/>
       <c r="D332" s="38"/>
@@ -11792,13 +11374,13 @@
       <c r="K332" s="40"/>
       <c r="L332" s="40"/>
       <c r="M332" s="40"/>
-      <c r="N332" s="43"/>
+      <c r="N332" s="42"/>
       <c r="O332" s="40"/>
-      <c r="P332" s="43"/>
+      <c r="P332" s="42"/>
       <c r="Q332" s="40"/>
     </row>
     <row r="333" ht="40" customHeight="1" spans="1:17">
-      <c r="A333" s="45"/>
+      <c r="A333" s="44"/>
       <c r="B333" s="37"/>
       <c r="C333" s="37"/>
       <c r="D333" s="38"/>
@@ -11811,13 +11393,13 @@
       <c r="K333" s="40"/>
       <c r="L333" s="40"/>
       <c r="M333" s="40"/>
-      <c r="N333" s="43"/>
+      <c r="N333" s="42"/>
       <c r="O333" s="40"/>
-      <c r="P333" s="43"/>
+      <c r="P333" s="42"/>
       <c r="Q333" s="40"/>
     </row>
-    <row r="334" ht="15" customHeight="1" spans="1:17">
-      <c r="A334" s="45"/>
+    <row r="334" ht="40" customHeight="1" spans="1:17">
+      <c r="A334" s="44"/>
       <c r="B334" s="37"/>
       <c r="C334" s="37"/>
       <c r="D334" s="38"/>
@@ -11830,13 +11412,13 @@
       <c r="K334" s="40"/>
       <c r="L334" s="40"/>
       <c r="M334" s="40"/>
-      <c r="N334" s="43"/>
+      <c r="N334" s="42"/>
       <c r="O334" s="40"/>
-      <c r="P334" s="43"/>
+      <c r="P334" s="42"/>
       <c r="Q334" s="40"/>
     </row>
-    <row r="335" ht="45" customHeight="1" spans="1:17">
-      <c r="A335" s="45"/>
+    <row r="335" ht="15" customHeight="1" spans="1:17">
+      <c r="A335" s="44"/>
       <c r="B335" s="37"/>
       <c r="C335" s="37"/>
       <c r="D335" s="38"/>
@@ -11849,13 +11431,13 @@
       <c r="K335" s="40"/>
       <c r="L335" s="40"/>
       <c r="M335" s="40"/>
-      <c r="N335" s="43"/>
+      <c r="N335" s="42"/>
       <c r="O335" s="40"/>
-      <c r="P335" s="43"/>
+      <c r="P335" s="42"/>
       <c r="Q335" s="40"/>
     </row>
     <row r="336" ht="45" customHeight="1" spans="1:17">
-      <c r="A336" s="45"/>
+      <c r="A336" s="44"/>
       <c r="B336" s="37"/>
       <c r="C336" s="37"/>
       <c r="D336" s="38"/>
@@ -11868,13 +11450,13 @@
       <c r="K336" s="40"/>
       <c r="L336" s="40"/>
       <c r="M336" s="40"/>
-      <c r="N336" s="43"/>
+      <c r="N336" s="42"/>
       <c r="O336" s="40"/>
-      <c r="P336" s="43"/>
+      <c r="P336" s="42"/>
       <c r="Q336" s="40"/>
     </row>
     <row r="337" ht="45" customHeight="1" spans="1:17">
-      <c r="A337" s="45"/>
+      <c r="A337" s="44"/>
       <c r="B337" s="37"/>
       <c r="C337" s="37"/>
       <c r="D337" s="38"/>
@@ -11887,13 +11469,13 @@
       <c r="K337" s="40"/>
       <c r="L337" s="40"/>
       <c r="M337" s="40"/>
-      <c r="N337" s="43"/>
+      <c r="N337" s="42"/>
       <c r="O337" s="40"/>
-      <c r="P337" s="43"/>
+      <c r="P337" s="42"/>
       <c r="Q337" s="40"/>
     </row>
     <row r="338" ht="45" customHeight="1" spans="1:17">
-      <c r="A338" s="45"/>
+      <c r="A338" s="44"/>
       <c r="B338" s="37"/>
       <c r="C338" s="37"/>
       <c r="D338" s="38"/>
@@ -11906,13 +11488,13 @@
       <c r="K338" s="40"/>
       <c r="L338" s="40"/>
       <c r="M338" s="40"/>
-      <c r="N338" s="43"/>
+      <c r="N338" s="42"/>
       <c r="O338" s="40"/>
-      <c r="P338" s="43"/>
+      <c r="P338" s="42"/>
       <c r="Q338" s="40"/>
     </row>
     <row r="339" ht="45" customHeight="1" spans="1:17">
-      <c r="A339" s="45"/>
+      <c r="A339" s="44"/>
       <c r="B339" s="37"/>
       <c r="C339" s="37"/>
       <c r="D339" s="38"/>
@@ -11925,13 +11507,13 @@
       <c r="K339" s="40"/>
       <c r="L339" s="40"/>
       <c r="M339" s="40"/>
-      <c r="N339" s="43"/>
+      <c r="N339" s="42"/>
       <c r="O339" s="40"/>
-      <c r="P339" s="43"/>
+      <c r="P339" s="42"/>
       <c r="Q339" s="40"/>
     </row>
     <row r="340" ht="45" customHeight="1" spans="1:17">
-      <c r="A340" s="45"/>
+      <c r="A340" s="44"/>
       <c r="B340" s="37"/>
       <c r="C340" s="37"/>
       <c r="D340" s="38"/>
@@ -11944,13 +11526,13 @@
       <c r="K340" s="40"/>
       <c r="L340" s="40"/>
       <c r="M340" s="40"/>
-      <c r="N340" s="43"/>
+      <c r="N340" s="42"/>
       <c r="O340" s="40"/>
-      <c r="P340" s="43"/>
+      <c r="P340" s="42"/>
       <c r="Q340" s="40"/>
     </row>
     <row r="341" ht="45" customHeight="1" spans="1:17">
-      <c r="A341" s="45"/>
+      <c r="A341" s="44"/>
       <c r="B341" s="37"/>
       <c r="C341" s="37"/>
       <c r="D341" s="38"/>
@@ -11963,13 +11545,13 @@
       <c r="K341" s="40"/>
       <c r="L341" s="40"/>
       <c r="M341" s="40"/>
-      <c r="N341" s="43"/>
+      <c r="N341" s="42"/>
       <c r="O341" s="40"/>
-      <c r="P341" s="43"/>
+      <c r="P341" s="42"/>
       <c r="Q341" s="40"/>
     </row>
     <row r="342" ht="45" customHeight="1" spans="1:17">
-      <c r="A342" s="45"/>
+      <c r="A342" s="44"/>
       <c r="B342" s="37"/>
       <c r="C342" s="37"/>
       <c r="D342" s="38"/>
@@ -11982,13 +11564,13 @@
       <c r="K342" s="40"/>
       <c r="L342" s="40"/>
       <c r="M342" s="40"/>
-      <c r="N342" s="43"/>
+      <c r="N342" s="42"/>
       <c r="O342" s="40"/>
-      <c r="P342" s="43"/>
+      <c r="P342" s="42"/>
       <c r="Q342" s="40"/>
     </row>
-    <row r="343" ht="10" customHeight="1" spans="1:17">
-      <c r="A343" s="45"/>
+    <row r="343" ht="45" customHeight="1" spans="1:17">
+      <c r="A343" s="44"/>
       <c r="B343" s="37"/>
       <c r="C343" s="37"/>
       <c r="D343" s="38"/>
@@ -12001,13 +11583,13 @@
       <c r="K343" s="40"/>
       <c r="L343" s="40"/>
       <c r="M343" s="40"/>
-      <c r="N343" s="43"/>
+      <c r="N343" s="42"/>
       <c r="O343" s="40"/>
-      <c r="P343" s="43"/>
+      <c r="P343" s="42"/>
       <c r="Q343" s="40"/>
     </row>
-    <row r="344" ht="44" customHeight="1" spans="1:17">
-      <c r="A344" s="45"/>
+    <row r="344" ht="10" customHeight="1" spans="1:17">
+      <c r="A344" s="44"/>
       <c r="B344" s="37"/>
       <c r="C344" s="37"/>
       <c r="D344" s="38"/>
@@ -12020,13 +11602,13 @@
       <c r="K344" s="40"/>
       <c r="L344" s="40"/>
       <c r="M344" s="40"/>
-      <c r="N344" s="43"/>
+      <c r="N344" s="42"/>
       <c r="O344" s="40"/>
-      <c r="P344" s="43"/>
+      <c r="P344" s="42"/>
       <c r="Q344" s="40"/>
     </row>
     <row r="345" ht="44" customHeight="1" spans="1:17">
-      <c r="A345" s="45"/>
+      <c r="A345" s="44"/>
       <c r="B345" s="37"/>
       <c r="C345" s="37"/>
       <c r="D345" s="38"/>
@@ -12039,13 +11621,13 @@
       <c r="K345" s="40"/>
       <c r="L345" s="40"/>
       <c r="M345" s="40"/>
-      <c r="N345" s="43"/>
+      <c r="N345" s="42"/>
       <c r="O345" s="40"/>
-      <c r="P345" s="43"/>
+      <c r="P345" s="42"/>
       <c r="Q345" s="40"/>
     </row>
     <row r="346" ht="44" customHeight="1" spans="1:17">
-      <c r="A346" s="45"/>
+      <c r="A346" s="44"/>
       <c r="B346" s="37"/>
       <c r="C346" s="37"/>
       <c r="D346" s="38"/>
@@ -12058,13 +11640,13 @@
       <c r="K346" s="40"/>
       <c r="L346" s="40"/>
       <c r="M346" s="40"/>
-      <c r="N346" s="43"/>
+      <c r="N346" s="42"/>
       <c r="O346" s="40"/>
-      <c r="P346" s="43"/>
+      <c r="P346" s="42"/>
       <c r="Q346" s="40"/>
     </row>
     <row r="347" ht="44" customHeight="1" spans="1:17">
-      <c r="A347" s="45"/>
+      <c r="A347" s="44"/>
       <c r="B347" s="37"/>
       <c r="C347" s="37"/>
       <c r="D347" s="38"/>
@@ -12077,13 +11659,13 @@
       <c r="K347" s="40"/>
       <c r="L347" s="40"/>
       <c r="M347" s="40"/>
-      <c r="N347" s="43"/>
+      <c r="N347" s="42"/>
       <c r="O347" s="40"/>
-      <c r="P347" s="43"/>
+      <c r="P347" s="42"/>
       <c r="Q347" s="40"/>
     </row>
     <row r="348" ht="44" customHeight="1" spans="1:17">
-      <c r="A348" s="45"/>
+      <c r="A348" s="44"/>
       <c r="B348" s="37"/>
       <c r="C348" s="37"/>
       <c r="D348" s="38"/>
@@ -12096,13 +11678,13 @@
       <c r="K348" s="40"/>
       <c r="L348" s="40"/>
       <c r="M348" s="40"/>
-      <c r="N348" s="43"/>
+      <c r="N348" s="42"/>
       <c r="O348" s="40"/>
-      <c r="P348" s="43"/>
+      <c r="P348" s="42"/>
       <c r="Q348" s="40"/>
     </row>
     <row r="349" ht="44" customHeight="1" spans="1:17">
-      <c r="A349" s="45"/>
+      <c r="A349" s="44"/>
       <c r="B349" s="37"/>
       <c r="C349" s="37"/>
       <c r="D349" s="38"/>
@@ -12115,13 +11697,13 @@
       <c r="K349" s="40"/>
       <c r="L349" s="40"/>
       <c r="M349" s="40"/>
-      <c r="N349" s="43"/>
+      <c r="N349" s="42"/>
       <c r="O349" s="40"/>
-      <c r="P349" s="43"/>
+      <c r="P349" s="42"/>
       <c r="Q349" s="40"/>
     </row>
     <row r="350" ht="44" customHeight="1" spans="1:17">
-      <c r="A350" s="45"/>
+      <c r="A350" s="44"/>
       <c r="B350" s="37"/>
       <c r="C350" s="37"/>
       <c r="D350" s="38"/>
@@ -12134,13 +11716,13 @@
       <c r="K350" s="40"/>
       <c r="L350" s="40"/>
       <c r="M350" s="40"/>
-      <c r="N350" s="43"/>
+      <c r="N350" s="42"/>
       <c r="O350" s="40"/>
-      <c r="P350" s="43"/>
+      <c r="P350" s="42"/>
       <c r="Q350" s="40"/>
     </row>
     <row r="351" ht="44" customHeight="1" spans="1:17">
-      <c r="A351" s="45"/>
+      <c r="A351" s="44"/>
       <c r="B351" s="37"/>
       <c r="C351" s="37"/>
       <c r="D351" s="38"/>
@@ -12153,13 +11735,13 @@
       <c r="K351" s="40"/>
       <c r="L351" s="40"/>
       <c r="M351" s="40"/>
-      <c r="N351" s="43"/>
+      <c r="N351" s="42"/>
       <c r="O351" s="40"/>
-      <c r="P351" s="43"/>
+      <c r="P351" s="42"/>
       <c r="Q351" s="40"/>
     </row>
     <row r="352" ht="44" customHeight="1" spans="1:17">
-      <c r="A352" s="45"/>
+      <c r="A352" s="44"/>
       <c r="B352" s="37"/>
       <c r="C352" s="37"/>
       <c r="D352" s="38"/>
@@ -12167,18 +11749,18 @@
       <c r="F352" s="39"/>
       <c r="G352" s="37"/>
       <c r="H352" s="40"/>
-      <c r="I352" s="26"/>
+      <c r="I352" s="40"/>
       <c r="J352" s="40"/>
       <c r="K352" s="40"/>
       <c r="L352" s="40"/>
       <c r="M352" s="40"/>
-      <c r="N352" s="43"/>
+      <c r="N352" s="42"/>
       <c r="O352" s="40"/>
-      <c r="P352" s="43"/>
+      <c r="P352" s="42"/>
       <c r="Q352" s="40"/>
     </row>
     <row r="353" ht="44" customHeight="1" spans="1:17">
-      <c r="A353" s="45"/>
+      <c r="A353" s="44"/>
       <c r="B353" s="37"/>
       <c r="C353" s="37"/>
       <c r="D353" s="38"/>
@@ -12186,18 +11768,18 @@
       <c r="F353" s="39"/>
       <c r="G353" s="37"/>
       <c r="H353" s="40"/>
-      <c r="I353" s="40"/>
+      <c r="I353" s="26"/>
       <c r="J353" s="40"/>
       <c r="K353" s="40"/>
       <c r="L353" s="40"/>
       <c r="M353" s="40"/>
-      <c r="N353" s="43"/>
+      <c r="N353" s="42"/>
       <c r="O353" s="40"/>
-      <c r="P353" s="43"/>
+      <c r="P353" s="42"/>
       <c r="Q353" s="40"/>
     </row>
     <row r="354" ht="44" customHeight="1" spans="1:17">
-      <c r="A354" s="45"/>
+      <c r="A354" s="44"/>
       <c r="B354" s="37"/>
       <c r="C354" s="37"/>
       <c r="D354" s="38"/>
@@ -12210,13 +11792,13 @@
       <c r="K354" s="40"/>
       <c r="L354" s="40"/>
       <c r="M354" s="40"/>
-      <c r="N354" s="43"/>
+      <c r="N354" s="42"/>
       <c r="O354" s="40"/>
-      <c r="P354" s="43"/>
+      <c r="P354" s="42"/>
       <c r="Q354" s="40"/>
     </row>
     <row r="355" ht="44" customHeight="1" spans="1:17">
-      <c r="A355" s="45"/>
+      <c r="A355" s="44"/>
       <c r="B355" s="37"/>
       <c r="C355" s="37"/>
       <c r="D355" s="38"/>
@@ -12229,13 +11811,13 @@
       <c r="K355" s="40"/>
       <c r="L355" s="40"/>
       <c r="M355" s="40"/>
-      <c r="N355" s="43"/>
+      <c r="N355" s="42"/>
       <c r="O355" s="40"/>
-      <c r="P355" s="43"/>
+      <c r="P355" s="42"/>
       <c r="Q355" s="40"/>
     </row>
     <row r="356" ht="44" customHeight="1" spans="1:17">
-      <c r="A356" s="45"/>
+      <c r="A356" s="44"/>
       <c r="B356" s="37"/>
       <c r="C356" s="37"/>
       <c r="D356" s="38"/>
@@ -12248,13 +11830,13 @@
       <c r="K356" s="40"/>
       <c r="L356" s="40"/>
       <c r="M356" s="40"/>
-      <c r="N356" s="43"/>
+      <c r="N356" s="42"/>
       <c r="O356" s="40"/>
-      <c r="P356" s="43"/>
+      <c r="P356" s="42"/>
       <c r="Q356" s="40"/>
     </row>
     <row r="357" ht="44" customHeight="1" spans="1:17">
-      <c r="A357" s="45"/>
+      <c r="A357" s="44"/>
       <c r="B357" s="37"/>
       <c r="C357" s="37"/>
       <c r="D357" s="38"/>
@@ -12267,13 +11849,13 @@
       <c r="K357" s="40"/>
       <c r="L357" s="40"/>
       <c r="M357" s="40"/>
-      <c r="N357" s="43"/>
+      <c r="N357" s="42"/>
       <c r="O357" s="40"/>
-      <c r="P357" s="43"/>
+      <c r="P357" s="42"/>
       <c r="Q357" s="40"/>
     </row>
     <row r="358" ht="44" customHeight="1" spans="1:17">
-      <c r="A358" s="45"/>
+      <c r="A358" s="44"/>
       <c r="B358" s="37"/>
       <c r="C358" s="37"/>
       <c r="D358" s="38"/>
@@ -12286,13 +11868,13 @@
       <c r="K358" s="40"/>
       <c r="L358" s="40"/>
       <c r="M358" s="40"/>
-      <c r="N358" s="43"/>
+      <c r="N358" s="42"/>
       <c r="O358" s="40"/>
-      <c r="P358" s="43"/>
+      <c r="P358" s="42"/>
       <c r="Q358" s="40"/>
     </row>
     <row r="359" ht="44" customHeight="1" spans="1:17">
-      <c r="A359" s="45"/>
+      <c r="A359" s="44"/>
       <c r="B359" s="37"/>
       <c r="C359" s="37"/>
       <c r="D359" s="38"/>
@@ -12305,13 +11887,13 @@
       <c r="K359" s="40"/>
       <c r="L359" s="40"/>
       <c r="M359" s="40"/>
-      <c r="N359" s="43"/>
+      <c r="N359" s="42"/>
       <c r="O359" s="40"/>
-      <c r="P359" s="43"/>
+      <c r="P359" s="42"/>
       <c r="Q359" s="40"/>
     </row>
     <row r="360" ht="44" customHeight="1" spans="1:17">
-      <c r="A360" s="45"/>
+      <c r="A360" s="44"/>
       <c r="B360" s="37"/>
       <c r="C360" s="37"/>
       <c r="D360" s="38"/>
@@ -12324,13 +11906,13 @@
       <c r="K360" s="40"/>
       <c r="L360" s="40"/>
       <c r="M360" s="40"/>
-      <c r="N360" s="43"/>
+      <c r="N360" s="42"/>
       <c r="O360" s="40"/>
-      <c r="P360" s="43"/>
+      <c r="P360" s="42"/>
       <c r="Q360" s="40"/>
     </row>
     <row r="361" ht="44" customHeight="1" spans="1:17">
-      <c r="A361" s="45"/>
+      <c r="A361" s="44"/>
       <c r="B361" s="37"/>
       <c r="C361" s="37"/>
       <c r="D361" s="38"/>
@@ -12343,13 +11925,13 @@
       <c r="K361" s="40"/>
       <c r="L361" s="40"/>
       <c r="M361" s="40"/>
-      <c r="N361" s="43"/>
+      <c r="N361" s="42"/>
       <c r="O361" s="40"/>
-      <c r="P361" s="43"/>
+      <c r="P361" s="42"/>
       <c r="Q361" s="40"/>
     </row>
     <row r="362" ht="44" customHeight="1" spans="1:17">
-      <c r="A362" s="45"/>
+      <c r="A362" s="44"/>
       <c r="B362" s="37"/>
       <c r="C362" s="37"/>
       <c r="D362" s="38"/>
@@ -12362,13 +11944,13 @@
       <c r="K362" s="40"/>
       <c r="L362" s="40"/>
       <c r="M362" s="40"/>
-      <c r="N362" s="43"/>
+      <c r="N362" s="42"/>
       <c r="O362" s="40"/>
-      <c r="P362" s="43"/>
+      <c r="P362" s="42"/>
       <c r="Q362" s="40"/>
     </row>
     <row r="363" ht="44" customHeight="1" spans="1:17">
-      <c r="A363" s="45"/>
+      <c r="A363" s="44"/>
       <c r="B363" s="37"/>
       <c r="C363" s="37"/>
       <c r="D363" s="38"/>
@@ -12381,13 +11963,13 @@
       <c r="K363" s="40"/>
       <c r="L363" s="40"/>
       <c r="M363" s="40"/>
-      <c r="N363" s="43"/>
+      <c r="N363" s="42"/>
       <c r="O363" s="40"/>
-      <c r="P363" s="43"/>
+      <c r="P363" s="42"/>
       <c r="Q363" s="40"/>
     </row>
     <row r="364" ht="44" customHeight="1" spans="1:17">
-      <c r="A364" s="45"/>
+      <c r="A364" s="44"/>
       <c r="B364" s="37"/>
       <c r="C364" s="37"/>
       <c r="D364" s="38"/>
@@ -12400,13 +11982,13 @@
       <c r="K364" s="40"/>
       <c r="L364" s="40"/>
       <c r="M364" s="40"/>
-      <c r="N364" s="43"/>
+      <c r="N364" s="42"/>
       <c r="O364" s="40"/>
-      <c r="P364" s="43"/>
+      <c r="P364" s="42"/>
       <c r="Q364" s="40"/>
     </row>
     <row r="365" ht="44" customHeight="1" spans="1:17">
-      <c r="A365" s="45"/>
+      <c r="A365" s="44"/>
       <c r="B365" s="37"/>
       <c r="C365" s="37"/>
       <c r="D365" s="38"/>
@@ -12419,13 +12001,13 @@
       <c r="K365" s="40"/>
       <c r="L365" s="40"/>
       <c r="M365" s="40"/>
-      <c r="N365" s="43"/>
+      <c r="N365" s="42"/>
       <c r="O365" s="40"/>
-      <c r="P365" s="43"/>
+      <c r="P365" s="42"/>
       <c r="Q365" s="40"/>
     </row>
     <row r="366" ht="44" customHeight="1" spans="1:17">
-      <c r="A366" s="45"/>
+      <c r="A366" s="44"/>
       <c r="B366" s="37"/>
       <c r="C366" s="37"/>
       <c r="D366" s="38"/>
@@ -12436,15 +12018,15 @@
       <c r="I366" s="40"/>
       <c r="J366" s="40"/>
       <c r="K366" s="40"/>
-      <c r="L366" s="26"/>
-      <c r="M366" s="26"/>
-      <c r="N366" s="26"/>
-      <c r="O366" s="26"/>
-      <c r="P366" s="26"/>
-      <c r="Q366" s="26"/>
+      <c r="L366" s="40"/>
+      <c r="M366" s="40"/>
+      <c r="N366" s="42"/>
+      <c r="O366" s="40"/>
+      <c r="P366" s="42"/>
+      <c r="Q366" s="40"/>
     </row>
     <row r="367" ht="44" customHeight="1" spans="1:17">
-      <c r="A367" s="45"/>
+      <c r="A367" s="44"/>
       <c r="B367" s="37"/>
       <c r="C367" s="37"/>
       <c r="D367" s="38"/>
@@ -12463,7 +12045,7 @@
       <c r="Q367" s="26"/>
     </row>
     <row r="368" ht="44" customHeight="1" spans="1:17">
-      <c r="A368" s="45"/>
+      <c r="A368" s="44"/>
       <c r="B368" s="37"/>
       <c r="C368" s="37"/>
       <c r="D368" s="38"/>
@@ -12482,7 +12064,7 @@
       <c r="Q368" s="26"/>
     </row>
     <row r="369" ht="44" customHeight="1" spans="1:17">
-      <c r="A369" s="45"/>
+      <c r="A369" s="44"/>
       <c r="B369" s="37"/>
       <c r="C369" s="37"/>
       <c r="D369" s="38"/>
@@ -12501,7 +12083,7 @@
       <c r="Q369" s="26"/>
     </row>
     <row r="370" ht="44" customHeight="1" spans="1:17">
-      <c r="A370" s="45"/>
+      <c r="A370" s="44"/>
       <c r="B370" s="37"/>
       <c r="C370" s="37"/>
       <c r="D370" s="38"/>
@@ -12520,7 +12102,7 @@
       <c r="Q370" s="26"/>
     </row>
     <row r="371" ht="44" customHeight="1" spans="1:17">
-      <c r="A371" s="45"/>
+      <c r="A371" s="44"/>
       <c r="B371" s="37"/>
       <c r="C371" s="37"/>
       <c r="D371" s="38"/>
@@ -12539,7 +12121,7 @@
       <c r="Q371" s="26"/>
     </row>
     <row r="372" ht="44" customHeight="1" spans="1:17">
-      <c r="A372" s="45"/>
+      <c r="A372" s="44"/>
       <c r="B372" s="37"/>
       <c r="C372" s="37"/>
       <c r="D372" s="38"/>
@@ -12558,7 +12140,7 @@
       <c r="Q372" s="26"/>
     </row>
     <row r="373" ht="44" customHeight="1" spans="1:17">
-      <c r="A373" s="45"/>
+      <c r="A373" s="44"/>
       <c r="B373" s="37"/>
       <c r="C373" s="37"/>
       <c r="D373" s="38"/>
@@ -12576,18 +12158,18 @@
       <c r="P373" s="26"/>
       <c r="Q373" s="26"/>
     </row>
-    <row r="374" spans="1:17">
-      <c r="A374" s="26"/>
-      <c r="B374" s="26"/>
-      <c r="C374" s="26"/>
-      <c r="D374" s="27"/>
-      <c r="E374" s="27"/>
-      <c r="F374" s="27"/>
-      <c r="G374" s="28"/>
-      <c r="H374" s="26"/>
-      <c r="I374" s="26"/>
-      <c r="J374" s="26"/>
-      <c r="K374" s="26"/>
+    <row r="374" ht="44" customHeight="1" spans="1:17">
+      <c r="A374" s="44"/>
+      <c r="B374" s="37"/>
+      <c r="C374" s="37"/>
+      <c r="D374" s="38"/>
+      <c r="E374" s="38"/>
+      <c r="F374" s="39"/>
+      <c r="G374" s="37"/>
+      <c r="H374" s="40"/>
+      <c r="I374" s="40"/>
+      <c r="J374" s="40"/>
+      <c r="K374" s="40"/>
       <c r="L374" s="26"/>
       <c r="M374" s="26"/>
       <c r="N374" s="26"/>
@@ -15616,9 +15198,24 @@
       <c r="P533" s="26"/>
       <c r="Q533" s="26"/>
     </row>
-    <row r="534" spans="5:6">
-      <c r="E534" s="23"/>
-      <c r="F534" s="23"/>
+    <row r="534" spans="1:17">
+      <c r="A534" s="26"/>
+      <c r="B534" s="26"/>
+      <c r="C534" s="26"/>
+      <c r="D534" s="27"/>
+      <c r="E534" s="27"/>
+      <c r="F534" s="27"/>
+      <c r="G534" s="28"/>
+      <c r="H534" s="26"/>
+      <c r="I534" s="26"/>
+      <c r="J534" s="26"/>
+      <c r="K534" s="26"/>
+      <c r="L534" s="26"/>
+      <c r="M534" s="26"/>
+      <c r="N534" s="26"/>
+      <c r="O534" s="26"/>
+      <c r="P534" s="26"/>
+      <c r="Q534" s="26"/>
     </row>
     <row r="535" spans="5:6">
       <c r="E535" s="23"/>
@@ -17204,8 +16801,12 @@
       <c r="E930" s="23"/>
       <c r="F930" s="23"/>
     </row>
+    <row r="931" spans="5:6">
+      <c r="E931" s="23"/>
+      <c r="F931" s="23"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:R203">
+  <autoFilter ref="A4:R204">
     <extLst/>
   </autoFilter>
   <mergeCells count="7">
@@ -17217,59 +16818,59 @@
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="L3:Q3"/>
   </mergeCells>
-  <conditionalFormatting sqref="N303">
+  <conditionalFormatting sqref="N304">
     <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N142">
+  <conditionalFormatting sqref="N5:N143">
     <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N143:N148">
+  <conditionalFormatting sqref="N144:N149">
     <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N168:N172">
+  <conditionalFormatting sqref="N169:N173">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N182:N188">
+  <conditionalFormatting sqref="N183:N189">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N287:N290">
+  <conditionalFormatting sqref="N288:N291">
     <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N4 N366:N1048576">
+  <conditionalFormatting sqref="N1:N4 N367:N1048576">
     <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N173:N179 N149:N167 N250:N286">
+  <conditionalFormatting sqref="N174:N180 N150:N168 N251:N287">
     <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N180:N181 N189:N249 N304:N365 N291:N302">
+  <conditionalFormatting sqref="N181:N182 N190:N250 N305:N366 N292:N303">
     <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="N5 N6 N7 N8 N9 N10 N11 N12 N13 N14 N15 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N85 N86 N87 N88 N89 N90 N91 N92 N93 N94 N95 N96 N97 N98 N99 N106 N107 N108 N109 N110 N134 N198 N234 N247 N287 N290 N306 N307 N308 N315 N316 N322 N327 N328 N329 N330 N331 N332 N333 N334 N344 N348 N349 N350 N365 N82:N84 N100:N105 N111:N116 N117:N130 N131:N133 N135:N148 N149:N197 N199:N233 N235:N239 N240:N246 N248:N250 N251:N261 N262:N270 N271:N280 N281:N286 N288:N289 N291:N305 N309:N312 N313:N314 N317:N321 N323:N326 N335:N336 N337:N343 N345:N347 N351:N352 N353:N358 N359:N364">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="N5 N6 N7 N8 N9 N10 N11 N12 N13 N14 N15 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N86 N87 N88 N89 N90 N91 N92 N93 N94 N95 N96 N97 N98 N99 N100 N107 N108 N109 N110 N111 N135 N199 N235 N248 N288 N291 N307 N308 N309 N316 N317 N323 N328 N329 N330 N331 N332 N333 N334 N335 N345 N349 N350 N351 N366 N83:N85 N101:N106 N112:N117 N118:N131 N132:N134 N136:N149 N150:N198 N200:N234 N236:N240 N241:N247 N249:N251 N252:N262 N263:N271 N272:N281 N282:N287 N289:N290 N292:N306 N310:N313 N314:N315 N318:N322 N324:N327 N336:N337 N338:N344 N346:N348 N352:N353 N354:N359 N360:N365">
       <formula1>"未测试,通过,不通过,不适用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D9 D16 D20 D21 D29 D30 D33 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D160 D161 D162 D163 D164 D165 D166 D167 D168 D169 D170 D171 D172 D173 D174 D175 D176 D177 D178 D179 D180 D181 D182 D183 D184 D185 D186 D187 D188 D189 D190 D191 D192 D193 D194 D195 D196 D197 D198 D199 D200 D201 D202 D203 D234 D240 D241 D242 D243 D244 D245 D246 D247 D287 D290 D306 D307 D327 D328 D329 D330 D331 D332 D333 D334 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D353 D354 D355 D356 D357 D358 D359 D360 D361 D362 D363 D364 D368 D369 D370 D371 D372 D373 D5:D6 D7:D8 D10:D15 D17:D19 D22:D23 D24:D28 D31:D32 D34:D38 D70:D74 D75:D80 D81:D83 D84:D88 D89:D95 D96:D99 D111:D114 D204:D233 D235:D239 D248:D250 D251:D279 D280:D286 D288:D289 D291:D305 D308:D311 D312:D322 D323:D326 D335:D336 D351:D352 D365:D367">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D9 D16 D20 D21 D29 D30 D31 D34 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D61 D62 D63 D64 D65 D66 D70 D71 D72 D73 D74 D75 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D160 D161 D162 D163 D164 D165 D166 D167 D168 D169 D170 D171 D172 D173 D174 D175 D176 D177 D178 D179 D180 D181 D182 D183 D184 D185 D186 D187 D188 D189 D190 D191 D192 D193 D194 D195 D196 D197 D198 D199 D200 D201 D202 D203 D204 D235 D241 D242 D243 D244 D245 D246 D247 D248 D288 D291 D307 D308 D328 D329 D330 D331 D332 D333 D334 D335 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D354 D355 D356 D357 D358 D359 D360 D361 D362 D363 D364 D365 D369 D370 D371 D372 D373 D374 D5:D6 D7:D8 D10:D15 D17:D19 D22:D23 D24:D28 D32:D33 D35:D39 D52:D54 D55:D57 D58:D60 D67:D69 D76:D81 D82:D84 D85:D89 D90:D96 D97:D100 D112:D115 D205:D234 D236:D240 D249:D251 D252:D280 D281:D287 D289:D290 D292:D306 D309:D312 D313:D323 D324:D327 D336:D337 D352:D353 D366:D368">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C9 C16 C19 C20 C21 C29 C30 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C100 C101 C105 C106 C107 C108 C109 C110 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C161 C162 C163 C164 C165 C166 C167 C168 C169 C170 C171 C172 C173 C174 C175 C176 C177 C178 C179 C180 C181 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C192 C193 C194 C195 C196 C197 C198 C199 C200 C201 C202 C203 C234 C240 C241 C242 C243 C244 C245 C246 C247 C287 C290 C306 C307 C327 C328 C329 C330 C331 C332 C333 C334 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C367 C368 C369 C370 C371 C372 C373 C5:C6 C7:C8 C10:C15 C17:C18 C22:C23 C24:C28 C31:C32 C70:C74 C75:C80 C81:C83 C84:C88 C89:C95 C96:C99 C102:C104 C111:C115 C204:C233 C235:C239 C248:C250 C251:C279 C280:C286 C288:C289 C291:C305 C308:C311 C312:C322 C323:C326 C335:C336 C351:C352 C365:C366">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C9 C16 C19 C20 C21 C29 C32 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C61 C62 C63 C64 C65 C66 C70 C71 C72 C73 C74 C75 C101 C102 C106 C107 C108 C109 C110 C111 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C161 C162 C163 C164 C165 C166 C167 C168 C169 C170 C171 C172 C173 C174 C175 C176 C177 C178 C179 C180 C181 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C192 C193 C194 C195 C196 C197 C198 C199 C200 C201 C202 C203 C204 C235 C241 C242 C243 C244 C245 C246 C247 C248 C288 C291 C307 C308 C328 C329 C330 C331 C332 C333 C334 C335 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C368 C369 C370 C371 C372 C373 C374 C5:C6 C7:C8 C10:C15 C17:C18 C22:C23 C24:C28 C30:C31 C33:C39 C50:C58 C59:C60 C67:C69 C76:C81 C82:C84 C85:C89 C90:C96 C97:C100 C103:C105 C112:C116 C205:C234 C236:C240 C249:C251 C252:C280 C281:C287 C289:C290 C292:C306 C309:C312 C313:C323 C324:C327 C336:C337 C352:C353 C366:C367">
       <formula1>"正常类测试,异常类测试,边界值测试,上线、回切测试,兼容性测试,UI测试,用户体验测试,性能测试,其它测试"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17331,13 +16932,13 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:26">
       <c r="A2" s="16" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -17367,10 +16968,10 @@
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:26">
       <c r="A3" s="18" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -17399,10 +17000,10 @@
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:26">
       <c r="A4" s="19" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -17431,10 +17032,10 @@
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:26">
       <c r="A5" s="20" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -21591,7 +21192,7 @@
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21621,16 +21222,16 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:26">
       <c r="A2" s="5" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -22553,7 +22154,7 @@
     </row>
     <row r="35" ht="31.5" customHeight="1" spans="1:26">
       <c r="A35" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/cyfsgit测试用例.xlsx
+++ b/cyfsgit测试用例.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="git全量用例" sheetId="4" r:id="rId1"/>
     <sheet name="git回归用例" sheetId="5" r:id="rId2"/>
-    <sheet name="个人主页" sheetId="6" r:id="rId3"/>
+    <sheet name="个人主页用例" sheetId="6" r:id="rId3"/>
     <sheet name="编号规则" sheetId="2" r:id="rId4"/>
     <sheet name="计划" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">git全量用例!$A$4:$R$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">git全量用例!$A$4:$R$212</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">计划!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="390">
   <si>
     <t>测试用例</t>
   </si>
@@ -1040,17 +1040,11 @@
   </si>
   <si>
     <t>1、点击Pull requests
-2、选择从feature-a分支合并入master分支
-3、点击</t>
+2、选择从feature-a分支合并入master分支</t>
   </si>
   <si>
-    <t>1、进入公开仓库
-2、进入创建合并请求页面
-3、可选择成功
-4、输入合并title成功
-5、commits和文件对比正确
-6、合并请求创建成功
-7、进入创建成功的合并请求，接受合并成功</t>
+    <t>1、检测出可合并
+2、创建Pull requests申请成功，状态是open</t>
   </si>
   <si>
     <t>仓库成员创建Pull requests</t>
@@ -1060,45 +1054,19 @@
 2、分支间存在差异</t>
   </si>
   <si>
-    <t>1、在cyfs-git主页点击发现
-2、点击仓库，选择一个仓库点击进入
-3、点击合并请求，点击创建合并请求
-4、选择源分支、目标分支
-5、输入合并title
-6、检查commits和文件对比是否正确
-7、点击创建合并请求
-8、点击创建成功的合并请求，点击接受合并</t>
-  </si>
-  <si>
-    <t>1、进入其他账户的公开仓库
-2、进入其他账户的仓库详情页面
-3、进入创建合并请求页面
-4、可选择成功
-5、输入合并title成功
-6、commits和文件对比正确
-7、合并请求创建成功
-8、进入创建成功的合并请求，接受合并成功</t>
-  </si>
-  <si>
     <t>仓库owner同意merge</t>
   </si>
   <si>
-    <t>1、在自己远程仓库页面选择一个私有仓库，点击进入
-2、点击合并请求，点击创建合并请求
-3、选择源分支、目标分支
-4、输入合并title
-5、检查commits和文件对比是否正确
-6、点击创建合并请求
-7、点击创建成功的合并请求，点击接受合并</t>
+    <t>存在open的Pull requests申请</t>
   </si>
   <si>
-    <t>1、进入私有仓库
-2、进入创建合并请求页面
-3、可选择成功
-4、输入合并title成功
-5、commits和文件对比正确
-6、合并请求创建成功
-7、进入创建成功的合并请求，接受合并成功</t>
+    <t>1、选择一条open的Pull requests申请
+2、点击【accept merge】按钮</t>
+  </si>
+  <si>
+    <t>1、申请详情显示正确
+2、合并成功，检查目标分支的代码和commit正确
+3、Pull request申请变为close状态</t>
   </si>
   <si>
     <t>仓库成员同意merge</t>
@@ -1110,65 +1078,168 @@
     <t>远程仓库存在两个以上分支</t>
   </si>
   <si>
+    <t>1、点击【New pull request】按钮 
+2、查看Source branch表单内容
+3、查看Target branch表单内容</t>
+  </si>
+  <si>
+    <t>表单能列出仓库所有的分支</t>
+  </si>
+  <si>
     <t>Pull requests open和close数量检查</t>
   </si>
   <si>
     <t>存在多条Pull requests申请</t>
   </si>
   <si>
+    <t>1、点击Pull requests
+2、检查当前open和close数量统计是否正确</t>
+  </si>
+  <si>
+    <t>open和close数量统计正确</t>
+  </si>
+  <si>
     <t>检查分支间无差异时merge</t>
+  </si>
+  <si>
+    <t>1、远程仓库存在master分支和feature-A分支
+2、两个分支的内容一致</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、点击Pull requests
+2、Source branch选择feature-A和target branch选择master
+</t>
+  </si>
+  <si>
+    <t>提示“There isn’t anything to compare.”</t>
   </si>
   <si>
     <t>检查Source branch和target branch相同</t>
   </si>
   <si>
-    <t>检查Source branch和target branch都是非master分支</t>
+    <t>1、远程仓库存在master分支和feature-A分支</t>
   </si>
   <si>
-    <t>CYFS_GIT_073</t>
+    <t xml:space="preserve">1、点击Pull requests
+2、Source branch选择master和target branch选择master
+</t>
+  </si>
+  <si>
+    <t>检查Source branch和target branch都是非master分支去merge</t>
+  </si>
+  <si>
+    <t>1、远程仓库存在master分支和feature-B分支
+2、分支间存在差异</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、点击Pull requests
+2、Source branch选择feature-A和target branch选择feature-B。填写标题，点击创建按钮
+3、选择该条申请，同意申请
+</t>
+  </si>
+  <si>
+    <t>1、创建Pull requests申请成功，状态是open
+2、合并成功，检查目标分支的代码和commit正确</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>检查分支切换</t>
+  </si>
+  <si>
+    <t>存在master分支和feature-A分支</t>
+  </si>
+  <si>
+    <t>1、点击feature-A切换到该分支，检查分支文件
+2、点击master分支切换到该分支，检查分支文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分支切换成功，分支内容正确
+</t>
+  </si>
+  <si>
+    <t>检查Graph</t>
+  </si>
+  <si>
+    <t>1、仓库有多个分支
+2、每个分支都有多个commit</t>
+  </si>
+  <si>
+    <t>1、点击Graph
+2、检查commit描述，时间，ID</t>
+  </si>
+  <si>
+    <t>1、图形显示正确
+2、commit的描述，时间，ID都正确</t>
+  </si>
+  <si>
+    <t>检查commit</t>
+  </si>
+  <si>
+    <t>1、点击commits
+2、检查commit描述，时间，提交人，ID，二维码
+3、点击切换分支
+4、再次检查commit描述，时间，提交人，ID，二维码</t>
+  </si>
+  <si>
+    <t>1、commits数量正确
+2、commit列表正确，按时间倒序排列
+3、commit内容正确
+4、显示对应分支的commit列表</t>
+  </si>
+  <si>
+    <t>检查branch</t>
+  </si>
+  <si>
+    <t>仓库有多个分支</t>
+  </si>
+  <si>
+    <t>1、点击【branches】
+2、检查所有分支显示</t>
+  </si>
+  <si>
+    <t>显示出所有分支</t>
+  </si>
+  <si>
+    <t>检查commit内容</t>
+  </si>
+  <si>
+    <t>仓库有多个commit</t>
+  </si>
+  <si>
+    <t>1、选中某条commit，点击查看</t>
+  </si>
+  <si>
+    <t>1、进入commit详情页成功
+2、提交人，提交时间，提交内容，ID正确
+3、增加的内容“+”号绿色显示，删除的内容“-”号红色显示</t>
+  </si>
+  <si>
+    <t>检查commit二维码打赏</t>
+  </si>
+  <si>
+    <t>1、选中某条commit
+2、拿出超送扫描二维码，打赏20ecc</t>
+  </si>
+  <si>
+    <t>1、二维码显示成功
+2、二维码扫码成功，金额打赏成功</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>仓库成员新建Issue</t>
+  </si>
+  <si>
+    <t>非仓库成员新建Issue</t>
+  </si>
+  <si>
+    <t>CYFS_GIT_075</t>
   </si>
   <si>
     <t>远程仓库操作</t>
-  </si>
-  <si>
-    <t>git repo home-文件</t>
-  </si>
-  <si>
-    <t>1、在仓库页面左侧显示仓库点击一个仓库，检查该仓库页面是否展示正常
-2、点击文件，检查是否展示分支、提交历史、代码分支
-3、点击各个分支，检查分支文件是否展示正确
-4、点击文件，检查文件内容是否展示正确
-5、点击提交历史，检查每个分支提交历史是否正确
-6、点击代码分支，检查所有分支是否展示正确</t>
-  </si>
-  <si>
-    <t>1、进入仓库详情页面，该仓库页面展示正常
-2、文件tab页展示分支、提交历史、代码分支
-3、分支文件展示正确
-4、文件内容展示正确
-5、每个分支提交历史正确
-6、所有分支展示正确</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_074</t>
-  </si>
-  <si>
-    <t>git repo home-issue</t>
-  </si>
-  <si>
-    <t>1、在仓库页面左侧显示仓库点击一个仓库
-2、点击issue，检查是否展示所有issue
-3、检查issue题目和内容是否正确
-4、检查issue的open、close状态是否正确，对应状态数量是否正确</t>
-  </si>
-  <si>
-    <t>1、进入仓库详情页面，该仓库页面展示正常
-2、展示所有issue
-3、issue题目和内容正确
-4、issue的open、close状态正确，对应状态数量正确</t>
-  </si>
-  <si>
-    <t>CYFS_GIT_075</t>
   </si>
   <si>
     <t>git repo home-合并请求</t>
@@ -1667,11 +1738,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode=";;;"/>
+    <numFmt numFmtId="176" formatCode=";;;"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
   <fonts count="33">
@@ -2332,7 +2403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2341,10 +2412,10 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2353,7 +2424,7 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2514,7 +2585,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3230,14 +3301,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q931"/>
+  <dimension ref="A1:Q939"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -5757,10 +5828,10 @@
       </c>
       <c r="I68" s="36"/>
       <c r="J68" s="41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K68" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L68" s="40"/>
       <c r="M68" s="40"/>
@@ -5787,15 +5858,17 @@
         <v>44832</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="H69" s="40"/>
+        <v>243</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>244</v>
+      </c>
       <c r="I69" s="36"/>
       <c r="J69" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="K69" s="41" t="s">
         <v>246</v>
-      </c>
-      <c r="K69" s="41" t="s">
-        <v>247</v>
       </c>
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
@@ -5822,12 +5895,18 @@
         <v>44832</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="H70" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>244</v>
+      </c>
       <c r="I70" s="36"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
+      <c r="J70" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="K70" s="41" t="s">
+        <v>246</v>
+      </c>
       <c r="L70" s="40"/>
       <c r="M70" s="40"/>
       <c r="N70" s="42"/>
@@ -5853,14 +5932,18 @@
         <v>44832</v>
       </c>
       <c r="G71" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H71" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="H71" s="40" t="s">
+      <c r="I71" s="36"/>
+      <c r="J71" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="I71" s="36"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
+      <c r="K71" s="41" t="s">
+        <v>251</v>
+      </c>
       <c r="L71" s="40"/>
       <c r="M71" s="40"/>
       <c r="N71" s="42"/>
@@ -5886,14 +5969,18 @@
         <v>44832</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I72" s="36"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
+      <c r="J72" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="K72" s="41" t="s">
+        <v>255</v>
+      </c>
       <c r="L72" s="40"/>
       <c r="M72" s="40"/>
       <c r="N72" s="42"/>
@@ -5919,14 +6006,18 @@
         <v>44832</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I73" s="36"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
+      <c r="J73" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="K73" s="41" t="s">
+        <v>259</v>
+      </c>
       <c r="L73" s="40"/>
       <c r="M73" s="40"/>
       <c r="N73" s="42"/>
@@ -5952,12 +6043,18 @@
         <v>44832</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="H74" s="40"/>
+        <v>260</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>261</v>
+      </c>
       <c r="I74" s="36"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
+      <c r="J74" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="K74" s="41" t="s">
+        <v>259</v>
+      </c>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
       <c r="N74" s="42"/>
@@ -5983,12 +6080,18 @@
         <v>44832</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="H75" s="40"/>
+        <v>263</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>264</v>
+      </c>
       <c r="I75" s="36"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
+      <c r="J75" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="K75" s="41" t="s">
+        <v>266</v>
+      </c>
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
       <c r="N75" s="42"/>
@@ -5997,11 +6100,9 @@
       <c r="Q75" s="40"/>
     </row>
     <row r="76" ht="39" customHeight="1" spans="1:17">
-      <c r="A76" s="36" t="s">
-        <v>256</v>
-      </c>
+      <c r="A76" s="36"/>
       <c r="B76" s="37" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>27</v>
@@ -6010,23 +6111,23 @@
         <v>28</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F76" s="39">
-        <v>44448</v>
+        <v>44832</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>56</v>
+        <v>269</v>
       </c>
       <c r="I76" s="36"/>
-      <c r="J76" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="K76" s="40" t="s">
-        <v>260</v>
+      <c r="J76" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="K76" s="41" t="s">
+        <v>271</v>
       </c>
       <c r="L76" s="40"/>
       <c r="M76" s="40"/>
@@ -6036,11 +6137,9 @@
       <c r="Q76" s="40"/>
     </row>
     <row r="77" ht="39" customHeight="1" spans="1:17">
-      <c r="A77" s="36" t="s">
-        <v>261</v>
-      </c>
+      <c r="A77" s="36"/>
       <c r="B77" s="37" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>27</v>
@@ -6049,23 +6148,23 @@
         <v>28</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F77" s="39">
-        <v>44448</v>
+        <v>44832</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="I77" s="36"/>
-      <c r="J77" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="K77" s="40" t="s">
-        <v>264</v>
+      <c r="J77" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="K77" s="41" t="s">
+        <v>275</v>
       </c>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
@@ -6075,11 +6174,9 @@
       <c r="Q77" s="40"/>
     </row>
     <row r="78" ht="39" customHeight="1" spans="1:17">
-      <c r="A78" s="36" t="s">
-        <v>265</v>
-      </c>
+      <c r="A78" s="36"/>
       <c r="B78" s="37" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>27</v>
@@ -6088,23 +6185,23 @@
         <v>28</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F78" s="39">
-        <v>44448</v>
+        <v>44832</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="I78" s="36"/>
-      <c r="J78" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="K78" s="40" t="s">
-        <v>268</v>
+      <c r="J78" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="K78" s="41" t="s">
+        <v>278</v>
       </c>
       <c r="L78" s="40"/>
       <c r="M78" s="40"/>
@@ -6114,11 +6211,9 @@
       <c r="Q78" s="40"/>
     </row>
     <row r="79" ht="39" customHeight="1" spans="1:17">
-      <c r="A79" s="36" t="s">
-        <v>269</v>
-      </c>
+      <c r="A79" s="36"/>
       <c r="B79" s="37" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>27</v>
@@ -6127,23 +6222,23 @@
         <v>28</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F79" s="39">
-        <v>44448</v>
+        <v>44832</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="I79" s="36"/>
-      <c r="J79" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="K79" s="40" t="s">
-        <v>272</v>
+      <c r="J79" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="K79" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
@@ -6153,11 +6248,9 @@
       <c r="Q79" s="40"/>
     </row>
     <row r="80" ht="39" customHeight="1" spans="1:17">
-      <c r="A80" s="36" t="s">
-        <v>273</v>
-      </c>
+      <c r="A80" s="36"/>
       <c r="B80" s="37" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>27</v>
@@ -6166,23 +6259,23 @@
         <v>28</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F80" s="39">
-        <v>44448</v>
+        <v>44832</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="I80" s="36"/>
-      <c r="J80" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="K80" s="40" t="s">
-        <v>276</v>
+      <c r="J80" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K80" s="41" t="s">
+        <v>286</v>
       </c>
       <c r="L80" s="40"/>
       <c r="M80" s="40"/>
@@ -6192,36 +6285,34 @@
       <c r="Q80" s="40"/>
     </row>
     <row r="81" ht="39" customHeight="1" spans="1:17">
-      <c r="A81" s="36" t="s">
-        <v>277</v>
-      </c>
+      <c r="A81" s="36"/>
       <c r="B81" s="37" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F81" s="39">
-        <v>44448</v>
+        <v>44832</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="I81" s="36"/>
-      <c r="J81" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="K81" s="40" t="s">
-        <v>279</v>
+      <c r="J81" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="K81" s="41" t="s">
+        <v>289</v>
       </c>
       <c r="L81" s="40"/>
       <c r="M81" s="40"/>
@@ -6231,11 +6322,9 @@
       <c r="Q81" s="40"/>
     </row>
     <row r="82" ht="39" customHeight="1" spans="1:17">
-      <c r="A82" s="36" t="s">
-        <v>280</v>
-      </c>
+      <c r="A82" s="36"/>
       <c r="B82" s="37" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>27</v>
@@ -6244,24 +6333,18 @@
         <v>28</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F82" s="39">
-        <v>44448</v>
+        <v>44832</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H82" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="H82" s="40"/>
       <c r="I82" s="36"/>
-      <c r="J82" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="K82" s="40" t="s">
-        <v>283</v>
-      </c>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
       <c r="L82" s="40"/>
       <c r="M82" s="40"/>
       <c r="N82" s="42"/>
@@ -6270,37 +6353,27 @@
       <c r="Q82" s="40"/>
     </row>
     <row r="83" ht="39" customHeight="1" spans="1:17">
-      <c r="A83" s="36" t="s">
-        <v>284</v>
-      </c>
+      <c r="A83" s="36"/>
       <c r="B83" s="37" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="38" t="s">
-        <v>28</v>
-      </c>
+      <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F83" s="39">
-        <v>44448</v>
-      </c>
-      <c r="G83" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="H83" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>44832</v>
+      </c>
+      <c r="G83" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="H83" s="40"/>
       <c r="I83" s="36"/>
-      <c r="J83" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="K83" s="40" t="s">
-        <v>283</v>
-      </c>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
       <c r="L83" s="40"/>
       <c r="M83" s="40"/>
       <c r="N83" s="42"/>
@@ -6309,37 +6382,25 @@
       <c r="Q83" s="40"/>
     </row>
     <row r="84" ht="39" customHeight="1" spans="1:17">
-      <c r="A84" s="36" t="s">
-        <v>286</v>
-      </c>
+      <c r="A84" s="36"/>
       <c r="B84" s="37" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="38" t="s">
-        <v>28</v>
-      </c>
+      <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F84" s="39">
-        <v>44448</v>
-      </c>
-      <c r="G84" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="H84" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>44832</v>
+      </c>
+      <c r="G84" s="41"/>
+      <c r="H84" s="40"/>
       <c r="I84" s="36"/>
-      <c r="J84" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="K84" s="40" t="s">
-        <v>289</v>
-      </c>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
       <c r="L84" s="40"/>
       <c r="M84" s="40"/>
       <c r="N84" s="42"/>
@@ -6348,37 +6409,23 @@
       <c r="Q84" s="40"/>
     </row>
     <row r="85" ht="39" customHeight="1" spans="1:17">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="37" t="s">
         <v>290</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>257</v>
       </c>
       <c r="C85" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="38" t="s">
-        <v>28</v>
-      </c>
+      <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G85" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="H85" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F85" s="39"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="40"/>
       <c r="I85" s="36"/>
-      <c r="J85" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="K85" s="36" t="s">
-        <v>293</v>
-      </c>
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
       <c r="L85" s="40"/>
       <c r="M85" s="40"/>
       <c r="N85" s="42"/>
@@ -6388,10 +6435,10 @@
     </row>
     <row r="86" ht="39" customHeight="1" spans="1:17">
       <c r="A86" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B86" s="37" t="s">
         <v>294</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>257</v>
       </c>
       <c r="C86" s="37" t="s">
         <v>27</v>
@@ -6403,19 +6450,19 @@
         <v>29</v>
       </c>
       <c r="F86" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G86" s="43" t="s">
+        <v>44448</v>
+      </c>
+      <c r="G86" s="41" t="s">
         <v>295</v>
       </c>
       <c r="H86" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I86" s="40"/>
-      <c r="J86" s="36" t="s">
+      <c r="I86" s="36"/>
+      <c r="J86" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="K86" s="36" t="s">
+      <c r="K86" s="40" t="s">
         <v>297</v>
       </c>
       <c r="L86" s="40"/>
@@ -6430,7 +6477,7 @@
         <v>298</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>27</v>
@@ -6442,19 +6489,19 @@
         <v>29</v>
       </c>
       <c r="F87" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G87" s="43" t="s">
+        <v>44448</v>
+      </c>
+      <c r="G87" s="41" t="s">
         <v>299</v>
       </c>
       <c r="H87" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I87" s="40"/>
-      <c r="J87" s="36" t="s">
+      <c r="I87" s="36"/>
+      <c r="J87" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="K87" s="36" t="s">
+      <c r="K87" s="40" t="s">
         <v>301</v>
       </c>
       <c r="L87" s="40"/>
@@ -6469,7 +6516,7 @@
         <v>302</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>27</v>
@@ -6481,19 +6528,19 @@
         <v>29</v>
       </c>
       <c r="F88" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G88" s="43" t="s">
+        <v>44448</v>
+      </c>
+      <c r="G88" s="41" t="s">
         <v>303</v>
       </c>
       <c r="H88" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I88" s="36"/>
-      <c r="J88" s="36" t="s">
+      <c r="J88" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="K88" s="36" t="s">
+      <c r="K88" s="40" t="s">
         <v>305</v>
       </c>
       <c r="L88" s="40"/>
@@ -6503,12 +6550,12 @@
       <c r="P88" s="42"/>
       <c r="Q88" s="40"/>
     </row>
-    <row r="89" ht="36.6" customHeight="1" spans="1:17">
+    <row r="89" ht="39" customHeight="1" spans="1:17">
       <c r="A89" s="36" t="s">
         <v>306</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>27</v>
@@ -6520,20 +6567,20 @@
         <v>29</v>
       </c>
       <c r="F89" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G89" s="43" t="s">
+        <v>44448</v>
+      </c>
+      <c r="G89" s="41" t="s">
         <v>307</v>
       </c>
       <c r="H89" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I89" s="40"/>
-      <c r="J89" s="36" t="s">
+      <c r="I89" s="36"/>
+      <c r="J89" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="K89" s="36" t="s">
-        <v>309</v>
+      <c r="K89" s="40" t="s">
+        <v>308</v>
       </c>
       <c r="L89" s="40"/>
       <c r="M89" s="40"/>
@@ -6542,12 +6589,12 @@
       <c r="P89" s="42"/>
       <c r="Q89" s="40"/>
     </row>
-    <row r="90" ht="36.6" customHeight="1" spans="1:17">
+    <row r="90" ht="39" customHeight="1" spans="1:17">
       <c r="A90" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>27</v>
@@ -6559,20 +6606,20 @@
         <v>29</v>
       </c>
       <c r="F90" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G90" s="43" t="s">
-        <v>311</v>
+        <v>44448</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>310</v>
       </c>
       <c r="H90" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I90" s="40"/>
-      <c r="J90" s="36" t="s">
+      <c r="I90" s="36"/>
+      <c r="J90" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="K90" s="40" t="s">
         <v>312</v>
-      </c>
-      <c r="K90" s="36" t="s">
-        <v>313</v>
       </c>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
@@ -6581,12 +6628,12 @@
       <c r="P90" s="42"/>
       <c r="Q90" s="40"/>
     </row>
-    <row r="91" ht="36.6" customHeight="1" spans="1:17">
+    <row r="91" ht="39" customHeight="1" spans="1:17">
       <c r="A91" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>27</v>
@@ -6598,20 +6645,20 @@
         <v>29</v>
       </c>
       <c r="F91" s="39">
-        <v>44454</v>
+        <v>44448</v>
       </c>
       <c r="G91" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H91" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I91" s="40"/>
+      <c r="I91" s="36"/>
       <c r="J91" s="40" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K91" s="40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L91" s="40"/>
       <c r="M91" s="40"/>
@@ -6620,12 +6667,12 @@
       <c r="P91" s="42"/>
       <c r="Q91" s="40"/>
     </row>
-    <row r="92" ht="36.6" customHeight="1" spans="1:17">
+    <row r="92" ht="39" customHeight="1" spans="1:17">
       <c r="A92" s="36" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C92" s="37" t="s">
         <v>27</v>
@@ -6637,20 +6684,20 @@
         <v>29</v>
       </c>
       <c r="F92" s="39">
-        <v>44454</v>
+        <v>44448</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H92" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I92" s="40"/>
+      <c r="I92" s="36"/>
       <c r="J92" s="40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L92" s="40"/>
       <c r="M92" s="40"/>
@@ -6659,12 +6706,12 @@
       <c r="P92" s="42"/>
       <c r="Q92" s="40"/>
     </row>
-    <row r="93" ht="36.6" customHeight="1" spans="1:17">
+    <row r="93" ht="39" customHeight="1" spans="1:17">
       <c r="A93" s="36" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>27</v>
@@ -6676,20 +6723,20 @@
         <v>29</v>
       </c>
       <c r="F93" s="39">
-        <v>44454</v>
+        <v>44452</v>
       </c>
       <c r="G93" s="43" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H93" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="K93" s="40" t="s">
-        <v>317</v>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="K93" s="36" t="s">
+        <v>322</v>
       </c>
       <c r="L93" s="40"/>
       <c r="M93" s="40"/>
@@ -6698,12 +6745,12 @@
       <c r="P93" s="42"/>
       <c r="Q93" s="40"/>
     </row>
-    <row r="94" ht="36.6" customHeight="1" spans="1:17">
+    <row r="94" ht="39" customHeight="1" spans="1:17">
       <c r="A94" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C94" s="37" t="s">
         <v>27</v>
@@ -6715,20 +6762,20 @@
         <v>29</v>
       </c>
       <c r="F94" s="39">
-        <v>44454</v>
+        <v>44452</v>
       </c>
       <c r="G94" s="43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H94" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I94" s="40"/>
-      <c r="J94" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="K94" s="40" t="s">
-        <v>328</v>
+      <c r="J94" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K94" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="L94" s="40"/>
       <c r="M94" s="40"/>
@@ -6737,12 +6784,12 @@
       <c r="P94" s="42"/>
       <c r="Q94" s="40"/>
     </row>
-    <row r="95" ht="36.6" customHeight="1" spans="1:17">
+    <row r="95" ht="39" customHeight="1" spans="1:17">
       <c r="A95" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C95" s="37" t="s">
         <v>27</v>
@@ -6754,20 +6801,20 @@
         <v>29</v>
       </c>
       <c r="F95" s="39">
-        <v>44454</v>
+        <v>44452</v>
       </c>
       <c r="G95" s="43" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H95" s="40" t="s">
         <v>56</v>
       </c>
       <c r="I95" s="40"/>
-      <c r="J95" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="K95" s="40" t="s">
-        <v>328</v>
+      <c r="J95" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K95" s="36" t="s">
+        <v>330</v>
       </c>
       <c r="L95" s="40"/>
       <c r="M95" s="40"/>
@@ -6776,12 +6823,12 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="40"/>
     </row>
-    <row r="96" ht="36.6" customHeight="1" spans="1:17">
+    <row r="96" ht="39" customHeight="1" spans="1:17">
       <c r="A96" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C96" s="37" t="s">
         <v>27</v>
@@ -6793,20 +6840,20 @@
         <v>29</v>
       </c>
       <c r="F96" s="39">
-        <v>44454</v>
+        <v>44452</v>
       </c>
       <c r="G96" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H96" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40" t="s">
+      <c r="I96" s="36"/>
+      <c r="J96" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K96" s="36" t="s">
         <v>334</v>
-      </c>
-      <c r="K96" s="40" t="s">
-        <v>328</v>
       </c>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
@@ -6820,7 +6867,7 @@
         <v>335</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="C97" s="37" t="s">
         <v>27</v>
@@ -6834,18 +6881,18 @@
       <c r="F97" s="39">
         <v>44452</v>
       </c>
-      <c r="G97" s="41" t="s">
-        <v>337</v>
+      <c r="G97" s="43" t="s">
+        <v>336</v>
       </c>
       <c r="H97" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I97" s="36"/>
-      <c r="J97" s="40" t="s">
+      <c r="I97" s="40"/>
+      <c r="J97" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="K97" s="36" t="s">
         <v>338</v>
-      </c>
-      <c r="K97" s="40" t="s">
-        <v>339</v>
       </c>
       <c r="L97" s="40"/>
       <c r="M97" s="40"/>
@@ -6856,10 +6903,10 @@
     </row>
     <row r="98" ht="36.6" customHeight="1" spans="1:17">
       <c r="A98" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="C98" s="37" t="s">
         <v>27</v>
@@ -6871,20 +6918,20 @@
         <v>29</v>
       </c>
       <c r="F98" s="39">
-        <v>44454</v>
-      </c>
-      <c r="G98" s="41" t="s">
-        <v>341</v>
+        <v>44452</v>
+      </c>
+      <c r="G98" s="43" t="s">
+        <v>340</v>
       </c>
       <c r="H98" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I98" s="36"/>
-      <c r="J98" s="40" t="s">
+      <c r="I98" s="40"/>
+      <c r="J98" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="K98" s="36" t="s">
         <v>342</v>
-      </c>
-      <c r="K98" s="40" t="s">
-        <v>339</v>
       </c>
       <c r="L98" s="40"/>
       <c r="M98" s="40"/>
@@ -6898,7 +6945,7 @@
         <v>343</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="C99" s="37" t="s">
         <v>27</v>
@@ -6910,15 +6957,15 @@
         <v>29</v>
       </c>
       <c r="F99" s="39">
-        <v>44452</v>
-      </c>
-      <c r="G99" s="41" t="s">
+        <v>44454</v>
+      </c>
+      <c r="G99" s="43" t="s">
         <v>344</v>
       </c>
       <c r="H99" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I99" s="36"/>
+      <c r="I99" s="40"/>
       <c r="J99" s="40" t="s">
         <v>345</v>
       </c>
@@ -6937,7 +6984,7 @@
         <v>347</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="C100" s="37" t="s">
         <v>27</v>
@@ -6951,7 +6998,7 @@
       <c r="F100" s="39">
         <v>44454</v>
       </c>
-      <c r="G100" s="41" t="s">
+      <c r="G100" s="43" t="s">
         <v>348</v>
       </c>
       <c r="H100" s="40" t="s">
@@ -6962,7 +7009,7 @@
         <v>349</v>
       </c>
       <c r="K100" s="40" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L100" s="40"/>
       <c r="M100" s="40"/>
@@ -6971,18 +7018,38 @@
       <c r="P100" s="42"/>
       <c r="Q100" s="40"/>
     </row>
-    <row r="101" ht="60" customHeight="1" spans="1:17">
-      <c r="A101" s="36"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
+    <row r="101" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A101" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="39">
+        <v>44454</v>
+      </c>
+      <c r="G101" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="H101" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="K101" s="40" t="s">
+        <v>346</v>
+      </c>
       <c r="L101" s="40"/>
       <c r="M101" s="40"/>
       <c r="N101" s="42"/>
@@ -6990,18 +7057,38 @@
       <c r="P101" s="42"/>
       <c r="Q101" s="40"/>
     </row>
-    <row r="102" ht="59" customHeight="1" spans="1:17">
-      <c r="A102" s="36"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
+    <row r="102" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A102" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="39">
+        <v>44454</v>
+      </c>
+      <c r="G102" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="H102" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K102" s="40" t="s">
+        <v>357</v>
+      </c>
       <c r="L102" s="40"/>
       <c r="M102" s="40"/>
       <c r="N102" s="42"/>
@@ -7009,18 +7096,38 @@
       <c r="P102" s="42"/>
       <c r="Q102" s="40"/>
     </row>
-    <row r="103" ht="68" customHeight="1" spans="1:17">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
+    <row r="103" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A103" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="39">
+        <v>44454</v>
+      </c>
+      <c r="G103" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="H103" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="K103" s="40" t="s">
+        <v>357</v>
+      </c>
       <c r="L103" s="40"/>
       <c r="M103" s="40"/>
       <c r="N103" s="42"/>
@@ -7028,18 +7135,38 @@
       <c r="P103" s="42"/>
       <c r="Q103" s="40"/>
     </row>
-    <row r="104" ht="59" customHeight="1" spans="1:17">
-      <c r="A104" s="36"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="40"/>
+    <row r="104" ht="36.6" customHeight="1" spans="1:17">
+      <c r="A104" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B104" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="39">
+        <v>44454</v>
+      </c>
+      <c r="G104" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="H104" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="I104" s="40"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
+      <c r="J104" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="K104" s="40" t="s">
+        <v>357</v>
+      </c>
       <c r="L104" s="40"/>
       <c r="M104" s="40"/>
       <c r="N104" s="42"/>
@@ -7048,17 +7175,37 @@
       <c r="Q104" s="40"/>
     </row>
     <row r="105" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A105" s="36"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="40"/>
+      <c r="A105" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="39">
+        <v>44452</v>
+      </c>
+      <c r="G105" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="H105" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
+      <c r="J105" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="K105" s="40" t="s">
+        <v>368</v>
+      </c>
       <c r="L105" s="40"/>
       <c r="M105" s="40"/>
       <c r="N105" s="42"/>
@@ -7067,17 +7214,37 @@
       <c r="Q105" s="40"/>
     </row>
     <row r="106" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A106" s="36"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
+      <c r="A106" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="39">
+        <v>44454</v>
+      </c>
+      <c r="G106" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="H106" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I106" s="36"/>
+      <c r="J106" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="K106" s="40" t="s">
+        <v>368</v>
+      </c>
       <c r="L106" s="40"/>
       <c r="M106" s="40"/>
       <c r="N106" s="42"/>
@@ -7086,17 +7253,37 @@
       <c r="Q106" s="40"/>
     </row>
     <row r="107" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A107" s="36"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
+      <c r="A107" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="39">
+        <v>44452</v>
+      </c>
+      <c r="G107" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="H107" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I107" s="36"/>
+      <c r="J107" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="K107" s="40" t="s">
+        <v>375</v>
+      </c>
       <c r="L107" s="40"/>
       <c r="M107" s="40"/>
       <c r="N107" s="42"/>
@@ -7105,17 +7292,37 @@
       <c r="Q107" s="40"/>
     </row>
     <row r="108" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A108" s="36"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="40"/>
+      <c r="A108" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="39">
+        <v>44454</v>
+      </c>
+      <c r="G108" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H108" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="40"/>
+      <c r="J108" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="K108" s="40" t="s">
+        <v>375</v>
+      </c>
       <c r="L108" s="40"/>
       <c r="M108" s="40"/>
       <c r="N108" s="42"/>
@@ -7123,18 +7330,18 @@
       <c r="P108" s="42"/>
       <c r="Q108" s="40"/>
     </row>
-    <row r="109" ht="36.6" customHeight="1" spans="1:17">
+    <row r="109" ht="60" customHeight="1" spans="1:17">
       <c r="A109" s="36"/>
-      <c r="B109" s="37"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="37"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
       <c r="F109" s="39"/>
-      <c r="G109" s="37"/>
+      <c r="G109" s="41"/>
       <c r="H109" s="40"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="40"/>
-      <c r="K109" s="40"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
       <c r="L109" s="40"/>
       <c r="M109" s="40"/>
       <c r="N109" s="42"/>
@@ -7142,18 +7349,18 @@
       <c r="P109" s="42"/>
       <c r="Q109" s="40"/>
     </row>
-    <row r="110" ht="36.6" customHeight="1" spans="1:17">
+    <row r="110" ht="59" customHeight="1" spans="1:17">
       <c r="A110" s="36"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38"/>
       <c r="F110" s="39"/>
-      <c r="G110" s="37"/>
+      <c r="G110" s="41"/>
       <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="40"/>
-      <c r="K110" s="40"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
       <c r="L110" s="40"/>
       <c r="M110" s="40"/>
       <c r="N110" s="42"/>
@@ -7161,18 +7368,18 @@
       <c r="P110" s="42"/>
       <c r="Q110" s="40"/>
     </row>
-    <row r="111" ht="36.6" customHeight="1" spans="1:17">
+    <row r="111" ht="68" customHeight="1" spans="1:17">
       <c r="A111" s="36"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="36"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38"/>
       <c r="F111" s="39"/>
-      <c r="G111" s="37"/>
+      <c r="G111" s="41"/>
       <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-      <c r="K111" s="40"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
       <c r="L111" s="40"/>
       <c r="M111" s="40"/>
       <c r="N111" s="42"/>
@@ -7180,18 +7387,18 @@
       <c r="P111" s="42"/>
       <c r="Q111" s="40"/>
     </row>
-    <row r="112" ht="36.6" customHeight="1" spans="1:17">
+    <row r="112" ht="59" customHeight="1" spans="1:17">
       <c r="A112" s="36"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38"/>
       <c r="F112" s="39"/>
-      <c r="G112" s="37"/>
+      <c r="G112" s="41"/>
       <c r="H112" s="40"/>
       <c r="I112" s="40"/>
-      <c r="J112" s="40"/>
-      <c r="K112" s="40"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
       <c r="L112" s="40"/>
       <c r="M112" s="40"/>
       <c r="N112" s="42"/>
@@ -7201,16 +7408,16 @@
     </row>
     <row r="113" ht="36.6" customHeight="1" spans="1:17">
       <c r="A113" s="36"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38"/>
       <c r="F113" s="39"/>
-      <c r="G113" s="37"/>
+      <c r="G113" s="41"/>
       <c r="H113" s="40"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="40"/>
-      <c r="K113" s="40"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
       <c r="L113" s="40"/>
       <c r="M113" s="40"/>
       <c r="N113" s="42"/>
@@ -7389,7 +7596,7 @@
       <c r="P122" s="42"/>
       <c r="Q122" s="40"/>
     </row>
-    <row r="123" ht="45" customHeight="1" spans="1:17">
+    <row r="123" ht="36.6" customHeight="1" spans="1:17">
       <c r="A123" s="36"/>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
@@ -7541,7 +7748,7 @@
       <c r="P130" s="42"/>
       <c r="Q130" s="40"/>
     </row>
-    <row r="131" ht="36.6" customHeight="1" spans="1:17">
+    <row r="131" ht="45" customHeight="1" spans="1:17">
       <c r="A131" s="36"/>
       <c r="B131" s="37"/>
       <c r="C131" s="37"/>
@@ -7560,7 +7767,7 @@
       <c r="P131" s="42"/>
       <c r="Q131" s="40"/>
     </row>
-    <row r="132" ht="36" customHeight="1" spans="1:17">
+    <row r="132" ht="36.6" customHeight="1" spans="1:17">
       <c r="A132" s="36"/>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
@@ -7636,7 +7843,7 @@
       <c r="P135" s="42"/>
       <c r="Q135" s="40"/>
     </row>
-    <row r="136" ht="36" customHeight="1" spans="1:17">
+    <row r="136" ht="36.6" customHeight="1" spans="1:17">
       <c r="A136" s="36"/>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
@@ -7712,7 +7919,7 @@
       <c r="P139" s="42"/>
       <c r="Q139" s="40"/>
     </row>
-    <row r="140" ht="36.6" customHeight="1" spans="1:17">
+    <row r="140" ht="36" customHeight="1" spans="1:17">
       <c r="A140" s="36"/>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
@@ -7731,7 +7938,7 @@
       <c r="P140" s="42"/>
       <c r="Q140" s="40"/>
     </row>
-    <row r="141" ht="38" customHeight="1" spans="1:17">
+    <row r="141" ht="36.6" customHeight="1" spans="1:17">
       <c r="A141" s="36"/>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
@@ -7788,7 +7995,7 @@
       <c r="P143" s="42"/>
       <c r="Q143" s="40"/>
     </row>
-    <row r="144" ht="36.6" customHeight="1" spans="1:17">
+    <row r="144" ht="36" customHeight="1" spans="1:17">
       <c r="A144" s="36"/>
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
@@ -7883,7 +8090,7 @@
       <c r="P148" s="42"/>
       <c r="Q148" s="40"/>
     </row>
-    <row r="149" ht="36.6" customHeight="1" spans="1:17">
+    <row r="149" ht="38" customHeight="1" spans="1:17">
       <c r="A149" s="36"/>
       <c r="B149" s="37"/>
       <c r="C149" s="37"/>
@@ -7921,7 +8128,7 @@
       <c r="P150" s="42"/>
       <c r="Q150" s="40"/>
     </row>
-    <row r="151" ht="48" customHeight="1" spans="1:17">
+    <row r="151" ht="36.6" customHeight="1" spans="1:17">
       <c r="A151" s="36"/>
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
@@ -7940,7 +8147,7 @@
       <c r="P151" s="42"/>
       <c r="Q151" s="40"/>
     </row>
-    <row r="152" ht="54" customHeight="1" spans="1:17">
+    <row r="152" ht="36.6" customHeight="1" spans="1:17">
       <c r="A152" s="36"/>
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
@@ -7959,7 +8166,7 @@
       <c r="P152" s="42"/>
       <c r="Q152" s="40"/>
     </row>
-    <row r="153" ht="42.6" customHeight="1" spans="1:17">
+    <row r="153" ht="36.6" customHeight="1" spans="1:17">
       <c r="A153" s="36"/>
       <c r="B153" s="37"/>
       <c r="C153" s="37"/>
@@ -7978,7 +8185,7 @@
       <c r="P153" s="42"/>
       <c r="Q153" s="40"/>
     </row>
-    <row r="154" ht="42.6" customHeight="1" spans="1:17">
+    <row r="154" ht="36.6" customHeight="1" spans="1:17">
       <c r="A154" s="36"/>
       <c r="B154" s="37"/>
       <c r="C154" s="37"/>
@@ -7997,7 +8204,7 @@
       <c r="P154" s="42"/>
       <c r="Q154" s="40"/>
     </row>
-    <row r="155" ht="42.6" customHeight="1" spans="1:17">
+    <row r="155" ht="36.6" customHeight="1" spans="1:17">
       <c r="A155" s="36"/>
       <c r="B155" s="37"/>
       <c r="C155" s="37"/>
@@ -8016,7 +8223,7 @@
       <c r="P155" s="42"/>
       <c r="Q155" s="40"/>
     </row>
-    <row r="156" ht="42.6" customHeight="1" spans="1:17">
+    <row r="156" ht="36.6" customHeight="1" spans="1:17">
       <c r="A156" s="36"/>
       <c r="B156" s="37"/>
       <c r="C156" s="37"/>
@@ -8035,7 +8242,7 @@
       <c r="P156" s="42"/>
       <c r="Q156" s="40"/>
     </row>
-    <row r="157" ht="42.6" customHeight="1" spans="1:17">
+    <row r="157" ht="36.6" customHeight="1" spans="1:17">
       <c r="A157" s="36"/>
       <c r="B157" s="37"/>
       <c r="C157" s="37"/>
@@ -8054,7 +8261,7 @@
       <c r="P157" s="42"/>
       <c r="Q157" s="40"/>
     </row>
-    <row r="158" ht="42.6" customHeight="1" spans="1:17">
+    <row r="158" ht="36.6" customHeight="1" spans="1:17">
       <c r="A158" s="36"/>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
@@ -8073,7 +8280,7 @@
       <c r="P158" s="42"/>
       <c r="Q158" s="40"/>
     </row>
-    <row r="159" ht="42.6" customHeight="1" spans="1:17">
+    <row r="159" ht="48" customHeight="1" spans="1:17">
       <c r="A159" s="36"/>
       <c r="B159" s="37"/>
       <c r="C159" s="37"/>
@@ -8092,7 +8299,7 @@
       <c r="P159" s="42"/>
       <c r="Q159" s="40"/>
     </row>
-    <row r="160" ht="42.6" customHeight="1" spans="1:17">
+    <row r="160" ht="54" customHeight="1" spans="1:17">
       <c r="A160" s="36"/>
       <c r="B160" s="37"/>
       <c r="C160" s="37"/>
@@ -8168,7 +8375,7 @@
       <c r="P163" s="42"/>
       <c r="Q163" s="40"/>
     </row>
-    <row r="164" ht="45" customHeight="1" spans="1:17">
+    <row r="164" ht="42.6" customHeight="1" spans="1:17">
       <c r="A164" s="36"/>
       <c r="B164" s="37"/>
       <c r="C164" s="37"/>
@@ -8187,7 +8394,7 @@
       <c r="P164" s="42"/>
       <c r="Q164" s="40"/>
     </row>
-    <row r="165" ht="46.8" customHeight="1" spans="1:17">
+    <row r="165" ht="42.6" customHeight="1" spans="1:17">
       <c r="A165" s="36"/>
       <c r="B165" s="37"/>
       <c r="C165" s="37"/>
@@ -8206,7 +8413,7 @@
       <c r="P165" s="42"/>
       <c r="Q165" s="40"/>
     </row>
-    <row r="166" ht="46.8" customHeight="1" spans="1:17">
+    <row r="166" ht="42.6" customHeight="1" spans="1:17">
       <c r="A166" s="36"/>
       <c r="B166" s="37"/>
       <c r="C166" s="37"/>
@@ -8225,7 +8432,7 @@
       <c r="P166" s="42"/>
       <c r="Q166" s="40"/>
     </row>
-    <row r="167" ht="36.6" customHeight="1" spans="1:17">
+    <row r="167" ht="42.6" customHeight="1" spans="1:17">
       <c r="A167" s="36"/>
       <c r="B167" s="37"/>
       <c r="C167" s="37"/>
@@ -8244,7 +8451,7 @@
       <c r="P167" s="42"/>
       <c r="Q167" s="40"/>
     </row>
-    <row r="168" ht="36.6" customHeight="1" spans="1:17">
+    <row r="168" ht="42.6" customHeight="1" spans="1:17">
       <c r="A168" s="36"/>
       <c r="B168" s="37"/>
       <c r="C168" s="37"/>
@@ -8263,7 +8470,7 @@
       <c r="P168" s="42"/>
       <c r="Q168" s="40"/>
     </row>
-    <row r="169" ht="36.6" customHeight="1" spans="1:17">
+    <row r="169" ht="42.6" customHeight="1" spans="1:17">
       <c r="A169" s="36"/>
       <c r="B169" s="37"/>
       <c r="C169" s="37"/>
@@ -8282,7 +8489,7 @@
       <c r="P169" s="42"/>
       <c r="Q169" s="40"/>
     </row>
-    <row r="170" ht="36.6" customHeight="1" spans="1:17">
+    <row r="170" ht="42.6" customHeight="1" spans="1:17">
       <c r="A170" s="36"/>
       <c r="B170" s="37"/>
       <c r="C170" s="37"/>
@@ -8301,7 +8508,7 @@
       <c r="P170" s="42"/>
       <c r="Q170" s="40"/>
     </row>
-    <row r="171" ht="36.6" customHeight="1" spans="1:17">
+    <row r="171" ht="42.6" customHeight="1" spans="1:17">
       <c r="A171" s="36"/>
       <c r="B171" s="37"/>
       <c r="C171" s="37"/>
@@ -8320,7 +8527,7 @@
       <c r="P171" s="42"/>
       <c r="Q171" s="40"/>
     </row>
-    <row r="172" ht="36.6" customHeight="1" spans="1:17">
+    <row r="172" ht="45" customHeight="1" spans="1:17">
       <c r="A172" s="36"/>
       <c r="B172" s="37"/>
       <c r="C172" s="37"/>
@@ -8339,7 +8546,7 @@
       <c r="P172" s="42"/>
       <c r="Q172" s="40"/>
     </row>
-    <row r="173" ht="36.6" customHeight="1" spans="1:17">
+    <row r="173" ht="46.8" customHeight="1" spans="1:17">
       <c r="A173" s="36"/>
       <c r="B173" s="37"/>
       <c r="C173" s="37"/>
@@ -8358,7 +8565,7 @@
       <c r="P173" s="42"/>
       <c r="Q173" s="40"/>
     </row>
-    <row r="174" ht="36.6" customHeight="1" spans="1:17">
+    <row r="174" ht="46.8" customHeight="1" spans="1:17">
       <c r="A174" s="36"/>
       <c r="B174" s="37"/>
       <c r="C174" s="37"/>
@@ -8436,7 +8643,7 @@
     </row>
     <row r="178" ht="36.6" customHeight="1" spans="1:17">
       <c r="A178" s="36"/>
-      <c r="B178" s="36"/>
+      <c r="B178" s="37"/>
       <c r="C178" s="37"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38"/>
@@ -8455,7 +8662,7 @@
     </row>
     <row r="179" ht="36.6" customHeight="1" spans="1:17">
       <c r="A179" s="36"/>
-      <c r="B179" s="36"/>
+      <c r="B179" s="37"/>
       <c r="C179" s="37"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38"/>
@@ -8472,7 +8679,7 @@
       <c r="P179" s="42"/>
       <c r="Q179" s="40"/>
     </row>
-    <row r="180" ht="42" customHeight="1" spans="1:17">
+    <row r="180" ht="36.6" customHeight="1" spans="1:17">
       <c r="A180" s="36"/>
       <c r="B180" s="37"/>
       <c r="C180" s="37"/>
@@ -8491,7 +8698,7 @@
       <c r="P180" s="42"/>
       <c r="Q180" s="40"/>
     </row>
-    <row r="181" ht="47.4" customHeight="1" spans="1:17">
+    <row r="181" ht="36.6" customHeight="1" spans="1:17">
       <c r="A181" s="36"/>
       <c r="B181" s="37"/>
       <c r="C181" s="37"/>
@@ -8510,7 +8717,7 @@
       <c r="P181" s="42"/>
       <c r="Q181" s="40"/>
     </row>
-    <row r="182" ht="47.4" customHeight="1" spans="1:17">
+    <row r="182" ht="36.6" customHeight="1" spans="1:17">
       <c r="A182" s="36"/>
       <c r="B182" s="37"/>
       <c r="C182" s="37"/>
@@ -8529,7 +8736,7 @@
       <c r="P182" s="42"/>
       <c r="Q182" s="40"/>
     </row>
-    <row r="183" ht="47.4" customHeight="1" spans="1:17">
+    <row r="183" ht="36.6" customHeight="1" spans="1:17">
       <c r="A183" s="36"/>
       <c r="B183" s="37"/>
       <c r="C183" s="37"/>
@@ -8548,7 +8755,7 @@
       <c r="P183" s="42"/>
       <c r="Q183" s="40"/>
     </row>
-    <row r="184" ht="47.4" customHeight="1" spans="1:17">
+    <row r="184" ht="36.6" customHeight="1" spans="1:17">
       <c r="A184" s="36"/>
       <c r="B184" s="37"/>
       <c r="C184" s="37"/>
@@ -8567,7 +8774,7 @@
       <c r="P184" s="42"/>
       <c r="Q184" s="40"/>
     </row>
-    <row r="185" ht="47.4" customHeight="1" spans="1:17">
+    <row r="185" ht="36.6" customHeight="1" spans="1:17">
       <c r="A185" s="36"/>
       <c r="B185" s="37"/>
       <c r="C185" s="37"/>
@@ -8586,9 +8793,9 @@
       <c r="P185" s="42"/>
       <c r="Q185" s="40"/>
     </row>
-    <row r="186" ht="47.4" customHeight="1" spans="1:17">
+    <row r="186" ht="36.6" customHeight="1" spans="1:17">
       <c r="A186" s="36"/>
-      <c r="B186" s="37"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="37"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38"/>
@@ -8605,9 +8812,9 @@
       <c r="P186" s="42"/>
       <c r="Q186" s="40"/>
     </row>
-    <row r="187" ht="47.4" customHeight="1" spans="1:17">
+    <row r="187" ht="36.6" customHeight="1" spans="1:17">
       <c r="A187" s="36"/>
-      <c r="B187" s="37"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="37"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38"/>
@@ -8624,7 +8831,7 @@
       <c r="P187" s="42"/>
       <c r="Q187" s="40"/>
     </row>
-    <row r="188" ht="47.4" customHeight="1" spans="1:17">
+    <row r="188" ht="42" customHeight="1" spans="1:17">
       <c r="A188" s="36"/>
       <c r="B188" s="37"/>
       <c r="C188" s="37"/>
@@ -8643,7 +8850,7 @@
       <c r="P188" s="42"/>
       <c r="Q188" s="40"/>
     </row>
-    <row r="189" ht="49" customHeight="1" spans="1:17">
+    <row r="189" ht="47.4" customHeight="1" spans="1:17">
       <c r="A189" s="36"/>
       <c r="B189" s="37"/>
       <c r="C189" s="37"/>
@@ -8776,7 +8983,7 @@
       <c r="P195" s="42"/>
       <c r="Q195" s="40"/>
     </row>
-    <row r="196" ht="48" customHeight="1" spans="1:17">
+    <row r="196" ht="47.4" customHeight="1" spans="1:17">
       <c r="A196" s="36"/>
       <c r="B196" s="37"/>
       <c r="C196" s="37"/>
@@ -8795,7 +9002,7 @@
       <c r="P196" s="42"/>
       <c r="Q196" s="40"/>
     </row>
-    <row r="197" ht="46" customHeight="1" spans="1:17">
+    <row r="197" ht="49" customHeight="1" spans="1:17">
       <c r="A197" s="36"/>
       <c r="B197" s="37"/>
       <c r="C197" s="37"/>
@@ -8814,7 +9021,7 @@
       <c r="P197" s="42"/>
       <c r="Q197" s="40"/>
     </row>
-    <row r="198" ht="46" customHeight="1" spans="1:17">
+    <row r="198" ht="47.4" customHeight="1" spans="1:17">
       <c r="A198" s="36"/>
       <c r="B198" s="37"/>
       <c r="C198" s="37"/>
@@ -8833,7 +9040,7 @@
       <c r="P198" s="42"/>
       <c r="Q198" s="40"/>
     </row>
-    <row r="199" ht="46" customHeight="1" spans="1:17">
+    <row r="199" ht="47.4" customHeight="1" spans="1:17">
       <c r="A199" s="36"/>
       <c r="B199" s="37"/>
       <c r="C199" s="37"/>
@@ -8852,7 +9059,7 @@
       <c r="P199" s="42"/>
       <c r="Q199" s="40"/>
     </row>
-    <row r="200" ht="52" customHeight="1" spans="1:17">
+    <row r="200" ht="47.4" customHeight="1" spans="1:17">
       <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="37"/>
@@ -8871,18 +9078,18 @@
       <c r="P200" s="42"/>
       <c r="Q200" s="40"/>
     </row>
-    <row r="201" ht="44" customHeight="1" spans="1:17">
+    <row r="201" ht="47.4" customHeight="1" spans="1:17">
       <c r="A201" s="36"/>
       <c r="B201" s="37"/>
       <c r="C201" s="37"/>
       <c r="D201" s="38"/>
       <c r="E201" s="38"/>
       <c r="F201" s="39"/>
-      <c r="G201" s="41"/>
+      <c r="G201" s="37"/>
       <c r="H201" s="40"/>
       <c r="I201" s="40"/>
-      <c r="J201" s="36"/>
-      <c r="K201" s="36"/>
+      <c r="J201" s="40"/>
+      <c r="K201" s="40"/>
       <c r="L201" s="40"/>
       <c r="M201" s="40"/>
       <c r="N201" s="42"/>
@@ -8890,18 +9097,18 @@
       <c r="P201" s="42"/>
       <c r="Q201" s="40"/>
     </row>
-    <row r="202" ht="44" customHeight="1" spans="1:17">
+    <row r="202" ht="47.4" customHeight="1" spans="1:17">
       <c r="A202" s="36"/>
       <c r="B202" s="37"/>
       <c r="C202" s="37"/>
       <c r="D202" s="38"/>
       <c r="E202" s="38"/>
       <c r="F202" s="39"/>
-      <c r="G202" s="41"/>
+      <c r="G202" s="37"/>
       <c r="H202" s="40"/>
       <c r="I202" s="40"/>
-      <c r="J202" s="36"/>
-      <c r="K202" s="36"/>
+      <c r="J202" s="40"/>
+      <c r="K202" s="40"/>
       <c r="L202" s="40"/>
       <c r="M202" s="40"/>
       <c r="N202" s="42"/>
@@ -8909,18 +9116,18 @@
       <c r="P202" s="42"/>
       <c r="Q202" s="40"/>
     </row>
-    <row r="203" ht="44" customHeight="1" spans="1:17">
+    <row r="203" ht="47.4" customHeight="1" spans="1:17">
       <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="37"/>
       <c r="D203" s="38"/>
       <c r="E203" s="38"/>
       <c r="F203" s="39"/>
-      <c r="G203" s="41"/>
+      <c r="G203" s="37"/>
       <c r="H203" s="40"/>
       <c r="I203" s="40"/>
-      <c r="J203" s="36"/>
-      <c r="K203" s="36"/>
+      <c r="J203" s="40"/>
+      <c r="K203" s="40"/>
       <c r="L203" s="40"/>
       <c r="M203" s="40"/>
       <c r="N203" s="42"/>
@@ -8928,18 +9135,18 @@
       <c r="P203" s="42"/>
       <c r="Q203" s="40"/>
     </row>
-    <row r="204" ht="49" customHeight="1" spans="1:17">
+    <row r="204" ht="48" customHeight="1" spans="1:17">
       <c r="A204" s="36"/>
       <c r="B204" s="37"/>
       <c r="C204" s="37"/>
       <c r="D204" s="38"/>
       <c r="E204" s="38"/>
       <c r="F204" s="39"/>
-      <c r="G204" s="41"/>
+      <c r="G204" s="37"/>
       <c r="H204" s="40"/>
       <c r="I204" s="40"/>
-      <c r="J204" s="36"/>
-      <c r="K204" s="36"/>
+      <c r="J204" s="40"/>
+      <c r="K204" s="40"/>
       <c r="L204" s="40"/>
       <c r="M204" s="40"/>
       <c r="N204" s="42"/>
@@ -8947,8 +9154,8 @@
       <c r="P204" s="42"/>
       <c r="Q204" s="40"/>
     </row>
-    <row r="205" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A205" s="44"/>
+    <row r="205" ht="46" customHeight="1" spans="1:17">
+      <c r="A205" s="36"/>
       <c r="B205" s="37"/>
       <c r="C205" s="37"/>
       <c r="D205" s="38"/>
@@ -8966,8 +9173,8 @@
       <c r="P205" s="42"/>
       <c r="Q205" s="40"/>
     </row>
-    <row r="206" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A206" s="44"/>
+    <row r="206" ht="46" customHeight="1" spans="1:17">
+      <c r="A206" s="36"/>
       <c r="B206" s="37"/>
       <c r="C206" s="37"/>
       <c r="D206" s="38"/>
@@ -8985,8 +9192,8 @@
       <c r="P206" s="42"/>
       <c r="Q206" s="40"/>
     </row>
-    <row r="207" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A207" s="44"/>
+    <row r="207" ht="46" customHeight="1" spans="1:17">
+      <c r="A207" s="36"/>
       <c r="B207" s="37"/>
       <c r="C207" s="37"/>
       <c r="D207" s="38"/>
@@ -9004,8 +9211,8 @@
       <c r="P207" s="42"/>
       <c r="Q207" s="40"/>
     </row>
-    <row r="208" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A208" s="44"/>
+    <row r="208" ht="52" customHeight="1" spans="1:17">
+      <c r="A208" s="36"/>
       <c r="B208" s="37"/>
       <c r="C208" s="37"/>
       <c r="D208" s="38"/>
@@ -9023,18 +9230,18 @@
       <c r="P208" s="42"/>
       <c r="Q208" s="40"/>
     </row>
-    <row r="209" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A209" s="44"/>
+    <row r="209" ht="44" customHeight="1" spans="1:17">
+      <c r="A209" s="36"/>
       <c r="B209" s="37"/>
       <c r="C209" s="37"/>
       <c r="D209" s="38"/>
       <c r="E209" s="38"/>
       <c r="F209" s="39"/>
-      <c r="G209" s="37"/>
+      <c r="G209" s="41"/>
       <c r="H209" s="40"/>
       <c r="I209" s="40"/>
-      <c r="J209" s="40"/>
-      <c r="K209" s="40"/>
+      <c r="J209" s="36"/>
+      <c r="K209" s="36"/>
       <c r="L209" s="40"/>
       <c r="M209" s="40"/>
       <c r="N209" s="42"/>
@@ -9042,18 +9249,18 @@
       <c r="P209" s="42"/>
       <c r="Q209" s="40"/>
     </row>
-    <row r="210" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A210" s="44"/>
+    <row r="210" ht="44" customHeight="1" spans="1:17">
+      <c r="A210" s="36"/>
       <c r="B210" s="37"/>
       <c r="C210" s="37"/>
       <c r="D210" s="38"/>
       <c r="E210" s="38"/>
       <c r="F210" s="39"/>
-      <c r="G210" s="37"/>
+      <c r="G210" s="41"/>
       <c r="H210" s="40"/>
       <c r="I210" s="40"/>
-      <c r="J210" s="40"/>
-      <c r="K210" s="40"/>
+      <c r="J210" s="36"/>
+      <c r="K210" s="36"/>
       <c r="L210" s="40"/>
       <c r="M210" s="40"/>
       <c r="N210" s="42"/>
@@ -9061,18 +9268,18 @@
       <c r="P210" s="42"/>
       <c r="Q210" s="40"/>
     </row>
-    <row r="211" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A211" s="44"/>
+    <row r="211" ht="44" customHeight="1" spans="1:17">
+      <c r="A211" s="36"/>
       <c r="B211" s="37"/>
       <c r="C211" s="37"/>
       <c r="D211" s="38"/>
       <c r="E211" s="38"/>
       <c r="F211" s="39"/>
-      <c r="G211" s="37"/>
+      <c r="G211" s="41"/>
       <c r="H211" s="40"/>
       <c r="I211" s="40"/>
-      <c r="J211" s="40"/>
-      <c r="K211" s="40"/>
+      <c r="J211" s="36"/>
+      <c r="K211" s="36"/>
       <c r="L211" s="40"/>
       <c r="M211" s="40"/>
       <c r="N211" s="42"/>
@@ -9080,18 +9287,18 @@
       <c r="P211" s="42"/>
       <c r="Q211" s="40"/>
     </row>
-    <row r="212" ht="36.6" customHeight="1" spans="1:17">
-      <c r="A212" s="44"/>
+    <row r="212" ht="49" customHeight="1" spans="1:17">
+      <c r="A212" s="36"/>
       <c r="B212" s="37"/>
       <c r="C212" s="37"/>
       <c r="D212" s="38"/>
       <c r="E212" s="38"/>
       <c r="F212" s="39"/>
-      <c r="G212" s="37"/>
+      <c r="G212" s="41"/>
       <c r="H212" s="40"/>
       <c r="I212" s="40"/>
-      <c r="J212" s="40"/>
-      <c r="K212" s="40"/>
+      <c r="J212" s="36"/>
+      <c r="K212" s="36"/>
       <c r="L212" s="40"/>
       <c r="M212" s="40"/>
       <c r="N212" s="42"/>
@@ -9099,7 +9306,7 @@
       <c r="P212" s="42"/>
       <c r="Q212" s="40"/>
     </row>
-    <row r="213" ht="37" customHeight="1" spans="1:17">
+    <row r="213" ht="36.6" customHeight="1" spans="1:17">
       <c r="A213" s="44"/>
       <c r="B213" s="37"/>
       <c r="C213" s="37"/>
@@ -9118,7 +9325,7 @@
       <c r="P213" s="42"/>
       <c r="Q213" s="40"/>
     </row>
-    <row r="214" ht="37" customHeight="1" spans="1:17">
+    <row r="214" ht="36.6" customHeight="1" spans="1:17">
       <c r="A214" s="44"/>
       <c r="B214" s="37"/>
       <c r="C214" s="37"/>
@@ -9137,7 +9344,7 @@
       <c r="P214" s="42"/>
       <c r="Q214" s="40"/>
     </row>
-    <row r="215" ht="37" customHeight="1" spans="1:17">
+    <row r="215" ht="36.6" customHeight="1" spans="1:17">
       <c r="A215" s="44"/>
       <c r="B215" s="37"/>
       <c r="C215" s="37"/>
@@ -9156,7 +9363,7 @@
       <c r="P215" s="42"/>
       <c r="Q215" s="40"/>
     </row>
-    <row r="216" ht="37" customHeight="1" spans="1:17">
+    <row r="216" ht="36.6" customHeight="1" spans="1:17">
       <c r="A216" s="44"/>
       <c r="B216" s="37"/>
       <c r="C216" s="37"/>
@@ -9175,7 +9382,7 @@
       <c r="P216" s="42"/>
       <c r="Q216" s="40"/>
     </row>
-    <row r="217" ht="37" customHeight="1" spans="1:17">
+    <row r="217" ht="36.6" customHeight="1" spans="1:17">
       <c r="A217" s="44"/>
       <c r="B217" s="37"/>
       <c r="C217" s="37"/>
@@ -9194,7 +9401,7 @@
       <c r="P217" s="42"/>
       <c r="Q217" s="40"/>
     </row>
-    <row r="218" ht="37" customHeight="1" spans="1:17">
+    <row r="218" ht="36.6" customHeight="1" spans="1:17">
       <c r="A218" s="44"/>
       <c r="B218" s="37"/>
       <c r="C218" s="37"/>
@@ -9213,7 +9420,7 @@
       <c r="P218" s="42"/>
       <c r="Q218" s="40"/>
     </row>
-    <row r="219" ht="37" customHeight="1" spans="1:17">
+    <row r="219" ht="36.6" customHeight="1" spans="1:17">
       <c r="A219" s="44"/>
       <c r="B219" s="37"/>
       <c r="C219" s="37"/>
@@ -9251,7 +9458,7 @@
       <c r="P220" s="42"/>
       <c r="Q220" s="40"/>
     </row>
-    <row r="221" ht="36.6" customHeight="1" spans="1:17">
+    <row r="221" ht="37" customHeight="1" spans="1:17">
       <c r="A221" s="44"/>
       <c r="B221" s="37"/>
       <c r="C221" s="37"/>
@@ -9270,7 +9477,7 @@
       <c r="P221" s="42"/>
       <c r="Q221" s="40"/>
     </row>
-    <row r="222" ht="36.6" customHeight="1" spans="1:17">
+    <row r="222" ht="37" customHeight="1" spans="1:17">
       <c r="A222" s="44"/>
       <c r="B222" s="37"/>
       <c r="C222" s="37"/>
@@ -9289,7 +9496,7 @@
       <c r="P222" s="42"/>
       <c r="Q222" s="40"/>
     </row>
-    <row r="223" ht="36.6" customHeight="1" spans="1:17">
+    <row r="223" ht="37" customHeight="1" spans="1:17">
       <c r="A223" s="44"/>
       <c r="B223" s="37"/>
       <c r="C223" s="37"/>
@@ -9308,7 +9515,7 @@
       <c r="P223" s="42"/>
       <c r="Q223" s="40"/>
     </row>
-    <row r="224" ht="36.6" customHeight="1" spans="1:17">
+    <row r="224" ht="37" customHeight="1" spans="1:17">
       <c r="A224" s="44"/>
       <c r="B224" s="37"/>
       <c r="C224" s="37"/>
@@ -9327,7 +9534,7 @@
       <c r="P224" s="42"/>
       <c r="Q224" s="40"/>
     </row>
-    <row r="225" ht="36.6" customHeight="1" spans="1:17">
+    <row r="225" ht="37" customHeight="1" spans="1:17">
       <c r="A225" s="44"/>
       <c r="B225" s="37"/>
       <c r="C225" s="37"/>
@@ -9346,7 +9553,7 @@
       <c r="P225" s="42"/>
       <c r="Q225" s="40"/>
     </row>
-    <row r="226" ht="36.6" customHeight="1" spans="1:17">
+    <row r="226" ht="37" customHeight="1" spans="1:17">
       <c r="A226" s="44"/>
       <c r="B226" s="37"/>
       <c r="C226" s="37"/>
@@ -9365,7 +9572,7 @@
       <c r="P226" s="42"/>
       <c r="Q226" s="40"/>
     </row>
-    <row r="227" ht="36.6" customHeight="1" spans="1:17">
+    <row r="227" ht="37" customHeight="1" spans="1:17">
       <c r="A227" s="44"/>
       <c r="B227" s="37"/>
       <c r="C227" s="37"/>
@@ -9517,7 +9724,7 @@
       <c r="P234" s="42"/>
       <c r="Q234" s="40"/>
     </row>
-    <row r="235" customHeight="1" spans="1:17">
+    <row r="235" ht="36.6" customHeight="1" spans="1:17">
       <c r="A235" s="44"/>
       <c r="B235" s="37"/>
       <c r="C235" s="37"/>
@@ -9536,7 +9743,7 @@
       <c r="P235" s="42"/>
       <c r="Q235" s="40"/>
     </row>
-    <row r="236" ht="36" customHeight="1" spans="1:17">
+    <row r="236" ht="36.6" customHeight="1" spans="1:17">
       <c r="A236" s="44"/>
       <c r="B236" s="37"/>
       <c r="C236" s="37"/>
@@ -9555,7 +9762,7 @@
       <c r="P236" s="42"/>
       <c r="Q236" s="40"/>
     </row>
-    <row r="237" ht="36" customHeight="1" spans="1:17">
+    <row r="237" ht="36.6" customHeight="1" spans="1:17">
       <c r="A237" s="44"/>
       <c r="B237" s="37"/>
       <c r="C237" s="37"/>
@@ -9574,7 +9781,7 @@
       <c r="P237" s="42"/>
       <c r="Q237" s="40"/>
     </row>
-    <row r="238" ht="36" customHeight="1" spans="1:17">
+    <row r="238" ht="36.6" customHeight="1" spans="1:17">
       <c r="A238" s="44"/>
       <c r="B238" s="37"/>
       <c r="C238" s="37"/>
@@ -9593,7 +9800,7 @@
       <c r="P238" s="42"/>
       <c r="Q238" s="40"/>
     </row>
-    <row r="239" ht="36" customHeight="1" spans="1:17">
+    <row r="239" ht="36.6" customHeight="1" spans="1:17">
       <c r="A239" s="44"/>
       <c r="B239" s="37"/>
       <c r="C239" s="37"/>
@@ -9612,7 +9819,7 @@
       <c r="P239" s="42"/>
       <c r="Q239" s="40"/>
     </row>
-    <row r="240" ht="36" customHeight="1" spans="1:17">
+    <row r="240" ht="36.6" customHeight="1" spans="1:17">
       <c r="A240" s="44"/>
       <c r="B240" s="37"/>
       <c r="C240" s="37"/>
@@ -9631,7 +9838,7 @@
       <c r="P240" s="42"/>
       <c r="Q240" s="40"/>
     </row>
-    <row r="241" ht="36" customHeight="1" spans="1:17">
+    <row r="241" ht="36.6" customHeight="1" spans="1:17">
       <c r="A241" s="44"/>
       <c r="B241" s="37"/>
       <c r="C241" s="37"/>
@@ -9650,7 +9857,7 @@
       <c r="P241" s="42"/>
       <c r="Q241" s="40"/>
     </row>
-    <row r="242" ht="36" customHeight="1" spans="1:17">
+    <row r="242" ht="36.6" customHeight="1" spans="1:17">
       <c r="A242" s="44"/>
       <c r="B242" s="37"/>
       <c r="C242" s="37"/>
@@ -9669,7 +9876,7 @@
       <c r="P242" s="42"/>
       <c r="Q242" s="40"/>
     </row>
-    <row r="243" ht="36" customHeight="1" spans="1:17">
+    <row r="243" customHeight="1" spans="1:17">
       <c r="A243" s="44"/>
       <c r="B243" s="37"/>
       <c r="C243" s="37"/>
@@ -9764,7 +9971,7 @@
       <c r="P247" s="42"/>
       <c r="Q247" s="40"/>
     </row>
-    <row r="248" customHeight="1" spans="1:17">
+    <row r="248" ht="36" customHeight="1" spans="1:17">
       <c r="A248" s="44"/>
       <c r="B248" s="37"/>
       <c r="C248" s="37"/>
@@ -9783,7 +9990,7 @@
       <c r="P248" s="42"/>
       <c r="Q248" s="40"/>
     </row>
-    <row r="249" ht="36.6" customHeight="1" spans="1:17">
+    <row r="249" ht="36" customHeight="1" spans="1:17">
       <c r="A249" s="44"/>
       <c r="B249" s="37"/>
       <c r="C249" s="37"/>
@@ -9802,7 +10009,7 @@
       <c r="P249" s="42"/>
       <c r="Q249" s="40"/>
     </row>
-    <row r="250" ht="36.6" customHeight="1" spans="1:17">
+    <row r="250" ht="36" customHeight="1" spans="1:17">
       <c r="A250" s="44"/>
       <c r="B250" s="37"/>
       <c r="C250" s="37"/>
@@ -9821,7 +10028,7 @@
       <c r="P250" s="42"/>
       <c r="Q250" s="40"/>
     </row>
-    <row r="251" ht="36.6" customHeight="1" spans="1:17">
+    <row r="251" ht="36" customHeight="1" spans="1:17">
       <c r="A251" s="44"/>
       <c r="B251" s="37"/>
       <c r="C251" s="37"/>
@@ -9840,7 +10047,7 @@
       <c r="P251" s="42"/>
       <c r="Q251" s="40"/>
     </row>
-    <row r="252" ht="36.6" customHeight="1" spans="1:17">
+    <row r="252" ht="36" customHeight="1" spans="1:17">
       <c r="A252" s="44"/>
       <c r="B252" s="37"/>
       <c r="C252" s="37"/>
@@ -9859,7 +10066,7 @@
       <c r="P252" s="42"/>
       <c r="Q252" s="40"/>
     </row>
-    <row r="253" ht="36.6" customHeight="1" spans="1:17">
+    <row r="253" ht="36" customHeight="1" spans="1:17">
       <c r="A253" s="44"/>
       <c r="B253" s="37"/>
       <c r="C253" s="37"/>
@@ -9878,7 +10085,7 @@
       <c r="P253" s="42"/>
       <c r="Q253" s="40"/>
     </row>
-    <row r="254" ht="36.6" customHeight="1" spans="1:17">
+    <row r="254" ht="36" customHeight="1" spans="1:17">
       <c r="A254" s="44"/>
       <c r="B254" s="37"/>
       <c r="C254" s="37"/>
@@ -9897,7 +10104,7 @@
       <c r="P254" s="42"/>
       <c r="Q254" s="40"/>
     </row>
-    <row r="255" ht="36.6" customHeight="1" spans="1:17">
+    <row r="255" ht="36" customHeight="1" spans="1:17">
       <c r="A255" s="44"/>
       <c r="B255" s="37"/>
       <c r="C255" s="37"/>
@@ -9916,7 +10123,7 @@
       <c r="P255" s="42"/>
       <c r="Q255" s="40"/>
     </row>
-    <row r="256" ht="36.6" customHeight="1" spans="1:17">
+    <row r="256" customHeight="1" spans="1:17">
       <c r="A256" s="44"/>
       <c r="B256" s="37"/>
       <c r="C256" s="37"/>
@@ -10524,7 +10731,7 @@
       <c r="P287" s="42"/>
       <c r="Q287" s="40"/>
     </row>
-    <row r="288" ht="37" customHeight="1" spans="1:17">
+    <row r="288" ht="36.6" customHeight="1" spans="1:17">
       <c r="A288" s="44"/>
       <c r="B288" s="37"/>
       <c r="C288" s="37"/>
@@ -10581,7 +10788,7 @@
       <c r="P290" s="42"/>
       <c r="Q290" s="40"/>
     </row>
-    <row r="291" ht="17" customHeight="1" spans="1:17">
+    <row r="291" ht="36.6" customHeight="1" spans="1:17">
       <c r="A291" s="44"/>
       <c r="B291" s="37"/>
       <c r="C291" s="37"/>
@@ -10676,7 +10883,7 @@
       <c r="P295" s="42"/>
       <c r="Q295" s="40"/>
     </row>
-    <row r="296" ht="36.6" customHeight="1" spans="1:17">
+    <row r="296" ht="37" customHeight="1" spans="1:17">
       <c r="A296" s="44"/>
       <c r="B296" s="37"/>
       <c r="C296" s="37"/>
@@ -10733,7 +10940,7 @@
       <c r="P298" s="42"/>
       <c r="Q298" s="40"/>
     </row>
-    <row r="299" ht="36.6" customHeight="1" spans="1:17">
+    <row r="299" ht="17" customHeight="1" spans="1:17">
       <c r="A299" s="44"/>
       <c r="B299" s="37"/>
       <c r="C299" s="37"/>
@@ -10885,7 +11092,7 @@
       <c r="P306" s="42"/>
       <c r="Q306" s="40"/>
     </row>
-    <row r="307" ht="13" customHeight="1" spans="1:17">
+    <row r="307" ht="36.6" customHeight="1" spans="1:17">
       <c r="A307" s="44"/>
       <c r="B307" s="37"/>
       <c r="C307" s="37"/>
@@ -10904,7 +11111,7 @@
       <c r="P307" s="42"/>
       <c r="Q307" s="40"/>
     </row>
-    <row r="308" ht="67" customHeight="1" spans="1:17">
+    <row r="308" ht="36.6" customHeight="1" spans="1:17">
       <c r="A308" s="44"/>
       <c r="B308" s="37"/>
       <c r="C308" s="37"/>
@@ -10923,7 +11130,7 @@
       <c r="P308" s="42"/>
       <c r="Q308" s="40"/>
     </row>
-    <row r="309" ht="56" customHeight="1" spans="1:17">
+    <row r="309" ht="36.6" customHeight="1" spans="1:17">
       <c r="A309" s="44"/>
       <c r="B309" s="37"/>
       <c r="C309" s="37"/>
@@ -10942,7 +11149,7 @@
       <c r="P309" s="42"/>
       <c r="Q309" s="40"/>
     </row>
-    <row r="310" ht="56" customHeight="1" spans="1:17">
+    <row r="310" ht="36.6" customHeight="1" spans="1:17">
       <c r="A310" s="44"/>
       <c r="B310" s="37"/>
       <c r="C310" s="37"/>
@@ -10961,7 +11168,7 @@
       <c r="P310" s="42"/>
       <c r="Q310" s="40"/>
     </row>
-    <row r="311" ht="56" customHeight="1" spans="1:17">
+    <row r="311" ht="36.6" customHeight="1" spans="1:17">
       <c r="A311" s="44"/>
       <c r="B311" s="37"/>
       <c r="C311" s="37"/>
@@ -10980,7 +11187,7 @@
       <c r="P311" s="42"/>
       <c r="Q311" s="40"/>
     </row>
-    <row r="312" ht="56" customHeight="1" spans="1:17">
+    <row r="312" ht="36.6" customHeight="1" spans="1:17">
       <c r="A312" s="44"/>
       <c r="B312" s="37"/>
       <c r="C312" s="37"/>
@@ -10999,7 +11206,7 @@
       <c r="P312" s="42"/>
       <c r="Q312" s="40"/>
     </row>
-    <row r="313" ht="56" customHeight="1" spans="1:17">
+    <row r="313" ht="36.6" customHeight="1" spans="1:17">
       <c r="A313" s="44"/>
       <c r="B313" s="37"/>
       <c r="C313" s="37"/>
@@ -11018,7 +11225,7 @@
       <c r="P313" s="42"/>
       <c r="Q313" s="40"/>
     </row>
-    <row r="314" ht="56" customHeight="1" spans="1:17">
+    <row r="314" ht="36.6" customHeight="1" spans="1:17">
       <c r="A314" s="44"/>
       <c r="B314" s="37"/>
       <c r="C314" s="37"/>
@@ -11037,7 +11244,7 @@
       <c r="P314" s="42"/>
       <c r="Q314" s="40"/>
     </row>
-    <row r="315" ht="56" customHeight="1" spans="1:17">
+    <row r="315" ht="13" customHeight="1" spans="1:17">
       <c r="A315" s="44"/>
       <c r="B315" s="37"/>
       <c r="C315" s="37"/>
@@ -11056,7 +11263,7 @@
       <c r="P315" s="42"/>
       <c r="Q315" s="40"/>
     </row>
-    <row r="316" ht="56" customHeight="1" spans="1:17">
+    <row r="316" ht="67" customHeight="1" spans="1:17">
       <c r="A316" s="44"/>
       <c r="B316" s="37"/>
       <c r="C316" s="37"/>
@@ -11303,7 +11510,7 @@
       <c r="P328" s="42"/>
       <c r="Q328" s="40"/>
     </row>
-    <row r="329" ht="14" customHeight="1" spans="1:17">
+    <row r="329" ht="56" customHeight="1" spans="1:17">
       <c r="A329" s="44"/>
       <c r="B329" s="37"/>
       <c r="C329" s="37"/>
@@ -11322,7 +11529,7 @@
       <c r="P329" s="42"/>
       <c r="Q329" s="40"/>
     </row>
-    <row r="330" ht="40" customHeight="1" spans="1:17">
+    <row r="330" ht="56" customHeight="1" spans="1:17">
       <c r="A330" s="44"/>
       <c r="B330" s="37"/>
       <c r="C330" s="37"/>
@@ -11341,7 +11548,7 @@
       <c r="P330" s="42"/>
       <c r="Q330" s="40"/>
     </row>
-    <row r="331" ht="40" customHeight="1" spans="1:17">
+    <row r="331" ht="56" customHeight="1" spans="1:17">
       <c r="A331" s="44"/>
       <c r="B331" s="37"/>
       <c r="C331" s="37"/>
@@ -11360,7 +11567,7 @@
       <c r="P331" s="42"/>
       <c r="Q331" s="40"/>
     </row>
-    <row r="332" ht="40" customHeight="1" spans="1:17">
+    <row r="332" ht="56" customHeight="1" spans="1:17">
       <c r="A332" s="44"/>
       <c r="B332" s="37"/>
       <c r="C332" s="37"/>
@@ -11379,7 +11586,7 @@
       <c r="P332" s="42"/>
       <c r="Q332" s="40"/>
     </row>
-    <row r="333" ht="40" customHeight="1" spans="1:17">
+    <row r="333" ht="56" customHeight="1" spans="1:17">
       <c r="A333" s="44"/>
       <c r="B333" s="37"/>
       <c r="C333" s="37"/>
@@ -11398,7 +11605,7 @@
       <c r="P333" s="42"/>
       <c r="Q333" s="40"/>
     </row>
-    <row r="334" ht="40" customHeight="1" spans="1:17">
+    <row r="334" ht="56" customHeight="1" spans="1:17">
       <c r="A334" s="44"/>
       <c r="B334" s="37"/>
       <c r="C334" s="37"/>
@@ -11417,7 +11624,7 @@
       <c r="P334" s="42"/>
       <c r="Q334" s="40"/>
     </row>
-    <row r="335" ht="15" customHeight="1" spans="1:17">
+    <row r="335" ht="56" customHeight="1" spans="1:17">
       <c r="A335" s="44"/>
       <c r="B335" s="37"/>
       <c r="C335" s="37"/>
@@ -11436,7 +11643,7 @@
       <c r="P335" s="42"/>
       <c r="Q335" s="40"/>
     </row>
-    <row r="336" ht="45" customHeight="1" spans="1:17">
+    <row r="336" ht="56" customHeight="1" spans="1:17">
       <c r="A336" s="44"/>
       <c r="B336" s="37"/>
       <c r="C336" s="37"/>
@@ -11455,7 +11662,7 @@
       <c r="P336" s="42"/>
       <c r="Q336" s="40"/>
     </row>
-    <row r="337" ht="45" customHeight="1" spans="1:17">
+    <row r="337" ht="14" customHeight="1" spans="1:17">
       <c r="A337" s="44"/>
       <c r="B337" s="37"/>
       <c r="C337" s="37"/>
@@ -11474,7 +11681,7 @@
       <c r="P337" s="42"/>
       <c r="Q337" s="40"/>
     </row>
-    <row r="338" ht="45" customHeight="1" spans="1:17">
+    <row r="338" ht="40" customHeight="1" spans="1:17">
       <c r="A338" s="44"/>
       <c r="B338" s="37"/>
       <c r="C338" s="37"/>
@@ -11493,7 +11700,7 @@
       <c r="P338" s="42"/>
       <c r="Q338" s="40"/>
     </row>
-    <row r="339" ht="45" customHeight="1" spans="1:17">
+    <row r="339" ht="40" customHeight="1" spans="1:17">
       <c r="A339" s="44"/>
       <c r="B339" s="37"/>
       <c r="C339" s="37"/>
@@ -11512,7 +11719,7 @@
       <c r="P339" s="42"/>
       <c r="Q339" s="40"/>
     </row>
-    <row r="340" ht="45" customHeight="1" spans="1:17">
+    <row r="340" ht="40" customHeight="1" spans="1:17">
       <c r="A340" s="44"/>
       <c r="B340" s="37"/>
       <c r="C340" s="37"/>
@@ -11531,7 +11738,7 @@
       <c r="P340" s="42"/>
       <c r="Q340" s="40"/>
     </row>
-    <row r="341" ht="45" customHeight="1" spans="1:17">
+    <row r="341" ht="40" customHeight="1" spans="1:17">
       <c r="A341" s="44"/>
       <c r="B341" s="37"/>
       <c r="C341" s="37"/>
@@ -11550,7 +11757,7 @@
       <c r="P341" s="42"/>
       <c r="Q341" s="40"/>
     </row>
-    <row r="342" ht="45" customHeight="1" spans="1:17">
+    <row r="342" ht="40" customHeight="1" spans="1:17">
       <c r="A342" s="44"/>
       <c r="B342" s="37"/>
       <c r="C342" s="37"/>
@@ -11569,7 +11776,7 @@
       <c r="P342" s="42"/>
       <c r="Q342" s="40"/>
     </row>
-    <row r="343" ht="45" customHeight="1" spans="1:17">
+    <row r="343" ht="15" customHeight="1" spans="1:17">
       <c r="A343" s="44"/>
       <c r="B343" s="37"/>
       <c r="C343" s="37"/>
@@ -11588,7 +11795,7 @@
       <c r="P343" s="42"/>
       <c r="Q343" s="40"/>
     </row>
-    <row r="344" ht="10" customHeight="1" spans="1:17">
+    <row r="344" ht="45" customHeight="1" spans="1:17">
       <c r="A344" s="44"/>
       <c r="B344" s="37"/>
       <c r="C344" s="37"/>
@@ -11607,7 +11814,7 @@
       <c r="P344" s="42"/>
       <c r="Q344" s="40"/>
     </row>
-    <row r="345" ht="44" customHeight="1" spans="1:17">
+    <row r="345" ht="45" customHeight="1" spans="1:17">
       <c r="A345" s="44"/>
       <c r="B345" s="37"/>
       <c r="C345" s="37"/>
@@ -11626,7 +11833,7 @@
       <c r="P345" s="42"/>
       <c r="Q345" s="40"/>
     </row>
-    <row r="346" ht="44" customHeight="1" spans="1:17">
+    <row r="346" ht="45" customHeight="1" spans="1:17">
       <c r="A346" s="44"/>
       <c r="B346" s="37"/>
       <c r="C346" s="37"/>
@@ -11645,7 +11852,7 @@
       <c r="P346" s="42"/>
       <c r="Q346" s="40"/>
     </row>
-    <row r="347" ht="44" customHeight="1" spans="1:17">
+    <row r="347" ht="45" customHeight="1" spans="1:17">
       <c r="A347" s="44"/>
       <c r="B347" s="37"/>
       <c r="C347" s="37"/>
@@ -11664,7 +11871,7 @@
       <c r="P347" s="42"/>
       <c r="Q347" s="40"/>
     </row>
-    <row r="348" ht="44" customHeight="1" spans="1:17">
+    <row r="348" ht="45" customHeight="1" spans="1:17">
       <c r="A348" s="44"/>
       <c r="B348" s="37"/>
       <c r="C348" s="37"/>
@@ -11683,7 +11890,7 @@
       <c r="P348" s="42"/>
       <c r="Q348" s="40"/>
     </row>
-    <row r="349" ht="44" customHeight="1" spans="1:17">
+    <row r="349" ht="45" customHeight="1" spans="1:17">
       <c r="A349" s="44"/>
       <c r="B349" s="37"/>
       <c r="C349" s="37"/>
@@ -11702,7 +11909,7 @@
       <c r="P349" s="42"/>
       <c r="Q349" s="40"/>
     </row>
-    <row r="350" ht="44" customHeight="1" spans="1:17">
+    <row r="350" ht="45" customHeight="1" spans="1:17">
       <c r="A350" s="44"/>
       <c r="B350" s="37"/>
       <c r="C350" s="37"/>
@@ -11721,7 +11928,7 @@
       <c r="P350" s="42"/>
       <c r="Q350" s="40"/>
     </row>
-    <row r="351" ht="44" customHeight="1" spans="1:17">
+    <row r="351" ht="45" customHeight="1" spans="1:17">
       <c r="A351" s="44"/>
       <c r="B351" s="37"/>
       <c r="C351" s="37"/>
@@ -11740,7 +11947,7 @@
       <c r="P351" s="42"/>
       <c r="Q351" s="40"/>
     </row>
-    <row r="352" ht="44" customHeight="1" spans="1:17">
+    <row r="352" ht="10" customHeight="1" spans="1:17">
       <c r="A352" s="44"/>
       <c r="B352" s="37"/>
       <c r="C352" s="37"/>
@@ -11768,7 +11975,7 @@
       <c r="F353" s="39"/>
       <c r="G353" s="37"/>
       <c r="H353" s="40"/>
-      <c r="I353" s="26"/>
+      <c r="I353" s="40"/>
       <c r="J353" s="40"/>
       <c r="K353" s="40"/>
       <c r="L353" s="40"/>
@@ -11920,7 +12127,7 @@
       <c r="F361" s="39"/>
       <c r="G361" s="37"/>
       <c r="H361" s="40"/>
-      <c r="I361" s="40"/>
+      <c r="I361" s="26"/>
       <c r="J361" s="40"/>
       <c r="K361" s="40"/>
       <c r="L361" s="40"/>
@@ -12037,12 +12244,12 @@
       <c r="I367" s="40"/>
       <c r="J367" s="40"/>
       <c r="K367" s="40"/>
-      <c r="L367" s="26"/>
-      <c r="M367" s="26"/>
-      <c r="N367" s="26"/>
-      <c r="O367" s="26"/>
-      <c r="P367" s="26"/>
-      <c r="Q367" s="26"/>
+      <c r="L367" s="40"/>
+      <c r="M367" s="40"/>
+      <c r="N367" s="42"/>
+      <c r="O367" s="40"/>
+      <c r="P367" s="42"/>
+      <c r="Q367" s="40"/>
     </row>
     <row r="368" ht="44" customHeight="1" spans="1:17">
       <c r="A368" s="44"/>
@@ -12056,12 +12263,12 @@
       <c r="I368" s="40"/>
       <c r="J368" s="40"/>
       <c r="K368" s="40"/>
-      <c r="L368" s="26"/>
-      <c r="M368" s="26"/>
-      <c r="N368" s="26"/>
-      <c r="O368" s="26"/>
-      <c r="P368" s="26"/>
-      <c r="Q368" s="26"/>
+      <c r="L368" s="40"/>
+      <c r="M368" s="40"/>
+      <c r="N368" s="42"/>
+      <c r="O368" s="40"/>
+      <c r="P368" s="42"/>
+      <c r="Q368" s="40"/>
     </row>
     <row r="369" ht="44" customHeight="1" spans="1:17">
       <c r="A369" s="44"/>
@@ -12075,12 +12282,12 @@
       <c r="I369" s="40"/>
       <c r="J369" s="40"/>
       <c r="K369" s="40"/>
-      <c r="L369" s="26"/>
-      <c r="M369" s="26"/>
-      <c r="N369" s="26"/>
-      <c r="O369" s="26"/>
-      <c r="P369" s="26"/>
-      <c r="Q369" s="26"/>
+      <c r="L369" s="40"/>
+      <c r="M369" s="40"/>
+      <c r="N369" s="42"/>
+      <c r="O369" s="40"/>
+      <c r="P369" s="42"/>
+      <c r="Q369" s="40"/>
     </row>
     <row r="370" ht="44" customHeight="1" spans="1:17">
       <c r="A370" s="44"/>
@@ -12094,12 +12301,12 @@
       <c r="I370" s="40"/>
       <c r="J370" s="40"/>
       <c r="K370" s="40"/>
-      <c r="L370" s="26"/>
-      <c r="M370" s="26"/>
-      <c r="N370" s="26"/>
-      <c r="O370" s="26"/>
-      <c r="P370" s="26"/>
-      <c r="Q370" s="26"/>
+      <c r="L370" s="40"/>
+      <c r="M370" s="40"/>
+      <c r="N370" s="42"/>
+      <c r="O370" s="40"/>
+      <c r="P370" s="42"/>
+      <c r="Q370" s="40"/>
     </row>
     <row r="371" ht="44" customHeight="1" spans="1:17">
       <c r="A371" s="44"/>
@@ -12113,12 +12320,12 @@
       <c r="I371" s="40"/>
       <c r="J371" s="40"/>
       <c r="K371" s="40"/>
-      <c r="L371" s="26"/>
-      <c r="M371" s="26"/>
-      <c r="N371" s="26"/>
-      <c r="O371" s="26"/>
-      <c r="P371" s="26"/>
-      <c r="Q371" s="26"/>
+      <c r="L371" s="40"/>
+      <c r="M371" s="40"/>
+      <c r="N371" s="42"/>
+      <c r="O371" s="40"/>
+      <c r="P371" s="42"/>
+      <c r="Q371" s="40"/>
     </row>
     <row r="372" ht="44" customHeight="1" spans="1:17">
       <c r="A372" s="44"/>
@@ -12132,12 +12339,12 @@
       <c r="I372" s="40"/>
       <c r="J372" s="40"/>
       <c r="K372" s="40"/>
-      <c r="L372" s="26"/>
-      <c r="M372" s="26"/>
-      <c r="N372" s="26"/>
-      <c r="O372" s="26"/>
-      <c r="P372" s="26"/>
-      <c r="Q372" s="26"/>
+      <c r="L372" s="40"/>
+      <c r="M372" s="40"/>
+      <c r="N372" s="42"/>
+      <c r="O372" s="40"/>
+      <c r="P372" s="42"/>
+      <c r="Q372" s="40"/>
     </row>
     <row r="373" ht="44" customHeight="1" spans="1:17">
       <c r="A373" s="44"/>
@@ -12151,12 +12358,12 @@
       <c r="I373" s="40"/>
       <c r="J373" s="40"/>
       <c r="K373" s="40"/>
-      <c r="L373" s="26"/>
-      <c r="M373" s="26"/>
-      <c r="N373" s="26"/>
-      <c r="O373" s="26"/>
-      <c r="P373" s="26"/>
-      <c r="Q373" s="26"/>
+      <c r="L373" s="40"/>
+      <c r="M373" s="40"/>
+      <c r="N373" s="42"/>
+      <c r="O373" s="40"/>
+      <c r="P373" s="42"/>
+      <c r="Q373" s="40"/>
     </row>
     <row r="374" ht="44" customHeight="1" spans="1:17">
       <c r="A374" s="44"/>
@@ -12170,25 +12377,25 @@
       <c r="I374" s="40"/>
       <c r="J374" s="40"/>
       <c r="K374" s="40"/>
-      <c r="L374" s="26"/>
-      <c r="M374" s="26"/>
-      <c r="N374" s="26"/>
-      <c r="O374" s="26"/>
-      <c r="P374" s="26"/>
-      <c r="Q374" s="26"/>
-    </row>
-    <row r="375" spans="1:17">
-      <c r="A375" s="26"/>
-      <c r="B375" s="26"/>
-      <c r="C375" s="26"/>
-      <c r="D375" s="27"/>
-      <c r="E375" s="27"/>
-      <c r="F375" s="27"/>
-      <c r="G375" s="28"/>
-      <c r="H375" s="26"/>
-      <c r="I375" s="26"/>
-      <c r="J375" s="26"/>
-      <c r="K375" s="26"/>
+      <c r="L374" s="40"/>
+      <c r="M374" s="40"/>
+      <c r="N374" s="42"/>
+      <c r="O374" s="40"/>
+      <c r="P374" s="42"/>
+      <c r="Q374" s="40"/>
+    </row>
+    <row r="375" ht="44" customHeight="1" spans="1:17">
+      <c r="A375" s="44"/>
+      <c r="B375" s="37"/>
+      <c r="C375" s="37"/>
+      <c r="D375" s="38"/>
+      <c r="E375" s="38"/>
+      <c r="F375" s="39"/>
+      <c r="G375" s="37"/>
+      <c r="H375" s="40"/>
+      <c r="I375" s="40"/>
+      <c r="J375" s="40"/>
+      <c r="K375" s="40"/>
       <c r="L375" s="26"/>
       <c r="M375" s="26"/>
       <c r="N375" s="26"/>
@@ -12196,18 +12403,18 @@
       <c r="P375" s="26"/>
       <c r="Q375" s="26"/>
     </row>
-    <row r="376" spans="1:17">
-      <c r="A376" s="26"/>
-      <c r="B376" s="26"/>
-      <c r="C376" s="26"/>
-      <c r="D376" s="27"/>
-      <c r="E376" s="27"/>
-      <c r="F376" s="27"/>
-      <c r="G376" s="28"/>
-      <c r="H376" s="26"/>
-      <c r="I376" s="26"/>
-      <c r="J376" s="26"/>
-      <c r="K376" s="26"/>
+    <row r="376" ht="44" customHeight="1" spans="1:17">
+      <c r="A376" s="44"/>
+      <c r="B376" s="37"/>
+      <c r="C376" s="37"/>
+      <c r="D376" s="38"/>
+      <c r="E376" s="38"/>
+      <c r="F376" s="39"/>
+      <c r="G376" s="37"/>
+      <c r="H376" s="40"/>
+      <c r="I376" s="40"/>
+      <c r="J376" s="40"/>
+      <c r="K376" s="40"/>
       <c r="L376" s="26"/>
       <c r="M376" s="26"/>
       <c r="N376" s="26"/>
@@ -12215,18 +12422,18 @@
       <c r="P376" s="26"/>
       <c r="Q376" s="26"/>
     </row>
-    <row r="377" spans="1:17">
-      <c r="A377" s="26"/>
-      <c r="B377" s="26"/>
-      <c r="C377" s="26"/>
-      <c r="D377" s="27"/>
-      <c r="E377" s="27"/>
-      <c r="F377" s="27"/>
-      <c r="G377" s="28"/>
-      <c r="H377" s="26"/>
-      <c r="I377" s="26"/>
-      <c r="J377" s="26"/>
-      <c r="K377" s="26"/>
+    <row r="377" ht="44" customHeight="1" spans="1:17">
+      <c r="A377" s="44"/>
+      <c r="B377" s="37"/>
+      <c r="C377" s="37"/>
+      <c r="D377" s="38"/>
+      <c r="E377" s="38"/>
+      <c r="F377" s="39"/>
+      <c r="G377" s="37"/>
+      <c r="H377" s="40"/>
+      <c r="I377" s="40"/>
+      <c r="J377" s="40"/>
+      <c r="K377" s="40"/>
       <c r="L377" s="26"/>
       <c r="M377" s="26"/>
       <c r="N377" s="26"/>
@@ -12234,18 +12441,18 @@
       <c r="P377" s="26"/>
       <c r="Q377" s="26"/>
     </row>
-    <row r="378" spans="1:17">
-      <c r="A378" s="26"/>
-      <c r="B378" s="26"/>
-      <c r="C378" s="26"/>
-      <c r="D378" s="27"/>
-      <c r="E378" s="27"/>
-      <c r="F378" s="27"/>
-      <c r="G378" s="28"/>
-      <c r="H378" s="26"/>
-      <c r="I378" s="26"/>
-      <c r="J378" s="26"/>
-      <c r="K378" s="26"/>
+    <row r="378" ht="44" customHeight="1" spans="1:17">
+      <c r="A378" s="44"/>
+      <c r="B378" s="37"/>
+      <c r="C378" s="37"/>
+      <c r="D378" s="38"/>
+      <c r="E378" s="38"/>
+      <c r="F378" s="39"/>
+      <c r="G378" s="37"/>
+      <c r="H378" s="40"/>
+      <c r="I378" s="40"/>
+      <c r="J378" s="40"/>
+      <c r="K378" s="40"/>
       <c r="L378" s="26"/>
       <c r="M378" s="26"/>
       <c r="N378" s="26"/>
@@ -12253,18 +12460,18 @@
       <c r="P378" s="26"/>
       <c r="Q378" s="26"/>
     </row>
-    <row r="379" spans="1:17">
-      <c r="A379" s="26"/>
-      <c r="B379" s="26"/>
-      <c r="C379" s="26"/>
-      <c r="D379" s="27"/>
-      <c r="E379" s="27"/>
-      <c r="F379" s="27"/>
-      <c r="G379" s="28"/>
-      <c r="H379" s="26"/>
-      <c r="I379" s="26"/>
-      <c r="J379" s="26"/>
-      <c r="K379" s="26"/>
+    <row r="379" ht="44" customHeight="1" spans="1:17">
+      <c r="A379" s="44"/>
+      <c r="B379" s="37"/>
+      <c r="C379" s="37"/>
+      <c r="D379" s="38"/>
+      <c r="E379" s="38"/>
+      <c r="F379" s="39"/>
+      <c r="G379" s="37"/>
+      <c r="H379" s="40"/>
+      <c r="I379" s="40"/>
+      <c r="J379" s="40"/>
+      <c r="K379" s="40"/>
       <c r="L379" s="26"/>
       <c r="M379" s="26"/>
       <c r="N379" s="26"/>
@@ -12272,18 +12479,18 @@
       <c r="P379" s="26"/>
       <c r="Q379" s="26"/>
     </row>
-    <row r="380" spans="1:17">
-      <c r="A380" s="26"/>
-      <c r="B380" s="26"/>
-      <c r="C380" s="26"/>
-      <c r="D380" s="27"/>
-      <c r="E380" s="27"/>
-      <c r="F380" s="27"/>
-      <c r="G380" s="28"/>
-      <c r="H380" s="26"/>
-      <c r="I380" s="26"/>
-      <c r="J380" s="26"/>
-      <c r="K380" s="26"/>
+    <row r="380" ht="44" customHeight="1" spans="1:17">
+      <c r="A380" s="44"/>
+      <c r="B380" s="37"/>
+      <c r="C380" s="37"/>
+      <c r="D380" s="38"/>
+      <c r="E380" s="38"/>
+      <c r="F380" s="39"/>
+      <c r="G380" s="37"/>
+      <c r="H380" s="40"/>
+      <c r="I380" s="40"/>
+      <c r="J380" s="40"/>
+      <c r="K380" s="40"/>
       <c r="L380" s="26"/>
       <c r="M380" s="26"/>
       <c r="N380" s="26"/>
@@ -12291,18 +12498,18 @@
       <c r="P380" s="26"/>
       <c r="Q380" s="26"/>
     </row>
-    <row r="381" spans="1:17">
-      <c r="A381" s="26"/>
-      <c r="B381" s="26"/>
-      <c r="C381" s="26"/>
-      <c r="D381" s="27"/>
-      <c r="E381" s="27"/>
-      <c r="F381" s="27"/>
-      <c r="G381" s="28"/>
-      <c r="H381" s="26"/>
-      <c r="I381" s="26"/>
-      <c r="J381" s="26"/>
-      <c r="K381" s="26"/>
+    <row r="381" ht="44" customHeight="1" spans="1:17">
+      <c r="A381" s="44"/>
+      <c r="B381" s="37"/>
+      <c r="C381" s="37"/>
+      <c r="D381" s="38"/>
+      <c r="E381" s="38"/>
+      <c r="F381" s="39"/>
+      <c r="G381" s="37"/>
+      <c r="H381" s="40"/>
+      <c r="I381" s="40"/>
+      <c r="J381" s="40"/>
+      <c r="K381" s="40"/>
       <c r="L381" s="26"/>
       <c r="M381" s="26"/>
       <c r="N381" s="26"/>
@@ -12310,18 +12517,18 @@
       <c r="P381" s="26"/>
       <c r="Q381" s="26"/>
     </row>
-    <row r="382" spans="1:17">
-      <c r="A382" s="26"/>
-      <c r="B382" s="26"/>
-      <c r="C382" s="26"/>
-      <c r="D382" s="27"/>
-      <c r="E382" s="27"/>
-      <c r="F382" s="27"/>
-      <c r="G382" s="28"/>
-      <c r="H382" s="26"/>
-      <c r="I382" s="26"/>
-      <c r="J382" s="26"/>
-      <c r="K382" s="26"/>
+    <row r="382" ht="44" customHeight="1" spans="1:17">
+      <c r="A382" s="44"/>
+      <c r="B382" s="37"/>
+      <c r="C382" s="37"/>
+      <c r="D382" s="38"/>
+      <c r="E382" s="38"/>
+      <c r="F382" s="39"/>
+      <c r="G382" s="37"/>
+      <c r="H382" s="40"/>
+      <c r="I382" s="40"/>
+      <c r="J382" s="40"/>
+      <c r="K382" s="40"/>
       <c r="L382" s="26"/>
       <c r="M382" s="26"/>
       <c r="N382" s="26"/>
@@ -15217,37 +15424,157 @@
       <c r="P534" s="26"/>
       <c r="Q534" s="26"/>
     </row>
-    <row r="535" spans="5:6">
-      <c r="E535" s="23"/>
-      <c r="F535" s="23"/>
-    </row>
-    <row r="536" spans="5:6">
-      <c r="E536" s="23"/>
-      <c r="F536" s="23"/>
-    </row>
-    <row r="537" spans="5:6">
-      <c r="E537" s="23"/>
-      <c r="F537" s="23"/>
-    </row>
-    <row r="538" spans="5:6">
-      <c r="E538" s="23"/>
-      <c r="F538" s="23"/>
-    </row>
-    <row r="539" spans="5:6">
-      <c r="E539" s="23"/>
-      <c r="F539" s="23"/>
-    </row>
-    <row r="540" spans="5:6">
-      <c r="E540" s="23"/>
-      <c r="F540" s="23"/>
-    </row>
-    <row r="541" spans="5:6">
-      <c r="E541" s="23"/>
-      <c r="F541" s="23"/>
-    </row>
-    <row r="542" spans="5:6">
-      <c r="E542" s="23"/>
-      <c r="F542" s="23"/>
+    <row r="535" spans="1:17">
+      <c r="A535" s="26"/>
+      <c r="B535" s="26"/>
+      <c r="C535" s="26"/>
+      <c r="D535" s="27"/>
+      <c r="E535" s="27"/>
+      <c r="F535" s="27"/>
+      <c r="G535" s="28"/>
+      <c r="H535" s="26"/>
+      <c r="I535" s="26"/>
+      <c r="J535" s="26"/>
+      <c r="K535" s="26"/>
+      <c r="L535" s="26"/>
+      <c r="M535" s="26"/>
+      <c r="N535" s="26"/>
+      <c r="O535" s="26"/>
+      <c r="P535" s="26"/>
+      <c r="Q535" s="26"/>
+    </row>
+    <row r="536" spans="1:17">
+      <c r="A536" s="26"/>
+      <c r="B536" s="26"/>
+      <c r="C536" s="26"/>
+      <c r="D536" s="27"/>
+      <c r="E536" s="27"/>
+      <c r="F536" s="27"/>
+      <c r="G536" s="28"/>
+      <c r="H536" s="26"/>
+      <c r="I536" s="26"/>
+      <c r="J536" s="26"/>
+      <c r="K536" s="26"/>
+      <c r="L536" s="26"/>
+      <c r="M536" s="26"/>
+      <c r="N536" s="26"/>
+      <c r="O536" s="26"/>
+      <c r="P536" s="26"/>
+      <c r="Q536" s="26"/>
+    </row>
+    <row r="537" spans="1:17">
+      <c r="A537" s="26"/>
+      <c r="B537" s="26"/>
+      <c r="C537" s="26"/>
+      <c r="D537" s="27"/>
+      <c r="E537" s="27"/>
+      <c r="F537" s="27"/>
+      <c r="G537" s="28"/>
+      <c r="H537" s="26"/>
+      <c r="I537" s="26"/>
+      <c r="J537" s="26"/>
+      <c r="K537" s="26"/>
+      <c r="L537" s="26"/>
+      <c r="M537" s="26"/>
+      <c r="N537" s="26"/>
+      <c r="O537" s="26"/>
+      <c r="P537" s="26"/>
+      <c r="Q537" s="26"/>
+    </row>
+    <row r="538" spans="1:17">
+      <c r="A538" s="26"/>
+      <c r="B538" s="26"/>
+      <c r="C538" s="26"/>
+      <c r="D538" s="27"/>
+      <c r="E538" s="27"/>
+      <c r="F538" s="27"/>
+      <c r="G538" s="28"/>
+      <c r="H538" s="26"/>
+      <c r="I538" s="26"/>
+      <c r="J538" s="26"/>
+      <c r="K538" s="26"/>
+      <c r="L538" s="26"/>
+      <c r="M538" s="26"/>
+      <c r="N538" s="26"/>
+      <c r="O538" s="26"/>
+      <c r="P538" s="26"/>
+      <c r="Q538" s="26"/>
+    </row>
+    <row r="539" spans="1:17">
+      <c r="A539" s="26"/>
+      <c r="B539" s="26"/>
+      <c r="C539" s="26"/>
+      <c r="D539" s="27"/>
+      <c r="E539" s="27"/>
+      <c r="F539" s="27"/>
+      <c r="G539" s="28"/>
+      <c r="H539" s="26"/>
+      <c r="I539" s="26"/>
+      <c r="J539" s="26"/>
+      <c r="K539" s="26"/>
+      <c r="L539" s="26"/>
+      <c r="M539" s="26"/>
+      <c r="N539" s="26"/>
+      <c r="O539" s="26"/>
+      <c r="P539" s="26"/>
+      <c r="Q539" s="26"/>
+    </row>
+    <row r="540" spans="1:17">
+      <c r="A540" s="26"/>
+      <c r="B540" s="26"/>
+      <c r="C540" s="26"/>
+      <c r="D540" s="27"/>
+      <c r="E540" s="27"/>
+      <c r="F540" s="27"/>
+      <c r="G540" s="28"/>
+      <c r="H540" s="26"/>
+      <c r="I540" s="26"/>
+      <c r="J540" s="26"/>
+      <c r="K540" s="26"/>
+      <c r="L540" s="26"/>
+      <c r="M540" s="26"/>
+      <c r="N540" s="26"/>
+      <c r="O540" s="26"/>
+      <c r="P540" s="26"/>
+      <c r="Q540" s="26"/>
+    </row>
+    <row r="541" spans="1:17">
+      <c r="A541" s="26"/>
+      <c r="B541" s="26"/>
+      <c r="C541" s="26"/>
+      <c r="D541" s="27"/>
+      <c r="E541" s="27"/>
+      <c r="F541" s="27"/>
+      <c r="G541" s="28"/>
+      <c r="H541" s="26"/>
+      <c r="I541" s="26"/>
+      <c r="J541" s="26"/>
+      <c r="K541" s="26"/>
+      <c r="L541" s="26"/>
+      <c r="M541" s="26"/>
+      <c r="N541" s="26"/>
+      <c r="O541" s="26"/>
+      <c r="P541" s="26"/>
+      <c r="Q541" s="26"/>
+    </row>
+    <row r="542" spans="1:17">
+      <c r="A542" s="26"/>
+      <c r="B542" s="26"/>
+      <c r="C542" s="26"/>
+      <c r="D542" s="27"/>
+      <c r="E542" s="27"/>
+      <c r="F542" s="27"/>
+      <c r="G542" s="28"/>
+      <c r="H542" s="26"/>
+      <c r="I542" s="26"/>
+      <c r="J542" s="26"/>
+      <c r="K542" s="26"/>
+      <c r="L542" s="26"/>
+      <c r="M542" s="26"/>
+      <c r="N542" s="26"/>
+      <c r="O542" s="26"/>
+      <c r="P542" s="26"/>
+      <c r="Q542" s="26"/>
     </row>
     <row r="543" spans="5:6">
       <c r="E543" s="23"/>
@@ -16805,8 +17132,40 @@
       <c r="E931" s="23"/>
       <c r="F931" s="23"/>
     </row>
+    <row r="932" spans="5:6">
+      <c r="E932" s="23"/>
+      <c r="F932" s="23"/>
+    </row>
+    <row r="933" spans="5:6">
+      <c r="E933" s="23"/>
+      <c r="F933" s="23"/>
+    </row>
+    <row r="934" spans="5:6">
+      <c r="E934" s="23"/>
+      <c r="F934" s="23"/>
+    </row>
+    <row r="935" spans="5:6">
+      <c r="E935" s="23"/>
+      <c r="F935" s="23"/>
+    </row>
+    <row r="936" spans="5:6">
+      <c r="E936" s="23"/>
+      <c r="F936" s="23"/>
+    </row>
+    <row r="937" spans="5:6">
+      <c r="E937" s="23"/>
+      <c r="F937" s="23"/>
+    </row>
+    <row r="938" spans="5:6">
+      <c r="E938" s="23"/>
+      <c r="F938" s="23"/>
+    </row>
+    <row r="939" spans="5:6">
+      <c r="E939" s="23"/>
+      <c r="F939" s="23"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:R204">
+  <autoFilter ref="A4:R212">
     <extLst/>
   </autoFilter>
   <mergeCells count="7">
@@ -16818,60 +17177,60 @@
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="L3:Q3"/>
   </mergeCells>
-  <conditionalFormatting sqref="N304">
+  <conditionalFormatting sqref="N312">
     <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N143">
+  <conditionalFormatting sqref="N5:N151">
     <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N144:N149">
+  <conditionalFormatting sqref="N152:N157">
     <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N169:N173">
+  <conditionalFormatting sqref="N177:N181">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N183:N189">
+  <conditionalFormatting sqref="N191:N197">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N288:N291">
+  <conditionalFormatting sqref="N296:N299">
     <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N4 N367:N1048576">
+  <conditionalFormatting sqref="N1:N4 N375:N1048576">
     <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N174:N180 N150:N168 N251:N287">
+  <conditionalFormatting sqref="N182:N188 N259:N295 N158:N176">
     <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N181:N182 N190:N250 N305:N366 N292:N303">
+  <conditionalFormatting sqref="N189:N190 N300:N311 N313:N374 N198:N258">
     <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="N5 N6 N7 N8 N9 N10 N11 N12 N13 N14 N15 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N86 N87 N88 N89 N90 N91 N92 N93 N94 N95 N96 N97 N98 N99 N100 N107 N108 N109 N110 N111 N135 N199 N235 N248 N288 N291 N307 N308 N309 N316 N317 N323 N328 N329 N330 N331 N332 N333 N334 N335 N345 N349 N350 N351 N366 N83:N85 N101:N106 N112:N117 N118:N131 N132:N134 N136:N149 N150:N198 N200:N234 N236:N240 N241:N247 N249:N251 N252:N262 N263:N271 N272:N281 N282:N287 N289:N290 N292:N306 N310:N313 N314:N315 N318:N322 N324:N327 N336:N337 N338:N344 N346:N348 N352:N353 N354:N359 N360:N365">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="N5 N6 N7 N8 N9 N10 N11 N12 N13 N14 N15 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N84 N85 N86 N87 N88 N89 N90 N94 N95 N96 N97 N98 N99 N100 N101 N102 N103 N104 N105 N106 N107 N108 N115 N116 N117 N118 N119 N143 N207 N243 N256 N296 N299 N315 N316 N317 N324 N325 N331 N336 N337 N338 N339 N340 N341 N342 N343 N353 N357 N358 N359 N374 N91:N93 N109:N114 N120:N125 N126:N139 N140:N142 N144:N157 N158:N206 N208:N242 N244:N248 N249:N255 N257:N259 N260:N270 N271:N279 N280:N289 N290:N295 N297:N298 N300:N314 N318:N321 N322:N323 N326:N330 N332:N335 N344:N345 N346:N352 N354:N356 N360:N361 N362:N367 N368:N373">
       <formula1>"未测试,通过,不通过,不适用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D9 D16 D20 D21 D29 D30 D31 D34 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D61 D62 D63 D64 D65 D66 D70 D71 D72 D73 D74 D75 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D160 D161 D162 D163 D164 D165 D166 D167 D168 D169 D170 D171 D172 D173 D174 D175 D176 D177 D178 D179 D180 D181 D182 D183 D184 D185 D186 D187 D188 D189 D190 D191 D192 D193 D194 D195 D196 D197 D198 D199 D200 D201 D202 D203 D204 D235 D241 D242 D243 D244 D245 D246 D247 D248 D288 D291 D307 D308 D328 D329 D330 D331 D332 D333 D334 D335 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D354 D355 D356 D357 D358 D359 D360 D361 D362 D363 D364 D365 D369 D370 D371 D372 D373 D374 D5:D6 D7:D8 D10:D15 D17:D19 D22:D23 D24:D28 D32:D33 D35:D39 D52:D54 D55:D57 D58:D60 D67:D69 D76:D81 D82:D84 D85:D89 D90:D96 D97:D100 D112:D115 D205:D234 D236:D240 D249:D251 D252:D280 D281:D287 D289:D290 D292:D306 D309:D312 D313:D323 D324:D327 D336:D337 D352:D353 D366:D368">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C9 C16 C19 C20 C21 C29 C32 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C61 C62 C63 C64 C65 C66 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C109 C110 C114 C115 C116 C117 C118 C119 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C161 C162 C163 C164 C165 C166 C167 C168 C169 C170 C171 C172 C173 C174 C175 C176 C177 C178 C179 C180 C181 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C192 C193 C194 C195 C196 C197 C198 C199 C200 C201 C202 C203 C204 C205 C206 C207 C208 C209 C210 C211 C212 C243 C249 C250 C251 C252 C253 C254 C255 C256 C296 C299 C315 C316 C336 C337 C338 C339 C340 C341 C342 C343 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C376 C377 C378 C379 C380 C381 C382 C5:C6 C7:C8 C10:C15 C17:C18 C22:C23 C24:C28 C30:C31 C33:C39 C50:C58 C59:C60 C67:C69 C86:C89 C90:C92 C93:C97 C98:C104 C105:C108 C111:C113 C120:C124 C213:C242 C244:C248 C257:C259 C260:C288 C289:C295 C297:C298 C300:C314 C317:C320 C321:C331 C332:C335 C344:C345 C360:C361 C374:C375">
+      <formula1>"正常类测试,异常类测试,边界值测试,上线、回切测试,兼容性测试,UI测试,用户体验测试,性能测试,其它测试"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D9 D16 D20 D21 D29 D30 D31 D34 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D61 D62 D63 D64 D65 D66 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D160 D161 D162 D163 D164 D165 D166 D167 D168 D169 D170 D171 D172 D173 D174 D175 D176 D177 D178 D179 D180 D181 D182 D183 D184 D185 D186 D187 D188 D189 D190 D191 D192 D193 D194 D195 D196 D197 D198 D199 D200 D201 D202 D203 D204 D205 D206 D207 D208 D209 D210 D211 D212 D243 D249 D250 D251 D252 D253 D254 D255 D256 D296 D299 D315 D316 D336 D337 D338 D339 D340 D341 D342 D343 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D359 D362 D363 D364 D365 D366 D367 D368 D369 D370 D371 D372 D373 D377 D378 D379 D380 D381 D382 D5:D6 D7:D8 D10:D15 D17:D19 D22:D23 D24:D28 D32:D33 D35:D39 D52:D54 D55:D57 D58:D60 D67:D69 D86:D89 D90:D92 D93:D97 D98:D104 D105:D108 D120:D123 D213:D242 D244:D248 D257:D259 D260:D288 D289:D295 D297:D298 D300:D314 D317:D320 D321:D331 D332:D335 D344:D345 D360:D361 D374:D376">
       <formula1>"高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C9 C16 C19 C20 C21 C29 C32 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C61 C62 C63 C64 C65 C66 C70 C71 C72 C73 C74 C75 C101 C102 C106 C107 C108 C109 C110 C111 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C161 C162 C163 C164 C165 C166 C167 C168 C169 C170 C171 C172 C173 C174 C175 C176 C177 C178 C179 C180 C181 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C192 C193 C194 C195 C196 C197 C198 C199 C200 C201 C202 C203 C204 C235 C241 C242 C243 C244 C245 C246 C247 C248 C288 C291 C307 C308 C328 C329 C330 C331 C332 C333 C334 C335 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C368 C369 C370 C371 C372 C373 C374 C5:C6 C7:C8 C10:C15 C17:C18 C22:C23 C24:C28 C30:C31 C33:C39 C50:C58 C59:C60 C67:C69 C76:C81 C82:C84 C85:C89 C90:C96 C97:C100 C103:C105 C112:C116 C205:C234 C236:C240 C249:C251 C252:C280 C281:C287 C289:C290 C292:C306 C309:C312 C313:C323 C324:C327 C336:C337 C352:C353 C366:C367">
-      <formula1>"正常类测试,异常类测试,边界值测试,上线、回切测试,兼容性测试,UI测试,用户体验测试,性能测试,其它测试"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16904,7 +17263,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -16932,13 +17291,13 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:26">
       <c r="A2" s="16" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -16968,10 +17327,10 @@
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:26">
       <c r="A3" s="18" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -17000,10 +17359,10 @@
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:26">
       <c r="A4" s="19" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -17032,10 +17391,10 @@
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:26">
       <c r="A5" s="20" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -21192,7 +21551,7 @@
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21222,16 +21581,16 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:26">
       <c r="A2" s="5" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -22154,7 +22513,7 @@
     </row>
     <row r="35" ht="31.5" customHeight="1" spans="1:26">
       <c r="A35" s="1" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
